--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Firm" sheetId="1" r:id="rId1"/>
     <sheet name="Contact" sheetId="2" r:id="rId2"/>
     <sheet name="Deal" sheetId="3" r:id="rId3"/>
-    <sheet name="Fund" sheetId="4" r:id="rId4"/>
+    <sheet name="Activity Timeline" sheetId="5" r:id="rId4"/>
+    <sheet name="Acuity" sheetId="6" r:id="rId5"/>
+    <sheet name="Fund" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -30,9 +32,6 @@
     <t>Legal_Name</t>
   </si>
   <si>
-    <t>Module 9</t>
-  </si>
-  <si>
     <t>Record_Type</t>
   </si>
   <si>
@@ -103,6 +102,174 @@
   </si>
   <si>
     <t>Contact_EmailId</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Advance_Due_Date</t>
+  </si>
+  <si>
+    <t>Int Task</t>
+  </si>
+  <si>
+    <t>AT_001</t>
+  </si>
+  <si>
+    <t>Related_To</t>
+  </si>
+  <si>
+    <t>Suggested_Tag</t>
+  </si>
+  <si>
+    <t>Int Fund 01&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>For verification of task fund</t>
+  </si>
+  <si>
+    <t>Int Contact2&lt;break&gt;Int Institution&lt;break&gt;Int Deal 01&lt;break&gt;Int Contact3</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Deals</t>
+  </si>
+  <si>
+    <t>Companies_Count</t>
+  </si>
+  <si>
+    <t>People_Count</t>
+  </si>
+  <si>
+    <t>Deals_Count</t>
+  </si>
+  <si>
+    <t>Int Institution&lt;break&gt;Int Intermediary</t>
+  </si>
+  <si>
+    <t>Int Contact3</t>
+  </si>
+  <si>
+    <t>Int Deal 01</t>
+  </si>
+  <si>
+    <t>Tagged_001</t>
+  </si>
+  <si>
+    <t>Acuity Smoke Record</t>
+  </si>
+  <si>
+    <t>ASRecord2</t>
+  </si>
+  <si>
+    <t>AS_Contact2</t>
+  </si>
+  <si>
+    <t>Int Contact2</t>
+  </si>
+  <si>
+    <t>Int Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagged </t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Con_001</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Meetings_And_Calls</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>Int Event</t>
+  </si>
+  <si>
+    <t>Int Contact2&lt;break&gt;Int Institution&lt;break&gt;Int Deal 01&lt;break&gt;Int Fund 01&lt;break&gt;Int Contact1</t>
+  </si>
+  <si>
+    <t>Advance_Start_Date</t>
+  </si>
+  <si>
+    <t>Advance_End_Date</t>
+  </si>
+  <si>
+    <t>Int Intermediary</t>
+  </si>
+  <si>
+    <t>New Event</t>
+  </si>
+  <si>
+    <t>New Task</t>
+  </si>
+  <si>
+    <t>AT_002</t>
+  </si>
+  <si>
+    <t>Action_Type</t>
+  </si>
+  <si>
+    <t>ASRecord3</t>
+  </si>
+  <si>
+    <t>For verification of Meeting Firm Intermediary</t>
+  </si>
+  <si>
+    <t>Tagged_002</t>
+  </si>
+  <si>
+    <t>AS_Contact3</t>
+  </si>
+  <si>
+    <t>ASRecord4</t>
+  </si>
+  <si>
+    <t>Con_002</t>
+  </si>
+  <si>
+    <t>AT_003</t>
+  </si>
+  <si>
+    <t>Log a Call</t>
+  </si>
+  <si>
+    <t>Int Call</t>
+  </si>
+  <si>
+    <t>For verification of Activity</t>
+  </si>
+  <si>
+    <t>ASRecord5</t>
+  </si>
+  <si>
+    <t>Tagged_003</t>
+  </si>
+  <si>
+    <t>AS_Contact4</t>
+  </si>
+  <si>
+    <t>ASRecord6</t>
+  </si>
+  <si>
+    <t>Con_003</t>
   </si>
 </sst>
 </file>
@@ -175,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,6 +354,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" activeCellId="2" sqref="A1 B1 B2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,25 +677,65 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,47 +760,75 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="117" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="117" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -585,9 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -602,27 +853,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -631,6 +882,310 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f ca="1">TEXT(TODAY()-5,"mm/dd/yyyy")</f>
+        <v>10/06/2022</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="str">
+        <f ca="1">TEXT(TODAY()+15,"mm/dd/yyyy")</f>
+        <v>10/26/2022</v>
+      </c>
+      <c r="I3" t="str">
+        <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
+        <v>11/05/2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f ca="1">TEXT(TODAY()-5,"mm/dd/yyyy")</f>
+        <v>10/06/2022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -652,27 +1207,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A28622-9A62-41E2-B3D3-6E0BD8160387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Firm" sheetId="1" r:id="rId1"/>
     <sheet name="Contact" sheetId="2" r:id="rId2"/>
     <sheet name="Deal" sheetId="3" r:id="rId3"/>
-    <sheet name="Activity Timeline" sheetId="5" r:id="rId4"/>
-    <sheet name="Acuity" sheetId="6" r:id="rId5"/>
-    <sheet name="Fund" sheetId="4" r:id="rId6"/>
+    <sheet name="Deal Team" sheetId="7" r:id="rId4"/>
+    <sheet name="Activity Timeline" sheetId="5" r:id="rId5"/>
+    <sheet name="Acuity" sheetId="6" r:id="rId6"/>
+    <sheet name="Reports" sheetId="8" r:id="rId7"/>
+    <sheet name="Fund" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="148">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -125,15 +136,9 @@
     <t>Suggested_Tag</t>
   </si>
   <si>
-    <t>Int Fund 01&lt;break&gt;</t>
-  </si>
-  <si>
     <t>For verification of task fund</t>
   </si>
   <si>
-    <t>Int Contact2&lt;break&gt;Int Institution&lt;break&gt;Int Deal 01&lt;break&gt;Int Contact3</t>
-  </si>
-  <si>
     <t>People</t>
   </si>
   <si>
@@ -203,9 +208,6 @@
     <t>Int Event</t>
   </si>
   <si>
-    <t>Int Contact2&lt;break&gt;Int Institution&lt;break&gt;Int Deal 01&lt;break&gt;Int Fund 01&lt;break&gt;Int Contact1</t>
-  </si>
-  <si>
     <t>Advance_Start_Date</t>
   </si>
   <si>
@@ -270,13 +272,220 @@
   </si>
   <si>
     <t>Con_003</t>
+  </si>
+  <si>
+    <t>AT_004</t>
+  </si>
+  <si>
+    <t>Edit Intermediary 02</t>
+  </si>
+  <si>
+    <t>For verification of Task after Edit</t>
+  </si>
+  <si>
+    <t>AT_005</t>
+  </si>
+  <si>
+    <t>View All Task 1</t>
+  </si>
+  <si>
+    <t>For verification of View All link</t>
+  </si>
+  <si>
+    <t>AT_006</t>
+  </si>
+  <si>
+    <t>ASRecord7</t>
+  </si>
+  <si>
+    <t>AT_007</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>+10</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>For verification of Call after Edit</t>
+  </si>
+  <si>
+    <t>View All Task 2</t>
+  </si>
+  <si>
+    <t>AT_008</t>
+  </si>
+  <si>
+    <t>AT_009</t>
+  </si>
+  <si>
+    <t>View All Task 1&lt;break&gt;View All Call 1&lt;break&gt;View All Task 2&lt;break&gt;Int Call&lt;break&gt;Int Task</t>
+  </si>
+  <si>
+    <t>ASRecord8</t>
+  </si>
+  <si>
+    <t>Int Institution</t>
+  </si>
+  <si>
+    <t>ASRecord9</t>
+  </si>
+  <si>
+    <t>Tagged_004</t>
+  </si>
+  <si>
+    <t>Int Contact1</t>
+  </si>
+  <si>
+    <t>AT_010</t>
+  </si>
+  <si>
+    <t>Int Call&lt;break&gt;Int Task</t>
+  </si>
+  <si>
+    <t>CS Company</t>
+  </si>
+  <si>
+    <t>ASRecord10</t>
+  </si>
+  <si>
+    <t>CS&lt;break&gt;CS</t>
+  </si>
+  <si>
+    <t>Contact1&lt;break&gt;Contact2</t>
+  </si>
+  <si>
+    <t>CS Company&lt;break&gt;CS ITM</t>
+  </si>
+  <si>
+    <t>1investorportal+CSContact1@gmail.com&lt;break&gt;1investorportal+CSContact2@gmail.com</t>
+  </si>
+  <si>
+    <t>CTO&lt;break&gt;Dev</t>
+  </si>
+  <si>
+    <t>AS_Contact5</t>
+  </si>
+  <si>
+    <t>CS Deal 01</t>
+  </si>
+  <si>
+    <t>NDA Signed</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>DT_001</t>
+  </si>
+  <si>
+    <t>CS Contact1</t>
+  </si>
+  <si>
+    <t>PE Admin</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>AT_011</t>
+  </si>
+  <si>
+    <t>CS Call</t>
+  </si>
+  <si>
+    <t>CS Call 2</t>
+  </si>
+  <si>
+    <t>AT_012</t>
+  </si>
+  <si>
+    <t>For Verification of Contacts Grid</t>
+  </si>
+  <si>
+    <t>Assigned_To</t>
+  </si>
+  <si>
+    <t>CRM User</t>
+  </si>
+  <si>
+    <t>Company&lt;break&gt;Intermediary</t>
+  </si>
+  <si>
+    <t>AS_Deal2</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>ASRecord11</t>
+  </si>
+  <si>
+    <t>Con_004</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>AS_Contact6</t>
+  </si>
+  <si>
+    <t>ASRecord12</t>
+  </si>
+  <si>
+    <t>Company 1&lt;break&gt;Intermediary 1&lt;break&gt;Institution 1</t>
+  </si>
+  <si>
+    <t>Report_Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>R_001</t>
+  </si>
+  <si>
+    <t>Contact with Activities&lt;break&gt;Activities with Firms-SW&lt;break&gt;Fundraisings with Legal Name -SW</t>
+  </si>
+  <si>
+    <t>Shows the details of Activities Touchpoint corresponding to the Contact- System Wide&lt;break&gt;Shows the details of Activities corresponding to the Firm- System Wide&lt;break&gt;Shows the details of Fundraising corresponding to the Firm- System Wide</t>
+  </si>
+  <si>
+    <t>10/20/2022</t>
+  </si>
+  <si>
+    <t>Int Company&lt;Prefilled&gt;&lt;break&gt;Int Contact2&lt;break&gt;Int Institution&lt;break&gt;Int Deal 01&lt;break&gt;Int Contact3</t>
+  </si>
+  <si>
+    <t>Int Company&lt;Prefilled&gt;&lt;break&gt;Int Contact2&lt;break&gt;Int Institution&lt;break&gt;Int Deal 01&lt;break&gt;Int Fund 01&lt;break&gt;Int Contact1</t>
+  </si>
+  <si>
+    <t>Int Company&lt;Prefilled&gt;&lt;break&gt;Int Intermediary&lt;break&gt;Int Institution&lt;break&gt;Int Contact1&lt;break&gt;Int Contact3</t>
+  </si>
+  <si>
+    <t>10/21/2022</t>
+  </si>
+  <si>
+    <t>11/10/2022</t>
+  </si>
+  <si>
+    <t>AS_Contact7</t>
+  </si>
+  <si>
+    <t>View All Call 1</t>
+  </si>
+  <si>
+    <t>CS Contact1&lt;Prefilled&gt;&lt;break&gt;CS Company&lt;break&gt;CS ITM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +517,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -329,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -337,12 +552,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,6 +617,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,18 +916,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="58.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -681,11 +942,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -700,72 +961,124 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="117" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="117" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -776,7 +1089,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -784,8 +1097,11 @@
       <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -802,50 +1118,90 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{0F7A85EA-17C3-430A-A99E-090F70355B23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -874,6 +1230,20 @@
       </c>
       <c r="D2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -882,33 +1252,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32909671-21F3-47D8-B15D-836384415519}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="78" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>26</v>
@@ -919,119 +1347,270 @@
       <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="7" t="str">
-        <f ca="1">TEXT(TODAY()-5,"mm/dd/yyyy")</f>
-        <v>10/06/2022</v>
+        <v>140</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
       <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <f ca="1">TEXT(TODAY()+15,"mm/dd/yyyy")</f>
-        <v>10/26/2022</v>
-      </c>
-      <c r="I3" t="str">
+        <v>11/15/2022</v>
+      </c>
+      <c r="J3" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>11/05/2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11/25/2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
       <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f ca="1">TEXT(TODAY()-5,"mm/dd/yyyy")</f>
-        <v>10/06/2022</v>
+        <v>140</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -1042,34 +1621,34 @@
         <v>10</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1077,7 +1656,7 @@
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1090,44 +1669,58 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
         <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1135,7 +1728,7 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1148,10 +1741,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1159,10 +1752,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1170,24 +1763,85 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212A931B-B5A0-4D20-AB7B-9542993AD90C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="72.21875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -1195,11 +1849,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -2,29 +2,42 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Firm" sheetId="1" r:id="rId1"/>
-    <sheet name="Contact" sheetId="2" r:id="rId2"/>
-    <sheet name="Deal" sheetId="3" r:id="rId3"/>
-    <sheet name="Activity Timeline" sheetId="5" r:id="rId4"/>
-    <sheet name="Acuity" sheetId="6" r:id="rId5"/>
-    <sheet name="Fund" sheetId="4" r:id="rId6"/>
+    <sheet name="Research" sheetId="9" r:id="rId2"/>
+    <sheet name="Research Data" sheetId="12" r:id="rId3"/>
+    <sheet name="Contact" sheetId="2" r:id="rId4"/>
+    <sheet name="Deal" sheetId="3" r:id="rId5"/>
+    <sheet name="Deal Team" sheetId="7" r:id="rId6"/>
+    <sheet name="Activity Timeline" sheetId="5" r:id="rId7"/>
+    <sheet name="Acuity" sheetId="6" r:id="rId8"/>
+    <sheet name="Reports" sheetId="8" r:id="rId9"/>
+    <sheet name="Fund" sheetId="4" r:id="rId10"/>
+    <sheet name="Fundraisings" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="281">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -125,15 +138,9 @@
     <t>Suggested_Tag</t>
   </si>
   <si>
-    <t>Int Fund 01&lt;break&gt;</t>
-  </si>
-  <si>
     <t>For verification of task fund</t>
   </si>
   <si>
-    <t>Int Contact2&lt;break&gt;Int Institution&lt;break&gt;Int Deal 01&lt;break&gt;Int Contact3</t>
-  </si>
-  <si>
     <t>People</t>
   </si>
   <si>
@@ -203,9 +210,6 @@
     <t>Int Event</t>
   </si>
   <si>
-    <t>Int Contact2&lt;break&gt;Int Institution&lt;break&gt;Int Deal 01&lt;break&gt;Int Fund 01&lt;break&gt;Int Contact1</t>
-  </si>
-  <si>
     <t>Advance_Start_Date</t>
   </si>
   <si>
@@ -270,13 +274,619 @@
   </si>
   <si>
     <t>Con_003</t>
+  </si>
+  <si>
+    <t>AT_004</t>
+  </si>
+  <si>
+    <t>Edit Intermediary 02</t>
+  </si>
+  <si>
+    <t>For verification of Task after Edit</t>
+  </si>
+  <si>
+    <t>AT_005</t>
+  </si>
+  <si>
+    <t>View All Task 1</t>
+  </si>
+  <si>
+    <t>For verification of View All link</t>
+  </si>
+  <si>
+    <t>AT_006</t>
+  </si>
+  <si>
+    <t>ASRecord7</t>
+  </si>
+  <si>
+    <t>AT_007</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>+10</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>For verification of Call after Edit</t>
+  </si>
+  <si>
+    <t>View All Task 2</t>
+  </si>
+  <si>
+    <t>AT_008</t>
+  </si>
+  <si>
+    <t>AT_009</t>
+  </si>
+  <si>
+    <t>View All Task 1&lt;break&gt;View All Call 1&lt;break&gt;View All Task 2&lt;break&gt;Int Call&lt;break&gt;Int Task</t>
+  </si>
+  <si>
+    <t>ASRecord8</t>
+  </si>
+  <si>
+    <t>Int Institution</t>
+  </si>
+  <si>
+    <t>ASRecord9</t>
+  </si>
+  <si>
+    <t>Tagged_004</t>
+  </si>
+  <si>
+    <t>Int Contact1</t>
+  </si>
+  <si>
+    <t>AT_010</t>
+  </si>
+  <si>
+    <t>Int Call&lt;break&gt;Int Task</t>
+  </si>
+  <si>
+    <t>CS Company</t>
+  </si>
+  <si>
+    <t>ASRecord10</t>
+  </si>
+  <si>
+    <t>CS&lt;break&gt;CS</t>
+  </si>
+  <si>
+    <t>Contact1&lt;break&gt;Contact2</t>
+  </si>
+  <si>
+    <t>CS Company&lt;break&gt;CS ITM</t>
+  </si>
+  <si>
+    <t>1investorportal+CSContact1@gmail.com&lt;break&gt;1investorportal+CSContact2@gmail.com</t>
+  </si>
+  <si>
+    <t>CTO&lt;break&gt;Dev</t>
+  </si>
+  <si>
+    <t>AS_Contact5</t>
+  </si>
+  <si>
+    <t>CS Deal 01</t>
+  </si>
+  <si>
+    <t>NDA Signed</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>DT_001</t>
+  </si>
+  <si>
+    <t>CS Contact1</t>
+  </si>
+  <si>
+    <t>PE Admin</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>AT_011</t>
+  </si>
+  <si>
+    <t>CS Call</t>
+  </si>
+  <si>
+    <t>CS Call 2</t>
+  </si>
+  <si>
+    <t>AT_012</t>
+  </si>
+  <si>
+    <t>For Verification of Contacts Grid</t>
+  </si>
+  <si>
+    <t>Assigned_To</t>
+  </si>
+  <si>
+    <t>CRM User</t>
+  </si>
+  <si>
+    <t>Company&lt;break&gt;Intermediary</t>
+  </si>
+  <si>
+    <t>AS_Deal2</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>ASRecord11</t>
+  </si>
+  <si>
+    <t>Con_004</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>AS_Contact6</t>
+  </si>
+  <si>
+    <t>ASRecord12</t>
+  </si>
+  <si>
+    <t>Company 1&lt;break&gt;Intermediary 1&lt;break&gt;Institution 1</t>
+  </si>
+  <si>
+    <t>Report_Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>R_001</t>
+  </si>
+  <si>
+    <t>Contact with Activities&lt;break&gt;Activities with Firms-SW&lt;break&gt;Fundraisings with Legal Name -SW</t>
+  </si>
+  <si>
+    <t>Shows the details of Activities Touchpoint corresponding to the Contact- System Wide&lt;break&gt;Shows the details of Activities corresponding to the Firm- System Wide&lt;break&gt;Shows the details of Fundraising corresponding to the Firm- System Wide</t>
+  </si>
+  <si>
+    <t>10/20/2022</t>
+  </si>
+  <si>
+    <t>Int Company&lt;Prefilled&gt;&lt;break&gt;Int Contact2&lt;break&gt;Int Institution&lt;break&gt;Int Deal 01&lt;break&gt;Int Contact3</t>
+  </si>
+  <si>
+    <t>Int Company&lt;Prefilled&gt;&lt;break&gt;Int Contact2&lt;break&gt;Int Institution&lt;break&gt;Int Deal 01&lt;break&gt;Int Fund 01&lt;break&gt;Int Contact1</t>
+  </si>
+  <si>
+    <t>Int Company&lt;Prefilled&gt;&lt;break&gt;Int Intermediary&lt;break&gt;Int Institution&lt;break&gt;Int Contact1&lt;break&gt;Int Contact3</t>
+  </si>
+  <si>
+    <t>10/21/2022</t>
+  </si>
+  <si>
+    <t>11/10/2022</t>
+  </si>
+  <si>
+    <t>AS_Contact7</t>
+  </si>
+  <si>
+    <t>View All Call 1</t>
+  </si>
+  <si>
+    <t>CS Contact1&lt;Prefilled&gt;&lt;break&gt;CS Company&lt;break&gt;CS ITM</t>
+  </si>
+  <si>
+    <t>DummyCom&lt;Break&gt;DummyInsti&lt;Break&gt;DummyInt</t>
+  </si>
+  <si>
+    <t>Company&lt;Break&gt;Institution&lt;Break&gt;Intermediary</t>
+  </si>
+  <si>
+    <t>DummyCom</t>
+  </si>
+  <si>
+    <t>DummyInt</t>
+  </si>
+  <si>
+    <t>Nav Cmp&lt;Break&gt;Nav Ins</t>
+  </si>
+  <si>
+    <t>Company&lt;Break&gt;Institution</t>
+  </si>
+  <si>
+    <t>Research Institution 01&lt;Break&gt;Research Company 01&lt;Break&gt;Research Intermediary 01&lt;Break&gt;Research Advisor 01&lt;Break&gt;Research Lender 01&lt;Break&gt;Research Limited Partner 01&lt;Break&gt;Research Portfolio Company 01</t>
+  </si>
+  <si>
+    <t>Institution&lt;Break&gt;Company&lt;Break&gt;Intermediary&lt;Break&gt;Advisor&lt;Break&gt;Lender&lt;Break&gt;Limited Partner&lt;Break&gt;Portfolio Company</t>
+  </si>
+  <si>
+    <t>&lt;Break&gt;&lt;Break&gt;&lt;Break&gt;&lt;Break&gt;&lt;Break&gt;Parent Firm&lt;Break&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Break&gt;&lt;Break&gt;&lt;Break&gt;&lt;Break&gt;&lt;Break&gt;Research Institution 01&lt;Break&gt;</t>
+  </si>
+  <si>
+    <t>ASRecord13</t>
+  </si>
+  <si>
+    <t>ASRecord14</t>
+  </si>
+  <si>
+    <t>ASRecord15</t>
+  </si>
+  <si>
+    <t>ASRecord16</t>
+  </si>
+  <si>
+    <t>ASRecord17</t>
+  </si>
+  <si>
+    <t>Other_LabelNames</t>
+  </si>
+  <si>
+    <t>Other_LabelValues</t>
+  </si>
+  <si>
+    <t>Search_String</t>
+  </si>
+  <si>
+    <t>Acuity Smoke</t>
+  </si>
+  <si>
+    <t>AS_Research1</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>AS_Research2</t>
+  </si>
+  <si>
+    <t>Research Account&lt;Break&gt;Research Company&lt;Break&gt;Research Inst Deal&lt;Break&gt;Research FR 01</t>
+  </si>
+  <si>
+    <t>AS_Research3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR &lt;Break&gt;Research Company  &lt;Break&gt;Research Inst Deal &lt;Break&gt;Research FR 01 </t>
+  </si>
+  <si>
+    <t>AS_Research4</t>
+  </si>
+  <si>
+    <t>"Research Institution"&lt;Break&gt; "Research FR"&lt;Break&gt;"Research Limited Partner 01"</t>
+  </si>
+  <si>
+    <t>AS_Research5</t>
+  </si>
+  <si>
+    <t>Research&lt;Break&gt;Institution</t>
+  </si>
+  <si>
+    <t>DummyAshish&lt;Break&gt;DummyAshish</t>
+  </si>
+  <si>
+    <t>TC&lt;Break&gt;TC1</t>
+  </si>
+  <si>
+    <t>DummyCom&lt;Break&gt;DummyInt</t>
+  </si>
+  <si>
+    <t>dtc@atc.in&lt;Break&gt;dtc1@atc.in</t>
+  </si>
+  <si>
+    <t>Contact Type&lt;Break&gt;Contact Type</t>
+  </si>
+  <si>
+    <t>Banker&lt;Break&gt;Contact</t>
+  </si>
+  <si>
+    <t>DummyAshish TC</t>
+  </si>
+  <si>
+    <t>DummyAshish TC1</t>
+  </si>
+  <si>
+    <t>AS_Contact8</t>
+  </si>
+  <si>
+    <t>Nav&lt;Break&gt;Nav</t>
+  </si>
+  <si>
+    <t>Cont1&lt;Break&gt;Cont2</t>
+  </si>
+  <si>
+    <t>1investorportal+nvContact1@gmail.com&lt;Break&gt;1investorportal+nvContact2@gmail.com</t>
+  </si>
+  <si>
+    <t>Title&lt;Break&gt;Title</t>
+  </si>
+  <si>
+    <t>CTO&lt;Break&gt;Dev</t>
+  </si>
+  <si>
+    <t>AS_Contact9</t>
+  </si>
+  <si>
+    <t>Research&lt;Break&gt;Research&lt;Break&gt;Research&lt;Break&gt;Research&lt;Break&gt;Research&lt;Break&gt;Research&lt;Break&gt;Research</t>
+  </si>
+  <si>
+    <t>Inst Contact1&lt;Break&gt;Com Contact2&lt;Break&gt;Int Contact3&lt;Break&gt;Adv Contact4&lt;Break&gt;Len Contact5&lt;Break&gt;Com LP Contact6&lt;Break&gt;Com PC Contact7</t>
+  </si>
+  <si>
+    <t>1investorportal+ResearchInstContact1@gmail.com&lt;Break&gt;1investorportal+ResearchComContact2@gmail.com&lt;Break&gt;1investorportal+ResearchIntContact3@gmail.com&lt;Break&gt;1investorportal+ResearchAdvContact4@gmail.com&lt;Break&gt;1investorportal+ResearchLenContact5@gmail.com&lt;Break&gt;1investorportal+ResearchLpContact6@gmail.com&lt;Break&gt;1investorportal+ResearchPcContact7@gmail.com</t>
+  </si>
+  <si>
+    <t>AS_Contact10</t>
+  </si>
+  <si>
+    <t>AS_Contact11</t>
+  </si>
+  <si>
+    <t>AS_Contact12</t>
+  </si>
+  <si>
+    <t>SmokeDummy deal</t>
+  </si>
+  <si>
+    <t>Parked</t>
+  </si>
+  <si>
+    <t>Source Firm&lt;Break&gt;Source Contact&lt;Break&gt;Date Received</t>
+  </si>
+  <si>
+    <t>DummyInt&lt;Break&gt;DummyAshish TC&lt;Break&gt;9/28/2022</t>
+  </si>
+  <si>
+    <t>9/28/2022</t>
+  </si>
+  <si>
+    <t>AS_Deal3</t>
+  </si>
+  <si>
+    <t>BuySide Deal&lt;break&gt;SellSide Deal</t>
+  </si>
+  <si>
+    <t>AS_Deal4</t>
+  </si>
+  <si>
+    <t>Research Inst Deal 01&lt;Break&gt;Research Com Deal 02&lt;Break&gt;Research Int Deal 03</t>
+  </si>
+  <si>
+    <t>Research Institution 01&lt;Break&gt;Research Company 01&lt;Break&gt;Research Intermediary 01</t>
+  </si>
+  <si>
+    <t>NDA Signed&lt;Break&gt;IOI&lt;Break&gt;LOI</t>
+  </si>
+  <si>
+    <t>BuySide Deal&lt;Break&gt;SellSide Deal&lt;Break&gt;BuySide Deal</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>AS_Deal5</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Nav Call</t>
+  </si>
+  <si>
+    <t>Call from Navigation</t>
+  </si>
+  <si>
+    <t>Nav Cmp&lt;break&gt;Nav Ins&lt;break&gt;Nav Cont1</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Nav Task</t>
+  </si>
+  <si>
+    <t>Task from Navigation</t>
+  </si>
+  <si>
+    <t>Research Task 01</t>
+  </si>
+  <si>
+    <t>Task For Power Search Smoke Researching</t>
+  </si>
+  <si>
+    <t>Research Inst Contact1&lt;break&gt;Research Company 01&lt;break&gt;Research Limited Partner 01&lt;break&gt;Research Inst Deal 01</t>
+  </si>
+  <si>
+    <t>Research Task 02</t>
+  </si>
+  <si>
+    <t>Research Inst Contact1&lt;break&gt;Research Institution 01&lt;break&gt;Research Lender 01&lt;break&gt;Research Fund 002&lt;break&gt;Research FR 01</t>
+  </si>
+  <si>
+    <t>AT_013</t>
+  </si>
+  <si>
+    <t>AT_014</t>
+  </si>
+  <si>
+    <t>AT_015</t>
+  </si>
+  <si>
+    <t>AT_016</t>
+  </si>
+  <si>
+    <t>AS_Fund2</t>
+  </si>
+  <si>
+    <t>SD Fund</t>
+  </si>
+  <si>
+    <t>AS_Fund3</t>
+  </si>
+  <si>
+    <t>Mutual Fund&lt;break&gt;Pension Fund</t>
+  </si>
+  <si>
+    <t>AS_Fund4</t>
+  </si>
+  <si>
+    <t>Research Fund 001&lt;Break&gt;Research Fund 002&lt;Break&gt;Research Fund 003</t>
+  </si>
+  <si>
+    <t>Fund&lt;Break&gt;Fund&lt;Break&gt;Fund</t>
+  </si>
+  <si>
+    <t>Mutual Fund&lt;Break&gt;Pension Fund&lt;Break&gt;Mutual Fund</t>
+  </si>
+  <si>
+    <t>FundRaising_Name</t>
+  </si>
+  <si>
+    <t>Institutions_Name</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Action_Order</t>
+  </si>
+  <si>
+    <t>Event_Payload</t>
+  </si>
+  <si>
+    <t>Closing</t>
+  </si>
+  <si>
+    <t>Investment_Likely_Amount</t>
+  </si>
+  <si>
+    <t>AS_Fundraising1</t>
+  </si>
+  <si>
+    <t>SD Fundraising</t>
+  </si>
+  <si>
+    <t>DummyInsti</t>
+  </si>
+  <si>
+    <t>Prospect</t>
+  </si>
+  <si>
+    <t>9/26/2022</t>
+  </si>
+  <si>
+    <t>AS_Fundraising2</t>
+  </si>
+  <si>
+    <t>FDKRT01&lt;break&gt;MKDRT01</t>
+  </si>
+  <si>
+    <t>AS_Fundraising3</t>
+  </si>
+  <si>
+    <t>Research FR 01&lt;Break&gt;Research FR 01&lt;Break&gt;Research FR 01</t>
+  </si>
+  <si>
+    <t>Research Institution 01&lt;Break&gt;Research Limited Partner 01&lt;Break&gt;Research Institution 01</t>
+  </si>
+  <si>
+    <t>Prospect&lt;Break&gt;Interested&lt;Break&gt;Prospect</t>
+  </si>
+  <si>
+    <t>12/27/2022&lt;Break&gt;11/25/2022&lt;Break&gt;10/27/2022</t>
+  </si>
+  <si>
+    <t>FDKRT01&lt;Break&gt;MKDRT01&lt;Break&gt;FDKRT01</t>
+  </si>
+  <si>
+    <t>Total Firms</t>
+  </si>
+  <si>
+    <t>Task as per Industries</t>
+  </si>
+  <si>
+    <t>Individuals</t>
+  </si>
+  <si>
+    <t>Fundraising as per Industries</t>
+  </si>
+  <si>
+    <t>Fundraising_Stage</t>
+  </si>
+  <si>
+    <t>Count_as_per_fundraising_stage</t>
+  </si>
+  <si>
+    <t>Fundraising</t>
+  </si>
+  <si>
+    <t>Fundraising_Count</t>
+  </si>
+  <si>
+    <t>MRSD_2</t>
+  </si>
+  <si>
+    <t>MRSD_3</t>
+  </si>
+  <si>
+    <t>MRSD_4</t>
+  </si>
+  <si>
+    <t>MRSD_5</t>
+  </si>
+  <si>
+    <t>MRSD_6</t>
+  </si>
+  <si>
+    <t>MRSD_7</t>
+  </si>
+  <si>
+    <t>MRSD_8</t>
+  </si>
+  <si>
+    <t>MRSD_9</t>
+  </si>
+  <si>
+    <t>MRSD_1</t>
+  </si>
+  <si>
+    <t>Module Research</t>
+  </si>
+  <si>
+    <t>Research Findings</t>
+  </si>
+  <si>
+    <t>All Categories</t>
+  </si>
+  <si>
+    <t>Firms</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Interactions</t>
+  </si>
+  <si>
+    <t>Referenced Accounts</t>
+  </si>
+  <si>
+    <t>Referenced Contacts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,8 +918,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +951,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -337,12 +966,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,13 +1045,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,20 +1363,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,15 +1386,21 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -698,343 +1411,1506 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:C3"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="117" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="26"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B1" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="117" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="7" t="str">
-        <f ca="1">TEXT(TODAY()-5,"mm/dd/yyyy")</f>
-        <v>10/06/2022</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="str">
-        <f ca="1">TEXT(TODAY()+15,"mm/dd/yyyy")</f>
-        <v>10/26/2022</v>
-      </c>
-      <c r="I3" t="str">
-        <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>11/05/2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f ca="1">TEXT(TODAY()-5,"mm/dd/yyyy")</f>
-        <v>10/06/2022</v>
-      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="78" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="str">
+        <f ca="1">TEXT(TODAY()+15,"mm/dd/yyyy")</f>
+        <v>11/16/2022</v>
+      </c>
+      <c r="I3" t="str">
+        <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
+        <v>11/26/2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1042,42 +2918,42 @@
         <v>10</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1088,54 +2964,68 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1146,91 +3036,102 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="72.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
+        <v>136</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845D9BFC-F1F1-4AB3-93B1-DDA3C5E4E19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Firm" sheetId="1" r:id="rId1"/>
     <sheet name="Research" sheetId="9" r:id="rId2"/>
     <sheet name="Contact" sheetId="2" r:id="rId3"/>
     <sheet name="Deal" sheetId="3" r:id="rId4"/>
-    <sheet name="Deal Team" sheetId="7" r:id="rId5"/>
-    <sheet name="Activity Timeline" sheetId="5" r:id="rId6"/>
-    <sheet name="Acuity" sheetId="6" r:id="rId7"/>
-    <sheet name="Reports" sheetId="8" r:id="rId8"/>
-    <sheet name="Fund" sheetId="4" r:id="rId9"/>
-    <sheet name="Fundraisings" sheetId="10" r:id="rId10"/>
+    <sheet name="Deals" sheetId="11" r:id="rId5"/>
+    <sheet name="Deal Team" sheetId="7" r:id="rId6"/>
+    <sheet name="Activity Timeline" sheetId="5" r:id="rId7"/>
+    <sheet name="Acuity" sheetId="6" r:id="rId8"/>
+    <sheet name="Reports" sheetId="8" r:id="rId9"/>
+    <sheet name="Fund" sheetId="4" r:id="rId10"/>
+    <sheet name="Fundraisings" sheetId="10" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="383">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -805,12 +805,393 @@
   </si>
   <si>
     <t>FDKRT01&lt;Break&gt;MKDRT01&lt;Break&gt;FDKRT01</t>
+  </si>
+  <si>
+    <t>Acuity Deals &amp; Email</t>
+  </si>
+  <si>
+    <t>ADEIns1</t>
+  </si>
+  <si>
+    <t>ADETestCom</t>
+  </si>
+  <si>
+    <t>ADETestAdvisor</t>
+  </si>
+  <si>
+    <t>ADETestInsti</t>
+  </si>
+  <si>
+    <t>ADETestInt</t>
+  </si>
+  <si>
+    <t>ADETestL</t>
+  </si>
+  <si>
+    <t>ADETestPC</t>
+  </si>
+  <si>
+    <t>ADETestLP</t>
+  </si>
+  <si>
+    <t>ADEIns2</t>
+  </si>
+  <si>
+    <t>ADEIns3</t>
+  </si>
+  <si>
+    <t>ADEIns4</t>
+  </si>
+  <si>
+    <t>ADEIns5</t>
+  </si>
+  <si>
+    <t>ADEIns6</t>
+  </si>
+  <si>
+    <t>ADEIns7</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Intermediary</t>
+  </si>
+  <si>
+    <t>Lender</t>
+  </si>
+  <si>
+    <t>Limited Partner</t>
+  </si>
+  <si>
+    <t>Portfolio Company</t>
+  </si>
+  <si>
+    <t>Parent_Institution</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>TC 1</t>
+  </si>
+  <si>
+    <t>TC 5</t>
+  </si>
+  <si>
+    <t>TC 6</t>
+  </si>
+  <si>
+    <t>TC 7</t>
+  </si>
+  <si>
+    <t>TC 8</t>
+  </si>
+  <si>
+    <t>TC 9</t>
+  </si>
+  <si>
+    <t>ADEContact1</t>
+  </si>
+  <si>
+    <t>ADEContact2</t>
+  </si>
+  <si>
+    <t>ADEContact3</t>
+  </si>
+  <si>
+    <t>ADEContact4</t>
+  </si>
+  <si>
+    <t>ADEContact5</t>
+  </si>
+  <si>
+    <t>ADEContact6</t>
+  </si>
+  <si>
+    <t>ADEContact7</t>
+  </si>
+  <si>
+    <t>navatariptesting+43991@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+86328@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+33546@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+49956@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+63716@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+26759@gmail.com</t>
+  </si>
+  <si>
+    <t>navatariptesting+47344@gmail.com</t>
+  </si>
+  <si>
+    <t>ADETest</t>
+  </si>
+  <si>
+    <t>ADEIns8</t>
+  </si>
+  <si>
+    <t>ADEIns9</t>
+  </si>
+  <si>
+    <t>OGCOM</t>
+  </si>
+  <si>
+    <t>OGINT</t>
+  </si>
+  <si>
+    <t>ADEContact8</t>
+  </si>
+  <si>
+    <t>TC 10</t>
+  </si>
+  <si>
+    <t>navatariptesting+1115@gmail.com</t>
+  </si>
+  <si>
+    <t>ADEDeal1</t>
+  </si>
+  <si>
+    <t>ADEDeal2</t>
+  </si>
+  <si>
+    <t>ADEDeal3</t>
+  </si>
+  <si>
+    <t>ADEDeal4</t>
+  </si>
+  <si>
+    <t>ADEDeal5</t>
+  </si>
+  <si>
+    <t>ADEDeal6</t>
+  </si>
+  <si>
+    <t>ADEDeal7</t>
+  </si>
+  <si>
+    <t>ADEDeal8</t>
+  </si>
+  <si>
+    <t>ADEDeal9</t>
+  </si>
+  <si>
+    <t>ADEDeal10</t>
+  </si>
+  <si>
+    <t>ADEDeal11</t>
+  </si>
+  <si>
+    <t>ADEDeal12</t>
+  </si>
+  <si>
+    <t>ADEDeal13</t>
+  </si>
+  <si>
+    <t>ADEDeal14</t>
+  </si>
+  <si>
+    <t>ADEDeal15</t>
+  </si>
+  <si>
+    <t>ADEDeal16</t>
+  </si>
+  <si>
+    <t>ADEDeal17</t>
+  </si>
+  <si>
+    <t>ADEDeal18</t>
+  </si>
+  <si>
+    <t>ADEMD</t>
+  </si>
+  <si>
+    <t>ADEMD1</t>
+  </si>
+  <si>
+    <t>ADEMD2</t>
+  </si>
+  <si>
+    <t>ADEMD3</t>
+  </si>
+  <si>
+    <t>ADEMD4</t>
+  </si>
+  <si>
+    <t>ADEMD5</t>
+  </si>
+  <si>
+    <t>ADEMD6</t>
+  </si>
+  <si>
+    <t>ADEMD7</t>
+  </si>
+  <si>
+    <t>ADEMD8</t>
+  </si>
+  <si>
+    <t>ADEMD9</t>
+  </si>
+  <si>
+    <t>ADEMD10</t>
+  </si>
+  <si>
+    <t>ADEMD11</t>
+  </si>
+  <si>
+    <t>ADEMD12</t>
+  </si>
+  <si>
+    <t>ADEMD13</t>
+  </si>
+  <si>
+    <t>ADEMD14</t>
+  </si>
+  <si>
+    <t>ADEMD15</t>
+  </si>
+  <si>
+    <t>ADEMD16</t>
+  </si>
+  <si>
+    <t>ADEMD17</t>
+  </si>
+  <si>
+    <t>Deal Received</t>
+  </si>
+  <si>
+    <t>Management Meeting</t>
+  </si>
+  <si>
+    <t>IOI</t>
+  </si>
+  <si>
+    <t>LOI</t>
+  </si>
+  <si>
+    <t>Due Diligence</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Declined/dead</t>
+  </si>
+  <si>
+    <t>ADETestInt&lt;Break&gt;ADETest TC 5&lt;Break&gt;11/02/2022</t>
+  </si>
+  <si>
+    <t>Company_Name</t>
+  </si>
+  <si>
+    <t>Source_Contact</t>
+  </si>
+  <si>
+    <t>Source_Firm</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Investment_Size</t>
+  </si>
+  <si>
+    <t>Updated_Stage</t>
+  </si>
+  <si>
+    <t>Updated_Investment_Size</t>
+  </si>
+  <si>
+    <t>Pipeline_Comments</t>
+  </si>
+  <si>
+    <t>Ashish TC 5</t>
+  </si>
+  <si>
+    <t>ADEMD&lt;Section&gt;ADEMD2&lt;Section&gt;ADEMD3&lt;Section&gt;ADEMD4&lt;Section&gt;ADEMD5&lt;Section&gt;ADEMD6&lt;Section&gt;ADEMD7&lt;Section&gt;ADEMD8&lt;Section&gt;ADEMD9&lt;Section&gt;ADEMD10&lt;Section&gt;ADEMD11&lt;Section&gt;ADEMD12&lt;Section&gt;ADEMD13&lt;Section&gt;ADEMD14&lt;Section&gt;ADEMD15&lt;Section&gt;ADEMD16&lt;Section&gt;ADEMD17&lt;Section&gt;ADEMD18</t>
+  </si>
+  <si>
+    <t>ADETestCom&lt;Section&gt;ADETestCom&lt;Section&gt;ADETestCom&lt;Section&gt;ADETestCom&lt;Section&gt;ADETestInt&lt;Section&gt;ADETestInt&lt;Section&gt;ADETestCom&lt;Section&gt;ADETestCom&lt;Section&gt;ADETestCom&lt;Section&gt;ADETestInt&lt;Section&gt;ADETestInt&lt;Section&gt;ADETestInt&lt;Section&gt;ADETestInt&lt;Section&gt;ADETestInt&lt;Section&gt;ADETestInt&lt;Section&gt;ADETestInt&lt;Section&gt;ADETestInt&lt;Section&gt;ADETestInt</t>
+  </si>
+  <si>
+    <t>Deal Received&lt;Section&gt;NDA Signed&lt;Section&gt;Management Meeting&lt;Section&gt;IOI&lt;Section&gt;LOI&lt;Section&gt;Due Diligence&lt;Section&gt;Closed&lt;Section&gt;Parked&lt;Section&gt;Declined/dead&lt;Section&gt;Deal Received&lt;Section&gt;NDA Signed&lt;Section&gt;Management Meeting&lt;Section&gt;IOI&lt;Section&gt;LOI&lt;Section&gt;Due Diligence&lt;Section&gt;Closed&lt;Section&gt;Parked&lt;Section&gt;Declined/dead</t>
+  </si>
+  <si>
+    <t>ADE1</t>
+  </si>
+  <si>
+    <t>ADE2</t>
+  </si>
+  <si>
+    <t>ADE3</t>
+  </si>
+  <si>
+    <t>ADE4</t>
+  </si>
+  <si>
+    <t>ADE5</t>
+  </si>
+  <si>
+    <t>ADE6</t>
+  </si>
+  <si>
+    <t>ADE7</t>
+  </si>
+  <si>
+    <t>ADE8</t>
+  </si>
+  <si>
+    <t>ADE9</t>
+  </si>
+  <si>
+    <t>ADE10</t>
+  </si>
+  <si>
+    <t>ADE11</t>
+  </si>
+  <si>
+    <t>ADE12</t>
+  </si>
+  <si>
+    <t>ADE13</t>
+  </si>
+  <si>
+    <t>ADE14</t>
+  </si>
+  <si>
+    <t>ADE15</t>
+  </si>
+  <si>
+    <t>ADE16</t>
+  </si>
+  <si>
+    <t>ADE17</t>
+  </si>
+  <si>
+    <t>ADE18</t>
+  </si>
+  <si>
+    <t>Date Received&lt;Section&gt;Date Received&lt;Section&gt;Date Received&lt;Section&gt;Date Received&lt;Section&gt;Date Received&lt;Section&gt;Date Received&lt;Section&gt;Date Received&lt;Section&gt;Date Received&lt;Section&gt;Date Received&lt;Section&gt;Source Contact&lt;Break&gt;Date Received&lt;Section&gt;Source Contact&lt;Break&gt;Date Received&lt;Section&gt;Source Contact&lt;Break&gt;Date Received&lt;Section&gt;Source Contact&lt;Break&gt;Date Received&lt;Section&gt;Source Contact&lt;Break&gt;Date Received&lt;Section&gt;Source Contact&lt;Break&gt;Date Received&lt;Section&gt;Source Contact&lt;Break&gt;Date Received&lt;Section&gt;Source Contact&lt;Break&gt;Date Received&lt;Section&gt;Source Contact&lt;Break&gt;Date Received</t>
+  </si>
+  <si>
+    <t>11/02/2022&lt;Section&gt;11/02/2022&lt;Section&gt;11/02/2022&lt;Section&gt;11/02/2022&lt;Section&gt;11/02/2022&lt;Section&gt;11/02/2022&lt;Section&gt;11/02/2022&lt;Section&gt;11/02/2022&lt;Section&gt;11/02/2022&lt;Section&gt;ADETest TC 5&lt;Break&gt;11/02/2022&lt;Section&gt;ADETest TC 5&lt;Break&gt;11/02/2022&lt;Section&gt;ADETest TC 5&lt;Break&gt;11/02/2022&lt;Section&gt;ADETest TC 5&lt;Break&gt;11/02/2022&lt;Section&gt;ADETest TC 5&lt;Break&gt;11/02/2022&lt;Section&gt;ADETest TC 5&lt;Break&gt;11/02/2022&lt;Section&gt;ADETest TC 5&lt;Break&gt;11/02/2022&lt;Section&gt;ADETest TC 5&lt;Break&gt;11/02/2022&lt;Section&gt;ADETest TC 5&lt;Break&gt;11/02/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -883,7 +1264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -921,13 +1302,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -980,20 +1390,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{11AC1A27-91D3-46F1-A4BA-05D7AA9092AC}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1270,21 +1688,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="58.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,15 +1718,18 @@
       <c r="E1" s="21" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="F1" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1319,7 +1740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1327,7 +1748,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1335,7 +1756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1343,7 +1764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1351,7 +1772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1359,7 +1780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -1367,7 +1788,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -1375,7 +1796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -1383,7 +1804,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -1394,7 +1815,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -1402,7 +1823,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>132</v>
       </c>
@@ -1410,7 +1831,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>158</v>
       </c>
@@ -1421,7 +1842,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>159</v>
       </c>
@@ -1430,7 +1851,7 @@
       </c>
       <c r="C17" s="23"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>160</v>
       </c>
@@ -1439,7 +1860,7 @@
       </c>
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>161</v>
       </c>
@@ -1452,7 +1873,7 @@
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>162</v>
       </c>
@@ -1469,9 +1890,119 @@
         <v>157</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C32" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1480,41 +2011,137 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174A1CF7-C343-4C2D-9E58-8686B8DBD504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.1796875" customWidth="1"/>
-    <col min="11" max="11" width="10.90625" customWidth="1"/>
-    <col min="12" max="12" width="24.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1529,37 +2156,37 @@
       <c r="H1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>27</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26" t="s">
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>243</v>
       </c>
@@ -1587,7 +2214,7 @@
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>248</v>
       </c>
@@ -1607,7 +2234,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>250</v>
       </c>
@@ -1642,20 +2269,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA987EBB-87FF-40D2-A16B-E969B1367C61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1663,13 +2290,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="24"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="32"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -1677,7 +2304,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -1685,7 +2312,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -1693,7 +2320,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -1701,7 +2328,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>175</v>
       </c>
@@ -1718,24 +2345,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.36328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="117" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="117" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="31.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1754,17 +2385,20 @@
       <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1780,8 +2414,9 @@
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1789,7 +2424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1797,7 +2432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -1805,7 +2440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -1821,11 +2456,12 @@
       <c r="F6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -1833,7 +2469,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>145</v>
       </c>
@@ -1841,7 +2477,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>185</v>
       </c>
@@ -1859,14 +2495,15 @@
         <v>180</v>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="23"/>
+      <c r="I9" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="J9" s="23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>191</v>
       </c>
@@ -1880,8 +2517,9 @@
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>195</v>
       </c>
@@ -1895,8 +2533,9 @@
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>196</v>
       </c>
@@ -1912,14 +2551,15 @@
         <v>188</v>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="23"/>
+      <c r="I12" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="J12" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>197</v>
       </c>
@@ -1937,34 +2577,183 @@
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F24" t="s">
+        <v>306</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:C16"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{0F7A85EA-17C3-430A-A99E-090F70355B23}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F23" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +2779,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2004,7 +2793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -2018,7 +2807,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>203</v>
       </c>
@@ -2042,7 +2831,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>205</v>
       </c>
@@ -2056,7 +2845,7 @@
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>211</v>
       </c>
@@ -2075,6 +2864,386 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" t="s">
+        <v>381</v>
+      </c>
+      <c r="G8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G10" s="7">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" t="s">
+        <v>354</v>
+      </c>
+      <c r="G11" s="7">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="F12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G12" s="7">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" t="s">
+        <v>354</v>
+      </c>
+      <c r="G13" s="7">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" t="s">
+        <v>354</v>
+      </c>
+      <c r="G14" s="7">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="F15" t="s">
+        <v>354</v>
+      </c>
+      <c r="G15" s="7">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" t="s">
+        <v>354</v>
+      </c>
+      <c r="G16" s="7">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" t="s">
+        <v>354</v>
+      </c>
+      <c r="G17" s="7">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" t="s">
+        <v>354</v>
+      </c>
+      <c r="G18" s="7">
+        <v>44603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23" t="s">
+        <v>338</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="F23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>377</v>
+      </c>
+      <c r="B24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>350</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2083,23 +3252,1412 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32909671-21F3-47D8-B15D-836384415519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMO19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1029" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
+      <c r="BJ1" s="30"/>
+      <c r="BK1" s="30"/>
+      <c r="BL1" s="30"/>
+      <c r="BM1" s="30"/>
+      <c r="BN1" s="30"/>
+      <c r="BO1" s="30"/>
+      <c r="BP1" s="30"/>
+      <c r="BQ1" s="30"/>
+      <c r="BR1" s="30"/>
+      <c r="BS1" s="30"/>
+      <c r="BT1" s="30"/>
+      <c r="BU1" s="30"/>
+      <c r="BV1" s="30"/>
+      <c r="BW1" s="30"/>
+      <c r="BX1" s="30"/>
+      <c r="BY1" s="30"/>
+      <c r="BZ1" s="30"/>
+      <c r="CA1" s="30"/>
+      <c r="CB1" s="30"/>
+      <c r="CC1" s="30"/>
+      <c r="CD1" s="30"/>
+      <c r="CE1" s="30"/>
+      <c r="CF1" s="30"/>
+      <c r="CG1" s="30"/>
+      <c r="CH1" s="30"/>
+      <c r="CI1" s="30"/>
+      <c r="CJ1" s="30"/>
+      <c r="CK1" s="30"/>
+      <c r="CL1" s="30"/>
+      <c r="CM1" s="30"/>
+      <c r="CN1" s="30"/>
+      <c r="CO1" s="30"/>
+      <c r="CP1" s="30"/>
+      <c r="CQ1" s="30"/>
+      <c r="CR1" s="30"/>
+      <c r="CS1" s="30"/>
+      <c r="CT1" s="30"/>
+      <c r="CU1" s="30"/>
+      <c r="CV1" s="30"/>
+      <c r="CW1" s="30"/>
+      <c r="CX1" s="30"/>
+      <c r="CY1" s="30"/>
+      <c r="CZ1" s="30"/>
+      <c r="DA1" s="30"/>
+      <c r="DB1" s="30"/>
+      <c r="DC1" s="30"/>
+      <c r="DD1" s="30"/>
+      <c r="DE1" s="30"/>
+      <c r="DF1" s="30"/>
+      <c r="DG1" s="30"/>
+      <c r="DH1" s="30"/>
+      <c r="DI1" s="30"/>
+      <c r="DJ1" s="30"/>
+      <c r="DK1" s="30"/>
+      <c r="DL1" s="30"/>
+      <c r="DM1" s="30"/>
+      <c r="DN1" s="30"/>
+      <c r="DO1" s="30"/>
+      <c r="DP1" s="30"/>
+      <c r="DQ1" s="30"/>
+      <c r="DR1" s="30"/>
+      <c r="DS1" s="30"/>
+      <c r="DT1" s="30"/>
+      <c r="DU1" s="30"/>
+      <c r="DV1" s="30"/>
+      <c r="DW1" s="30"/>
+      <c r="DX1" s="30"/>
+      <c r="DY1" s="30"/>
+      <c r="DZ1" s="30"/>
+      <c r="EA1" s="30"/>
+      <c r="EB1" s="30"/>
+      <c r="EC1" s="30"/>
+      <c r="ED1" s="30"/>
+      <c r="EE1" s="30"/>
+      <c r="EF1" s="30"/>
+      <c r="EG1" s="30"/>
+      <c r="EH1" s="30"/>
+      <c r="EI1" s="30"/>
+      <c r="EJ1" s="30"/>
+      <c r="EK1" s="30"/>
+      <c r="EL1" s="30"/>
+      <c r="EM1" s="30"/>
+      <c r="EN1" s="30"/>
+      <c r="EO1" s="30"/>
+      <c r="EP1" s="30"/>
+      <c r="EQ1" s="30"/>
+      <c r="ER1" s="30"/>
+      <c r="ES1" s="30"/>
+      <c r="ET1" s="30"/>
+      <c r="EU1" s="30"/>
+      <c r="EV1" s="30"/>
+      <c r="EW1" s="30"/>
+      <c r="EX1" s="30"/>
+      <c r="EY1" s="30"/>
+      <c r="EZ1" s="30"/>
+      <c r="FA1" s="30"/>
+      <c r="FB1" s="30"/>
+      <c r="FC1" s="30"/>
+      <c r="FD1" s="30"/>
+      <c r="FE1" s="30"/>
+      <c r="FF1" s="30"/>
+      <c r="FG1" s="30"/>
+      <c r="FH1" s="30"/>
+      <c r="FI1" s="30"/>
+      <c r="FJ1" s="30"/>
+      <c r="FK1" s="30"/>
+      <c r="FL1" s="30"/>
+      <c r="FM1" s="30"/>
+      <c r="FN1" s="30"/>
+      <c r="FO1" s="30"/>
+      <c r="FP1" s="30"/>
+      <c r="FQ1" s="30"/>
+      <c r="FR1" s="30"/>
+      <c r="FS1" s="30"/>
+      <c r="FT1" s="30"/>
+      <c r="FU1" s="30"/>
+      <c r="FV1" s="30"/>
+      <c r="FW1" s="30"/>
+      <c r="FX1" s="30"/>
+      <c r="FY1" s="30"/>
+      <c r="FZ1" s="30"/>
+      <c r="GA1" s="30"/>
+      <c r="GB1" s="30"/>
+      <c r="GC1" s="30"/>
+      <c r="GD1" s="30"/>
+      <c r="GE1" s="30"/>
+      <c r="GF1" s="30"/>
+      <c r="GG1" s="30"/>
+      <c r="GH1" s="30"/>
+      <c r="GI1" s="30"/>
+      <c r="GJ1" s="30"/>
+      <c r="GK1" s="30"/>
+      <c r="GL1" s="30"/>
+      <c r="GM1" s="30"/>
+      <c r="GN1" s="30"/>
+      <c r="GO1" s="30"/>
+      <c r="GP1" s="30"/>
+      <c r="GQ1" s="30"/>
+      <c r="GR1" s="30"/>
+      <c r="GS1" s="30"/>
+      <c r="GT1" s="30"/>
+      <c r="GU1" s="30"/>
+      <c r="GV1" s="30"/>
+      <c r="GW1" s="30"/>
+      <c r="GX1" s="30"/>
+      <c r="GY1" s="30"/>
+      <c r="GZ1" s="30"/>
+      <c r="HA1" s="30"/>
+      <c r="HB1" s="30"/>
+      <c r="HC1" s="30"/>
+      <c r="HD1" s="30"/>
+      <c r="HE1" s="30"/>
+      <c r="HF1" s="30"/>
+      <c r="HG1" s="30"/>
+      <c r="HH1" s="30"/>
+      <c r="HI1" s="30"/>
+      <c r="HJ1" s="30"/>
+      <c r="HK1" s="30"/>
+      <c r="HL1" s="30"/>
+      <c r="HM1" s="30"/>
+      <c r="HN1" s="30"/>
+      <c r="HO1" s="30"/>
+      <c r="HP1" s="30"/>
+      <c r="HQ1" s="30"/>
+      <c r="HR1" s="30"/>
+      <c r="HS1" s="30"/>
+      <c r="HT1" s="30"/>
+      <c r="HU1" s="30"/>
+      <c r="HV1" s="30"/>
+      <c r="HW1" s="30"/>
+      <c r="HX1" s="30"/>
+      <c r="HY1" s="30"/>
+      <c r="HZ1" s="30"/>
+      <c r="IA1" s="30"/>
+      <c r="IB1" s="30"/>
+      <c r="IC1" s="30"/>
+      <c r="ID1" s="30"/>
+      <c r="IE1" s="30"/>
+      <c r="IF1" s="30"/>
+      <c r="IG1" s="30"/>
+      <c r="IH1" s="30"/>
+      <c r="II1" s="30"/>
+      <c r="IJ1" s="30"/>
+      <c r="IK1" s="30"/>
+      <c r="IL1" s="30"/>
+      <c r="IM1" s="30"/>
+      <c r="IN1" s="30"/>
+      <c r="IO1" s="30"/>
+      <c r="IP1" s="30"/>
+      <c r="IQ1" s="30"/>
+      <c r="IR1" s="30"/>
+      <c r="IS1" s="30"/>
+      <c r="IT1" s="30"/>
+      <c r="IU1" s="30"/>
+      <c r="IV1" s="30"/>
+      <c r="IW1" s="30"/>
+      <c r="IX1" s="30"/>
+      <c r="IY1" s="30"/>
+      <c r="IZ1" s="30"/>
+      <c r="JA1" s="30"/>
+      <c r="JB1" s="30"/>
+      <c r="JC1" s="30"/>
+      <c r="JD1" s="30"/>
+      <c r="JE1" s="30"/>
+      <c r="JF1" s="30"/>
+      <c r="JG1" s="30"/>
+      <c r="JH1" s="30"/>
+      <c r="JI1" s="30"/>
+      <c r="JJ1" s="30"/>
+      <c r="JK1" s="30"/>
+      <c r="JL1" s="30"/>
+      <c r="JM1" s="30"/>
+      <c r="JN1" s="30"/>
+      <c r="JO1" s="30"/>
+      <c r="JP1" s="30"/>
+      <c r="JQ1" s="30"/>
+      <c r="JR1" s="30"/>
+      <c r="JS1" s="30"/>
+      <c r="JT1" s="30"/>
+      <c r="JU1" s="30"/>
+      <c r="JV1" s="30"/>
+      <c r="JW1" s="30"/>
+      <c r="JX1" s="30"/>
+      <c r="JY1" s="30"/>
+      <c r="JZ1" s="30"/>
+      <c r="KA1" s="30"/>
+      <c r="KB1" s="30"/>
+      <c r="KC1" s="30"/>
+      <c r="KD1" s="30"/>
+      <c r="KE1" s="30"/>
+      <c r="KF1" s="30"/>
+      <c r="KG1" s="30"/>
+      <c r="KH1" s="30"/>
+      <c r="KI1" s="30"/>
+      <c r="KJ1" s="30"/>
+      <c r="KK1" s="30"/>
+      <c r="KL1" s="30"/>
+      <c r="KM1" s="30"/>
+      <c r="KN1" s="30"/>
+      <c r="KO1" s="30"/>
+      <c r="KP1" s="30"/>
+      <c r="KQ1" s="30"/>
+      <c r="KR1" s="30"/>
+      <c r="KS1" s="30"/>
+      <c r="KT1" s="30"/>
+      <c r="KU1" s="30"/>
+      <c r="KV1" s="30"/>
+      <c r="KW1" s="30"/>
+      <c r="KX1" s="30"/>
+      <c r="KY1" s="30"/>
+      <c r="KZ1" s="30"/>
+      <c r="LA1" s="30"/>
+      <c r="LB1" s="30"/>
+      <c r="LC1" s="30"/>
+      <c r="LD1" s="30"/>
+      <c r="LE1" s="30"/>
+      <c r="LF1" s="30"/>
+      <c r="LG1" s="30"/>
+      <c r="LH1" s="30"/>
+      <c r="LI1" s="30"/>
+      <c r="LJ1" s="30"/>
+      <c r="LK1" s="30"/>
+      <c r="LL1" s="30"/>
+      <c r="LM1" s="30"/>
+      <c r="LN1" s="30"/>
+      <c r="LO1" s="30"/>
+      <c r="LP1" s="30"/>
+      <c r="LQ1" s="30"/>
+      <c r="LR1" s="30"/>
+      <c r="LS1" s="30"/>
+      <c r="LT1" s="30"/>
+      <c r="LU1" s="30"/>
+      <c r="LV1" s="30"/>
+      <c r="LW1" s="30"/>
+      <c r="LX1" s="30"/>
+      <c r="LY1" s="30"/>
+      <c r="LZ1" s="30"/>
+      <c r="MA1" s="30"/>
+      <c r="MB1" s="30"/>
+      <c r="MC1" s="30"/>
+      <c r="MD1" s="30"/>
+      <c r="ME1" s="30"/>
+      <c r="MF1" s="30"/>
+      <c r="MG1" s="30"/>
+      <c r="MH1" s="30"/>
+      <c r="MI1" s="30"/>
+      <c r="MJ1" s="30"/>
+      <c r="MK1" s="30"/>
+      <c r="ML1" s="30"/>
+      <c r="MM1" s="30"/>
+      <c r="MN1" s="30"/>
+      <c r="MO1" s="30"/>
+      <c r="MP1" s="30"/>
+      <c r="MQ1" s="30"/>
+      <c r="MR1" s="30"/>
+      <c r="MS1" s="30"/>
+      <c r="MT1" s="30"/>
+      <c r="MU1" s="30"/>
+      <c r="MV1" s="30"/>
+      <c r="MW1" s="30"/>
+      <c r="MX1" s="30"/>
+      <c r="MY1" s="30"/>
+      <c r="MZ1" s="30"/>
+      <c r="NA1" s="30"/>
+      <c r="NB1" s="30"/>
+      <c r="NC1" s="30"/>
+      <c r="ND1" s="30"/>
+      <c r="NE1" s="30"/>
+      <c r="NF1" s="30"/>
+      <c r="NG1" s="30"/>
+      <c r="NH1" s="30"/>
+      <c r="NI1" s="30"/>
+      <c r="NJ1" s="30"/>
+      <c r="NK1" s="30"/>
+      <c r="NL1" s="30"/>
+      <c r="NM1" s="30"/>
+      <c r="NN1" s="30"/>
+      <c r="NO1" s="30"/>
+      <c r="NP1" s="30"/>
+      <c r="NQ1" s="30"/>
+      <c r="NR1" s="30"/>
+      <c r="NS1" s="30"/>
+      <c r="NT1" s="30"/>
+      <c r="NU1" s="30"/>
+      <c r="NV1" s="30"/>
+      <c r="NW1" s="30"/>
+      <c r="NX1" s="30"/>
+      <c r="NY1" s="30"/>
+      <c r="NZ1" s="30"/>
+      <c r="OA1" s="30"/>
+      <c r="OB1" s="30"/>
+      <c r="OC1" s="30"/>
+      <c r="OD1" s="30"/>
+      <c r="OE1" s="30"/>
+      <c r="OF1" s="30"/>
+      <c r="OG1" s="30"/>
+      <c r="OH1" s="30"/>
+      <c r="OI1" s="30"/>
+      <c r="OJ1" s="30"/>
+      <c r="OK1" s="30"/>
+      <c r="OL1" s="30"/>
+      <c r="OM1" s="30"/>
+      <c r="ON1" s="30"/>
+      <c r="OO1" s="30"/>
+      <c r="OP1" s="30"/>
+      <c r="OQ1" s="30"/>
+      <c r="OR1" s="30"/>
+      <c r="OS1" s="30"/>
+      <c r="OT1" s="30"/>
+      <c r="OU1" s="30"/>
+      <c r="OV1" s="30"/>
+      <c r="OW1" s="30"/>
+      <c r="OX1" s="30"/>
+      <c r="OY1" s="30"/>
+      <c r="OZ1" s="30"/>
+      <c r="PA1" s="30"/>
+      <c r="PB1" s="30"/>
+      <c r="PC1" s="30"/>
+      <c r="PD1" s="30"/>
+      <c r="PE1" s="30"/>
+      <c r="PF1" s="30"/>
+      <c r="PG1" s="30"/>
+      <c r="PH1" s="30"/>
+      <c r="PI1" s="30"/>
+      <c r="PJ1" s="30"/>
+      <c r="PK1" s="30"/>
+      <c r="PL1" s="30"/>
+      <c r="PM1" s="30"/>
+      <c r="PN1" s="30"/>
+      <c r="PO1" s="30"/>
+      <c r="PP1" s="30"/>
+      <c r="PQ1" s="30"/>
+      <c r="PR1" s="30"/>
+      <c r="PS1" s="30"/>
+      <c r="PT1" s="30"/>
+      <c r="PU1" s="30"/>
+      <c r="PV1" s="30"/>
+      <c r="PW1" s="30"/>
+      <c r="PX1" s="30"/>
+      <c r="PY1" s="30"/>
+      <c r="PZ1" s="30"/>
+      <c r="QA1" s="30"/>
+      <c r="QB1" s="30"/>
+      <c r="QC1" s="30"/>
+      <c r="QD1" s="30"/>
+      <c r="QE1" s="30"/>
+      <c r="QF1" s="30"/>
+      <c r="QG1" s="30"/>
+      <c r="QH1" s="30"/>
+      <c r="QI1" s="30"/>
+      <c r="QJ1" s="30"/>
+      <c r="QK1" s="30"/>
+      <c r="QL1" s="30"/>
+      <c r="QM1" s="30"/>
+      <c r="QN1" s="30"/>
+      <c r="QO1" s="30"/>
+      <c r="QP1" s="30"/>
+      <c r="QQ1" s="30"/>
+      <c r="QR1" s="30"/>
+      <c r="QS1" s="30"/>
+      <c r="QT1" s="30"/>
+      <c r="QU1" s="30"/>
+      <c r="QV1" s="30"/>
+      <c r="QW1" s="30"/>
+      <c r="QX1" s="30"/>
+      <c r="QY1" s="30"/>
+      <c r="QZ1" s="30"/>
+      <c r="RA1" s="30"/>
+      <c r="RB1" s="30"/>
+      <c r="RC1" s="30"/>
+      <c r="RD1" s="30"/>
+      <c r="RE1" s="30"/>
+      <c r="RF1" s="30"/>
+      <c r="RG1" s="30"/>
+      <c r="RH1" s="30"/>
+      <c r="RI1" s="30"/>
+      <c r="RJ1" s="30"/>
+      <c r="RK1" s="30"/>
+      <c r="RL1" s="30"/>
+      <c r="RM1" s="30"/>
+      <c r="RN1" s="30"/>
+      <c r="RO1" s="30"/>
+      <c r="RP1" s="30"/>
+      <c r="RQ1" s="30"/>
+      <c r="RR1" s="30"/>
+      <c r="RS1" s="30"/>
+      <c r="RT1" s="30"/>
+      <c r="RU1" s="30"/>
+      <c r="RV1" s="30"/>
+      <c r="RW1" s="30"/>
+      <c r="RX1" s="30"/>
+      <c r="RY1" s="30"/>
+      <c r="RZ1" s="30"/>
+      <c r="SA1" s="30"/>
+      <c r="SB1" s="30"/>
+      <c r="SC1" s="30"/>
+      <c r="SD1" s="30"/>
+      <c r="SE1" s="30"/>
+      <c r="SF1" s="30"/>
+      <c r="SG1" s="30"/>
+      <c r="SH1" s="30"/>
+      <c r="SI1" s="30"/>
+      <c r="SJ1" s="30"/>
+      <c r="SK1" s="30"/>
+      <c r="SL1" s="30"/>
+      <c r="SM1" s="30"/>
+      <c r="SN1" s="30"/>
+      <c r="SO1" s="30"/>
+      <c r="SP1" s="30"/>
+      <c r="SQ1" s="30"/>
+      <c r="SR1" s="30"/>
+      <c r="SS1" s="30"/>
+      <c r="ST1" s="30"/>
+      <c r="SU1" s="30"/>
+      <c r="SV1" s="30"/>
+      <c r="SW1" s="30"/>
+      <c r="SX1" s="30"/>
+      <c r="SY1" s="30"/>
+      <c r="SZ1" s="30"/>
+      <c r="TA1" s="30"/>
+      <c r="TB1" s="30"/>
+      <c r="TC1" s="30"/>
+      <c r="TD1" s="30"/>
+      <c r="TE1" s="30"/>
+      <c r="TF1" s="30"/>
+      <c r="TG1" s="30"/>
+      <c r="TH1" s="30"/>
+      <c r="TI1" s="30"/>
+      <c r="TJ1" s="30"/>
+      <c r="TK1" s="30"/>
+      <c r="TL1" s="30"/>
+      <c r="TM1" s="30"/>
+      <c r="TN1" s="30"/>
+      <c r="TO1" s="30"/>
+      <c r="TP1" s="30"/>
+      <c r="TQ1" s="30"/>
+      <c r="TR1" s="30"/>
+      <c r="TS1" s="30"/>
+      <c r="TT1" s="30"/>
+      <c r="TU1" s="30"/>
+      <c r="TV1" s="30"/>
+      <c r="TW1" s="30"/>
+      <c r="TX1" s="30"/>
+      <c r="TY1" s="30"/>
+      <c r="TZ1" s="30"/>
+      <c r="UA1" s="30"/>
+      <c r="UB1" s="30"/>
+      <c r="UC1" s="30"/>
+      <c r="UD1" s="30"/>
+      <c r="UE1" s="30"/>
+      <c r="UF1" s="30"/>
+      <c r="UG1" s="30"/>
+      <c r="UH1" s="30"/>
+      <c r="UI1" s="30"/>
+      <c r="UJ1" s="30"/>
+      <c r="UK1" s="30"/>
+      <c r="UL1" s="30"/>
+      <c r="UM1" s="30"/>
+      <c r="UN1" s="30"/>
+      <c r="UO1" s="30"/>
+      <c r="UP1" s="30"/>
+      <c r="UQ1" s="30"/>
+      <c r="UR1" s="30"/>
+      <c r="US1" s="30"/>
+      <c r="UT1" s="30"/>
+      <c r="UU1" s="30"/>
+      <c r="UV1" s="30"/>
+      <c r="UW1" s="30"/>
+      <c r="UX1" s="30"/>
+      <c r="UY1" s="30"/>
+      <c r="UZ1" s="30"/>
+      <c r="VA1" s="30"/>
+      <c r="VB1" s="30"/>
+      <c r="VC1" s="30"/>
+      <c r="VD1" s="30"/>
+      <c r="VE1" s="30"/>
+      <c r="VF1" s="30"/>
+      <c r="VG1" s="30"/>
+      <c r="VH1" s="30"/>
+      <c r="VI1" s="30"/>
+      <c r="VJ1" s="30"/>
+      <c r="VK1" s="30"/>
+      <c r="VL1" s="30"/>
+      <c r="VM1" s="30"/>
+      <c r="VN1" s="30"/>
+      <c r="VO1" s="30"/>
+      <c r="VP1" s="30"/>
+      <c r="VQ1" s="30"/>
+      <c r="VR1" s="30"/>
+      <c r="VS1" s="30"/>
+      <c r="VT1" s="30"/>
+      <c r="VU1" s="30"/>
+      <c r="VV1" s="30"/>
+      <c r="VW1" s="30"/>
+      <c r="VX1" s="30"/>
+      <c r="VY1" s="30"/>
+      <c r="VZ1" s="30"/>
+      <c r="WA1" s="30"/>
+      <c r="WB1" s="30"/>
+      <c r="WC1" s="30"/>
+      <c r="WD1" s="30"/>
+      <c r="WE1" s="30"/>
+      <c r="WF1" s="30"/>
+      <c r="WG1" s="30"/>
+      <c r="WH1" s="30"/>
+      <c r="WI1" s="30"/>
+      <c r="WJ1" s="30"/>
+      <c r="WK1" s="30"/>
+      <c r="WL1" s="30"/>
+      <c r="WM1" s="30"/>
+      <c r="WN1" s="30"/>
+      <c r="WO1" s="30"/>
+      <c r="WP1" s="30"/>
+      <c r="WQ1" s="30"/>
+      <c r="WR1" s="30"/>
+      <c r="WS1" s="30"/>
+      <c r="WT1" s="30"/>
+      <c r="WU1" s="30"/>
+      <c r="WV1" s="30"/>
+      <c r="WW1" s="30"/>
+      <c r="WX1" s="30"/>
+      <c r="WY1" s="30"/>
+      <c r="WZ1" s="30"/>
+      <c r="XA1" s="30"/>
+      <c r="XB1" s="30"/>
+      <c r="XC1" s="30"/>
+      <c r="XD1" s="30"/>
+      <c r="XE1" s="30"/>
+      <c r="XF1" s="30"/>
+      <c r="XG1" s="30"/>
+      <c r="XH1" s="30"/>
+      <c r="XI1" s="30"/>
+      <c r="XJ1" s="30"/>
+      <c r="XK1" s="30"/>
+      <c r="XL1" s="30"/>
+      <c r="XM1" s="30"/>
+      <c r="XN1" s="30"/>
+      <c r="XO1" s="30"/>
+      <c r="XP1" s="30"/>
+      <c r="XQ1" s="30"/>
+      <c r="XR1" s="30"/>
+      <c r="XS1" s="30"/>
+      <c r="XT1" s="30"/>
+      <c r="XU1" s="30"/>
+      <c r="XV1" s="30"/>
+      <c r="XW1" s="30"/>
+      <c r="XX1" s="30"/>
+      <c r="XY1" s="30"/>
+      <c r="XZ1" s="30"/>
+      <c r="YA1" s="30"/>
+      <c r="YB1" s="30"/>
+      <c r="YC1" s="30"/>
+      <c r="YD1" s="30"/>
+      <c r="YE1" s="30"/>
+      <c r="YF1" s="30"/>
+      <c r="YG1" s="30"/>
+      <c r="YH1" s="30"/>
+      <c r="YI1" s="30"/>
+      <c r="YJ1" s="30"/>
+      <c r="YK1" s="30"/>
+      <c r="YL1" s="30"/>
+      <c r="YM1" s="30"/>
+      <c r="YN1" s="30"/>
+      <c r="YO1" s="30"/>
+      <c r="YP1" s="30"/>
+      <c r="YQ1" s="30"/>
+      <c r="YR1" s="30"/>
+      <c r="YS1" s="30"/>
+      <c r="YT1" s="30"/>
+      <c r="YU1" s="30"/>
+      <c r="YV1" s="30"/>
+      <c r="YW1" s="30"/>
+      <c r="YX1" s="30"/>
+      <c r="YY1" s="30"/>
+      <c r="YZ1" s="30"/>
+      <c r="ZA1" s="30"/>
+      <c r="ZB1" s="30"/>
+      <c r="ZC1" s="30"/>
+      <c r="ZD1" s="30"/>
+      <c r="ZE1" s="30"/>
+      <c r="ZF1" s="30"/>
+      <c r="ZG1" s="30"/>
+      <c r="ZH1" s="30"/>
+      <c r="ZI1" s="30"/>
+      <c r="ZJ1" s="30"/>
+      <c r="ZK1" s="30"/>
+      <c r="ZL1" s="30"/>
+      <c r="ZM1" s="30"/>
+      <c r="ZN1" s="30"/>
+      <c r="ZO1" s="30"/>
+      <c r="ZP1" s="30"/>
+      <c r="ZQ1" s="30"/>
+      <c r="ZR1" s="30"/>
+      <c r="ZS1" s="30"/>
+      <c r="ZT1" s="30"/>
+      <c r="ZU1" s="30"/>
+      <c r="ZV1" s="30"/>
+      <c r="ZW1" s="30"/>
+      <c r="ZX1" s="30"/>
+      <c r="ZY1" s="30"/>
+      <c r="ZZ1" s="30"/>
+      <c r="AAA1" s="30"/>
+      <c r="AAB1" s="30"/>
+      <c r="AAC1" s="30"/>
+      <c r="AAD1" s="30"/>
+      <c r="AAE1" s="30"/>
+      <c r="AAF1" s="30"/>
+      <c r="AAG1" s="30"/>
+      <c r="AAH1" s="30"/>
+      <c r="AAI1" s="30"/>
+      <c r="AAJ1" s="30"/>
+      <c r="AAK1" s="30"/>
+      <c r="AAL1" s="30"/>
+      <c r="AAM1" s="30"/>
+      <c r="AAN1" s="30"/>
+      <c r="AAO1" s="30"/>
+      <c r="AAP1" s="30"/>
+      <c r="AAQ1" s="30"/>
+      <c r="AAR1" s="30"/>
+      <c r="AAS1" s="30"/>
+      <c r="AAT1" s="30"/>
+      <c r="AAU1" s="30"/>
+      <c r="AAV1" s="30"/>
+      <c r="AAW1" s="30"/>
+      <c r="AAX1" s="30"/>
+      <c r="AAY1" s="30"/>
+      <c r="AAZ1" s="30"/>
+      <c r="ABA1" s="30"/>
+      <c r="ABB1" s="30"/>
+      <c r="ABC1" s="30"/>
+      <c r="ABD1" s="30"/>
+      <c r="ABE1" s="30"/>
+      <c r="ABF1" s="30"/>
+      <c r="ABG1" s="30"/>
+      <c r="ABH1" s="30"/>
+      <c r="ABI1" s="30"/>
+      <c r="ABJ1" s="30"/>
+      <c r="ABK1" s="30"/>
+      <c r="ABL1" s="30"/>
+      <c r="ABM1" s="30"/>
+      <c r="ABN1" s="30"/>
+      <c r="ABO1" s="30"/>
+      <c r="ABP1" s="30"/>
+      <c r="ABQ1" s="30"/>
+      <c r="ABR1" s="30"/>
+      <c r="ABS1" s="30"/>
+      <c r="ABT1" s="30"/>
+      <c r="ABU1" s="30"/>
+      <c r="ABV1" s="30"/>
+      <c r="ABW1" s="30"/>
+      <c r="ABX1" s="30"/>
+      <c r="ABY1" s="30"/>
+      <c r="ABZ1" s="30"/>
+      <c r="ACA1" s="30"/>
+      <c r="ACB1" s="30"/>
+      <c r="ACC1" s="30"/>
+      <c r="ACD1" s="30"/>
+      <c r="ACE1" s="30"/>
+      <c r="ACF1" s="30"/>
+      <c r="ACG1" s="30"/>
+      <c r="ACH1" s="30"/>
+      <c r="ACI1" s="30"/>
+      <c r="ACJ1" s="30"/>
+      <c r="ACK1" s="30"/>
+      <c r="ACL1" s="30"/>
+      <c r="ACM1" s="30"/>
+      <c r="ACN1" s="30"/>
+      <c r="ACO1" s="30"/>
+      <c r="ACP1" s="30"/>
+      <c r="ACQ1" s="30"/>
+      <c r="ACR1" s="30"/>
+      <c r="ACS1" s="30"/>
+      <c r="ACT1" s="30"/>
+      <c r="ACU1" s="30"/>
+      <c r="ACV1" s="30"/>
+      <c r="ACW1" s="30"/>
+      <c r="ACX1" s="30"/>
+      <c r="ACY1" s="30"/>
+      <c r="ACZ1" s="30"/>
+      <c r="ADA1" s="30"/>
+      <c r="ADB1" s="30"/>
+      <c r="ADC1" s="30"/>
+      <c r="ADD1" s="30"/>
+      <c r="ADE1" s="30"/>
+      <c r="ADF1" s="30"/>
+      <c r="ADG1" s="30"/>
+      <c r="ADH1" s="30"/>
+      <c r="ADI1" s="30"/>
+      <c r="ADJ1" s="30"/>
+      <c r="ADK1" s="30"/>
+      <c r="ADL1" s="30"/>
+      <c r="ADM1" s="30"/>
+      <c r="ADN1" s="30"/>
+      <c r="ADO1" s="30"/>
+      <c r="ADP1" s="30"/>
+      <c r="ADQ1" s="30"/>
+      <c r="ADR1" s="30"/>
+      <c r="ADS1" s="30"/>
+      <c r="ADT1" s="30"/>
+      <c r="ADU1" s="30"/>
+      <c r="ADV1" s="30"/>
+      <c r="ADW1" s="30"/>
+      <c r="ADX1" s="30"/>
+      <c r="ADY1" s="30"/>
+      <c r="ADZ1" s="30"/>
+      <c r="AEA1" s="30"/>
+      <c r="AEB1" s="30"/>
+      <c r="AEC1" s="30"/>
+      <c r="AED1" s="30"/>
+      <c r="AEE1" s="30"/>
+      <c r="AEF1" s="30"/>
+      <c r="AEG1" s="30"/>
+      <c r="AEH1" s="30"/>
+      <c r="AEI1" s="30"/>
+      <c r="AEJ1" s="30"/>
+      <c r="AEK1" s="30"/>
+      <c r="AEL1" s="30"/>
+      <c r="AEM1" s="30"/>
+      <c r="AEN1" s="30"/>
+      <c r="AEO1" s="30"/>
+      <c r="AEP1" s="30"/>
+      <c r="AEQ1" s="30"/>
+      <c r="AER1" s="30"/>
+      <c r="AES1" s="30"/>
+      <c r="AET1" s="30"/>
+      <c r="AEU1" s="30"/>
+      <c r="AEV1" s="30"/>
+      <c r="AEW1" s="30"/>
+      <c r="AEX1" s="30"/>
+      <c r="AEY1" s="30"/>
+      <c r="AEZ1" s="30"/>
+      <c r="AFA1" s="30"/>
+      <c r="AFB1" s="30"/>
+      <c r="AFC1" s="30"/>
+      <c r="AFD1" s="30"/>
+      <c r="AFE1" s="30"/>
+      <c r="AFF1" s="30"/>
+      <c r="AFG1" s="30"/>
+      <c r="AFH1" s="30"/>
+      <c r="AFI1" s="30"/>
+      <c r="AFJ1" s="30"/>
+      <c r="AFK1" s="30"/>
+      <c r="AFL1" s="30"/>
+      <c r="AFM1" s="30"/>
+      <c r="AFN1" s="30"/>
+      <c r="AFO1" s="30"/>
+      <c r="AFP1" s="30"/>
+      <c r="AFQ1" s="30"/>
+      <c r="AFR1" s="30"/>
+      <c r="AFS1" s="30"/>
+      <c r="AFT1" s="30"/>
+      <c r="AFU1" s="30"/>
+      <c r="AFV1" s="30"/>
+      <c r="AFW1" s="30"/>
+      <c r="AFX1" s="30"/>
+      <c r="AFY1" s="30"/>
+      <c r="AFZ1" s="30"/>
+      <c r="AGA1" s="30"/>
+      <c r="AGB1" s="30"/>
+      <c r="AGC1" s="30"/>
+      <c r="AGD1" s="30"/>
+      <c r="AGE1" s="30"/>
+      <c r="AGF1" s="30"/>
+      <c r="AGG1" s="30"/>
+      <c r="AGH1" s="30"/>
+      <c r="AGI1" s="30"/>
+      <c r="AGJ1" s="30"/>
+      <c r="AGK1" s="30"/>
+      <c r="AGL1" s="30"/>
+      <c r="AGM1" s="30"/>
+      <c r="AGN1" s="30"/>
+      <c r="AGO1" s="30"/>
+      <c r="AGP1" s="30"/>
+      <c r="AGQ1" s="30"/>
+      <c r="AGR1" s="30"/>
+      <c r="AGS1" s="30"/>
+      <c r="AGT1" s="30"/>
+      <c r="AGU1" s="30"/>
+      <c r="AGV1" s="30"/>
+      <c r="AGW1" s="30"/>
+      <c r="AGX1" s="30"/>
+      <c r="AGY1" s="30"/>
+      <c r="AGZ1" s="30"/>
+      <c r="AHA1" s="30"/>
+      <c r="AHB1" s="30"/>
+      <c r="AHC1" s="30"/>
+      <c r="AHD1" s="30"/>
+      <c r="AHE1" s="30"/>
+      <c r="AHF1" s="30"/>
+      <c r="AHG1" s="30"/>
+      <c r="AHH1" s="30"/>
+      <c r="AHI1" s="30"/>
+      <c r="AHJ1" s="30"/>
+      <c r="AHK1" s="30"/>
+      <c r="AHL1" s="30"/>
+      <c r="AHM1" s="30"/>
+      <c r="AHN1" s="30"/>
+      <c r="AHO1" s="30"/>
+      <c r="AHP1" s="30"/>
+      <c r="AHQ1" s="30"/>
+      <c r="AHR1" s="30"/>
+      <c r="AHS1" s="30"/>
+      <c r="AHT1" s="30"/>
+      <c r="AHU1" s="30"/>
+      <c r="AHV1" s="30"/>
+      <c r="AHW1" s="30"/>
+      <c r="AHX1" s="30"/>
+      <c r="AHY1" s="30"/>
+      <c r="AHZ1" s="30"/>
+      <c r="AIA1" s="30"/>
+      <c r="AIB1" s="30"/>
+      <c r="AIC1" s="30"/>
+      <c r="AID1" s="30"/>
+      <c r="AIE1" s="30"/>
+      <c r="AIF1" s="30"/>
+      <c r="AIG1" s="30"/>
+      <c r="AIH1" s="30"/>
+      <c r="AII1" s="30"/>
+      <c r="AIJ1" s="30"/>
+      <c r="AIK1" s="30"/>
+      <c r="AIL1" s="30"/>
+      <c r="AIM1" s="30"/>
+      <c r="AIN1" s="30"/>
+      <c r="AIO1" s="30"/>
+      <c r="AIP1" s="30"/>
+      <c r="AIQ1" s="30"/>
+      <c r="AIR1" s="30"/>
+      <c r="AIS1" s="30"/>
+      <c r="AIT1" s="30"/>
+      <c r="AIU1" s="30"/>
+      <c r="AIV1" s="30"/>
+      <c r="AIW1" s="30"/>
+      <c r="AIX1" s="30"/>
+      <c r="AIY1" s="30"/>
+      <c r="AIZ1" s="30"/>
+      <c r="AJA1" s="30"/>
+      <c r="AJB1" s="30"/>
+      <c r="AJC1" s="30"/>
+      <c r="AJD1" s="30"/>
+      <c r="AJE1" s="30"/>
+      <c r="AJF1" s="30"/>
+      <c r="AJG1" s="30"/>
+      <c r="AJH1" s="30"/>
+      <c r="AJI1" s="30"/>
+      <c r="AJJ1" s="30"/>
+      <c r="AJK1" s="30"/>
+      <c r="AJL1" s="30"/>
+      <c r="AJM1" s="30"/>
+      <c r="AJN1" s="30"/>
+      <c r="AJO1" s="30"/>
+      <c r="AJP1" s="30"/>
+      <c r="AJQ1" s="30"/>
+      <c r="AJR1" s="30"/>
+      <c r="AJS1" s="30"/>
+      <c r="AJT1" s="30"/>
+      <c r="AJU1" s="30"/>
+      <c r="AJV1" s="30"/>
+      <c r="AJW1" s="30"/>
+      <c r="AJX1" s="30"/>
+      <c r="AJY1" s="30"/>
+      <c r="AJZ1" s="30"/>
+      <c r="AKA1" s="30"/>
+      <c r="AKB1" s="30"/>
+      <c r="AKC1" s="30"/>
+      <c r="AKD1" s="30"/>
+      <c r="AKE1" s="30"/>
+      <c r="AKF1" s="30"/>
+      <c r="AKG1" s="30"/>
+      <c r="AKH1" s="30"/>
+      <c r="AKI1" s="30"/>
+      <c r="AKJ1" s="30"/>
+      <c r="AKK1" s="30"/>
+      <c r="AKL1" s="30"/>
+      <c r="AKM1" s="30"/>
+      <c r="AKN1" s="30"/>
+      <c r="AKO1" s="30"/>
+      <c r="AKP1" s="30"/>
+      <c r="AKQ1" s="30"/>
+      <c r="AKR1" s="30"/>
+      <c r="AKS1" s="30"/>
+      <c r="AKT1" s="30"/>
+      <c r="AKU1" s="30"/>
+      <c r="AKV1" s="30"/>
+      <c r="AKW1" s="30"/>
+      <c r="AKX1" s="30"/>
+      <c r="AKY1" s="30"/>
+      <c r="AKZ1" s="30"/>
+      <c r="ALA1" s="30"/>
+      <c r="ALB1" s="30"/>
+      <c r="ALC1" s="30"/>
+      <c r="ALD1" s="30"/>
+      <c r="ALE1" s="30"/>
+      <c r="ALF1" s="30"/>
+      <c r="ALG1" s="30"/>
+      <c r="ALH1" s="30"/>
+      <c r="ALI1" s="30"/>
+      <c r="ALJ1" s="30"/>
+      <c r="ALK1" s="30"/>
+      <c r="ALL1" s="30"/>
+      <c r="ALM1" s="30"/>
+      <c r="ALN1" s="30"/>
+      <c r="ALO1" s="30"/>
+      <c r="ALP1" s="30"/>
+      <c r="ALQ1" s="30"/>
+      <c r="ALR1" s="30"/>
+      <c r="ALS1" s="30"/>
+      <c r="ALT1" s="30"/>
+      <c r="ALU1" s="30"/>
+      <c r="ALV1" s="30"/>
+      <c r="ALW1" s="30"/>
+      <c r="ALX1" s="30"/>
+      <c r="ALY1" s="30"/>
+      <c r="ALZ1" s="30"/>
+      <c r="AMA1" s="30"/>
+      <c r="AMB1" s="30"/>
+      <c r="AMC1" s="30"/>
+      <c r="AMD1" s="30"/>
+      <c r="AME1" s="30"/>
+      <c r="AMF1" s="30"/>
+      <c r="AMG1" s="30"/>
+      <c r="AMH1" s="30"/>
+      <c r="AMI1" s="30"/>
+      <c r="AMJ1" s="30"/>
+      <c r="AMK1" s="30"/>
+      <c r="AML1" s="30"/>
+      <c r="AMM1" s="30"/>
+      <c r="AMN1" s="30"/>
+      <c r="AMO1" s="30"/>
+    </row>
+    <row r="2" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15" t="s">
+        <v>359</v>
+      </c>
+      <c r="F15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1029" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="E17" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="E19" t="s">
+        <v>359</v>
+      </c>
+      <c r="F19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2116,7 +4674,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -2139,8 +4697,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -2148,21 +4706,21 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="78" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.453125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +4755,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2223,7 +4781,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2244,14 +4802,14 @@
       </c>
       <c r="H3" t="str">
         <f ca="1">TEXT(TODAY()+15,"mm/dd/yyyy")</f>
-        <v>11/16/2022</v>
+        <v>11/18/2022</v>
       </c>
       <c r="I3" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>11/26/2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>11/28/2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -2274,7 +4832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -2285,7 +4843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2293,7 +4851,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -2316,7 +4874,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -2339,7 +4897,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -2358,7 +4916,7 @@
       <c r="F9" s="7"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -2366,7 +4924,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -2374,7 +4932,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -2394,7 +4952,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -2414,7 +4972,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>224</v>
       </c>
@@ -2435,7 +4993,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>225</v>
       </c>
@@ -2456,7 +5014,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>226</v>
       </c>
@@ -2477,7 +5035,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>227</v>
       </c>
@@ -2504,31 +5062,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="4.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="5.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2566,7 +5124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2582,7 +5140,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2596,7 +5154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2610,7 +5168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -2624,7 +5182,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -2638,7 +5196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -2654,7 +5212,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2665,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2676,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2687,7 +5245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -2711,22 +5269,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212A931B-B5A0-4D20-AB7B-9542993AD90C}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="72.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="72.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2737,7 +5295,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2752,100 +5310,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.453125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>235</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4582264E-62C6-4DD3-B478-D5EDFCEEE5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6153367B-1E3B-490B-BFB4-6DED38F2417A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="393">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -1163,6 +1163,60 @@
   </si>
   <si>
     <t>ATE009</t>
+  </si>
+  <si>
+    <t>Test Contact 1&lt;break&gt;Test Contact 5&lt;break&gt;+6</t>
+  </si>
+  <si>
+    <t>Test Contact 6&lt;break&gt;Test Account 2&lt;break&gt;Test Account 3&lt;break&gt;Test Account 4&lt;break&gt;Connection Deal 4</t>
+  </si>
+  <si>
+    <t>ATE_004</t>
+  </si>
+  <si>
+    <t>Nav Task 121</t>
+  </si>
+  <si>
+    <t>Test Account 1&lt;break&gt;Test Contact 1&lt;break&gt;Test Contact 4</t>
+  </si>
+  <si>
+    <t>11/17/2022</t>
+  </si>
+  <si>
+    <t>This is Navatar Activity to Verify View All Functionality.</t>
+  </si>
+  <si>
+    <t>ATERecord004</t>
+  </si>
+  <si>
+    <t>ATE_005</t>
+  </si>
+  <si>
+    <t>Nav Task 122</t>
+  </si>
+  <si>
+    <t>ATE010</t>
+  </si>
+  <si>
+    <t>ATE_Con4</t>
+  </si>
+  <si>
+    <t>ATERecord005</t>
+  </si>
+  <si>
+    <t>ATE011</t>
+  </si>
+  <si>
+    <t>ATE012</t>
+  </si>
+  <si>
+    <t>Test Contact 144</t>
+  </si>
+  <si>
+    <t>Team Lead</t>
+  </si>
+  <si>
+    <t>Test Contact 3</t>
   </si>
 </sst>
 </file>
@@ -1656,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,6 +1953,22 @@
       </c>
       <c r="B32" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>382</v>
+      </c>
+      <c r="B33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>387</v>
+      </c>
+      <c r="B34" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2441,7 +2511,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
@@ -2743,6 +2813,14 @@
       </c>
       <c r="D26" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>386</v>
+      </c>
+      <c r="D27" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2949,24 +3027,26 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="78" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="76.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="148.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -3086,11 +3166,11 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">TEXT(TODAY()+15,"mm/dd/yyyy")</f>
-        <v>12/01/2022</v>
+        <v>12/06/2022</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>12/11/2022</v>
+        <v>12/16/2022</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -3444,18 +3524,70 @@
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+      <c r="A25" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="F25" t="s">
+        <v>380</v>
+      </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="K25" s="31">
+        <v>0</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="M25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="F26" t="s">
+        <v>380</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31">
+        <v>0</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="M26" t="s">
+        <v>326</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3466,10 +3598,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3966,6 +4098,21 @@
       <c r="G26">
         <v>1</v>
       </c>
+      <c r="H26" t="s">
+        <v>280</v>
+      </c>
+      <c r="I26" t="s">
+        <v>328</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
       <c r="Q26" t="s">
         <v>357</v>
       </c>
@@ -3980,6 +4127,12 @@
       </c>
       <c r="U26">
         <v>0</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
@@ -4004,6 +4157,24 @@
       <c r="G27">
         <v>1</v>
       </c>
+      <c r="H27" t="s">
+        <v>390</v>
+      </c>
+      <c r="I27" t="s">
+        <v>391</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -4027,6 +4198,21 @@
       <c r="G28">
         <v>1</v>
       </c>
+      <c r="H28" t="s">
+        <v>392</v>
+      </c>
+      <c r="I28" t="s">
+        <v>311</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -4038,6 +4224,12 @@
       <c r="C29">
         <v>1</v>
       </c>
+      <c r="D29" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -4047,6 +4239,45 @@
         <v>367</v>
       </c>
       <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31" t="s">
+        <v>346</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>388</v>
+      </c>
+      <c r="B32" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>389</v>
+      </c>
+      <c r="B33" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33">
         <v>1</v>
       </c>
     </row>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6153367B-1E3B-490B-BFB4-6DED38F2417A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A955453-190E-45C8-8296-DA99F734F2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="613">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -1108,12 +1108,6 @@
     <t>Connection_Email</t>
   </si>
   <si>
-    <t>User 1</t>
-  </si>
-  <si>
-    <t>User 2</t>
-  </si>
-  <si>
     <t>ATE005</t>
   </si>
   <si>
@@ -1217,6 +1211,672 @@
   </si>
   <si>
     <t>Test Contact 3</t>
+  </si>
+  <si>
+    <t>ATE013</t>
+  </si>
+  <si>
+    <t>ATE014</t>
+  </si>
+  <si>
+    <t>ATE015</t>
+  </si>
+  <si>
+    <t>InTest Account 7</t>
+  </si>
+  <si>
+    <t>CTest Account 12</t>
+  </si>
+  <si>
+    <t>CTest Account 13</t>
+  </si>
+  <si>
+    <t>ATest Account 16</t>
+  </si>
+  <si>
+    <t>ATest Account 17</t>
+  </si>
+  <si>
+    <t>InsTest Account 18</t>
+  </si>
+  <si>
+    <t>InsTest Account 19</t>
+  </si>
+  <si>
+    <t>PCTest Account 22</t>
+  </si>
+  <si>
+    <t>CTest Account 11</t>
+  </si>
+  <si>
+    <t>CTest Account 14</t>
+  </si>
+  <si>
+    <t>ATest Account 15</t>
+  </si>
+  <si>
+    <t>ATE016</t>
+  </si>
+  <si>
+    <t>ATE017</t>
+  </si>
+  <si>
+    <t>ATE018</t>
+  </si>
+  <si>
+    <t>ATE019</t>
+  </si>
+  <si>
+    <t>ATE020</t>
+  </si>
+  <si>
+    <t>ATE021</t>
+  </si>
+  <si>
+    <t>ATE022</t>
+  </si>
+  <si>
+    <t>ATE023</t>
+  </si>
+  <si>
+    <t>ATE024</t>
+  </si>
+  <si>
+    <t>ATE025</t>
+  </si>
+  <si>
+    <t>ATE026</t>
+  </si>
+  <si>
+    <t>ATE027</t>
+  </si>
+  <si>
+    <t>ATE028</t>
+  </si>
+  <si>
+    <t>ATE029</t>
+  </si>
+  <si>
+    <t>ATE030</t>
+  </si>
+  <si>
+    <t>ATE031</t>
+  </si>
+  <si>
+    <t>Test Contact 14</t>
+  </si>
+  <si>
+    <t>Test Contact 15</t>
+  </si>
+  <si>
+    <t>Test Contact 13</t>
+  </si>
+  <si>
+    <t>Test Contact 12</t>
+  </si>
+  <si>
+    <t>Test Contact 16</t>
+  </si>
+  <si>
+    <t>Test Contact 11</t>
+  </si>
+  <si>
+    <t>Test Contact 10</t>
+  </si>
+  <si>
+    <t>Connection Deal 5</t>
+  </si>
+  <si>
+    <t>Connection Deal 6</t>
+  </si>
+  <si>
+    <t>Connection Deal 7</t>
+  </si>
+  <si>
+    <t>Connection Deal 12</t>
+  </si>
+  <si>
+    <t>Connection Deal 13</t>
+  </si>
+  <si>
+    <t>Connection Deal 11</t>
+  </si>
+  <si>
+    <t>Connection Deal 14</t>
+  </si>
+  <si>
+    <t>Connection Deal 15</t>
+  </si>
+  <si>
+    <t>Connection Deal 8</t>
+  </si>
+  <si>
+    <t>Connection Deal 9</t>
+  </si>
+  <si>
+    <t>Connection Deal 10</t>
+  </si>
+  <si>
+    <t>Test Lead</t>
+  </si>
+  <si>
+    <t>Test Contact 124</t>
+  </si>
+  <si>
+    <t>Test Contact 125</t>
+  </si>
+  <si>
+    <t>Test Contact 126</t>
+  </si>
+  <si>
+    <t>Test Contact 127</t>
+  </si>
+  <si>
+    <t>Test Contact 128</t>
+  </si>
+  <si>
+    <t>Test Contact 129</t>
+  </si>
+  <si>
+    <t>Test Contact 130</t>
+  </si>
+  <si>
+    <t>Test Contact 131</t>
+  </si>
+  <si>
+    <t>Test Contact 132</t>
+  </si>
+  <si>
+    <t>Test Contact 133</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Project Lead</t>
+  </si>
+  <si>
+    <t>Nav Task 2</t>
+  </si>
+  <si>
+    <t>Nav Task 3</t>
+  </si>
+  <si>
+    <t>Nav Task 4</t>
+  </si>
+  <si>
+    <t>Nav Task 5</t>
+  </si>
+  <si>
+    <t>Nav Task 6</t>
+  </si>
+  <si>
+    <t>Nav Task 7</t>
+  </si>
+  <si>
+    <t>Nav Task 8</t>
+  </si>
+  <si>
+    <t>Nav Task 9</t>
+  </si>
+  <si>
+    <t>Nav Task 10</t>
+  </si>
+  <si>
+    <t>Nav Task 11</t>
+  </si>
+  <si>
+    <t>PE User 1</t>
+  </si>
+  <si>
+    <t>PE User 2</t>
+  </si>
+  <si>
+    <t>PE User 3</t>
+  </si>
+  <si>
+    <t>PE User 4</t>
+  </si>
+  <si>
+    <t>PE User 5</t>
+  </si>
+  <si>
+    <t>PE User 6</t>
+  </si>
+  <si>
+    <t>PE User 7</t>
+  </si>
+  <si>
+    <t>PE User 8</t>
+  </si>
+  <si>
+    <t>PE User 9</t>
+  </si>
+  <si>
+    <t>PE User 10</t>
+  </si>
+  <si>
+    <t>11/23/2023</t>
+  </si>
+  <si>
+    <t>Nav Event 2</t>
+  </si>
+  <si>
+    <t>Nav Event 3</t>
+  </si>
+  <si>
+    <t>Nav Event 4</t>
+  </si>
+  <si>
+    <t>Nav Event 5</t>
+  </si>
+  <si>
+    <t>Nav Event 6</t>
+  </si>
+  <si>
+    <t>Nav Event 7</t>
+  </si>
+  <si>
+    <t>Nav Event 8</t>
+  </si>
+  <si>
+    <t>Nav Event 9</t>
+  </si>
+  <si>
+    <t>Nav Event 10</t>
+  </si>
+  <si>
+    <t>Nav Event 11</t>
+  </si>
+  <si>
+    <t>Nav Event 12</t>
+  </si>
+  <si>
+    <t>Nav Event 13</t>
+  </si>
+  <si>
+    <t>Nav Event 14</t>
+  </si>
+  <si>
+    <t>Nav Event 15</t>
+  </si>
+  <si>
+    <t>Nav Event 16</t>
+  </si>
+  <si>
+    <t>Nav Event 17</t>
+  </si>
+  <si>
+    <t>Nav Event 18</t>
+  </si>
+  <si>
+    <t>Nav Event 19</t>
+  </si>
+  <si>
+    <t>Nav Event 20</t>
+  </si>
+  <si>
+    <t>Nav Event 21</t>
+  </si>
+  <si>
+    <t>Nav Event 22</t>
+  </si>
+  <si>
+    <t>Nav Event 23</t>
+  </si>
+  <si>
+    <t>Nav Event 24</t>
+  </si>
+  <si>
+    <t>Nav Event 25</t>
+  </si>
+  <si>
+    <t>Nav Event 26</t>
+  </si>
+  <si>
+    <t>Nav Event 27</t>
+  </si>
+  <si>
+    <t>Nav Event 28</t>
+  </si>
+  <si>
+    <t>Nav Event 29</t>
+  </si>
+  <si>
+    <t>Nav Event 30</t>
+  </si>
+  <si>
+    <t>Nav Event 31</t>
+  </si>
+  <si>
+    <t>ATE_006</t>
+  </si>
+  <si>
+    <t>ATE_007</t>
+  </si>
+  <si>
+    <t>ATE_008</t>
+  </si>
+  <si>
+    <t>ATE_009</t>
+  </si>
+  <si>
+    <t>ATE_010</t>
+  </si>
+  <si>
+    <t>ATE_011</t>
+  </si>
+  <si>
+    <t>ATE_012</t>
+  </si>
+  <si>
+    <t>ATE_013</t>
+  </si>
+  <si>
+    <t>ATE_014</t>
+  </si>
+  <si>
+    <t>ATE_015</t>
+  </si>
+  <si>
+    <t>ATE_016</t>
+  </si>
+  <si>
+    <t>ATE_017</t>
+  </si>
+  <si>
+    <t>ATE_018</t>
+  </si>
+  <si>
+    <t>ATE_019</t>
+  </si>
+  <si>
+    <t>ATE_020</t>
+  </si>
+  <si>
+    <t>ATE_021</t>
+  </si>
+  <si>
+    <t>ATE_022</t>
+  </si>
+  <si>
+    <t>ATE_023</t>
+  </si>
+  <si>
+    <t>ATE_024</t>
+  </si>
+  <si>
+    <t>ATE_025</t>
+  </si>
+  <si>
+    <t>ATE_026</t>
+  </si>
+  <si>
+    <t>ATE_027</t>
+  </si>
+  <si>
+    <t>ATE_028</t>
+  </si>
+  <si>
+    <t>ATE_029</t>
+  </si>
+  <si>
+    <t>ATE_030</t>
+  </si>
+  <si>
+    <t>ATE_031</t>
+  </si>
+  <si>
+    <t>ATE_032</t>
+  </si>
+  <si>
+    <t>ATE_033</t>
+  </si>
+  <si>
+    <t>ATE_034</t>
+  </si>
+  <si>
+    <t>ATE_035</t>
+  </si>
+  <si>
+    <t>ATE_036</t>
+  </si>
+  <si>
+    <t>ATE_037</t>
+  </si>
+  <si>
+    <t>ATE_038</t>
+  </si>
+  <si>
+    <t>ATE_039</t>
+  </si>
+  <si>
+    <t>ATE_040</t>
+  </si>
+  <si>
+    <t>ATE_041</t>
+  </si>
+  <si>
+    <t>ATE_042</t>
+  </si>
+  <si>
+    <t>ATE_043</t>
+  </si>
+  <si>
+    <t>ATE_044</t>
+  </si>
+  <si>
+    <t>ATE_045</t>
+  </si>
+  <si>
+    <t>ATE_046</t>
+  </si>
+  <si>
+    <t>ATE_047</t>
+  </si>
+  <si>
+    <t>ATE_048</t>
+  </si>
+  <si>
+    <t>ATE_049</t>
+  </si>
+  <si>
+    <t>ATE_050</t>
+  </si>
+  <si>
+    <t>ATE_051</t>
+  </si>
+  <si>
+    <t>ATE_052</t>
+  </si>
+  <si>
+    <t>ATE_053</t>
+  </si>
+  <si>
+    <t>ATE_054</t>
+  </si>
+  <si>
+    <t>ATE_055</t>
+  </si>
+  <si>
+    <t>ATE_056</t>
+  </si>
+  <si>
+    <t>ATE_057</t>
+  </si>
+  <si>
+    <t>ATE_058</t>
+  </si>
+  <si>
+    <t>ATE_059</t>
+  </si>
+  <si>
+    <t>ATE_060</t>
+  </si>
+  <si>
+    <t>ATE_061</t>
+  </si>
+  <si>
+    <t>ATE_062</t>
+  </si>
+  <si>
+    <t>ATE_063</t>
+  </si>
+  <si>
+    <t>ATE_064</t>
+  </si>
+  <si>
+    <t>ATE_065</t>
+  </si>
+  <si>
+    <t>ATE_066</t>
+  </si>
+  <si>
+    <t>ATE_067</t>
+  </si>
+  <si>
+    <t>ATE_068</t>
+  </si>
+  <si>
+    <t>ATE_069</t>
+  </si>
+  <si>
+    <t>ATE_070</t>
+  </si>
+  <si>
+    <t>ATE_071</t>
+  </si>
+  <si>
+    <t>ATE_072</t>
+  </si>
+  <si>
+    <t>ATE_073</t>
+  </si>
+  <si>
+    <t>ATE_074</t>
+  </si>
+  <si>
+    <t>ATE_075</t>
+  </si>
+  <si>
+    <t>11/22/2022</t>
+  </si>
+  <si>
+    <t>11/22/2023</t>
+  </si>
+  <si>
+    <t>10/22/2022</t>
+  </si>
+  <si>
+    <t>11/22/2022, 10:30 AM</t>
+  </si>
+  <si>
+    <t>10/22/2022, 11:30 AM</t>
+  </si>
+  <si>
+    <t>11/22/2023, 10:30 AM</t>
+  </si>
+  <si>
+    <t>Nav Call 2</t>
+  </si>
+  <si>
+    <t>Nav Call 3</t>
+  </si>
+  <si>
+    <t>Nav Call 4</t>
+  </si>
+  <si>
+    <t>Nav Call 5</t>
+  </si>
+  <si>
+    <t>Nav Call 6</t>
+  </si>
+  <si>
+    <t>Nav Call 7</t>
+  </si>
+  <si>
+    <t>Nav Call 8</t>
+  </si>
+  <si>
+    <t>Nav Call 9</t>
+  </si>
+  <si>
+    <t>Nav Call 10</t>
+  </si>
+  <si>
+    <t>Nav Call 11</t>
+  </si>
+  <si>
+    <t>Nav Call 12</t>
+  </si>
+  <si>
+    <t>Nav Call 13</t>
+  </si>
+  <si>
+    <t>Nav Call 14</t>
+  </si>
+  <si>
+    <t>Nav Call 15</t>
+  </si>
+  <si>
+    <t>Nav Call 16</t>
+  </si>
+  <si>
+    <t>Nav Call 17</t>
+  </si>
+  <si>
+    <t>Nav Call 18</t>
+  </si>
+  <si>
+    <t>Nav Call 19</t>
+  </si>
+  <si>
+    <t>Nav Call 20</t>
+  </si>
+  <si>
+    <t>Nav Call 21</t>
+  </si>
+  <si>
+    <t>Nav Call 22</t>
+  </si>
+  <si>
+    <t>Nav Call 23</t>
+  </si>
+  <si>
+    <t>Nav Call 24</t>
+  </si>
+  <si>
+    <t>Nav Call 25</t>
+  </si>
+  <si>
+    <t>Nav Call 26</t>
+  </si>
+  <si>
+    <t>Nav Call 27</t>
+  </si>
+  <si>
+    <t>Nav Call 28</t>
+  </si>
+  <si>
+    <t>Nav Call 29</t>
+  </si>
+  <si>
+    <t>Nav Call 30</t>
+  </si>
+  <si>
+    <t>Nav Call 31</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>System Adminstrator</t>
+  </si>
+  <si>
+    <t>A firm is a commercial enterprise, a company that buys and sells products and/or services to consumers with the aim of making a profit. In the world of commerce, the term is usually synonymous with ‘company’, or ‘business’ as in “She runs a forex trading business.” A business entity such as a corporation, limited liability company, public limited company, sole proprietorship, or partnership that has products or services for sale is a firm. Law, accountancy and management consultancy partnerships are known as firms, and are rarely referred to as companies.</t>
+  </si>
+  <si>
+    <t>A business entity such as a corporation, limited liability company, public limited company, sole proprietorship, or partnership that has products or services for sale is a firm. Law, accountancy and management consultancy partnerships are known as firms, and are rarely referred to as companies.</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1961,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1339,13 +1999,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1422,6 +2095,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1741,11 +2436,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1957,7 +2652,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B33" t="s">
         <v>346</v>
@@ -1965,7 +2660,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B34" t="s">
         <v>331</v>
@@ -2262,10 +2957,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="43"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2514,7 +3209,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2817,7 +3512,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D27" t="s">
         <v>313</v>
@@ -3027,22 +3722,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="76.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="148.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="58.77734375" style="34" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.21875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -3059,7 +3755,7 @@
       <c r="C1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="35" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -3095,7 +3791,7 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -3108,7 +3804,7 @@
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="28" t="s">
         <v>317</v>
       </c>
@@ -3129,7 +3825,7 @@
       <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="34" t="s">
         <v>33</v>
       </c>
       <c r="E4" t="s">
@@ -3155,7 +3851,7 @@
       <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="34" t="s">
         <v>62</v>
       </c>
       <c r="E5" t="s">
@@ -3166,11 +3862,11 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">TEXT(TODAY()+15,"mm/dd/yyyy")</f>
-        <v>12/06/2022</v>
+        <v>12/12/2022</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>12/16/2022</v>
+        <v>12/22/2022</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -3183,7 +3879,7 @@
       <c r="C6" t="s">
         <v>69</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="34" t="s">
         <v>70</v>
       </c>
       <c r="E6" t="s">
@@ -3200,7 +3896,7 @@
       <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="34" t="s">
         <v>78</v>
       </c>
       <c r="G7" t="s">
@@ -3211,7 +3907,7 @@
       <c r="A8" t="s">
         <v>79</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="34" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3225,7 +3921,7 @@
       <c r="C9" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E9" t="s">
@@ -3248,7 +3944,7 @@
       <c r="C10" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E10" t="s">
@@ -3271,7 +3967,7 @@
       <c r="C11" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E11" t="s">
@@ -3346,7 +4042,7 @@
       <c r="C16" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="37" t="s">
         <v>211</v>
       </c>
       <c r="E16" s="22" t="s">
@@ -3367,7 +4063,7 @@
       <c r="C17" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="37" t="s">
         <v>215</v>
       </c>
       <c r="E17" s="22" t="s">
@@ -3388,7 +4084,7 @@
       <c r="C18" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="37" t="s">
         <v>217</v>
       </c>
       <c r="E18" s="22" t="s">
@@ -3409,7 +4105,7 @@
       <c r="C19" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="37" t="s">
         <v>217</v>
       </c>
       <c r="E19" s="22" t="s">
@@ -3424,7 +4120,7 @@
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="11" t="s">
         <v>292</v>
       </c>
@@ -3445,7 +4141,7 @@
       <c r="C22" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="39" t="s">
         <v>321</v>
       </c>
       <c r="E22" s="31" t="s">
@@ -3476,7 +4172,7 @@
       <c r="C23" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="39" t="s">
         <v>321</v>
       </c>
       <c r="E23" s="31" t="s">
@@ -3488,7 +4184,9 @@
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="J23" s="13" t="s">
+        <v>462</v>
+      </c>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
       <c r="M23" t="s">
@@ -3497,50 +4195,52 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>235</v>
       </c>
       <c r="C24" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>360</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>362</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="J24" s="31"/>
+        <v>362</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>463</v>
+      </c>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>213</v>
       </c>
       <c r="C25" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="F25" t="s">
         <v>378</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="F25" t="s">
-        <v>380</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
@@ -3557,37 +4257,1921 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="B26" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="E26" s="31" t="s">
+      <c r="C26" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" s="41" t="s">
         <v>379</v>
       </c>
+      <c r="E26" s="40" t="s">
+        <v>377</v>
+      </c>
       <c r="F26" t="s">
-        <v>380</v>
-      </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31">
-        <v>0</v>
-      </c>
-      <c r="L26" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40">
+        <v>0</v>
+      </c>
+      <c r="L26" s="40" t="s">
         <v>325</v>
       </c>
       <c r="M26" t="s">
         <v>326</v>
       </c>
+    </row>
+    <row r="27" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
+        <v>504</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+    </row>
+    <row r="39" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+    </row>
+    <row r="42" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+    </row>
+    <row r="43" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+    </row>
+    <row r="44" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+    </row>
+    <row r="46" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="31" t="s">
+        <v>522</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+    </row>
+    <row r="47" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+    </row>
+    <row r="48" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+    </row>
+    <row r="49" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+    </row>
+    <row r="50" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+    </row>
+    <row r="51" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+    </row>
+    <row r="52" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+    </row>
+    <row r="53" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+    </row>
+    <row r="54" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="31" t="s">
+        <v>530</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+    </row>
+    <row r="55" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A55" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+    </row>
+    <row r="56" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+    </row>
+    <row r="57" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A57" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+    </row>
+    <row r="58" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A58" s="31" t="s">
+        <v>534</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+    </row>
+    <row r="59" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+    </row>
+    <row r="60" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A60" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+    </row>
+    <row r="61" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+    </row>
+    <row r="62" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+    </row>
+    <row r="63" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A63" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+    </row>
+    <row r="64" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A64" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+    </row>
+    <row r="65" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A65" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+    </row>
+    <row r="66" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A66" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+    </row>
+    <row r="70" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A70" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+    </row>
+    <row r="71" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A71" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+    </row>
+    <row r="72" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A72" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+    </row>
+    <row r="73" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A73" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+    </row>
+    <row r="74" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A74" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+    </row>
+    <row r="75" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A75" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+    </row>
+    <row r="76" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A76" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+    </row>
+    <row r="77" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A77" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+    </row>
+    <row r="78" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A78" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+    </row>
+    <row r="79" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A79" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+    </row>
+    <row r="80" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A80" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+    </row>
+    <row r="81" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A81" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+    </row>
+    <row r="82" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A82" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+    </row>
+    <row r="83" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A83" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+    </row>
+    <row r="84" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A84" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+    </row>
+    <row r="85" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A85" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+    </row>
+    <row r="86" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A86" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+    </row>
+    <row r="87" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A87" s="31" t="s">
+        <v>563</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+    </row>
+    <row r="88" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A88" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+    </row>
+    <row r="89" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A89" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+    </row>
+    <row r="90" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A90" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+    </row>
+    <row r="91" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A91" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+    </row>
+    <row r="92" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A92" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+    </row>
+    <row r="93" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A93" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+    </row>
+    <row r="94" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A94" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+    </row>
+    <row r="95" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A95" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+    </row>
+    <row r="96" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A96" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3598,10 +6182,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3611,7 +6195,7 @@
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3622,7 +6206,9 @@
     <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" customWidth="1"/>
+    <col min="19" max="21" width="17.33203125" customWidth="1"/>
     <col min="22" max="22" width="48.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="33.77734375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="61.77734375" bestFit="1" customWidth="1"/>
@@ -4054,8 +6640,8 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="Q25" t="s">
-        <v>356</v>
+      <c r="Q25" s="13" t="s">
+        <v>462</v>
       </c>
       <c r="R25" t="s">
         <v>328</v>
@@ -4078,7 +6664,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B26" t="s">
         <v>331</v>
@@ -4113,8 +6699,8 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="Q26" t="s">
-        <v>357</v>
+      <c r="Q26" s="13" t="s">
+        <v>463</v>
       </c>
       <c r="R26" t="s">
         <v>311</v>
@@ -4129,15 +6715,15 @@
         <v>0</v>
       </c>
       <c r="AA26" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AB26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B27" t="s">
         <v>346</v>
@@ -4146,7 +6732,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -4158,10 +6744,10 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4170,6 +6756,21 @@
         <v>0</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="R27" t="s">
+        <v>328</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>35</v>
+      </c>
+      <c r="U27">
         <v>0</v>
       </c>
       <c r="AA27" t="s">
@@ -4178,28 +6779,28 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I28" t="s">
         <v>311</v>
@@ -4213,13 +6814,28 @@
       <c r="L28">
         <v>0</v>
       </c>
+      <c r="Q28" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="R28" t="s">
+        <v>311</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>23</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -4230,13 +6846,49 @@
       <c r="E29">
         <v>3</v>
       </c>
+      <c r="F29" t="s">
+        <v>428</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>388</v>
+      </c>
+      <c r="I29" t="s">
+        <v>439</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="R29" t="s">
+        <v>609</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>22</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -4247,10 +6899,46 @@
       <c r="E30">
         <v>2</v>
       </c>
+      <c r="F30" t="s">
+        <v>429</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>284</v>
+      </c>
+      <c r="I30" t="s">
+        <v>329</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="R30" t="s">
+        <v>610</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>22</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B31" t="s">
         <v>346</v>
@@ -4258,10 +6946,52 @@
       <c r="C31">
         <v>4</v>
       </c>
+      <c r="D31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>433</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>280</v>
+      </c>
+      <c r="I31" t="s">
+        <v>328</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>62</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="R31" t="s">
+        <v>328</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>22</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B32" t="s">
         <v>315</v>
@@ -4269,15 +6999,566 @@
       <c r="C32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>431</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>440</v>
+      </c>
+      <c r="I32" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>44</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="R32" t="s">
+        <v>609</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>21</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B33" t="s">
         <v>346</v>
       </c>
       <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>421</v>
+      </c>
+      <c r="E33">
+        <v>46</v>
+      </c>
+      <c r="F33" t="s">
+        <v>432</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>313</v>
+      </c>
+      <c r="I33" t="s">
+        <v>329</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>44</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="R33" t="s">
+        <v>328</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>21</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>391</v>
+      </c>
+      <c r="B34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E34">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>434</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>441</v>
+      </c>
+      <c r="I34" t="s">
+        <v>450</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="R34" t="s">
+        <v>311</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>20</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>392</v>
+      </c>
+      <c r="B35" t="s">
+        <v>331</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>284</v>
+      </c>
+      <c r="E35">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
+        <v>435</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>442</v>
+      </c>
+      <c r="I35" t="s">
+        <v>328</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="R35" t="s">
+        <v>311</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>20</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>393</v>
+      </c>
+      <c r="B36" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>423</v>
+      </c>
+      <c r="E36">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>430</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>443</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="R36" s="34" t="s">
+        <v>610</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>18</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="C37">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>424</v>
+      </c>
+      <c r="E37">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>436</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>444</v>
+      </c>
+      <c r="I37" t="s">
+        <v>389</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>406</v>
+      </c>
+      <c r="B38" t="s">
+        <v>394</v>
+      </c>
+      <c r="C38">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>425</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>437</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>445</v>
+      </c>
+      <c r="I38" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>407</v>
+      </c>
+      <c r="B39" t="s">
+        <v>395</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>426</v>
+      </c>
+      <c r="E39">
+        <v>42</v>
+      </c>
+      <c r="F39" t="s">
+        <v>438</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>446</v>
+      </c>
+      <c r="I39" t="s">
+        <v>450</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>408</v>
+      </c>
+      <c r="B40" t="s">
+        <v>396</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>427</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>447</v>
+      </c>
+      <c r="I40" t="s">
+        <v>328</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>409</v>
+      </c>
+      <c r="B41" t="s">
+        <v>397</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>448</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>410</v>
+      </c>
+      <c r="B42" t="s">
+        <v>398</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>449</v>
+      </c>
+      <c r="I42" t="s">
+        <v>389</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>411</v>
+      </c>
+      <c r="B43" t="s">
+        <v>399</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>412</v>
+      </c>
+      <c r="B44" t="s">
+        <v>400</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>413</v>
+      </c>
+      <c r="B45" t="s">
+        <v>401</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B46" t="s">
+        <v>402</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>415</v>
+      </c>
+      <c r="B47" t="s">
+        <v>403</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>416</v>
+      </c>
+      <c r="B48" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>417</v>
+      </c>
+      <c r="B49" t="s">
+        <v>404</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>418</v>
+      </c>
+      <c r="B50" t="s">
+        <v>363</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>419</v>
+      </c>
+      <c r="B51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>420</v>
+      </c>
+      <c r="B52" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52">
         <v>1</v>
       </c>
     </row>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A955453-190E-45C8-8296-DA99F734F2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B6B326-D1DE-4B97-9E25-8E18C33A82AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="666">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -1877,6 +1877,165 @@
   </si>
   <si>
     <t>A business entity such as a corporation, limited liability company, public limited company, sole proprietorship, or partnership that has products or services for sale is a firm. Law, accountancy and management consultancy partnerships are known as firms, and are rarely referred to as companies.</t>
+  </si>
+  <si>
+    <t>New Task 1</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>Test Contact 1&lt;break&gt;Test Contact 4</t>
+  </si>
+  <si>
+    <t>New Call 1</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>New Meeting 1</t>
+  </si>
+  <si>
+    <t>This is Navatar Event</t>
+  </si>
+  <si>
+    <t>ATE_076</t>
+  </si>
+  <si>
+    <t>ATE_077</t>
+  </si>
+  <si>
+    <t>ATE_078</t>
+  </si>
+  <si>
+    <t>End_Day</t>
+  </si>
+  <si>
+    <t>11/28/2022</t>
+  </si>
+  <si>
+    <t>12/03/2022</t>
+  </si>
+  <si>
+    <t>ATE032</t>
+  </si>
+  <si>
+    <t>11/28/2022, 3:23 AM</t>
+  </si>
+  <si>
+    <t>11/28/2022, 3:33 AM</t>
+  </si>
+  <si>
+    <t>ATE_079</t>
+  </si>
+  <si>
+    <t>ATE_080</t>
+  </si>
+  <si>
+    <t>ATE_081</t>
+  </si>
+  <si>
+    <t>New Task 2</t>
+  </si>
+  <si>
+    <t>Test Contact 4&lt;break&gt;Test Account 1</t>
+  </si>
+  <si>
+    <t>New Call 2</t>
+  </si>
+  <si>
+    <t>New Meeting 2</t>
+  </si>
+  <si>
+    <t>12/04/2022</t>
+  </si>
+  <si>
+    <t>11/29/2022</t>
+  </si>
+  <si>
+    <t>ATE033</t>
+  </si>
+  <si>
+    <t>ATE_082</t>
+  </si>
+  <si>
+    <t>ATE_083</t>
+  </si>
+  <si>
+    <t>ATE_084</t>
+  </si>
+  <si>
+    <t>AccNew Task 2</t>
+  </si>
+  <si>
+    <t>Test Account 1&lt;break&gt;Navatar IntAccount 1</t>
+  </si>
+  <si>
+    <t>AccNew Call 2</t>
+  </si>
+  <si>
+    <t>NavTest Contact 10&lt;break&gt;Navatar IntAccount 1&lt;break&gt;Test Account 1</t>
+  </si>
+  <si>
+    <t>Event AccNew 2</t>
+  </si>
+  <si>
+    <t>NavTest Contact 10&lt;break&gt;Navatar IntAccount 1&lt;break&gt;Navatar IntAccount 2&lt;break&gt;Test Account 1&lt;break&gt;Nav Connection Deal1&lt;break&gt;Test Contact 4</t>
+  </si>
+  <si>
+    <t>ATE034</t>
+  </si>
+  <si>
+    <t>Navatar IntAccount 1</t>
+  </si>
+  <si>
+    <t>Navatar IntAccount 2</t>
+  </si>
+  <si>
+    <t>ATE035</t>
+  </si>
+  <si>
+    <t>ATE036</t>
+  </si>
+  <si>
+    <t>NavTest Contact 10</t>
+  </si>
+  <si>
+    <t>Nav Connection Deal1</t>
+  </si>
+  <si>
+    <t>11/29/2022, 4:52 AM</t>
+  </si>
+  <si>
+    <t>11/29/2022, 2:26 AM</t>
+  </si>
+  <si>
+    <t>11/29/2022, 5:52 AM</t>
+  </si>
+  <si>
+    <t>Followup New Task 2</t>
+  </si>
+  <si>
+    <t>ATE_085</t>
+  </si>
+  <si>
+    <t>12/10/2022</t>
+  </si>
+  <si>
+    <t>Test Contact 4&lt;break&gt;Test Account 1&lt;break&gt;CTest Account 12&lt;break&gt;Connection Deal 5</t>
+  </si>
+  <si>
+    <t>ATE037</t>
+  </si>
+  <si>
+    <t>ATE038</t>
+  </si>
+  <si>
+    <t>Tagged&lt;break&gt;Interactions&lt;break&gt;Connections&lt;break&gt;Deals</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2177,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2117,6 +2276,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2436,11 +2600,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2787,14 +2951,14 @@
     <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -2944,8 +3108,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -2957,10 +3121,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="46"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3020,16 +3184,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3209,7 +3373,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3722,10 +3886,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3739,13 +3904,14 @@
     <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="4.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3779,15 +3945,18 @@
       <c r="K1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="42" t="s">
+        <v>624</v>
+      </c>
+      <c r="M1" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="N1" s="28"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="28"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -3799,8 +3968,9 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -3814,8 +3984,9 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L3" s="42"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3840,8 +4011,9 @@
       <c r="K4" s="14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -3862,14 +4034,14 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">TEXT(TODAY()+15,"mm/dd/yyyy")</f>
-        <v>12/12/2022</v>
+        <v>12/15/2022</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>12/22/2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>12/25/2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -3891,8 +4063,9 @@
       <c r="K6" s="14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -3903,7 +4076,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -3911,7 +4084,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -3933,8 +4106,9 @@
       <c r="K9" s="14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -3956,8 +4130,9 @@
       <c r="K10" s="14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -3975,8 +4150,9 @@
       </c>
       <c r="F11" s="7"/>
       <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -3984,7 +4160,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -3992,7 +4168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -4012,7 +4188,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -4032,7 +4208,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>221</v>
       </c>
@@ -4053,7 +4229,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>222</v>
       </c>
@@ -4074,7 +4250,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>223</v>
       </c>
@@ -4095,7 +4271,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>224</v>
       </c>
@@ -4116,7 +4292,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4130,8 +4306,9 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>318</v>
       </c>
@@ -4153,16 +4330,19 @@
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="J22" s="13" t="s">
+        <v>462</v>
+      </c>
       <c r="K22" s="31"/>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="31"/>
+      <c r="M22" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>341</v>
       </c>
@@ -4189,11 +4369,12 @@
       </c>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
-      <c r="M23" t="s">
+      <c r="M23" s="31"/>
+      <c r="N23" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>357</v>
       </c>
@@ -4222,8 +4403,9 @@
       </c>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>375</v>
       </c>
@@ -4245,18 +4427,21 @@
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="J25" s="13" t="s">
+        <v>462</v>
+      </c>
       <c r="K25" s="31">
         <v>0</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="31"/>
+      <c r="M25" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
         <v>381</v>
       </c>
@@ -4278,18 +4463,21 @@
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
+      <c r="J26" s="13" t="s">
+        <v>462</v>
+      </c>
       <c r="K26" s="40">
         <v>0</v>
       </c>
-      <c r="L26" s="40" t="s">
+      <c r="L26" s="40"/>
+      <c r="M26" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>503</v>
       </c>
@@ -4315,8 +4503,9 @@
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>504</v>
       </c>
@@ -4342,8 +4531,9 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>505</v>
       </c>
@@ -4369,8 +4559,9 @@
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
-    </row>
-    <row r="30" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>506</v>
       </c>
@@ -4396,8 +4587,9 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
-    </row>
-    <row r="31" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>507</v>
       </c>
@@ -4423,8 +4615,9 @@
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>508</v>
       </c>
@@ -4450,8 +4643,9 @@
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
-    </row>
-    <row r="33" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>509</v>
       </c>
@@ -4477,8 +4671,9 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>510</v>
       </c>
@@ -4504,8 +4699,9 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>511</v>
       </c>
@@ -4531,8 +4727,9 @@
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
-    </row>
-    <row r="36" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>512</v>
       </c>
@@ -4558,8 +4755,9 @@
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
-    </row>
-    <row r="37" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>513</v>
       </c>
@@ -4585,8 +4783,9 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
-    </row>
-    <row r="38" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>514</v>
       </c>
@@ -4612,8 +4811,9 @@
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
-    </row>
-    <row r="39" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>515</v>
       </c>
@@ -4639,8 +4839,9 @@
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
-    </row>
-    <row r="40" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>516</v>
       </c>
@@ -4666,8 +4867,9 @@
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
-    </row>
-    <row r="41" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>517</v>
       </c>
@@ -4693,8 +4895,9 @@
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
-    </row>
-    <row r="42" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
         <v>518</v>
       </c>
@@ -4720,8 +4923,9 @@
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
-    </row>
-    <row r="43" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>519</v>
       </c>
@@ -4747,8 +4951,9 @@
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
-    </row>
-    <row r="44" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>520</v>
       </c>
@@ -4774,8 +4979,9 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N44" s="13"/>
+    </row>
+    <row r="45" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>521</v>
       </c>
@@ -4801,8 +5007,9 @@
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
-    </row>
-    <row r="46" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N45" s="13"/>
+    </row>
+    <row r="46" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
         <v>522</v>
       </c>
@@ -4828,8 +5035,9 @@
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
-    </row>
-    <row r="47" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
         <v>523</v>
       </c>
@@ -4855,8 +5063,9 @@
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
-    </row>
-    <row r="48" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>524</v>
       </c>
@@ -4882,8 +5091,9 @@
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
-    </row>
-    <row r="49" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>525</v>
       </c>
@@ -4909,8 +5119,9 @@
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
-    </row>
-    <row r="50" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>526</v>
       </c>
@@ -4936,8 +5147,9 @@
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
-    </row>
-    <row r="51" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N50" s="13"/>
+    </row>
+    <row r="51" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
         <v>527</v>
       </c>
@@ -4963,8 +5175,9 @@
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
-    </row>
-    <row r="52" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N51" s="13"/>
+    </row>
+    <row r="52" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
         <v>528</v>
       </c>
@@ -4990,8 +5203,9 @@
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
-    </row>
-    <row r="53" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N52" s="13"/>
+    </row>
+    <row r="53" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
         <v>529</v>
       </c>
@@ -5017,8 +5231,9 @@
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
-    </row>
-    <row r="54" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N53" s="13"/>
+    </row>
+    <row r="54" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
         <v>530</v>
       </c>
@@ -5044,8 +5259,9 @@
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
-    </row>
-    <row r="55" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N54" s="13"/>
+    </row>
+    <row r="55" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="31" t="s">
         <v>531</v>
       </c>
@@ -5071,8 +5287,9 @@
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
-    </row>
-    <row r="56" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N55" s="13"/>
+    </row>
+    <row r="56" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
         <v>532</v>
       </c>
@@ -5098,8 +5315,9 @@
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
-    </row>
-    <row r="57" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N56" s="13"/>
+    </row>
+    <row r="57" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
         <v>533</v>
       </c>
@@ -5125,8 +5343,9 @@
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
-    </row>
-    <row r="58" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N57" s="13"/>
+    </row>
+    <row r="58" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
         <v>534</v>
       </c>
@@ -5152,8 +5371,9 @@
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
-    </row>
-    <row r="59" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N58" s="13"/>
+    </row>
+    <row r="59" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="31" t="s">
         <v>535</v>
       </c>
@@ -5179,8 +5399,9 @@
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
-    </row>
-    <row r="60" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N59" s="13"/>
+    </row>
+    <row r="60" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
         <v>536</v>
       </c>
@@ -5206,8 +5427,9 @@
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
-    </row>
-    <row r="61" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N60" s="13"/>
+    </row>
+    <row r="61" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
         <v>537</v>
       </c>
@@ -5233,8 +5455,9 @@
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
-    </row>
-    <row r="62" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N61" s="13"/>
+    </row>
+    <row r="62" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
         <v>538</v>
       </c>
@@ -5260,8 +5483,9 @@
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
-    </row>
-    <row r="63" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N62" s="13"/>
+    </row>
+    <row r="63" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
         <v>539</v>
       </c>
@@ -5287,8 +5511,9 @@
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
-    </row>
-    <row r="64" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N63" s="13"/>
+    </row>
+    <row r="64" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="31" t="s">
         <v>540</v>
       </c>
@@ -5314,8 +5539,9 @@
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
-    </row>
-    <row r="65" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N64" s="13"/>
+    </row>
+    <row r="65" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
         <v>541</v>
       </c>
@@ -5341,8 +5567,9 @@
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
-    </row>
-    <row r="66" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N65" s="13"/>
+    </row>
+    <row r="66" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="31" t="s">
         <v>542</v>
       </c>
@@ -5368,8 +5595,9 @@
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
       <c r="M66" s="13"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N66" s="13"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
         <v>543</v>
       </c>
@@ -5393,8 +5621,9 @@
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="13"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="31" t="s">
         <v>544</v>
       </c>
@@ -5418,8 +5647,9 @@
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
       <c r="M68" s="13"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="13"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
         <v>545</v>
       </c>
@@ -5443,8 +5673,9 @@
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
-    </row>
-    <row r="70" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N69" s="13"/>
+    </row>
+    <row r="70" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="31" t="s">
         <v>546</v>
       </c>
@@ -5470,8 +5701,9 @@
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
-    </row>
-    <row r="71" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N70" s="13"/>
+    </row>
+    <row r="71" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="31" t="s">
         <v>547</v>
       </c>
@@ -5497,8 +5729,9 @@
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
-    </row>
-    <row r="72" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N71" s="13"/>
+    </row>
+    <row r="72" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="31" t="s">
         <v>548</v>
       </c>
@@ -5524,8 +5757,9 @@
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
-    </row>
-    <row r="73" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N72" s="13"/>
+    </row>
+    <row r="73" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>549</v>
       </c>
@@ -5551,8 +5785,9 @@
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
-    </row>
-    <row r="74" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N73" s="13"/>
+    </row>
+    <row r="74" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="31" t="s">
         <v>550</v>
       </c>
@@ -5578,8 +5813,9 @@
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
       <c r="M74" s="13"/>
-    </row>
-    <row r="75" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N74" s="13"/>
+    </row>
+    <row r="75" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
         <v>551</v>
       </c>
@@ -5605,8 +5841,9 @@
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
-    </row>
-    <row r="76" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N75" s="13"/>
+    </row>
+    <row r="76" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" s="31" t="s">
         <v>552</v>
       </c>
@@ -5632,8 +5869,9 @@
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
-    </row>
-    <row r="77" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N76" s="13"/>
+    </row>
+    <row r="77" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A77" s="31" t="s">
         <v>553</v>
       </c>
@@ -5659,8 +5897,9 @@
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
       <c r="M77" s="13"/>
-    </row>
-    <row r="78" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N77" s="13"/>
+    </row>
+    <row r="78" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A78" s="31" t="s">
         <v>554</v>
       </c>
@@ -5686,8 +5925,9 @@
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
-    </row>
-    <row r="79" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N78" s="13"/>
+    </row>
+    <row r="79" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A79" s="31" t="s">
         <v>555</v>
       </c>
@@ -5713,8 +5953,9 @@
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
-    </row>
-    <row r="80" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N79" s="13"/>
+    </row>
+    <row r="80" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
         <v>556</v>
       </c>
@@ -5740,8 +5981,9 @@
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
       <c r="M80" s="13"/>
-    </row>
-    <row r="81" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N80" s="13"/>
+    </row>
+    <row r="81" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A81" s="31" t="s">
         <v>557</v>
       </c>
@@ -5767,8 +6009,9 @@
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
-    </row>
-    <row r="82" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N81" s="13"/>
+    </row>
+    <row r="82" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A82" s="31" t="s">
         <v>558</v>
       </c>
@@ -5794,8 +6037,9 @@
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
-    </row>
-    <row r="83" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N82" s="13"/>
+    </row>
+    <row r="83" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="31" t="s">
         <v>559</v>
       </c>
@@ -5821,8 +6065,9 @@
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
-    </row>
-    <row r="84" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N83" s="13"/>
+    </row>
+    <row r="84" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="31" t="s">
         <v>560</v>
       </c>
@@ -5848,8 +6093,9 @@
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
-    </row>
-    <row r="85" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N84" s="13"/>
+    </row>
+    <row r="85" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="31" t="s">
         <v>561</v>
       </c>
@@ -5875,8 +6121,9 @@
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
-    </row>
-    <row r="86" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N85" s="13"/>
+    </row>
+    <row r="86" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="31" t="s">
         <v>562</v>
       </c>
@@ -5902,8 +6149,9 @@
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
-    </row>
-    <row r="87" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N86" s="13"/>
+    </row>
+    <row r="87" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A87" s="31" t="s">
         <v>563</v>
       </c>
@@ -5929,8 +6177,9 @@
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
-    </row>
-    <row r="88" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N87" s="13"/>
+    </row>
+    <row r="88" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="31" t="s">
         <v>564</v>
       </c>
@@ -5956,8 +6205,9 @@
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
       <c r="M88" s="13"/>
-    </row>
-    <row r="89" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N88" s="13"/>
+    </row>
+    <row r="89" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A89" s="31" t="s">
         <v>565</v>
       </c>
@@ -5983,8 +6233,9 @@
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
       <c r="M89" s="13"/>
-    </row>
-    <row r="90" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N89" s="13"/>
+    </row>
+    <row r="90" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A90" s="31" t="s">
         <v>566</v>
       </c>
@@ -6010,8 +6261,9 @@
       <c r="K90" s="13"/>
       <c r="L90" s="13"/>
       <c r="M90" s="13"/>
-    </row>
-    <row r="91" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N90" s="13"/>
+    </row>
+    <row r="91" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A91" s="31" t="s">
         <v>567</v>
       </c>
@@ -6037,8 +6289,9 @@
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
       <c r="M91" s="13"/>
-    </row>
-    <row r="92" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N91" s="13"/>
+    </row>
+    <row r="92" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" s="31" t="s">
         <v>568</v>
       </c>
@@ -6064,8 +6317,9 @@
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
-    </row>
-    <row r="93" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N92" s="13"/>
+    </row>
+    <row r="93" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
         <v>569</v>
       </c>
@@ -6091,8 +6345,9 @@
       <c r="K93" s="13"/>
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
-    </row>
-    <row r="94" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N93" s="13"/>
+    </row>
+    <row r="94" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" s="31" t="s">
         <v>570</v>
       </c>
@@ -6118,8 +6373,9 @@
       <c r="K94" s="13"/>
       <c r="L94" s="13"/>
       <c r="M94" s="13"/>
-    </row>
-    <row r="95" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N94" s="13"/>
+    </row>
+    <row r="95" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A95" s="31" t="s">
         <v>571</v>
       </c>
@@ -6145,8 +6401,9 @@
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
-    </row>
-    <row r="96" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="N95" s="13"/>
+    </row>
+    <row r="96" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A96" s="31" t="s">
         <v>572</v>
       </c>
@@ -6172,6 +6429,367 @@
       <c r="K96" s="13"/>
       <c r="L96" s="13"/>
       <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K97" s="44" t="s">
+        <v>615</v>
+      </c>
+      <c r="L97" s="44"/>
+      <c r="M97" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="N97" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>617</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K98" s="13">
+        <v>0</v>
+      </c>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="N98" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>619</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="J99" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K99" s="13">
+        <v>0</v>
+      </c>
+      <c r="L99" s="13">
+        <v>0</v>
+      </c>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K100" s="44" t="s">
+        <v>615</v>
+      </c>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="N100" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E101" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K101" s="13">
+        <v>0</v>
+      </c>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="N101" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="E102" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="I102" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K102" s="13">
+        <v>0</v>
+      </c>
+      <c r="L102" s="13">
+        <v>0</v>
+      </c>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" s="43" t="s">
+        <v>643</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K103" s="13">
+        <v>0</v>
+      </c>
+      <c r="L103" s="13"/>
+      <c r="M103" s="43" t="s">
+        <v>614</v>
+      </c>
+      <c r="N103" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="43" t="s">
+        <v>645</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E104" s="43" t="s">
+        <v>646</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K104" s="13">
+        <v>0</v>
+      </c>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="N104" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" s="43" t="s">
+        <v>647</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="E105" s="43" t="s">
+        <v>648</v>
+      </c>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="I105" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="J105" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K105" s="13">
+        <v>0</v>
+      </c>
+      <c r="L105" s="13">
+        <v>0</v>
+      </c>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="F106" t="s">
+        <v>661</v>
+      </c>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K106" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>326</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6182,10 +6800,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AB52"/>
+  <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6195,27 +6814,27 @@
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1"/>
-    <col min="18" max="18" width="19.5546875" customWidth="1"/>
-    <col min="19" max="21" width="17.33203125" customWidth="1"/>
-    <col min="22" max="22" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="61.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="40" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="69" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="33.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="61.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="40" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -6576,6 +7195,9 @@
       <c r="P23" t="s">
         <v>308</v>
       </c>
+      <c r="V23" t="s">
+        <v>665</v>
+      </c>
       <c r="AA23" t="s">
         <v>338</v>
       </c>
@@ -7291,6 +7913,21 @@
       <c r="L37">
         <v>0</v>
       </c>
+      <c r="Q37" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="R37" t="s">
+        <v>328</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>37</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -7384,6 +8021,12 @@
       <c r="E40">
         <v>40</v>
       </c>
+      <c r="F40" t="s">
+        <v>655</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
       <c r="H40" t="s">
         <v>447</v>
       </c>
@@ -7410,6 +8053,18 @@
       <c r="C41">
         <v>10</v>
       </c>
+      <c r="D41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E41">
+        <v>49</v>
+      </c>
+      <c r="F41" t="s">
+        <v>428</v>
+      </c>
+      <c r="G41">
+        <v>31</v>
+      </c>
       <c r="H41" t="s">
         <v>448</v>
       </c>
@@ -7436,6 +8091,12 @@
       <c r="C42">
         <v>10</v>
       </c>
+      <c r="D42" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42">
+        <v>51</v>
+      </c>
       <c r="H42" t="s">
         <v>449</v>
       </c>
@@ -7462,6 +8123,27 @@
       <c r="C43">
         <v>10</v>
       </c>
+      <c r="D43" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s">
+        <v>280</v>
+      </c>
+      <c r="I43" t="s">
+        <v>328</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>64</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -7473,6 +8155,12 @@
       <c r="C44">
         <v>10</v>
       </c>
+      <c r="D44" t="s">
+        <v>654</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -7484,6 +8172,12 @@
       <c r="C45">
         <v>10</v>
       </c>
+      <c r="D45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E45">
+        <v>53</v>
+      </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -7560,6 +8254,83 @@
       </c>
       <c r="C52">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>627</v>
+      </c>
+      <c r="B53" t="s">
+        <v>346</v>
+      </c>
+      <c r="C53">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>346</v>
+      </c>
+      <c r="C54">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>649</v>
+      </c>
+      <c r="B55" t="s">
+        <v>346</v>
+      </c>
+      <c r="C55">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>652</v>
+      </c>
+      <c r="B56" t="s">
+        <v>650</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>653</v>
+      </c>
+      <c r="B57" t="s">
+        <v>651</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>663</v>
+      </c>
+      <c r="B58" t="s">
+        <v>346</v>
+      </c>
+      <c r="C58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>664</v>
+      </c>
+      <c r="B59" t="s">
+        <v>395</v>
+      </c>
+      <c r="C59">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B6B326-D1DE-4B97-9E25-8E18C33A82AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0789604-868A-46E6-A3EF-76876B2420DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="666">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -4034,11 +4034,11 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">TEXT(TODAY()+15,"mm/dd/yyyy")</f>
-        <v>12/15/2022</v>
+        <v>12/16/2022</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>12/25/2022</v>
+        <v>12/26/2022</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -6802,9 +6802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V27" sqref="V27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8097,6 +8097,12 @@
       <c r="E42">
         <v>51</v>
       </c>
+      <c r="F42" t="s">
+        <v>428</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
       <c r="H42" t="s">
         <v>449</v>
       </c>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0789604-868A-46E6-A3EF-76876B2420DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D847E283-765A-4345-BE26-FFD007E37045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Reports" sheetId="8" r:id="rId9"/>
     <sheet name="Fund" sheetId="4" r:id="rId10"/>
     <sheet name="Fundraisings" sheetId="10" r:id="rId11"/>
+    <sheet name="User" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="712">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -2036,6 +2037,144 @@
   </si>
   <si>
     <t>Tagged&lt;break&gt;Interactions&lt;break&gt;Connections&lt;break&gt;Deals</t>
+  </si>
+  <si>
+    <t>User_First_Name</t>
+  </si>
+  <si>
+    <t>User_Last_Name</t>
+  </si>
+  <si>
+    <t>ATE_user001</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>InTestupdateAccount 7</t>
+  </si>
+  <si>
+    <t>ATERecord006</t>
+  </si>
+  <si>
+    <t>ATERecord007</t>
+  </si>
+  <si>
+    <t>ATERecord008</t>
+  </si>
+  <si>
+    <t>ATE_Con5</t>
+  </si>
+  <si>
+    <t>ATE_Con6</t>
+  </si>
+  <si>
+    <t>Updated CTO Title</t>
+  </si>
+  <si>
+    <t>ATE_Deal1</t>
+  </si>
+  <si>
+    <t>Connection Deal Updated 12</t>
+  </si>
+  <si>
+    <t>ATE_Deal2</t>
+  </si>
+  <si>
+    <t>ATERecord009</t>
+  </si>
+  <si>
+    <t>Contact Updated 10</t>
+  </si>
+  <si>
+    <t>Acuity (Task and Event) Update</t>
+  </si>
+  <si>
+    <t>ATE_U001</t>
+  </si>
+  <si>
+    <t>Updated Nav Event 1</t>
+  </si>
+  <si>
+    <t>+7</t>
+  </si>
+  <si>
+    <t>ATE_U002</t>
+  </si>
+  <si>
+    <t>12/12/2022</t>
+  </si>
+  <si>
+    <t>Nav Institution Account 1</t>
+  </si>
+  <si>
+    <t>Nav Institution Account 2</t>
+  </si>
+  <si>
+    <t>ATE039</t>
+  </si>
+  <si>
+    <t>ATE040</t>
+  </si>
+  <si>
+    <t>ATE041</t>
+  </si>
+  <si>
+    <t>Test Contact Updated 10</t>
+  </si>
+  <si>
+    <t>Test Contact 160</t>
+  </si>
+  <si>
+    <t>Test Contact 161</t>
+  </si>
+  <si>
+    <t>Connection Deal 30</t>
+  </si>
+  <si>
+    <t>Connection Deal 31</t>
+  </si>
+  <si>
+    <t>Updated New Task 1</t>
+  </si>
+  <si>
+    <t>Test Contact 160&lt;break&gt;Nav Institution Account 1&lt;break&gt;Connection Deal 30&lt;break&gt;InTestupdateAccount 7&lt;break&gt;Test Contact Updated 10&lt;break&gt;Connection Deal 12</t>
+  </si>
+  <si>
+    <t>Test Contact 161&lt;break&gt;Nav Institution Account 2&lt;break&gt;Connection Deal 31&lt;break&gt;InTestupdateAccount 7&lt;break&gt;Test Contact Updated 10&lt;break&gt;Connection Deal 12</t>
+  </si>
+  <si>
+    <t>ATE_086</t>
+  </si>
+  <si>
+    <t>Meeting Events 1</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>12/06/2022</t>
+  </si>
+  <si>
+    <t>12/08/2022</t>
+  </si>
+  <si>
+    <t>Test Contact Updated 10&lt;break&gt;Test Contact 1&lt;break&gt;Test Contact 4&lt;break&gt;Test Account 1&lt;break&gt;CTest Account 13&lt;break&gt;Connection Deal Updated 12</t>
+  </si>
+  <si>
+    <t>ATE042</t>
+  </si>
+  <si>
+    <t>ATE043</t>
+  </si>
+  <si>
+    <t>ATE044</t>
+  </si>
+  <si>
+    <t>ATE045</t>
+  </si>
+  <si>
+    <t>ATE046</t>
   </si>
 </sst>
 </file>
@@ -2120,7 +2259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2171,13 +2310,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2281,6 +2431,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2569,10 +2724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2600,11 +2755,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2828,6 +2983,32 @@
       </c>
       <c r="B34" t="s">
         <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>673</v>
+      </c>
+      <c r="B37" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>680</v>
+      </c>
+      <c r="B38" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3098,6 +3279,48 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF35A968-9FB9-4E9C-A1A3-7693EDA87B78}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>666</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
@@ -3121,10 +3344,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3370,10 +3593,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B30" sqref="A30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3682,6 +3905,28 @@
         <v>313</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>674</v>
+      </c>
+      <c r="C28" t="s">
+        <v>681</v>
+      </c>
+      <c r="D28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>675</v>
+      </c>
+      <c r="D29" t="s">
+        <v>440</v>
+      </c>
+      <c r="G29" t="s">
+        <v>676</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -3694,10 +3939,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3819,6 +4064,34 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>679</v>
+      </c>
+      <c r="B12" t="s">
+        <v>678</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3886,11 +4159,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4034,11 +4307,11 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">TEXT(TODAY()+15,"mm/dd/yyyy")</f>
-        <v>12/16/2022</v>
+        <v>12/21/2022</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>12/26/2022</v>
+        <v>12/31/2022</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -6789,6 +7062,108 @@
       </c>
       <c r="N106" s="13" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" s="47" t="s">
+        <v>702</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="E107" s="47" t="s">
+        <v>706</v>
+      </c>
+      <c r="H107" t="s">
+        <v>704</v>
+      </c>
+      <c r="I107" t="s">
+        <v>705</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K107" s="47">
+        <v>0</v>
+      </c>
+      <c r="L107" s="14" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="E113" t="s">
+        <v>699</v>
+      </c>
+      <c r="H113" t="s">
+        <v>661</v>
+      </c>
+      <c r="I113" t="s">
+        <v>687</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="K113" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="L113" s="14" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="B114" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" t="s">
+        <v>698</v>
+      </c>
+      <c r="E114" t="s">
+        <v>700</v>
+      </c>
+      <c r="F114" t="s">
+        <v>661</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K114" s="14" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -6800,11 +7175,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AB59"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7966,6 +8341,21 @@
       <c r="L38">
         <v>0</v>
       </c>
+      <c r="Q38" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="R38" t="s">
+        <v>609</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>21</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -8135,6 +8525,12 @@
       <c r="E43">
         <v>52</v>
       </c>
+      <c r="F43" t="s">
+        <v>678</v>
+      </c>
+      <c r="G43">
+        <v>12</v>
+      </c>
       <c r="H43" t="s">
         <v>280</v>
       </c>
@@ -8167,6 +8563,27 @@
       <c r="E44">
         <v>2</v>
       </c>
+      <c r="F44" t="s">
+        <v>696</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>440</v>
+      </c>
+      <c r="I44" t="s">
+        <v>676</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>44</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -8184,6 +8601,12 @@
       <c r="E45">
         <v>53</v>
       </c>
+      <c r="F45" t="s">
+        <v>697</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -8195,6 +8618,18 @@
       <c r="C46">
         <v>8</v>
       </c>
+      <c r="D46" t="s">
+        <v>693</v>
+      </c>
+      <c r="E46">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s">
+        <v>678</v>
+      </c>
+      <c r="G46">
+        <v>13</v>
+      </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -8206,6 +8641,18 @@
       <c r="C47">
         <v>8</v>
       </c>
+      <c r="D47" t="s">
+        <v>694</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>433</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -8217,8 +8664,20 @@
       <c r="C48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>695</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>432</v>
+      </c>
+      <c r="G48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>417</v>
       </c>
@@ -8228,8 +8687,20 @@
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>434</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>418</v>
       </c>
@@ -8239,8 +8710,20 @@
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>423</v>
+      </c>
+      <c r="E50">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>435</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>419</v>
       </c>
@@ -8250,8 +8733,14 @@
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>693</v>
+      </c>
+      <c r="E51">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>420</v>
       </c>
@@ -8261,8 +8750,14 @@
       <c r="C52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>426</v>
+      </c>
+      <c r="E52">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>627</v>
       </c>
@@ -8272,8 +8767,14 @@
       <c r="C53">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>284</v>
+      </c>
+      <c r="E53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>639</v>
       </c>
@@ -8284,7 +8785,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>649</v>
       </c>
@@ -8295,7 +8796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>652</v>
       </c>
@@ -8306,7 +8807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>653</v>
       </c>
@@ -8317,7 +8818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>663</v>
       </c>
@@ -8328,7 +8829,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>664</v>
       </c>
@@ -8337,6 +8838,94 @@
       </c>
       <c r="C59">
         <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>690</v>
+      </c>
+      <c r="B60" t="s">
+        <v>670</v>
+      </c>
+      <c r="C60">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>691</v>
+      </c>
+      <c r="B61" t="s">
+        <v>688</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>692</v>
+      </c>
+      <c r="B62" t="s">
+        <v>689</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>707</v>
+      </c>
+      <c r="B63" t="s">
+        <v>346</v>
+      </c>
+      <c r="C63">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>708</v>
+      </c>
+      <c r="B64" t="s">
+        <v>395</v>
+      </c>
+      <c r="C64">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>709</v>
+      </c>
+      <c r="B65" t="s">
+        <v>396</v>
+      </c>
+      <c r="C65">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>710</v>
+      </c>
+      <c r="B66" t="s">
+        <v>346</v>
+      </c>
+      <c r="C66">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>711</v>
+      </c>
+      <c r="B67" t="s">
+        <v>395</v>
+      </c>
+      <c r="C67">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D847E283-765A-4345-BE26-FFD007E37045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{22884D80-20B4-411A-932A-B2CDF7609250}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="6" windowHeight="12720" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Firm" sheetId="1" r:id="rId1"/>
-    <sheet name="Research" sheetId="9" r:id="rId2"/>
-    <sheet name="Research Data" sheetId="12" r:id="rId3"/>
-    <sheet name="Contact" sheetId="2" r:id="rId4"/>
-    <sheet name="Deal" sheetId="3" r:id="rId5"/>
-    <sheet name="Deal Team" sheetId="7" r:id="rId6"/>
-    <sheet name="Activity Timeline" sheetId="5" r:id="rId7"/>
-    <sheet name="Acuity" sheetId="6" r:id="rId8"/>
-    <sheet name="Reports" sheetId="8" r:id="rId9"/>
-    <sheet name="Fund" sheetId="4" r:id="rId10"/>
-    <sheet name="Fundraisings" sheetId="10" r:id="rId11"/>
-    <sheet name="User" sheetId="13" r:id="rId12"/>
+    <sheet name="Firm" r:id="rId1" sheetId="1"/>
+    <sheet name="Research" r:id="rId2" sheetId="9"/>
+    <sheet name="Research Data" r:id="rId3" sheetId="12"/>
+    <sheet name="Contact" r:id="rId4" sheetId="2"/>
+    <sheet name="Deal" r:id="rId5" sheetId="3"/>
+    <sheet name="Deal Team" r:id="rId6" sheetId="7"/>
+    <sheet name="Activity Timeline" r:id="rId7" sheetId="5"/>
+    <sheet name="Acuity" r:id="rId8" sheetId="6"/>
+    <sheet name="Reports" r:id="rId9" sheetId="8"/>
+    <sheet name="Fund" r:id="rId10" sheetId="4"/>
+    <sheet name="Fundraisings" r:id="rId11" sheetId="10"/>
+    <sheet name="User" r:id="rId12" sheetId="13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="711">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -1121,15 +1121,6 @@
     <t>This is Navatar New Event</t>
   </si>
   <si>
-    <t>Test Contact 1&lt;break&gt;Test Account 2&lt;break&gt;Test Account 3&lt;break&gt;Test Account 4&lt;break&gt;Connection Deal 4&lt;break&gt;Test Account 2&lt;break&gt;Test Contact 5&lt;break&gt;Test Contact 6</t>
-  </si>
-  <si>
-    <t>11/16/2022, 3:54 AM</t>
-  </si>
-  <si>
-    <t>11/17/2022, 4:54 AM</t>
-  </si>
-  <si>
     <t>Test Account 4</t>
   </si>
   <si>
@@ -2175,12 +2166,19 @@
   </si>
   <si>
     <t>ATE046</t>
+  </si>
+  <si>
+    <t>Test Contact 1&lt;break&gt;Test Account 2&lt;break&gt;Test Account 3&lt;break&gt;Test Account 4&lt;break&gt;Connection Deal 4&lt;break&gt;Test Contact 5&lt;break&gt;Test Contact 6</t>
+  </si>
+  <si>
+    <t>12/07/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2323,133 +2321,134 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="51">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2466,10 +2465,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2504,7 +2503,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2539,7 +2538,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2633,21 +2632,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2664,7 +2663,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2716,15 +2715,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
@@ -2732,9 +2731,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="58.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="73.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="58.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2755,11 +2754,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2971,7 +2970,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B33" t="s">
         <v>346</v>
@@ -2979,7 +2978,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B34" t="s">
         <v>331</v>
@@ -2987,28 +2986,28 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B37" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B38" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3016,14 +3015,14 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -3031,11 +3030,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3113,13 +3112,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
@@ -3127,22 +3126,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="5.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="7.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
@@ -3274,14 +3273,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF35A968-9FB9-4E9C-A1A3-7693EDA87B78}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF35A968-9FB9-4E9C-A1A3-7693EDA87B78}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
@@ -3289,9 +3288,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3299,31 +3298,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -3331,8 +3330,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3344,10 +3343,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="50"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3393,13 +3392,13 @@
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -3407,16 +3406,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="49.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3586,14 +3585,14 @@
       <c r="F13" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B30" sqref="A30:E30"/>
@@ -3601,12 +3600,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="117" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="45.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="45.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="49.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="117.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3899,7 +3898,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D27" t="s">
         <v>313</v>
@@ -3907,39 +3906,39 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C28" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D28" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D29" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G29" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink r:id="rId1" ref="F4" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink r:id="rId2" ref="F8" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -3947,10 +3946,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="49.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="29.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -4079,29 +4078,29 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B12" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -4109,11 +4108,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -4151,37 +4150,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A20" ySplit="1"/>
+      <selection activeCell="D27" pane="bottomLeft" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="58.77734375" style="34" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="4.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="34" width="58.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="4.21875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -4219,7 +4218,7 @@
         <v>85</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="M1" s="28" t="s">
         <v>323</v>
@@ -4307,11 +4306,11 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">TEXT(TODAY()+15,"mm/dd/yyyy")</f>
-        <v>12/21/2022</v>
+        <v>12/22/2022</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>12/31/2022</v>
+        <v>01/01/2023</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -4461,7 +4460,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row ht="15" r="15" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -4604,7 +4603,7 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
@@ -4638,7 +4637,7 @@
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -4661,47 +4660,51 @@
         <v>359</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>360</v>
+        <v>709</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="I24" s="31" t="s">
-        <v>362</v>
+      <c r="H24" t="s">
+        <v>710</v>
+      </c>
+      <c r="I24" t="s">
+        <v>684</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+        <v>460</v>
+      </c>
+      <c r="K24" s="31">
+        <v>0</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>612</v>
+      </c>
       <c r="M24" s="31"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>213</v>
       </c>
       <c r="C25" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>379</v>
-      </c>
       <c r="E25" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K25" s="31">
         <v>0</v>
@@ -4716,28 +4719,28 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>213</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F26" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K26" s="40">
         <v>0</v>
@@ -4750,1120 +4753,1120 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row ht="129.6" r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
     </row>
-    <row r="28" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row ht="129.6" r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
     </row>
-    <row r="29" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row ht="129.6" r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
     </row>
-    <row r="30" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row ht="129.6" r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row ht="129.6" r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row ht="129.6" r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row ht="129.6" r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row ht="129.6" r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row ht="129.6" r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="17" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row ht="129.6" r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="17" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
     </row>
-    <row r="38" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
     </row>
-    <row r="42" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
     </row>
-    <row r="48" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
     </row>
-    <row r="49" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
     </row>
-    <row r="50" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
     </row>
-    <row r="51" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
     </row>
-    <row r="52" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
     </row>
-    <row r="55" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="31" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
     </row>
-    <row r="56" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
     </row>
-    <row r="57" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
     </row>
-    <row r="58" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
     </row>
-    <row r="59" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="31" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
     </row>
-    <row r="60" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
     </row>
-    <row r="61" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
     </row>
-    <row r="62" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
     </row>
-    <row r="63" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
     </row>
-    <row r="64" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="31" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
     </row>
-    <row r="65" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
     </row>
-    <row r="66" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="31" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
@@ -5872,24 +5875,24 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I67" s="13"/>
       <c r="J67" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
@@ -5898,24 +5901,24 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="31" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I68" s="13"/>
       <c r="J68" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
@@ -5924,780 +5927,780 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
     </row>
-    <row r="70" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="31" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
     </row>
-    <row r="71" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="31" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
     </row>
-    <row r="72" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="31" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I72" s="13"/>
       <c r="J72" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
     </row>
-    <row r="73" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I73" s="13"/>
       <c r="J73" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
     </row>
-    <row r="74" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="31" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
     </row>
-    <row r="75" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
     </row>
-    <row r="76" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="31" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
     </row>
-    <row r="77" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="31" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
       <c r="H77" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I77" s="13"/>
       <c r="J77" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
     </row>
-    <row r="78" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="31" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
     </row>
-    <row r="79" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="31" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
     </row>
-    <row r="80" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
       <c r="H80" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
     </row>
-    <row r="81" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="31" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
       <c r="H81" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
     </row>
-    <row r="82" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="31" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
       <c r="H82" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I82" s="13"/>
       <c r="J82" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
     </row>
-    <row r="83" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="31" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
       <c r="H83" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I83" s="13"/>
       <c r="J83" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
     </row>
-    <row r="84" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="31" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
       <c r="H84" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I84" s="13"/>
       <c r="J84" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
     </row>
-    <row r="85" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="31" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
       <c r="H85" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I85" s="13"/>
       <c r="J85" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
     </row>
-    <row r="86" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="31" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
       <c r="H86" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I86" s="13"/>
       <c r="J86" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
     </row>
-    <row r="87" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="31" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
       <c r="H87" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I87" s="13"/>
       <c r="J87" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
     </row>
-    <row r="88" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="31" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
       <c r="H88" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I88" s="13"/>
       <c r="J88" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
     </row>
-    <row r="89" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="31" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
       <c r="H89" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I89" s="13"/>
       <c r="J89" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
     </row>
-    <row r="90" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="31" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
       <c r="H90" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I90" s="13"/>
       <c r="J90" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K90" s="13"/>
       <c r="L90" s="13"/>
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
     </row>
-    <row r="91" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="31" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I91" s="13"/>
       <c r="J91" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
       <c r="M91" s="13"/>
       <c r="N91" s="13"/>
     </row>
-    <row r="92" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="31" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
       <c r="H92" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="I92" s="13"/>
       <c r="J92" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
     </row>
-    <row r="93" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I93" s="13"/>
       <c r="J93" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K93" s="13"/>
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
     </row>
-    <row r="94" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="31" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
       <c r="H94" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K94" s="13"/>
       <c r="L94" s="13"/>
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
     </row>
-    <row r="95" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="31" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
     </row>
-    <row r="96" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="31" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K96" s="13"/>
       <c r="L96" s="13"/>
@@ -6706,35 +6709,35 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="31" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B97" s="43" t="s">
         <v>213</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K97" s="44" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L97" s="44"/>
       <c r="M97" s="13" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N97" s="13" t="s">
         <v>326</v>
@@ -6742,35 +6745,35 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="31" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B98" s="43" t="s">
         <v>209</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D98" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K98" s="13">
         <v>0</v>
       </c>
       <c r="L98" s="13"/>
       <c r="M98" s="13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="N98" s="13" t="s">
         <v>326</v>
@@ -6778,30 +6781,30 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="31" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K99" s="13">
         <v>0</v>
@@ -6814,35 +6817,35 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="31" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B100" s="43" t="s">
         <v>213</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E100" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="F100" s="13" t="s">
         <v>634</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>637</v>
       </c>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K100" s="44" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L100" s="13"/>
       <c r="M100" s="13" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N100" s="13" t="s">
         <v>326</v>
@@ -6850,35 +6853,35 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="31" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B101" s="43" t="s">
         <v>209</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D101" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
       <c r="J101" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K101" s="13">
         <v>0</v>
       </c>
       <c r="L101" s="13"/>
       <c r="M101" s="13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="N101" s="13" t="s">
         <v>326</v>
@@ -6886,16 +6889,16 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="31" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E102" s="43" t="s">
         <v>284</v>
@@ -6903,13 +6906,13 @@
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
       <c r="H102" s="13" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K102" s="13">
         <v>0</v>
@@ -6922,35 +6925,35 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="31" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B103" s="43" t="s">
         <v>213</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
       <c r="J103" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K103" s="13">
         <v>0</v>
       </c>
       <c r="L103" s="13"/>
       <c r="M103" s="43" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N103" s="13" t="s">
         <v>326</v>
@@ -6958,35 +6961,35 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="31" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B104" s="43" t="s">
         <v>209</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D104" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K104" s="13">
         <v>0</v>
       </c>
       <c r="L104" s="13"/>
       <c r="M104" s="13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="N104" s="13" t="s">
         <v>326</v>
@@ -6994,30 +6997,30 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="31" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
       <c r="H105" s="13" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K105" s="13">
         <v>0</v>
@@ -7030,35 +7033,35 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B106" s="43" t="s">
         <v>213</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D106" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F106" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K106" s="44" t="s">
         <v>86</v>
       </c>
       <c r="L106" s="13"/>
       <c r="M106" s="13" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N106" s="13" t="s">
         <v>326</v>
@@ -7066,34 +7069,34 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="31" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C107" s="47" t="s">
+        <v>699</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="E107" s="47" t="s">
+        <v>703</v>
+      </c>
+      <c r="H107" t="s">
+        <v>701</v>
+      </c>
+      <c r="I107" t="s">
         <v>702</v>
       </c>
-      <c r="D107" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="E107" s="47" t="s">
-        <v>706</v>
-      </c>
-      <c r="H107" t="s">
-        <v>704</v>
-      </c>
-      <c r="I107" t="s">
-        <v>705</v>
-      </c>
       <c r="J107" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K107" s="47">
         <v>0</v>
       </c>
       <c r="L107" s="14" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -7102,7 +7105,7 @@
       <c r="C112" s="11"/>
       <c r="D112" s="38"/>
       <c r="E112" s="11" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
@@ -7116,100 +7119,100 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="31" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C113" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="E113" t="s">
+        <v>696</v>
+      </c>
+      <c r="H113" t="s">
+        <v>658</v>
+      </c>
+      <c r="I113" t="s">
         <v>684</v>
       </c>
-      <c r="E113" t="s">
-        <v>699</v>
-      </c>
-      <c r="H113" t="s">
-        <v>661</v>
-      </c>
-      <c r="I113" t="s">
-        <v>687</v>
-      </c>
       <c r="J113" s="13" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K113" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L113" s="14" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="31" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B114" t="s">
         <v>213</v>
       </c>
       <c r="C114" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E114" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="F114" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J114" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K114" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AB67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A15" ySplit="1"/>
+      <selection activeCell="E28" pane="bottomLeft" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="33.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="61.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="40" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="69" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="19" max="21" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="48.88671875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="33.77734375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="61.77734375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="69.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="35.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -7571,7 +7574,7 @@
         <v>308</v>
       </c>
       <c r="V23" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AA23" t="s">
         <v>338</v>
@@ -7638,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="R25" t="s">
         <v>328</v>
@@ -7697,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="R26" t="s">
         <v>311</v>
@@ -7712,15 +7715,15 @@
         <v>0</v>
       </c>
       <c r="AA26" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AB26" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B27" t="s">
         <v>346</v>
@@ -7729,7 +7732,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -7741,10 +7744,10 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I27" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -7756,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="R27" t="s">
         <v>328</v>
@@ -7776,28 +7779,28 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B28" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I28" t="s">
         <v>311</v>
@@ -7812,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="R28" t="s">
         <v>311</v>
@@ -7829,10 +7832,10 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -7844,16 +7847,16 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G29">
         <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I29" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -7865,10 +7868,10 @@
         <v>0</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="R29" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -7882,10 +7885,10 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -7897,7 +7900,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G30">
         <v>30</v>
@@ -7918,10 +7921,10 @@
         <v>0</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="R30" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -7935,7 +7938,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B31" t="s">
         <v>346</v>
@@ -7950,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -7971,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="R31" t="s">
         <v>328</v>
@@ -7988,7 +7991,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B32" t="s">
         <v>315</v>
@@ -8003,13 +8006,13 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I32" t="s">
         <v>127</v>
@@ -8024,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="R32" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -8041,7 +8044,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B33" t="s">
         <v>346</v>
@@ -8050,13 +8053,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E33">
         <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -8077,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="R33" t="s">
         <v>328</v>
@@ -8094,7 +8097,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B34" t="s">
         <v>315</v>
@@ -8103,22 +8106,22 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E34">
         <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G34">
         <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I34" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -8130,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="R34" t="s">
         <v>311</v>
@@ -8147,7 +8150,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B35" t="s">
         <v>331</v>
@@ -8162,13 +8165,13 @@
         <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G35">
         <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I35" t="s">
         <v>328</v>
@@ -8183,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="R35" t="s">
         <v>311</v>
@@ -8200,7 +8203,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B36" t="s">
         <v>315</v>
@@ -8209,22 +8212,22 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E36">
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G36">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -8236,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="R36" s="34" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -8253,7 +8256,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B37" s="34" t="s">
         <v>346</v>
@@ -8262,22 +8265,22 @@
         <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E37">
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G37">
         <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I37" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -8289,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="R37" t="s">
         <v>328</v>
@@ -8306,28 +8309,28 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B38" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C38">
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E38">
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G38">
         <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I38" t="s">
         <v>127</v>
@@ -8342,10 +8345,10 @@
         <v>0</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="R38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -8359,31 +8362,31 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B39" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E39">
         <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G39">
         <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I39" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -8397,28 +8400,28 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B40" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C40">
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E40">
         <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I40" t="s">
         <v>328</v>
@@ -8435,10 +8438,10 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -8450,16 +8453,16 @@
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G41">
         <v>31</v>
       </c>
       <c r="H41" t="s">
+        <v>445</v>
+      </c>
+      <c r="I41" s="34" t="s">
         <v>448</v>
-      </c>
-      <c r="I41" s="34" t="s">
-        <v>451</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -8473,10 +8476,10 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B42" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -8488,16 +8491,16 @@
         <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G42">
         <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I42" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -8511,10 +8514,10 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B43" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -8526,7 +8529,7 @@
         <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G43">
         <v>12</v>
@@ -8549,31 +8552,31 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B44" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I44" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -8587,10 +8590,10 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B45" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -8602,7 +8605,7 @@
         <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -8610,22 +8613,22 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B46" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C46">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E46">
         <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G46">
         <v>13</v>
@@ -8633,22 +8636,22 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B47" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C47">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -8656,7 +8659,7 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B48" t="s">
         <v>331</v>
@@ -8665,13 +8668,13 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G48">
         <v>10</v>
@@ -8679,10 +8682,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -8694,7 +8697,7 @@
         <v>54</v>
       </c>
       <c r="F49" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G49">
         <v>10</v>
@@ -8702,22 +8705,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B50" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E50">
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -8725,16 +8728,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E51">
         <v>43</v>
@@ -8742,16 +8745,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E52">
         <v>42</v>
@@ -8759,7 +8762,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B53" t="s">
         <v>346</v>
@@ -8776,7 +8779,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B54" t="s">
         <v>346</v>
@@ -8787,7 +8790,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B55" t="s">
         <v>346</v>
@@ -8798,10 +8801,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B56" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -8809,10 +8812,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B57" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -8820,7 +8823,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B58" t="s">
         <v>346</v>
@@ -8831,10 +8834,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B59" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C59">
         <v>31</v>
@@ -8842,10 +8845,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B60" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C60">
         <v>48</v>
@@ -8853,10 +8856,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B61" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -8864,10 +8867,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B62" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -8875,7 +8878,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B63" t="s">
         <v>346</v>
@@ -8886,10 +8889,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B64" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C64">
         <v>31</v>
@@ -8897,10 +8900,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B65" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C65">
         <v>31</v>
@@ -8908,7 +8911,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B66" t="s">
         <v>346</v>
@@ -8919,10 +8922,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B67" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C67">
         <v>30</v>
@@ -8930,14 +8933,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -8945,9 +8948,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="72.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="81.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="72.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -8974,6 +8977,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{22884D80-20B4-411A-932A-B2CDF7609250}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7199A5-47D3-4D71-BA20-911360695582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="6" windowHeight="12720" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Firm" r:id="rId1" sheetId="1"/>
-    <sheet name="Research" r:id="rId2" sheetId="9"/>
-    <sheet name="Research Data" r:id="rId3" sheetId="12"/>
-    <sheet name="Contact" r:id="rId4" sheetId="2"/>
-    <sheet name="Deal" r:id="rId5" sheetId="3"/>
-    <sheet name="Deal Team" r:id="rId6" sheetId="7"/>
-    <sheet name="Activity Timeline" r:id="rId7" sheetId="5"/>
-    <sheet name="Acuity" r:id="rId8" sheetId="6"/>
-    <sheet name="Reports" r:id="rId9" sheetId="8"/>
-    <sheet name="Fund" r:id="rId10" sheetId="4"/>
-    <sheet name="Fundraisings" r:id="rId11" sheetId="10"/>
-    <sheet name="User" r:id="rId12" sheetId="13"/>
+    <sheet name="Firm" sheetId="1" r:id="rId1"/>
+    <sheet name="Research" sheetId="9" r:id="rId2"/>
+    <sheet name="Research Data" sheetId="12" r:id="rId3"/>
+    <sheet name="Contact" sheetId="2" r:id="rId4"/>
+    <sheet name="Deal" sheetId="3" r:id="rId5"/>
+    <sheet name="Deal Team" sheetId="7" r:id="rId6"/>
+    <sheet name="Activity Timeline" sheetId="5" r:id="rId7"/>
+    <sheet name="Acuity" sheetId="6" r:id="rId8"/>
+    <sheet name="Reports" sheetId="8" r:id="rId9"/>
+    <sheet name="Fund" sheetId="4" r:id="rId10"/>
+    <sheet name="Fundraisings" sheetId="10" r:id="rId11"/>
+    <sheet name="User" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="713">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -1166,9 +1166,6 @@
     <t>Test Account 1&lt;break&gt;Test Contact 1&lt;break&gt;Test Contact 4</t>
   </si>
   <si>
-    <t>11/17/2022</t>
-  </si>
-  <si>
     <t>This is Navatar Activity to Verify View All Functionality.</t>
   </si>
   <si>
@@ -2172,13 +2169,21 @@
   </si>
   <si>
     <t>12/07/2022</t>
+  </si>
+  <si>
+    <t>Test Advisor 1&lt;break&gt;LPNav Test Account 20&lt;break&gt;PCNav Test Account 22</t>
+  </si>
+  <si>
+    <t>ATERecord010</t>
+  </si>
+  <si>
+    <t>ATE_Deal3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2321,134 +2326,134 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2465,10 +2470,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2503,7 +2508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2538,7 +2543,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2632,21 +2637,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2663,7 +2668,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2715,25 +2720,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="73.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="58.88671875" collapsed="true"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="58.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2970,7 +2975,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B33" t="s">
         <v>346</v>
@@ -2978,7 +2983,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B34" t="s">
         <v>331</v>
@@ -2986,28 +2991,42 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>668</v>
+        <v>667</v>
+      </c>
+      <c r="B35" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>669</v>
+        <v>668</v>
+      </c>
+      <c r="B36" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B38" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>711</v>
+      </c>
+      <c r="B39" t="s">
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -3015,14 +3034,14 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -3030,11 +3049,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.44140625" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3112,13 +3131,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
@@ -3126,22 +3145,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="5.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="7.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3185,7 +3204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
@@ -3273,14 +3292,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF35A968-9FB9-4E9C-A1A3-7693EDA87B78}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF35A968-9FB9-4E9C-A1A3-7693EDA87B78}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
@@ -3288,9 +3307,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3298,31 +3317,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>663</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B2" t="s">
         <v>665</v>
       </c>
-      <c r="B2" t="s">
-        <v>666</v>
-      </c>
       <c r="C2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -3330,8 +3349,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3392,13 +3411,13 @@
   <mergeCells count="1">
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -3406,16 +3425,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="49.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3585,14 +3604,14 @@
       <c r="F13" s="26"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B30" sqref="A30:E30"/>
@@ -3600,12 +3619,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="45.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="45.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="49.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="117.0" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="117" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3898,7 +3917,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D27" t="s">
         <v>313</v>
@@ -3906,50 +3925,50 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>671</v>
+      </c>
+      <c r="D29" t="s">
+        <v>436</v>
+      </c>
+      <c r="G29" t="s">
         <v>672</v>
-      </c>
-      <c r="D29" t="s">
-        <v>437</v>
-      </c>
-      <c r="G29" t="s">
-        <v>673</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F4" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink r:id="rId2" ref="F8" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="41.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="49.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="29.109375" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -4078,29 +4097,37 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B12" t="s">
-        <v>675</v>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B13" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
@@ -4108,11 +4135,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -4150,37 +4177,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A20" ySplit="1"/>
-      <selection activeCell="D27" pane="bottomLeft" sqref="D27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="34" width="58.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.21875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="58.77734375" style="34" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="4.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -4218,7 +4245,7 @@
         <v>85</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M1" s="28" t="s">
         <v>323</v>
@@ -4306,11 +4333,11 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">TEXT(TODAY()+15,"mm/dd/yyyy")</f>
-        <v>12/22/2022</v>
+        <v>12/23/2022</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/01/2023</v>
+        <v>01/02/2023</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -4460,7 +4487,7 @@
         <v>121</v>
       </c>
     </row>
-    <row ht="15" r="15" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -4603,7 +4630,7 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
@@ -4637,7 +4664,7 @@
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -4660,24 +4687,24 @@
         <v>359</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
       <c r="H24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K24" s="31">
         <v>0</v>
       </c>
       <c r="L24" s="48" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M24" s="31"/>
     </row>
@@ -4692,19 +4719,19 @@
         <v>373</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>374</v>
       </c>
       <c r="F25" t="s">
-        <v>375</v>
+        <v>709</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
       <c r="J25" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K25" s="31">
         <v>0</v>
@@ -4719,28 +4746,28 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>213</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>374</v>
       </c>
       <c r="F26" t="s">
-        <v>375</v>
+        <v>709</v>
       </c>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K26" s="40">
         <v>0</v>
@@ -4753,1120 +4780,1120 @@
         <v>326</v>
       </c>
     </row>
-    <row ht="129.6" r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
     </row>
-    <row ht="129.6" r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
     </row>
-    <row ht="129.6" r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
     </row>
-    <row ht="129.6" r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
     </row>
-    <row ht="129.6" r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
     </row>
-    <row ht="129.6" r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
     </row>
-    <row ht="129.6" r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
     </row>
-    <row ht="129.6" r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
     </row>
-    <row ht="129.6" r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
     </row>
-    <row ht="129.6" r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
     </row>
-    <row ht="72" r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
     </row>
-    <row ht="72" r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
     </row>
-    <row ht="72" r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
     </row>
-    <row ht="72" r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
     </row>
-    <row ht="72" r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
     </row>
-    <row ht="72" r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
     </row>
-    <row ht="72" r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
     </row>
-    <row ht="72" r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
     </row>
-    <row ht="72" r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
     </row>
-    <row ht="72" r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
     </row>
-    <row ht="72" r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
     </row>
-    <row ht="72" r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
     </row>
-    <row ht="72" r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
     </row>
-    <row ht="72" r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
     </row>
-    <row ht="72" r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
     </row>
-    <row ht="72" r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
     </row>
-    <row ht="72" r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
     </row>
-    <row ht="72" r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
     </row>
-    <row ht="72" r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
     </row>
-    <row ht="72" r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
     </row>
-    <row ht="72" r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
     </row>
-    <row ht="72" r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
     </row>
-    <row ht="72" r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
     </row>
-    <row ht="72" r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
     </row>
-    <row ht="72" r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
     </row>
-    <row ht="72" r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
     </row>
-    <row ht="72" r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
     </row>
-    <row ht="72" r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
     </row>
-    <row ht="72" r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
     </row>
-    <row ht="72" r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>209</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
@@ -5875,24 +5902,24 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I67" s="13"/>
       <c r="J67" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
@@ -5901,24 +5928,24 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I68" s="13"/>
       <c r="J68" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
@@ -5927,780 +5954,780 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
       <c r="H69" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
     </row>
-    <row ht="72" r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
       <c r="H70" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
     </row>
-    <row ht="72" r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
     </row>
-    <row ht="72" r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
       <c r="H72" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I72" s="13"/>
       <c r="J72" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
     </row>
-    <row ht="72" r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I73" s="13"/>
       <c r="J73" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
     </row>
-    <row ht="72" r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
     </row>
-    <row ht="72" r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
       <c r="H75" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
     </row>
-    <row ht="72" r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" s="31" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
     </row>
-    <row ht="72" r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A77" s="31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
       <c r="H77" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I77" s="13"/>
       <c r="J77" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
     </row>
-    <row ht="72" r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A78" s="31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
     </row>
-    <row ht="72" r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A79" s="31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
       <c r="H79" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
     </row>
-    <row ht="72" r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
       <c r="H80" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
     </row>
-    <row ht="72" r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A81" s="31" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
       <c r="H81" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
     </row>
-    <row ht="72" r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A82" s="31" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
       <c r="H82" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I82" s="13"/>
       <c r="J82" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
     </row>
-    <row ht="72" r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
       <c r="H83" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I83" s="13"/>
       <c r="J83" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
     </row>
-    <row ht="72" r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
       <c r="H84" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I84" s="13"/>
       <c r="J84" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
     </row>
-    <row ht="72" r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="31" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
       <c r="H85" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I85" s="13"/>
       <c r="J85" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
     </row>
-    <row ht="72" r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="31" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
       <c r="H86" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I86" s="13"/>
       <c r="J86" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
     </row>
-    <row ht="72" r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A87" s="31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
       <c r="H87" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I87" s="13"/>
       <c r="J87" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
     </row>
-    <row ht="72" r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
       <c r="H88" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I88" s="13"/>
       <c r="J88" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
     </row>
-    <row ht="72" r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A89" s="31" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
       <c r="H89" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I89" s="13"/>
       <c r="J89" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
     </row>
-    <row ht="72" r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A90" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
       <c r="H90" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I90" s="13"/>
       <c r="J90" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K90" s="13"/>
       <c r="L90" s="13"/>
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
     </row>
-    <row ht="72" r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A91" s="31" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
       <c r="H91" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I91" s="13"/>
       <c r="J91" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
       <c r="M91" s="13"/>
       <c r="N91" s="13"/>
     </row>
-    <row ht="72" r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" s="31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
       <c r="H92" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I92" s="13"/>
       <c r="J92" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
     </row>
-    <row ht="72" r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
       <c r="H93" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I93" s="13"/>
       <c r="J93" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K93" s="13"/>
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
     </row>
-    <row ht="72" r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" s="31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
       <c r="H94" s="13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K94" s="13"/>
       <c r="L94" s="13"/>
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
     </row>
-    <row ht="72" r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A95" s="31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
       <c r="H95" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
     </row>
-    <row ht="72" r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A96" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
       <c r="H96" s="13" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K96" s="13"/>
       <c r="L96" s="13"/>
@@ -6709,35 +6736,35 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="31" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B97" s="43" t="s">
         <v>213</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
       <c r="J97" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K97" s="44" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L97" s="44"/>
       <c r="M97" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N97" s="13" t="s">
         <v>326</v>
@@ -6745,35 +6772,35 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="31" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B98" s="43" t="s">
         <v>209</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D98" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K98" s="13">
         <v>0</v>
       </c>
       <c r="L98" s="13"/>
       <c r="M98" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N98" s="13" t="s">
         <v>326</v>
@@ -6781,30 +6808,30 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="31" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C99" s="43" t="s">
+        <v>615</v>
+      </c>
+      <c r="D99" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="D99" s="17" t="s">
-        <v>617</v>
-      </c>
       <c r="E99" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
       <c r="H99" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="I99" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="I99" s="13" t="s">
-        <v>626</v>
-      </c>
       <c r="J99" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K99" s="13">
         <v>0</v>
@@ -6817,35 +6844,35 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="31" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B100" s="43" t="s">
         <v>213</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K100" s="44" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L100" s="13"/>
       <c r="M100" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N100" s="13" t="s">
         <v>326</v>
@@ -6853,35 +6880,35 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="31" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B101" s="43" t="s">
         <v>209</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D101" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
       <c r="J101" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K101" s="13">
         <v>0</v>
       </c>
       <c r="L101" s="13"/>
       <c r="M101" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N101" s="13" t="s">
         <v>326</v>
@@ -6889,16 +6916,16 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="31" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E102" s="43" t="s">
         <v>284</v>
@@ -6906,13 +6933,13 @@
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
       <c r="H102" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K102" s="13">
         <v>0</v>
@@ -6925,35 +6952,35 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="31" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B103" s="43" t="s">
         <v>213</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
       <c r="J103" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K103" s="13">
         <v>0</v>
       </c>
       <c r="L103" s="13"/>
       <c r="M103" s="43" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N103" s="13" t="s">
         <v>326</v>
@@ -6961,35 +6988,35 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="31" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B104" s="43" t="s">
         <v>209</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D104" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
       <c r="J104" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K104" s="13">
         <v>0</v>
       </c>
       <c r="L104" s="13"/>
       <c r="M104" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N104" s="13" t="s">
         <v>326</v>
@@ -6997,30 +7024,30 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="31" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C105" s="43" t="s">
+        <v>643</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="E105" s="43" t="s">
         <v>644</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="E105" s="43" t="s">
-        <v>645</v>
       </c>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
       <c r="H105" s="13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K105" s="13">
         <v>0</v>
@@ -7033,35 +7060,35 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B106" s="43" t="s">
         <v>213</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D106" s="17" t="s">
         <v>321</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F106" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G106" s="13"/>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K106" s="44" t="s">
         <v>86</v>
       </c>
       <c r="L106" s="13"/>
       <c r="M106" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N106" s="13" t="s">
         <v>326</v>
@@ -7069,34 +7096,34 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C107" s="47" t="s">
+        <v>698</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="E107" s="47" t="s">
+        <v>702</v>
+      </c>
+      <c r="H107" t="s">
+        <v>700</v>
+      </c>
+      <c r="I107" t="s">
+        <v>701</v>
+      </c>
+      <c r="J107" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="K107" s="47">
+        <v>0</v>
+      </c>
+      <c r="L107" s="14" t="s">
         <v>699</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="E107" s="47" t="s">
-        <v>703</v>
-      </c>
-      <c r="H107" t="s">
-        <v>701</v>
-      </c>
-      <c r="I107" t="s">
-        <v>702</v>
-      </c>
-      <c r="J107" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="K107" s="47">
-        <v>0</v>
-      </c>
-      <c r="L107" s="14" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -7105,7 +7132,7 @@
       <c r="C112" s="11"/>
       <c r="D112" s="38"/>
       <c r="E112" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
@@ -7119,100 +7146,100 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="31" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>235</v>
       </c>
       <c r="C113" s="31" t="s">
+        <v>680</v>
+      </c>
+      <c r="E113" t="s">
+        <v>695</v>
+      </c>
+      <c r="H113" t="s">
+        <v>657</v>
+      </c>
+      <c r="I113" t="s">
+        <v>683</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="K113" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="L113" s="14" t="s">
         <v>681</v>
-      </c>
-      <c r="E113" t="s">
-        <v>696</v>
-      </c>
-      <c r="H113" t="s">
-        <v>658</v>
-      </c>
-      <c r="I113" t="s">
-        <v>684</v>
-      </c>
-      <c r="J113" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="K113" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="L113" s="14" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B114" t="s">
         <v>213</v>
       </c>
       <c r="C114" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E114" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F114" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J114" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K114" s="14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AC67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A15" ySplit="1"/>
-      <selection activeCell="E28" pane="bottomLeft" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="19" max="21" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="48.88671875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="61.77734375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="69.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="33.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="61.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="40" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -7574,7 +7601,7 @@
         <v>308</v>
       </c>
       <c r="V23" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AA23" t="s">
         <v>338</v>
@@ -7641,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R25" t="s">
         <v>328</v>
@@ -7700,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="R26" t="s">
         <v>311</v>
@@ -7744,11 +7771,11 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
+        <v>384</v>
+      </c>
+      <c r="I27" t="s">
         <v>385</v>
       </c>
-      <c r="I27" t="s">
-        <v>386</v>
-      </c>
       <c r="J27">
         <v>0</v>
       </c>
@@ -7759,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R27" t="s">
         <v>328</v>
@@ -7800,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I28" t="s">
         <v>311</v>
@@ -7815,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="R28" t="s">
         <v>311</v>
@@ -7847,16 +7874,16 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G29">
         <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -7868,10 +7895,10 @@
         <v>0</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="R29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -7900,7 +7927,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G30">
         <v>30</v>
@@ -7921,10 +7948,10 @@
         <v>0</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -7938,7 +7965,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B31" t="s">
         <v>346</v>
@@ -7953,7 +7980,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -7974,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R31" t="s">
         <v>328</v>
@@ -7991,7 +8018,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B32" t="s">
         <v>315</v>
@@ -8006,13 +8033,13 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I32" t="s">
         <v>127</v>
@@ -8027,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -8044,7 +8071,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B33" t="s">
         <v>346</v>
@@ -8053,13 +8080,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E33">
         <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -8080,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R33" t="s">
         <v>328</v>
@@ -8097,7 +8124,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B34" t="s">
         <v>315</v>
@@ -8106,22 +8133,22 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E34">
         <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G34">
         <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -8133,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R34" t="s">
         <v>311</v>
@@ -8150,7 +8177,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B35" t="s">
         <v>331</v>
@@ -8165,13 +8192,13 @@
         <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G35">
         <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I35" t="s">
         <v>328</v>
@@ -8186,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="R35" t="s">
         <v>311</v>
@@ -8203,7 +8230,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B36" t="s">
         <v>315</v>
@@ -8212,22 +8239,22 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E36">
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G36">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -8239,10 +8266,10 @@
         <v>0</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="R36" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -8256,7 +8283,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B37" s="34" t="s">
         <v>346</v>
@@ -8265,22 +8292,22 @@
         <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E37">
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G37">
         <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -8292,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="R37" t="s">
         <v>328</v>
@@ -8309,28 +8336,28 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C38">
         <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E38">
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G38">
         <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I38" t="s">
         <v>127</v>
@@ -8345,10 +8372,10 @@
         <v>0</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="R38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -8362,31 +8389,31 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E39">
         <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G39">
         <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -8400,28 +8427,28 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C40">
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E40">
         <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I40" t="s">
         <v>328</v>
@@ -8438,10 +8465,10 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -8453,16 +8480,16 @@
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G41">
         <v>31</v>
       </c>
       <c r="H41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I41" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -8476,10 +8503,10 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -8491,16 +8518,16 @@
         <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G42">
         <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -8514,10 +8541,10 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -8529,7 +8556,7 @@
         <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G43">
         <v>12</v>
@@ -8552,31 +8579,31 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -8590,10 +8617,10 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -8605,30 +8632,45 @@
         <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
+      <c r="H45" t="s">
+        <v>363</v>
+      </c>
+      <c r="I45" t="s">
+        <v>329</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C46">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E46">
         <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G46">
         <v>13</v>
@@ -8636,22 +8678,22 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B47" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C47">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G47">
         <v>10</v>
@@ -8659,7 +8701,7 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s">
         <v>331</v>
@@ -8668,13 +8710,13 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G48">
         <v>10</v>
@@ -8682,10 +8724,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B49" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -8697,7 +8739,7 @@
         <v>54</v>
       </c>
       <c r="F49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G49">
         <v>10</v>
@@ -8705,7 +8747,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s">
         <v>360</v>
@@ -8714,13 +8756,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E50">
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G50">
         <v>10</v>
@@ -8728,7 +8770,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B51" t="s">
         <v>361</v>
@@ -8737,7 +8779,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E51">
         <v>43</v>
@@ -8745,7 +8787,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B52" t="s">
         <v>362</v>
@@ -8754,7 +8796,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E52">
         <v>42</v>
@@ -8762,7 +8804,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B53" t="s">
         <v>346</v>
@@ -8779,7 +8821,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B54" t="s">
         <v>346</v>
@@ -8790,7 +8832,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B55" t="s">
         <v>346</v>
@@ -8801,10 +8843,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B56" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -8812,10 +8854,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B57" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -8823,7 +8865,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B58" t="s">
         <v>346</v>
@@ -8834,10 +8876,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B59" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C59">
         <v>31</v>
@@ -8845,10 +8887,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B60" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C60">
         <v>48</v>
@@ -8856,10 +8898,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B61" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -8867,10 +8909,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B62" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -8878,7 +8920,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B63" t="s">
         <v>346</v>
@@ -8889,10 +8931,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C64">
         <v>31</v>
@@ -8900,10 +8942,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B65" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C65">
         <v>31</v>
@@ -8911,7 +8953,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B66" t="s">
         <v>346</v>
@@ -8922,10 +8964,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B67" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C67">
         <v>30</v>
@@ -8933,14 +8975,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -8948,9 +8990,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="81.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="72.109375" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="72.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -8977,6 +9019,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7199A5-47D3-4D71-BA20-911360695582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
   </bookViews>
   <sheets>
-    <sheet name="Firm" sheetId="1" r:id="rId1"/>
-    <sheet name="Research" sheetId="9" r:id="rId2"/>
-    <sheet name="Research Data" sheetId="12" r:id="rId3"/>
-    <sheet name="Contact" sheetId="2" r:id="rId4"/>
-    <sheet name="Deal" sheetId="3" r:id="rId5"/>
-    <sheet name="Deal Team" sheetId="7" r:id="rId6"/>
-    <sheet name="Activity Timeline" sheetId="5" r:id="rId7"/>
-    <sheet name="Acuity" sheetId="6" r:id="rId8"/>
-    <sheet name="Reports" sheetId="8" r:id="rId9"/>
-    <sheet name="Fund" sheetId="4" r:id="rId10"/>
-    <sheet name="Fundraisings" sheetId="10" r:id="rId11"/>
-    <sheet name="User" sheetId="13" r:id="rId12"/>
+    <sheet name="CustomMetaData" sheetId="15" r:id="rId1"/>
+    <sheet name="Firm" sheetId="1" r:id="rId2"/>
+    <sheet name="Research" sheetId="9" r:id="rId3"/>
+    <sheet name="Research Data" sheetId="12" r:id="rId4"/>
+    <sheet name="Contact" sheetId="2" r:id="rId5"/>
+    <sheet name="Deal" sheetId="3" r:id="rId6"/>
+    <sheet name="Deal Team" sheetId="7" r:id="rId7"/>
+    <sheet name="Activity Timeline" sheetId="5" r:id="rId8"/>
+    <sheet name="Acuity" sheetId="6" r:id="rId9"/>
+    <sheet name="Reports" sheetId="8" r:id="rId10"/>
+    <sheet name="Fund" sheetId="4" r:id="rId11"/>
+    <sheet name="Fundraisings" sheetId="10" r:id="rId12"/>
+    <sheet name="User" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="743">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -2178,12 +2178,102 @@
   </si>
   <si>
     <t>ATE_Deal3</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>New_Value</t>
+  </si>
+  <si>
+    <t>Cust_1</t>
+  </si>
+  <si>
+    <t>Research Acc Field2</t>
+  </si>
+  <si>
+    <t>navpeII__Fee_Comments__c</t>
+  </si>
+  <si>
+    <t>Cust_2</t>
+  </si>
+  <si>
+    <t>Research_Con_Field2</t>
+  </si>
+  <si>
+    <t>OwnerId</t>
+  </si>
+  <si>
+    <t>Cust_3</t>
+  </si>
+  <si>
+    <t>Research_Con_Field3</t>
+  </si>
+  <si>
+    <t>navpeII__Candidate_Notes__c</t>
+  </si>
+  <si>
+    <t>Cust_4</t>
+  </si>
+  <si>
+    <t>Research Deal Field2</t>
+  </si>
+  <si>
+    <t>navpeII__Source__c</t>
+  </si>
+  <si>
+    <t>Cust_5</t>
+  </si>
+  <si>
+    <t>Research Deal Field3</t>
+  </si>
+  <si>
+    <t>navpeII__Reason_for_Decline__c</t>
+  </si>
+  <si>
+    <t>Cust_6</t>
+  </si>
+  <si>
+    <t>Research Fund Field2</t>
+  </si>
+  <si>
+    <t>navpeII__Fund_Type__c</t>
+  </si>
+  <si>
+    <t>Cust_7</t>
+  </si>
+  <si>
+    <t>Research Fund Field3</t>
+  </si>
+  <si>
+    <t>navpeII__Investment_Category__c</t>
+  </si>
+  <si>
+    <t>Cust_8</t>
+  </si>
+  <si>
+    <t>Research Fundraising Field2</t>
+  </si>
+  <si>
+    <t>navpeII__Fund_Name__c</t>
+  </si>
+  <si>
+    <t>Cust_9</t>
+  </si>
+  <si>
+    <t>Research Fundraising Field3</t>
+  </si>
+  <si>
+    <t>Custom_Fundraising_LTA__c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2450,7 +2540,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2727,336 +2817,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="58.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>722</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>723</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+      <c r="D4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>725</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+      <c r="D5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>728</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+      <c r="D6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>731</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+      <c r="D7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>734</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>735</v>
+      </c>
+      <c r="D8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>737</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>738</v>
+      </c>
+      <c r="D9" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>740</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="22"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="22"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>278</v>
-      </c>
-      <c r="B21" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>283</v>
-      </c>
-      <c r="B22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="C29" s="27"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>310</v>
-      </c>
-      <c r="B31" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>316</v>
-      </c>
-      <c r="B32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>376</v>
-      </c>
-      <c r="B33" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>381</v>
-      </c>
-      <c r="B34" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>667</v>
-      </c>
-      <c r="B35" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>668</v>
-      </c>
-      <c r="B36" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>669</v>
-      </c>
-      <c r="B37" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>676</v>
-      </c>
-      <c r="B38" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>711</v>
-      </c>
-      <c r="B39" t="s">
-        <v>710</v>
+        <v>741</v>
+      </c>
+      <c r="D10" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="72.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3073,7 +3033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3087,7 +3047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>225</v>
       </c>
@@ -3102,7 +3062,7 @@
       </c>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>227</v>
       </c>
@@ -3113,7 +3073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>229</v>
       </c>
@@ -3135,32 +3095,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3204,7 +3164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
@@ -3215,7 +3175,7 @@
       <c r="F3" s="24"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>240</v>
       </c>
@@ -3243,7 +3203,7 @@
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>245</v>
       </c>
@@ -3263,7 +3223,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>247</v>
       </c>
@@ -3297,22 +3257,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF35A968-9FB9-4E9C-A1A3-7693EDA87B78}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -3323,7 +3282,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>664</v>
       </c>
@@ -3340,20 +3299,333 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>316</v>
+      </c>
+      <c r="B32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>381</v>
+      </c>
+      <c r="B34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>667</v>
+      </c>
+      <c r="B35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>668</v>
+      </c>
+      <c r="B36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>669</v>
+      </c>
+      <c r="B37" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>676</v>
+      </c>
+      <c r="B38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>711</v>
+      </c>
+      <c r="B39" t="s">
+        <v>710</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3361,13 +3633,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>163</v>
       </c>
       <c r="B3" s="50"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -3375,7 +3647,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -3383,7 +3655,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -3391,7 +3663,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -3399,7 +3671,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3415,29 +3687,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3469,7 +3741,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="11"/>
       <c r="C3" s="23" t="s">
@@ -3483,7 +3755,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3495,7 +3767,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>269</v>
       </c>
@@ -3507,7 +3779,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>261</v>
       </c>
@@ -3519,7 +3791,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>262</v>
       </c>
@@ -3531,7 +3803,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>263</v>
       </c>
@@ -3543,7 +3815,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>264</v>
       </c>
@@ -3555,7 +3827,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>265</v>
       </c>
@@ -3567,7 +3839,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="26"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>266</v>
       </c>
@@ -3579,7 +3851,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="26"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>267</v>
       </c>
@@ -3591,7 +3863,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="26"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>268</v>
       </c>
@@ -3609,25 +3881,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B30" sqref="A30:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="117" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3656,7 +3928,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -3667,7 +3939,7 @@
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -3680,7 +3952,7 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3697,7 +3969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -3705,7 +3977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -3713,7 +3985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -3721,7 +3993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -3741,7 +4013,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -3749,7 +4021,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -3757,7 +4029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>182</v>
       </c>
@@ -3782,7 +4054,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>188</v>
       </c>
@@ -3797,7 +4069,7 @@
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>192</v>
       </c>
@@ -3812,7 +4084,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>193</v>
       </c>
@@ -3835,7 +4107,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>194</v>
       </c>
@@ -3854,7 +4126,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -3862,7 +4134,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -3870,7 +4142,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>287</v>
       </c>
@@ -3878,7 +4150,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -3891,7 +4163,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>309</v>
       </c>
@@ -3899,7 +4171,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -3907,7 +4179,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>314</v>
       </c>
@@ -3915,7 +4187,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>380</v>
       </c>
@@ -3923,7 +4195,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>670</v>
       </c>
@@ -3934,7 +4206,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>671</v>
       </c>
@@ -3948,30 +4220,30 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3997,7 +4269,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4011,7 +4283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -4025,7 +4297,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>200</v>
       </c>
@@ -4049,7 +4321,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>202</v>
       </c>
@@ -4063,7 +4335,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>208</v>
       </c>
@@ -4083,7 +4355,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
@@ -4095,7 +4367,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>673</v>
       </c>
@@ -4103,7 +4375,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>675</v>
       </c>
@@ -4111,7 +4383,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>712</v>
       </c>
@@ -4125,24 +4397,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4431,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -4182,8 +4454,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O114"/>
   <sheetViews>
@@ -4192,25 +4464,24 @@
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="58.77734375" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="58.7109375" style="34" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="4.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4255,7 +4526,7 @@
       </c>
       <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -4269,7 +4540,7 @@
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -4285,7 +4556,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="42"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4312,7 +4583,7 @@
       </c>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -4340,7 +4611,7 @@
         <v>01/02/2023</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -4364,7 +4635,7 @@
       </c>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -4375,7 +4646,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -4383,7 +4654,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -4407,7 +4678,7 @@
       </c>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -4431,7 +4702,7 @@
       </c>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -4451,7 +4722,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -4459,7 +4730,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -4467,7 +4738,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -4487,7 +4758,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -4507,7 +4778,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>221</v>
       </c>
@@ -4528,7 +4799,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>222</v>
       </c>
@@ -4549,7 +4820,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>223</v>
       </c>
@@ -4570,7 +4841,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>224</v>
       </c>
@@ -4591,7 +4862,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4607,7 +4878,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>318</v>
       </c>
@@ -4641,7 +4912,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>341</v>
       </c>
@@ -4673,7 +4944,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>357</v>
       </c>
@@ -4708,7 +4979,7 @@
       </c>
       <c r="M24" s="31"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>372</v>
       </c>
@@ -4744,7 +5015,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>377</v>
       </c>
@@ -4780,7 +5051,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>499</v>
       </c>
@@ -4808,7 +5079,7 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
     </row>
-    <row r="28" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>500</v>
       </c>
@@ -4836,7 +5107,7 @@
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
     </row>
-    <row r="29" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>501</v>
       </c>
@@ -4864,7 +5135,7 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
     </row>
-    <row r="30" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>502</v>
       </c>
@@ -4892,7 +5163,7 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>503</v>
       </c>
@@ -4920,7 +5191,7 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>504</v>
       </c>
@@ -4948,7 +5219,7 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>505</v>
       </c>
@@ -4976,7 +5247,7 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>506</v>
       </c>
@@ -5004,7 +5275,7 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>507</v>
       </c>
@@ -5032,7 +5303,7 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>508</v>
       </c>
@@ -5060,7 +5331,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>509</v>
       </c>
@@ -5088,7 +5359,7 @@
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
     </row>
-    <row r="38" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>510</v>
       </c>
@@ -5116,7 +5387,7 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>511</v>
       </c>
@@ -5144,7 +5415,7 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>512</v>
       </c>
@@ -5172,7 +5443,7 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>513</v>
       </c>
@@ -5200,7 +5471,7 @@
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
     </row>
-    <row r="42" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>514</v>
       </c>
@@ -5228,7 +5499,7 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>515</v>
       </c>
@@ -5256,7 +5527,7 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>516</v>
       </c>
@@ -5284,7 +5555,7 @@
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>517</v>
       </c>
@@ -5312,7 +5583,7 @@
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>518</v>
       </c>
@@ -5340,7 +5611,7 @@
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>519</v>
       </c>
@@ -5368,7 +5639,7 @@
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
     </row>
-    <row r="48" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>520</v>
       </c>
@@ -5396,7 +5667,7 @@
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
     </row>
-    <row r="49" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>521</v>
       </c>
@@ -5424,7 +5695,7 @@
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
     </row>
-    <row r="50" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>522</v>
       </c>
@@ -5452,7 +5723,7 @@
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
     </row>
-    <row r="51" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>523</v>
       </c>
@@ -5480,7 +5751,7 @@
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
     </row>
-    <row r="52" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>524</v>
       </c>
@@ -5508,7 +5779,7 @@
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>525</v>
       </c>
@@ -5536,7 +5807,7 @@
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>526</v>
       </c>
@@ -5564,7 +5835,7 @@
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
     </row>
-    <row r="55" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>527</v>
       </c>
@@ -5592,7 +5863,7 @@
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
     </row>
-    <row r="56" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>528</v>
       </c>
@@ -5620,7 +5891,7 @@
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
     </row>
-    <row r="57" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>529</v>
       </c>
@@ -5648,7 +5919,7 @@
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
     </row>
-    <row r="58" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>530</v>
       </c>
@@ -5676,7 +5947,7 @@
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
     </row>
-    <row r="59" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>531</v>
       </c>
@@ -5704,7 +5975,7 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
     </row>
-    <row r="60" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>532</v>
       </c>
@@ -5732,7 +6003,7 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
     </row>
-    <row r="61" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>533</v>
       </c>
@@ -5760,7 +6031,7 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
     </row>
-    <row r="62" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>534</v>
       </c>
@@ -5788,7 +6059,7 @@
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
     </row>
-    <row r="63" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>535</v>
       </c>
@@ -5816,7 +6087,7 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
     </row>
-    <row r="64" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>536</v>
       </c>
@@ -5844,7 +6115,7 @@
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
     </row>
-    <row r="65" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>537</v>
       </c>
@@ -5872,7 +6143,7 @@
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
     </row>
-    <row r="66" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>538</v>
       </c>
@@ -5900,7 +6171,7 @@
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
         <v>539</v>
       </c>
@@ -5926,7 +6197,7 @@
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
         <v>540</v>
       </c>
@@ -5952,7 +6223,7 @@
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>541</v>
       </c>
@@ -5978,7 +6249,7 @@
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
     </row>
-    <row r="70" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
         <v>542</v>
       </c>
@@ -6006,7 +6277,7 @@
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
     </row>
-    <row r="71" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>543</v>
       </c>
@@ -6034,7 +6305,7 @@
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
     </row>
-    <row r="72" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>544</v>
       </c>
@@ -6062,7 +6333,7 @@
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
     </row>
-    <row r="73" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>545</v>
       </c>
@@ -6090,7 +6361,7 @@
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
     </row>
-    <row r="74" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
         <v>546</v>
       </c>
@@ -6118,7 +6389,7 @@
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
     </row>
-    <row r="75" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>547</v>
       </c>
@@ -6146,7 +6417,7 @@
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
     </row>
-    <row r="76" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>548</v>
       </c>
@@ -6174,7 +6445,7 @@
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
     </row>
-    <row r="77" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>549</v>
       </c>
@@ -6202,7 +6473,7 @@
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
     </row>
-    <row r="78" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>550</v>
       </c>
@@ -6230,7 +6501,7 @@
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
     </row>
-    <row r="79" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
         <v>551</v>
       </c>
@@ -6258,7 +6529,7 @@
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
     </row>
-    <row r="80" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
         <v>552</v>
       </c>
@@ -6286,7 +6557,7 @@
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
     </row>
-    <row r="81" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
         <v>553</v>
       </c>
@@ -6314,7 +6585,7 @@
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
     </row>
-    <row r="82" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>554</v>
       </c>
@@ -6342,7 +6613,7 @@
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
     </row>
-    <row r="83" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
         <v>555</v>
       </c>
@@ -6370,7 +6641,7 @@
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
     </row>
-    <row r="84" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
         <v>556</v>
       </c>
@@ -6398,7 +6669,7 @@
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
     </row>
-    <row r="85" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
         <v>557</v>
       </c>
@@ -6426,7 +6697,7 @@
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
     </row>
-    <row r="86" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
         <v>558</v>
       </c>
@@ -6454,7 +6725,7 @@
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
     </row>
-    <row r="87" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>559</v>
       </c>
@@ -6482,7 +6753,7 @@
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
     </row>
-    <row r="88" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>560</v>
       </c>
@@ -6510,7 +6781,7 @@
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
     </row>
-    <row r="89" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>561</v>
       </c>
@@ -6538,7 +6809,7 @@
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
     </row>
-    <row r="90" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
         <v>562</v>
       </c>
@@ -6566,7 +6837,7 @@
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
     </row>
-    <row r="91" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
         <v>563</v>
       </c>
@@ -6594,7 +6865,7 @@
       <c r="M91" s="13"/>
       <c r="N91" s="13"/>
     </row>
-    <row r="92" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
         <v>564</v>
       </c>
@@ -6622,7 +6893,7 @@
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
     </row>
-    <row r="93" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
         <v>565</v>
       </c>
@@ -6650,7 +6921,7 @@
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
     </row>
-    <row r="94" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
         <v>566</v>
       </c>
@@ -6678,7 +6949,7 @@
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
     </row>
-    <row r="95" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
         <v>567</v>
       </c>
@@ -6706,7 +6977,7 @@
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
     </row>
-    <row r="96" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
         <v>568</v>
       </c>
@@ -6734,7 +7005,7 @@
       <c r="M96" s="13"/>
       <c r="N96" s="13"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
         <v>617</v>
       </c>
@@ -6770,7 +7041,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
         <v>618</v>
       </c>
@@ -6806,7 +7077,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
         <v>619</v>
       </c>
@@ -6842,7 +7113,7 @@
       <c r="M99" s="13"/>
       <c r="N99" s="13"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
         <v>626</v>
       </c>
@@ -6878,7 +7149,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>627</v>
       </c>
@@ -6914,7 +7185,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
         <v>628</v>
       </c>
@@ -6950,7 +7221,7 @@
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
         <v>636</v>
       </c>
@@ -6986,7 +7257,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>637</v>
       </c>
@@ -7022,7 +7293,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>638</v>
       </c>
@@ -7058,7 +7329,7 @@
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>656</v>
       </c>
@@ -7094,7 +7365,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>697</v>
       </c>
@@ -7126,7 +7397,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -7144,7 +7415,7 @@
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
         <v>679</v>
       </c>
@@ -7173,7 +7444,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
         <v>682</v>
       </c>
@@ -7203,8 +7474,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7212,37 +7483,37 @@
       <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="33.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="61.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="21" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="48.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="33.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="61.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="40" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="69" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -7328,7 +7599,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -7353,7 +7624,7 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -7367,7 +7638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -7381,7 +7652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -7395,7 +7666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -7409,7 +7680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -7434,7 +7705,7 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -7445,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -7456,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -7467,7 +7738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -7484,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -7513,7 +7784,7 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>293</v>
       </c>
@@ -7560,7 +7831,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>301</v>
       </c>
@@ -7610,7 +7881,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>330</v>
       </c>
@@ -7630,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>345</v>
       </c>
@@ -7689,7 +7960,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>356</v>
       </c>
@@ -7748,7 +8019,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>366</v>
       </c>
@@ -7804,7 +8075,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>367</v>
       </c>
@@ -7857,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>368</v>
       </c>
@@ -7910,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>369</v>
       </c>
@@ -7963,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -8016,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>382</v>
       </c>
@@ -8069,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>383</v>
       </c>
@@ -8122,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>387</v>
       </c>
@@ -8175,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>388</v>
       </c>
@@ -8228,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>389</v>
       </c>
@@ -8281,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>401</v>
       </c>
@@ -8334,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>402</v>
       </c>
@@ -8387,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>403</v>
       </c>
@@ -8425,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>404</v>
       </c>
@@ -8463,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>405</v>
       </c>
@@ -8501,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>406</v>
       </c>
@@ -8539,7 +8810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>407</v>
       </c>
@@ -8577,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>408</v>
       </c>
@@ -8615,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>409</v>
       </c>
@@ -8653,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>410</v>
       </c>
@@ -8676,7 +8947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -8699,7 +8970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>412</v>
       </c>
@@ -8722,7 +8993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>413</v>
       </c>
@@ -8745,7 +9016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>414</v>
       </c>
@@ -8768,7 +9039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>415</v>
       </c>
@@ -8785,7 +9056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>416</v>
       </c>
@@ -8802,7 +9073,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>623</v>
       </c>
@@ -8819,7 +9090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>635</v>
       </c>
@@ -8830,7 +9101,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>645</v>
       </c>
@@ -8841,7 +9112,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>648</v>
       </c>
@@ -8852,7 +9123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>649</v>
       </c>
@@ -8863,7 +9134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>659</v>
       </c>
@@ -8874,7 +9145,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>660</v>
       </c>
@@ -8885,7 +9156,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>686</v>
       </c>
@@ -8896,7 +9167,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>687</v>
       </c>
@@ -8907,7 +9178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>688</v>
       </c>
@@ -8918,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>703</v>
       </c>
@@ -8929,7 +9200,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>704</v>
       </c>
@@ -8940,7 +9211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>705</v>
       </c>
@@ -8951,7 +9222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>706</v>
       </c>
@@ -8962,7 +9233,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>707</v>
       </c>
@@ -8978,47 +9249,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="72.109375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8098AE-4DB1-4F31-A5CC-DA4445994185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomMetaData" sheetId="15" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="Fundraisings" sheetId="10" r:id="rId12"/>
     <sheet name="User" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="778">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -2268,12 +2269,117 @@
   </si>
   <si>
     <t>Custom_Fundraising_LTA__c</t>
+  </si>
+  <si>
+    <t>Cust_10</t>
+  </si>
+  <si>
+    <t>Cust_11</t>
+  </si>
+  <si>
+    <t>Cust_12</t>
+  </si>
+  <si>
+    <t>Acuity Acc Comps Ref</t>
+  </si>
+  <si>
+    <t>navpeII__Entity_Type__c</t>
+  </si>
+  <si>
+    <t>Acuity Acc People Ref</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Acuity Acc Deals Ref</t>
+  </si>
+  <si>
+    <t>navpeII__Stage__c</t>
+  </si>
+  <si>
+    <t>Cust_13</t>
+  </si>
+  <si>
+    <t>Cust_14</t>
+  </si>
+  <si>
+    <t>Cust_15</t>
+  </si>
+  <si>
+    <t>navpeII__Contact_Type__c</t>
+  </si>
+  <si>
+    <t>Acuity Acc Con People</t>
+  </si>
+  <si>
+    <t>Acuity Acc Con Role</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Acuity Acc Con IC Con Ref</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>RG Acuity Task and Event</t>
+  </si>
+  <si>
+    <t>RGATE_Fund01</t>
+  </si>
+  <si>
+    <t>Navatar RG Fund 1</t>
+  </si>
+  <si>
+    <t>RGAcuity (Task and Event)</t>
+  </si>
+  <si>
+    <t>RGATERecord001</t>
+  </si>
+  <si>
+    <t>Test RG Account 1&lt;break&gt;Test RG Account 2&lt;break&gt;Test RG Account 3</t>
+  </si>
+  <si>
+    <t>Intermediary&lt;break&gt;Company&lt;break&gt;Institution</t>
+  </si>
+  <si>
+    <t>RG Acuity (Task and Event)</t>
+  </si>
+  <si>
+    <t>RGATE_Con1</t>
+  </si>
+  <si>
+    <t>Mark&lt;break&gt;Ben&lt;break&gt;Lokey</t>
+  </si>
+  <si>
+    <t>Tulip&lt;break&gt;Stokes&lt;break&gt;Fargusan</t>
+  </si>
+  <si>
+    <t>1investorportal+testcontactrg1@gmail.com&lt;break&gt;1investorportal+testcontactrg2@gmail.com&lt;break&gt;1investorportal+testcontactrg3@gmail.com</t>
+  </si>
+  <si>
+    <t>RG Acuity Smoke</t>
+  </si>
+  <si>
+    <t>RGATE_Deal1</t>
+  </si>
+  <si>
+    <t>Navatar RG Deal 1&lt;break&gt;Navatar RG Deal 2</t>
+  </si>
+  <si>
+    <t>Test RG Account 1&lt;break&gt;Test RG Account 1</t>
+  </si>
+  <si>
+    <t>NDA Signed&lt;break&gt;IOI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2420,7 +2526,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2530,6 +2636,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2540,7 +2649,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2817,21 +2926,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +2954,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>716</v>
       </c>
@@ -2856,7 +2965,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>719</v>
       </c>
@@ -2870,7 +2979,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>722</v>
       </c>
@@ -2884,7 +2993,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>725</v>
       </c>
@@ -2895,7 +3004,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>728</v>
       </c>
@@ -2906,7 +3015,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>731</v>
       </c>
@@ -2917,7 +3026,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>734</v>
       </c>
@@ -2928,7 +3037,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>737</v>
       </c>
@@ -2939,7 +3048,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>740</v>
       </c>
@@ -2950,28 +3059,119 @@
         <v>742</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>743</v>
+      </c>
+      <c r="B11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C11" t="s">
+        <v>747</v>
+      </c>
+      <c r="D11" t="s">
+        <v>747</v>
+      </c>
+      <c r="G11" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>744</v>
+      </c>
+      <c r="B12" t="s">
+        <v>748</v>
+      </c>
+      <c r="C12" t="s">
+        <v>749</v>
+      </c>
+      <c r="D12" t="s">
+        <v>749</v>
+      </c>
+      <c r="G12" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>745</v>
+      </c>
+      <c r="B13" t="s">
+        <v>750</v>
+      </c>
+      <c r="C13" t="s">
+        <v>751</v>
+      </c>
+      <c r="D13" t="s">
+        <v>751</v>
+      </c>
+      <c r="G13" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>752</v>
+      </c>
+      <c r="B14" t="s">
+        <v>756</v>
+      </c>
+      <c r="D14" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>753</v>
+      </c>
+      <c r="B15" t="s">
+        <v>757</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>758</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>754</v>
+      </c>
+      <c r="B16" t="s">
+        <v>759</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="72.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="72.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2982,7 +3182,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -3000,23 +3200,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3033,7 +3233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3047,7 +3247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>225</v>
       </c>
@@ -3062,7 +3262,7 @@
       </c>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>227</v>
       </c>
@@ -3073,7 +3273,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>229</v>
       </c>
@@ -3088,6 +3288,29 @@
       </c>
       <c r="E5" s="22" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>762</v>
+      </c>
+      <c r="B11" t="s">
+        <v>763</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3096,31 +3319,31 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3164,7 +3387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
@@ -3175,7 +3398,7 @@
       <c r="F3" s="24"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>240</v>
       </c>
@@ -3203,7 +3426,7 @@
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>245</v>
       </c>
@@ -3223,7 +3446,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>247</v>
       </c>
@@ -3258,20 +3481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -3282,7 +3505,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>664</v>
       </c>
@@ -3299,21 +3522,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3330,14 +3553,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3348,7 +3571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -3356,7 +3579,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -3364,7 +3587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3372,7 +3595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -3380,7 +3603,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -3388,7 +3611,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -3396,7 +3619,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -3404,7 +3627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -3412,7 +3635,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -3423,7 +3646,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3431,7 +3654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -3439,7 +3662,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>155</v>
       </c>
@@ -3450,7 +3673,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>156</v>
       </c>
@@ -3459,7 +3682,7 @@
       </c>
       <c r="C17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>157</v>
       </c>
@@ -3468,7 +3691,7 @@
       </c>
       <c r="C18" s="22"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>158</v>
       </c>
@@ -3481,7 +3704,7 @@
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>159</v>
       </c>
@@ -3498,7 +3721,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>278</v>
       </c>
@@ -3506,7 +3729,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>283</v>
       </c>
@@ -3514,14 +3737,14 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="27" t="s">
         <v>292</v>
       </c>
       <c r="C29" s="27"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>295</v>
       </c>
@@ -3529,7 +3752,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>310</v>
       </c>
@@ -3537,7 +3760,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>316</v>
       </c>
@@ -3545,7 +3768,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>376</v>
       </c>
@@ -3553,7 +3776,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>381</v>
       </c>
@@ -3561,7 +3784,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>667</v>
       </c>
@@ -3569,7 +3792,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>668</v>
       </c>
@@ -3577,7 +3800,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>669</v>
       </c>
@@ -3585,7 +3808,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>676</v>
       </c>
@@ -3593,12 +3816,31 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>711</v>
       </c>
       <c r="B39" t="s">
         <v>710</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="49" t="s">
+        <v>764</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>765</v>
+      </c>
+      <c r="B43" t="s">
+        <v>766</v>
+      </c>
+      <c r="C43" t="s">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -3612,20 +3854,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3633,13 +3875,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="50"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="51"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -3647,7 +3889,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -3655,7 +3897,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -3663,7 +3905,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -3671,7 +3913,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3688,28 +3930,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3741,7 +3983,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="11"/>
       <c r="C3" s="23" t="s">
@@ -3755,7 +3997,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -3767,7 +4009,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>269</v>
       </c>
@@ -3779,7 +4021,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>261</v>
       </c>
@@ -3791,7 +4033,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>262</v>
       </c>
@@ -3803,7 +4045,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>263</v>
       </c>
@@ -3815,7 +4057,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>264</v>
       </c>
@@ -3827,7 +4069,7 @@
       <c r="E9" s="13"/>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>265</v>
       </c>
@@ -3839,7 +4081,7 @@
       <c r="E10" s="13"/>
       <c r="F10" s="26"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>266</v>
       </c>
@@ -3851,7 +4093,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="26"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>267</v>
       </c>
@@ -3863,7 +4105,7 @@
       <c r="E12" s="13"/>
       <c r="F12" s="26"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>268</v>
       </c>
@@ -3882,24 +4124,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B30" sqref="A30:E30"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="117" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3928,7 +4170,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -3939,7 +4181,7 @@
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -3952,7 +4194,7 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3969,7 +4211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -3977,7 +4219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -3985,7 +4227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -3993,7 +4235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -4013,7 +4255,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -4021,7 +4263,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -4029,7 +4271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>182</v>
       </c>
@@ -4054,7 +4296,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>188</v>
       </c>
@@ -4069,7 +4311,7 @@
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>192</v>
       </c>
@@ -4084,7 +4326,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>193</v>
       </c>
@@ -4107,7 +4349,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>194</v>
       </c>
@@ -4126,7 +4368,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -4134,7 +4376,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -4142,7 +4384,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>287</v>
       </c>
@@ -4150,7 +4392,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4163,7 +4405,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>309</v>
       </c>
@@ -4171,7 +4413,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -4179,7 +4421,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>314</v>
       </c>
@@ -4187,7 +4429,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>380</v>
       </c>
@@ -4195,7 +4437,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>670</v>
       </c>
@@ -4206,7 +4448,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>671</v>
       </c>
@@ -4215,35 +4457,66 @@
       </c>
       <c r="G29" t="s">
         <v>672</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>769</v>
+      </c>
+      <c r="B33" t="s">
+        <v>770</v>
+      </c>
+      <c r="C33" t="s">
+        <v>771</v>
+      </c>
+      <c r="E33" t="s">
+        <v>766</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>772</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="F33" r:id="rId3" xr:uid="{B2DF3624-C3D8-448B-AD49-A0D91DC3E2EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4269,7 +4542,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4283,7 +4556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -4297,7 +4570,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>200</v>
       </c>
@@ -4321,7 +4594,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>202</v>
       </c>
@@ -4335,7 +4608,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>208</v>
       </c>
@@ -4355,7 +4628,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
@@ -4367,7 +4640,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>673</v>
       </c>
@@ -4375,7 +4648,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>675</v>
       </c>
@@ -4383,12 +4656,38 @@
         <v>674</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>712</v>
       </c>
       <c r="B13" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>774</v>
+      </c>
+      <c r="B17" t="s">
+        <v>775</v>
+      </c>
+      <c r="C17" t="s">
+        <v>776</v>
+      </c>
+      <c r="D17" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -4398,23 +4697,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4431,7 +4730,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -4455,33 +4754,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="58.7109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="58.6640625" style="34" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4526,7 +4825,7 @@
       </c>
       <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -4540,7 +4839,7 @@
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -4556,7 +4855,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="42"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4583,7 +4882,7 @@
       </c>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -4611,7 +4910,7 @@
         <v>01/02/2023</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -4635,7 +4934,7 @@
       </c>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -4646,7 +4945,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -4654,7 +4953,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -4678,7 +4977,7 @@
       </c>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -4702,7 +5001,7 @@
       </c>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -4722,7 +5021,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -4730,7 +5029,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -4738,7 +5037,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -4758,7 +5057,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -4778,7 +5077,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>221</v>
       </c>
@@ -4799,7 +5098,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>222</v>
       </c>
@@ -4820,7 +5119,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>223</v>
       </c>
@@ -4841,7 +5140,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>224</v>
       </c>
@@ -4862,7 +5161,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -4878,7 +5177,7 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>318</v>
       </c>
@@ -4912,7 +5211,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>341</v>
       </c>
@@ -4944,7 +5243,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>357</v>
       </c>
@@ -4979,7 +5278,7 @@
       </c>
       <c r="M24" s="31"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>372</v>
       </c>
@@ -5015,7 +5314,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
         <v>377</v>
       </c>
@@ -5051,7 +5350,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>499</v>
       </c>
@@ -5079,7 +5378,7 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
     </row>
-    <row r="28" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>500</v>
       </c>
@@ -5107,7 +5406,7 @@
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
     </row>
-    <row r="29" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>501</v>
       </c>
@@ -5135,7 +5434,7 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
     </row>
-    <row r="30" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>502</v>
       </c>
@@ -5163,7 +5462,7 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>503</v>
       </c>
@@ -5191,7 +5490,7 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>504</v>
       </c>
@@ -5219,7 +5518,7 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>505</v>
       </c>
@@ -5247,7 +5546,7 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>506</v>
       </c>
@@ -5275,7 +5574,7 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>507</v>
       </c>
@@ -5303,7 +5602,7 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>508</v>
       </c>
@@ -5331,7 +5630,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>509</v>
       </c>
@@ -5359,7 +5658,7 @@
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
     </row>
-    <row r="38" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>510</v>
       </c>
@@ -5387,7 +5686,7 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>511</v>
       </c>
@@ -5415,7 +5714,7 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>512</v>
       </c>
@@ -5443,7 +5742,7 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>513</v>
       </c>
@@ -5471,7 +5770,7 @@
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
     </row>
-    <row r="42" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
         <v>514</v>
       </c>
@@ -5499,7 +5798,7 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>515</v>
       </c>
@@ -5527,7 +5826,7 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>516</v>
       </c>
@@ -5555,7 +5854,7 @@
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>517</v>
       </c>
@@ -5583,7 +5882,7 @@
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
         <v>518</v>
       </c>
@@ -5611,7 +5910,7 @@
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
         <v>519</v>
       </c>
@@ -5639,7 +5938,7 @@
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
     </row>
-    <row r="48" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>520</v>
       </c>
@@ -5667,7 +5966,7 @@
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
     </row>
-    <row r="49" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>521</v>
       </c>
@@ -5695,7 +5994,7 @@
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
     </row>
-    <row r="50" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>522</v>
       </c>
@@ -5723,7 +6022,7 @@
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
     </row>
-    <row r="51" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
         <v>523</v>
       </c>
@@ -5751,7 +6050,7 @@
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
     </row>
-    <row r="52" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
         <v>524</v>
       </c>
@@ -5779,7 +6078,7 @@
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
         <v>525</v>
       </c>
@@ -5807,7 +6106,7 @@
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
         <v>526</v>
       </c>
@@ -5835,7 +6134,7 @@
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
     </row>
-    <row r="55" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="31" t="s">
         <v>527</v>
       </c>
@@ -5863,7 +6162,7 @@
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
     </row>
-    <row r="56" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
         <v>528</v>
       </c>
@@ -5891,7 +6190,7 @@
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
     </row>
-    <row r="57" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
         <v>529</v>
       </c>
@@ -5919,7 +6218,7 @@
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
     </row>
-    <row r="58" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
         <v>530</v>
       </c>
@@ -5947,7 +6246,7 @@
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
     </row>
-    <row r="59" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="31" t="s">
         <v>531</v>
       </c>
@@ -5975,7 +6274,7 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
     </row>
-    <row r="60" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
         <v>532</v>
       </c>
@@ -6003,7 +6302,7 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
     </row>
-    <row r="61" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
         <v>533</v>
       </c>
@@ -6031,7 +6330,7 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
     </row>
-    <row r="62" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
         <v>534</v>
       </c>
@@ -6059,7 +6358,7 @@
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
     </row>
-    <row r="63" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
         <v>535</v>
       </c>
@@ -6087,7 +6386,7 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
     </row>
-    <row r="64" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A64" s="31" t="s">
         <v>536</v>
       </c>
@@ -6115,7 +6414,7 @@
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
     </row>
-    <row r="65" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
         <v>537</v>
       </c>
@@ -6143,7 +6442,7 @@
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
     </row>
-    <row r="66" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="31" t="s">
         <v>538</v>
       </c>
@@ -6171,7 +6470,7 @@
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
         <v>539</v>
       </c>
@@ -6197,7 +6496,7 @@
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="31" t="s">
         <v>540</v>
       </c>
@@ -6223,7 +6522,7 @@
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
         <v>541</v>
       </c>
@@ -6249,7 +6548,7 @@
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
     </row>
-    <row r="70" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="31" t="s">
         <v>542</v>
       </c>
@@ -6277,7 +6576,7 @@
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
     </row>
-    <row r="71" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="31" t="s">
         <v>543</v>
       </c>
@@ -6305,7 +6604,7 @@
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
     </row>
-    <row r="72" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="31" t="s">
         <v>544</v>
       </c>
@@ -6333,7 +6632,7 @@
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
     </row>
-    <row r="73" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>545</v>
       </c>
@@ -6361,7 +6660,7 @@
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
     </row>
-    <row r="74" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A74" s="31" t="s">
         <v>546</v>
       </c>
@@ -6389,7 +6688,7 @@
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
     </row>
-    <row r="75" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
         <v>547</v>
       </c>
@@ -6417,7 +6716,7 @@
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
     </row>
-    <row r="76" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" s="31" t="s">
         <v>548</v>
       </c>
@@ -6445,7 +6744,7 @@
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
     </row>
-    <row r="77" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A77" s="31" t="s">
         <v>549</v>
       </c>
@@ -6473,7 +6772,7 @@
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
     </row>
-    <row r="78" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A78" s="31" t="s">
         <v>550</v>
       </c>
@@ -6501,7 +6800,7 @@
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
     </row>
-    <row r="79" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A79" s="31" t="s">
         <v>551</v>
       </c>
@@ -6529,7 +6828,7 @@
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
     </row>
-    <row r="80" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
         <v>552</v>
       </c>
@@ -6557,7 +6856,7 @@
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
     </row>
-    <row r="81" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A81" s="31" t="s">
         <v>553</v>
       </c>
@@ -6585,7 +6884,7 @@
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
     </row>
-    <row r="82" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A82" s="31" t="s">
         <v>554</v>
       </c>
@@ -6613,7 +6912,7 @@
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
     </row>
-    <row r="83" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="31" t="s">
         <v>555</v>
       </c>
@@ -6641,7 +6940,7 @@
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
     </row>
-    <row r="84" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="31" t="s">
         <v>556</v>
       </c>
@@ -6669,7 +6968,7 @@
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
     </row>
-    <row r="85" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="31" t="s">
         <v>557</v>
       </c>
@@ -6697,7 +6996,7 @@
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
     </row>
-    <row r="86" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="31" t="s">
         <v>558</v>
       </c>
@@ -6725,7 +7024,7 @@
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
     </row>
-    <row r="87" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A87" s="31" t="s">
         <v>559</v>
       </c>
@@ -6753,7 +7052,7 @@
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
     </row>
-    <row r="88" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="31" t="s">
         <v>560</v>
       </c>
@@ -6781,7 +7080,7 @@
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
     </row>
-    <row r="89" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A89" s="31" t="s">
         <v>561</v>
       </c>
@@ -6809,7 +7108,7 @@
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
     </row>
-    <row r="90" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A90" s="31" t="s">
         <v>562</v>
       </c>
@@ -6837,7 +7136,7 @@
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
     </row>
-    <row r="91" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A91" s="31" t="s">
         <v>563</v>
       </c>
@@ -6865,7 +7164,7 @@
       <c r="M91" s="13"/>
       <c r="N91" s="13"/>
     </row>
-    <row r="92" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" s="31" t="s">
         <v>564</v>
       </c>
@@ -6893,7 +7192,7 @@
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
     </row>
-    <row r="93" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
         <v>565</v>
       </c>
@@ -6921,7 +7220,7 @@
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
     </row>
-    <row r="94" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" s="31" t="s">
         <v>566</v>
       </c>
@@ -6949,7 +7248,7 @@
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
     </row>
-    <row r="95" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A95" s="31" t="s">
         <v>567</v>
       </c>
@@ -6977,7 +7276,7 @@
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
     </row>
-    <row r="96" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A96" s="31" t="s">
         <v>568</v>
       </c>
@@ -7005,7 +7304,7 @@
       <c r="M96" s="13"/>
       <c r="N96" s="13"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="31" t="s">
         <v>617</v>
       </c>
@@ -7041,7 +7340,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="31" t="s">
         <v>618</v>
       </c>
@@ -7077,7 +7376,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="31" t="s">
         <v>619</v>
       </c>
@@ -7113,7 +7412,7 @@
       <c r="M99" s="13"/>
       <c r="N99" s="13"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="31" t="s">
         <v>626</v>
       </c>
@@ -7149,7 +7448,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="31" t="s">
         <v>627</v>
       </c>
@@ -7185,7 +7484,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="31" t="s">
         <v>628</v>
       </c>
@@ -7221,7 +7520,7 @@
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="31" t="s">
         <v>636</v>
       </c>
@@ -7257,7 +7556,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="31" t="s">
         <v>637</v>
       </c>
@@ -7293,7 +7592,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="31" t="s">
         <v>638</v>
       </c>
@@ -7329,7 +7628,7 @@
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
         <v>656</v>
       </c>
@@ -7365,7 +7664,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="31" t="s">
         <v>697</v>
       </c>
@@ -7397,7 +7696,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -7415,7 +7714,7 @@
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="31" t="s">
         <v>679</v>
       </c>
@@ -7444,7 +7743,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="31" t="s">
         <v>682</v>
       </c>
@@ -7475,45 +7774,45 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="19" max="21" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="48.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="33.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="61.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="33.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="61.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="40" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="69" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -7599,7 +7898,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -7624,7 +7923,7 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -7638,7 +7937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -7652,7 +7951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -7666,7 +7965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -7680,7 +7979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -7705,7 +8004,7 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -7716,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -7727,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -7738,7 +8037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -7755,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -7784,7 +8083,7 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>293</v>
       </c>
@@ -7831,7 +8130,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>301</v>
       </c>
@@ -7881,7 +8180,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>330</v>
       </c>
@@ -7901,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>345</v>
       </c>
@@ -7960,7 +8259,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>356</v>
       </c>
@@ -8019,7 +8318,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>366</v>
       </c>
@@ -8075,7 +8374,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>367</v>
       </c>
@@ -8128,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>368</v>
       </c>
@@ -8181,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>369</v>
       </c>
@@ -8234,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -8287,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>382</v>
       </c>
@@ -8340,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>383</v>
       </c>
@@ -8393,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>387</v>
       </c>
@@ -8446,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>388</v>
       </c>
@@ -8499,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>389</v>
       </c>
@@ -8552,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>401</v>
       </c>
@@ -8605,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>402</v>
       </c>
@@ -8658,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>403</v>
       </c>
@@ -8696,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>404</v>
       </c>
@@ -8734,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>405</v>
       </c>
@@ -8772,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>406</v>
       </c>
@@ -8810,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>407</v>
       </c>
@@ -8848,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>408</v>
       </c>
@@ -8886,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>409</v>
       </c>
@@ -8924,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>410</v>
       </c>
@@ -8947,7 +9246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -8970,7 +9269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>412</v>
       </c>
@@ -8993,7 +9292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>413</v>
       </c>
@@ -9016,7 +9315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>414</v>
       </c>
@@ -9039,7 +9338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>415</v>
       </c>
@@ -9056,7 +9355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>416</v>
       </c>
@@ -9073,7 +9372,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>623</v>
       </c>
@@ -9090,7 +9389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>635</v>
       </c>
@@ -9101,7 +9400,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>645</v>
       </c>
@@ -9112,7 +9411,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>648</v>
       </c>
@@ -9123,7 +9422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>649</v>
       </c>
@@ -9134,7 +9433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>659</v>
       </c>
@@ -9145,7 +9444,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>660</v>
       </c>
@@ -9156,7 +9455,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>686</v>
       </c>
@@ -9167,7 +9466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>687</v>
       </c>
@@ -9178,7 +9477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>688</v>
       </c>
@@ -9189,7 +9488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>703</v>
       </c>
@@ -9200,7 +9499,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>704</v>
       </c>
@@ -9211,7 +9510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>705</v>
       </c>
@@ -9222,7 +9521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>706</v>
       </c>
@@ -9233,7 +9532,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>707</v>
       </c>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8098AE-4DB1-4F31-A5CC-DA4445994185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD27F8CD-ACF2-406A-8076-C4BB23760663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomMetaData" sheetId="15" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Fundraisings" sheetId="10" r:id="rId12"/>
     <sheet name="User" sheetId="13" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Activity Timeline'!$B$1:$B$114</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="771">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -1749,24 +1752,9 @@
     <t>ATE_075</t>
   </si>
   <si>
-    <t>11/22/2022</t>
-  </si>
-  <si>
-    <t>11/22/2023</t>
-  </si>
-  <si>
     <t>10/22/2022</t>
   </si>
   <si>
-    <t>11/22/2022, 10:30 AM</t>
-  </si>
-  <si>
-    <t>10/22/2022, 11:30 AM</t>
-  </si>
-  <si>
-    <t>11/22/2023, 10:30 AM</t>
-  </si>
-  <si>
     <t>Nav Call 2</t>
   </si>
   <si>
@@ -1905,21 +1893,9 @@
     <t>End_Day</t>
   </si>
   <si>
-    <t>11/28/2022</t>
-  </si>
-  <si>
-    <t>12/03/2022</t>
-  </si>
-  <si>
     <t>ATE032</t>
   </si>
   <si>
-    <t>11/28/2022, 3:23 AM</t>
-  </si>
-  <si>
-    <t>11/28/2022, 3:33 AM</t>
-  </si>
-  <si>
     <t>ATE_079</t>
   </si>
   <si>
@@ -1941,12 +1917,6 @@
     <t>New Meeting 2</t>
   </si>
   <si>
-    <t>12/04/2022</t>
-  </si>
-  <si>
-    <t>11/29/2022</t>
-  </si>
-  <si>
     <t>ATE033</t>
   </si>
   <si>
@@ -1998,15 +1968,6 @@
     <t>Nav Connection Deal1</t>
   </si>
   <si>
-    <t>11/29/2022, 4:52 AM</t>
-  </si>
-  <si>
-    <t>11/29/2022, 2:26 AM</t>
-  </si>
-  <si>
-    <t>11/29/2022, 5:52 AM</t>
-  </si>
-  <si>
     <t>Followup New Task 2</t>
   </si>
   <si>
@@ -2127,12 +2088,6 @@
     <t>Updated New Task 1</t>
   </si>
   <si>
-    <t>Test Contact 160&lt;break&gt;Nav Institution Account 1&lt;break&gt;Connection Deal 30&lt;break&gt;InTestupdateAccount 7&lt;break&gt;Test Contact Updated 10&lt;break&gt;Connection Deal 12</t>
-  </si>
-  <si>
-    <t>Test Contact 161&lt;break&gt;Nav Institution Account 2&lt;break&gt;Connection Deal 31&lt;break&gt;InTestupdateAccount 7&lt;break&gt;Test Contact Updated 10&lt;break&gt;Connection Deal 12</t>
-  </si>
-  <si>
     <t>ATE_086</t>
   </si>
   <si>
@@ -2142,12 +2097,6 @@
     <t>+2</t>
   </si>
   <si>
-    <t>12/06/2022</t>
-  </si>
-  <si>
-    <t>12/08/2022</t>
-  </si>
-  <si>
     <t>Test Contact Updated 10&lt;break&gt;Test Contact 1&lt;break&gt;Test Contact 4&lt;break&gt;Test Account 1&lt;break&gt;CTest Account 13&lt;break&gt;Connection Deal Updated 12</t>
   </si>
   <si>
@@ -2374,12 +2323,48 @@
   </si>
   <si>
     <t>NDA Signed&lt;break&gt;IOI</t>
+  </si>
+  <si>
+    <t>11/23/2022</t>
+  </si>
+  <si>
+    <t>A business entity such as a corporation, limited liability company, public limited company, sole proprietorship, or partnership that has products or services for sale is a firm.Law, accountancy and management consultancy partnerships are known as firms, and are rarely referred to as companies.</t>
+  </si>
+  <si>
+    <t>12/15/2022</t>
+  </si>
+  <si>
+    <t>12/20/2022</t>
+  </si>
+  <si>
+    <t>12/16/2022</t>
+  </si>
+  <si>
+    <t>12/18/2022</t>
+  </si>
+  <si>
+    <t>Test Contact 160&lt;break&gt;Nav Institution Account 1&lt;break&gt;Connection Deal 30&lt;break&gt;InTestupdateAccount 7&lt;break&gt;Test Contact Updated 10&lt;break&gt;Connection Deal Updated 12</t>
+  </si>
+  <si>
+    <t>Test Contact 161&lt;break&gt;Nav Institution Account 2&lt;break&gt;Connection Deal 31&lt;break&gt;InTestupdateAccount 7&lt;break&gt;Test Contact Updated 10&lt;break&gt;Connection Deal Updated 12</t>
+  </si>
+  <si>
+    <t>12/11/2022</t>
+  </si>
+  <si>
+    <t>12/13/2022</t>
+  </si>
+  <si>
+    <t>Name&lt;break&gt;Department&lt;break&gt;Deals&lt;break&gt;Meetings and Calls&lt;break&gt;Emails</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2526,7 +2511,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2534,47 +2519,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2582,22 +2536,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2625,20 +2570,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2929,7 +2876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -2941,198 +2888,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>715</v>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="B2" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="D2" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="B3" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="C3" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="D3" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="B4" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="C4" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="D4" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="B5" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="D5" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="B6" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="D6" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="B7" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="D7" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="B8" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="D8" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="B9" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="D9" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="B10" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="D10" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="B11" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="C11" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="D11" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="G11" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="B12" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="C12" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="D12" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="G12" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="B13" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="C13" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="D13" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="G13" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="B14" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="D14" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="B15" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="G15" t="s">
         <v>51</v>
@@ -3140,10 +3087,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="B16" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="D16" t="s">
         <v>51</v>
@@ -3172,13 +3119,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3186,7 +3133,7 @@
       <c r="A2" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" t="s">
         <v>134</v>
       </c>
       <c r="C2" t="s">
@@ -3217,19 +3164,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3248,63 +3195,63 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="E10" s="11"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="B11" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -3343,17 +3290,17 @@
     <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -3368,109 +3315,109 @@
       <c r="H1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24" t="s">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22" t="s">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3495,22 +3442,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>662</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>663</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="C2" t="s">
         <v>460</v>
@@ -3525,15 +3472,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:D43"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3546,19 +3493,19 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3663,61 +3610,61 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3738,11 +3685,11 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -3786,7 +3733,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="B35" t="s">
         <v>360</v>
@@ -3794,7 +3741,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="B36" t="s">
         <v>361</v>
@@ -3802,15 +3749,15 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="B37" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="B38" t="s">
         <v>390</v>
@@ -3818,29 +3765,29 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="B39" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="49" t="s">
-        <v>764</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="B43" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="C43" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -3868,18 +3815,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="41"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3952,170 +3899,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="13" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="23" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="26"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="26"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="26"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="26"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4142,57 +4089,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4207,7 +4154,7 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4248,7 +4195,7 @@
       <c r="E8" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>105</v>
       </c>
       <c r="G8" t="s">
@@ -4272,101 +4219,101 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="11" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -4393,17 +4340,17 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -4439,10 +4386,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="C28" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="D28" t="s">
         <v>423</v>
@@ -4450,43 +4397,43 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="D29" t="s">
         <v>436</v>
       </c>
       <c r="G29" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11" t="s">
-        <v>768</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="B33" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="C33" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="E33" t="s">
-        <v>766</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>772</v>
+        <v>748</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -4494,7 +4441,7 @@
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="F33" r:id="rId3" xr:uid="{B2DF3624-C3D8-448B-AD49-A0D91DC3E2EF}"/>
+    <hyperlink ref="F33" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4517,28 +4464,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4571,23 +4518,23 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="11" t="s">
         <v>198</v>
       </c>
       <c r="H4" t="s">
@@ -4595,54 +4542,54 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="B11" t="s">
         <v>427</v>
@@ -4650,44 +4597,44 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="B12" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="B13" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
-        <v>773</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="B17" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="C17" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="D17" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -4714,19 +4661,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4743,7 +4690,7 @@
       <c r="D2" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4758,9 +4705,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4768,10 +4715,10 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="58.6640625" style="34" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="58.6640625" style="20" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
     <col min="6" max="7" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.44140625" style="34" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4781,79 +4728,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="42" t="s">
-        <v>620</v>
-      </c>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="O1" s="28"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="28" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="42"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -4865,7 +4812,7 @@
       <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="E4" t="s">
@@ -4877,10 +4824,10 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4892,7 +4839,7 @@
       <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="20" t="s">
         <v>62</v>
       </c>
       <c r="E5" t="s">
@@ -4901,13 +4848,13 @@
       <c r="G5" t="s">
         <v>56</v>
       </c>
-      <c r="H5" t="str">
-        <f ca="1">TEXT(TODAY()+15,"mm/dd/yyyy")</f>
-        <v>12/23/2022</v>
+      <c r="H5" s="34" t="str">
+        <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
+        <v>01/06/2023</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/02/2023</v>
+        <v>01/06/2023</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -4920,7 +4867,7 @@
       <c r="C6" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E6" t="s">
@@ -4929,16 +4876,16 @@
       <c r="F6" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="20" t="s">
         <v>78</v>
       </c>
       <c r="G7" t="s">
@@ -4949,7 +4896,7 @@
       <c r="A8" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="20" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4960,10 +4907,10 @@
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="20" t="s">
         <v>81</v>
       </c>
       <c r="E9" t="s">
@@ -4972,10 +4919,10 @@
       <c r="F9" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -4984,10 +4931,10 @@
       <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="20" t="s">
         <v>81</v>
       </c>
       <c r="E10" t="s">
@@ -4996,10 +4943,10 @@
       <c r="F10" t="s">
         <v>140</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -5008,18 +4955,18 @@
       <c r="B11" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="20" t="s">
         <v>81</v>
       </c>
       <c r="E11" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="F11" s="4"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5047,7 +4994,7 @@
       <c r="C14" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="9" t="s">
         <v>119</v>
       </c>
       <c r="E14" t="s">
@@ -5067,144 +5014,144 @@
       <c r="C15" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="9" t="s">
         <v>119</v>
       </c>
       <c r="E15" t="s">
         <v>144</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="11" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="13" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31" t="s">
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17" t="s">
         <v>325</v>
       </c>
       <c r="N22" t="s">
@@ -5212,102 +5159,102 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="13" t="s">
+      <c r="G23" s="17"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
       <c r="N23" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>708</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" t="s">
-        <v>709</v>
+      <c r="E24" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="34">
+        <v>44902</v>
       </c>
       <c r="I24" t="s">
-        <v>683</v>
-      </c>
-      <c r="J24" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="K24" s="31">
-        <v>0</v>
-      </c>
-      <c r="L24" s="48" t="s">
-        <v>611</v>
-      </c>
-      <c r="M24" s="31"/>
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>606</v>
+      </c>
+      <c r="M24" s="17"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="17" t="s">
         <v>374</v>
       </c>
       <c r="F25" t="s">
-        <v>709</v>
-      </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K25" s="31">
-        <v>0</v>
-      </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31" t="s">
+      <c r="K25" s="17">
+        <v>0</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17" t="s">
         <v>325</v>
       </c>
       <c r="N25" t="s">
@@ -5315,35 +5262,35 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="26" t="s">
         <v>374</v>
       </c>
       <c r="F26" t="s">
-        <v>709</v>
-      </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K26" s="40">
-        <v>0</v>
-      </c>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40" t="s">
+      <c r="K26" s="26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26" t="s">
         <v>325</v>
       </c>
       <c r="N26" t="s">
@@ -5351,2419 +5298,2419 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>505</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+    </row>
+    <row r="39" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+    </row>
+    <row r="51" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+    </row>
+    <row r="52" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+    </row>
+    <row r="55" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+    </row>
+    <row r="59" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+    </row>
+    <row r="60" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+    </row>
+    <row r="61" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+    </row>
+    <row r="62" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+    </row>
+    <row r="66" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A66" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="39">
+        <v>44887</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="39">
+        <v>44887</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="39">
+        <v>44887</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+    </row>
+    <row r="70" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A70" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="39">
+        <v>44887</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+    </row>
+    <row r="71" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="39">
+        <v>44887</v>
+      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+    </row>
+    <row r="72" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="39">
+        <v>44856</v>
+      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+    </row>
+    <row r="73" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="39">
+        <v>44856</v>
+      </c>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+    </row>
+    <row r="74" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="39">
+        <v>44856</v>
+      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+    </row>
+    <row r="75" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A75" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="39">
+        <v>44856</v>
+      </c>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+    </row>
+    <row r="76" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A76" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="39">
+        <v>45252</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+    </row>
+    <row r="77" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A77" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="39">
+        <v>45252</v>
+      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+    </row>
+    <row r="78" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A78" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="39">
+        <v>45252</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+    </row>
+    <row r="79" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="39">
+        <v>45252</v>
+      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+    </row>
+    <row r="80" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A80" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="39">
+        <v>44887</v>
+      </c>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+    </row>
+    <row r="81" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="39">
+        <v>44887</v>
+      </c>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+    </row>
+    <row r="82" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="39">
+        <v>44887</v>
+      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+    </row>
+    <row r="83" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="39">
+        <v>44887</v>
+      </c>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+    </row>
+    <row r="84" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="39">
+        <v>44887</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+    </row>
+    <row r="85" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A85" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="39">
+        <v>44856</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+    </row>
+    <row r="86" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A86" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="39">
+        <v>44856</v>
+      </c>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+    </row>
+    <row r="87" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A87" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="39">
+        <v>44856</v>
+      </c>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+    </row>
+    <row r="88" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A88" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="39">
+        <v>44856</v>
+      </c>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+    </row>
+    <row r="89" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A89" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="39">
+        <v>45252</v>
+      </c>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+    </row>
+    <row r="90" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A90" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="39">
+        <v>45252</v>
+      </c>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+    </row>
+    <row r="91" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A91" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="39">
+        <v>45252</v>
+      </c>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+    </row>
+    <row r="92" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A92" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="39">
+        <v>45252</v>
+      </c>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+    </row>
+    <row r="93" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A93" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="39">
+        <v>44887</v>
+      </c>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+    </row>
+    <row r="94" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A94" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="39">
+        <v>44887</v>
+      </c>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+    </row>
+    <row r="95" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A95" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="39">
+        <v>44856</v>
+      </c>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+    </row>
+    <row r="96" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A96" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="39">
+        <v>44856</v>
+      </c>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13" t="s">
+      <c r="F97" t="s">
+        <v>762</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="B28" s="13" t="s">
+      <c r="K97" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="L97" s="28"/>
+      <c r="M97" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F98" t="s">
+        <v>643</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K98" s="7">
+        <v>0</v>
+      </c>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" t="s">
+        <v>643</v>
+      </c>
+      <c r="I99" t="s">
+        <v>643</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K99" s="7">
+        <v>0</v>
+      </c>
+      <c r="L99" s="7">
+        <v>0</v>
+      </c>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13" t="s">
+      <c r="C100" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F100" t="s">
+        <v>762</v>
+      </c>
+      <c r="G100" s="7"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="B29" s="13" t="s">
+      <c r="K100" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="N100" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F101" t="s">
+        <v>643</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K101" s="7">
+        <v>0</v>
+      </c>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="N101" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" t="s">
+        <v>643</v>
+      </c>
+      <c r="I102" t="s">
+        <v>643</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K102" s="7">
+        <v>0</v>
+      </c>
+      <c r="L102" s="7">
+        <v>0</v>
+      </c>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13" t="s">
+      <c r="C103" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="F103" t="s">
+        <v>643</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="B30" s="13" t="s">
+      <c r="K103" s="7">
+        <v>0</v>
+      </c>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="N103" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="F104" t="s">
+        <v>643</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K104" s="7">
+        <v>0</v>
+      </c>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" t="s">
+        <v>643</v>
+      </c>
+      <c r="I105" t="s">
+        <v>643</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K105" s="7">
+        <v>0</v>
+      </c>
+      <c r="L105" s="7">
+        <v>0</v>
+      </c>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13" t="s">
+      <c r="C106" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="F106" t="s">
+        <v>763</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13" t="s">
+      <c r="K106" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="N106" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>682</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="H107" t="s">
+        <v>768</v>
+      </c>
+      <c r="I107" t="s">
+        <v>769</v>
+      </c>
+      <c r="J107" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
-        <v>504</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
-        <v>507</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-    </row>
-    <row r="36" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
-        <v>508</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>607</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13" t="s">
+      <c r="K107" s="30">
+        <v>0</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="E113" t="s">
+        <v>766</v>
+      </c>
+      <c r="H113" t="s">
+        <v>764</v>
+      </c>
+      <c r="I113" t="s">
+        <v>765</v>
+      </c>
+      <c r="J113" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A42" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
-        <v>515</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-    </row>
-    <row r="45" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A46" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>584</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A47" s="31" t="s">
-        <v>519</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>585</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A48" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
-        <v>521</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-    </row>
-    <row r="50" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A50" s="31" t="s">
-        <v>522</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>588</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-    </row>
-    <row r="51" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
-        <v>523</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>589</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-    </row>
-    <row r="52" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-    </row>
-    <row r="53" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-    </row>
-    <row r="54" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-    </row>
-    <row r="55" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
-        <v>527</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-    </row>
-    <row r="56" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A56" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>594</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-    </row>
-    <row r="57" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A57" s="31" t="s">
-        <v>529</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>595</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-    </row>
-    <row r="58" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-    </row>
-    <row r="59" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-    </row>
-    <row r="60" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
-        <v>532</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>598</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-    </row>
-    <row r="61" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A61" s="31" t="s">
-        <v>533</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>599</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-    </row>
-    <row r="62" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A62" s="31" t="s">
-        <v>534</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-    </row>
-    <row r="63" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A63" s="31" t="s">
-        <v>535</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-    </row>
-    <row r="64" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A64" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13" t="s">
-        <v>569</v>
-      </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-    </row>
-    <row r="65" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A65" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>603</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-    </row>
-    <row r="66" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A66" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>604</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="31" t="s">
-        <v>540</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-    </row>
-    <row r="70" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A70" s="31" t="s">
-        <v>542</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-    </row>
-    <row r="71" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A71" s="31" t="s">
-        <v>543</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-    </row>
-    <row r="72" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A72" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-    </row>
-    <row r="73" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A73" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-    </row>
-    <row r="74" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A74" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-    </row>
-    <row r="75" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A75" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-    </row>
-    <row r="76" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A76" s="31" t="s">
-        <v>548</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-    </row>
-    <row r="77" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A77" s="31" t="s">
-        <v>549</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-    </row>
-    <row r="78" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
-        <v>550</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-    </row>
-    <row r="79" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A79" s="31" t="s">
-        <v>551</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-    </row>
-    <row r="80" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A80" s="31" t="s">
-        <v>552</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-    </row>
-    <row r="81" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A81" s="31" t="s">
-        <v>553</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-    </row>
-    <row r="82" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A82" s="31" t="s">
-        <v>554</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-    </row>
-    <row r="83" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A83" s="31" t="s">
-        <v>555</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-    </row>
-    <row r="84" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A84" s="31" t="s">
-        <v>556</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-    </row>
-    <row r="85" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A85" s="31" t="s">
-        <v>557</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-    </row>
-    <row r="86" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A86" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-    </row>
-    <row r="87" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A87" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-    </row>
-    <row r="88" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
-        <v>560</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-    </row>
-    <row r="89" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A89" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-    </row>
-    <row r="90" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A90" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-    </row>
-    <row r="91" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A91" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-    </row>
-    <row r="92" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A92" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-    </row>
-    <row r="93" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A93" s="31" t="s">
-        <v>565</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-    </row>
-    <row r="94" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="31" t="s">
-        <v>566</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
-    </row>
-    <row r="95" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A95" s="31" t="s">
-        <v>567</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="13"/>
-    </row>
-    <row r="96" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A96" s="31" t="s">
-        <v>568</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K96" s="13"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="13"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="31" t="s">
-        <v>617</v>
-      </c>
-      <c r="B97" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C97" s="43" t="s">
-        <v>609</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K97" s="44" t="s">
-        <v>611</v>
-      </c>
-      <c r="L97" s="44"/>
-      <c r="M97" s="13" t="s">
-        <v>610</v>
-      </c>
-      <c r="N97" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="B98" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C98" s="43" t="s">
-        <v>613</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K98" s="13">
-        <v>0</v>
-      </c>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="N98" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C99" s="43" t="s">
-        <v>615</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>616</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13" t="s">
-        <v>624</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>625</v>
-      </c>
-      <c r="J99" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K99" s="13">
-        <v>0</v>
-      </c>
-      <c r="L99" s="13">
-        <v>0</v>
-      </c>
-      <c r="M99" s="13"/>
-      <c r="N99" s="13"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="31" t="s">
-        <v>626</v>
-      </c>
-      <c r="B100" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C100" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E100" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K100" s="44" t="s">
-        <v>611</v>
-      </c>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13" t="s">
-        <v>610</v>
-      </c>
-      <c r="N100" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="31" t="s">
-        <v>627</v>
-      </c>
-      <c r="B101" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C101" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E101" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K101" s="13">
-        <v>0</v>
-      </c>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="N101" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="31" t="s">
-        <v>628</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C102" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>616</v>
-      </c>
-      <c r="E102" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="J102" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K102" s="13">
-        <v>0</v>
-      </c>
-      <c r="L102" s="13">
-        <v>0</v>
-      </c>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="31" t="s">
-        <v>636</v>
-      </c>
-      <c r="B103" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C103" s="43" t="s">
-        <v>639</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E103" s="43" t="s">
-        <v>640</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K103" s="13">
-        <v>0</v>
-      </c>
-      <c r="L103" s="13"/>
-      <c r="M103" s="43" t="s">
-        <v>610</v>
-      </c>
-      <c r="N103" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="31" t="s">
-        <v>637</v>
-      </c>
-      <c r="B104" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C104" s="43" t="s">
-        <v>641</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E104" s="43" t="s">
-        <v>642</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K104" s="13">
-        <v>0</v>
-      </c>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="N104" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="31" t="s">
-        <v>638</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C105" s="43" t="s">
-        <v>643</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>616</v>
-      </c>
-      <c r="E105" s="43" t="s">
-        <v>644</v>
-      </c>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13" t="s">
-        <v>652</v>
-      </c>
-      <c r="I105" s="13" t="s">
-        <v>654</v>
-      </c>
-      <c r="J105" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K105" s="13">
-        <v>0</v>
-      </c>
-      <c r="L105" s="13">
-        <v>0</v>
-      </c>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="B106" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>655</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>658</v>
-      </c>
-      <c r="F106" t="s">
-        <v>657</v>
-      </c>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K106" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13" t="s">
-        <v>610</v>
-      </c>
-      <c r="N106" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C107" s="47" t="s">
-        <v>698</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>616</v>
-      </c>
-      <c r="E107" s="47" t="s">
-        <v>702</v>
-      </c>
-      <c r="H107" t="s">
-        <v>700</v>
-      </c>
-      <c r="I107" t="s">
-        <v>701</v>
-      </c>
-      <c r="J107" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="K107" s="47">
-        <v>0</v>
-      </c>
-      <c r="L107" s="14" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="11"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="31" t="s">
-        <v>679</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>680</v>
-      </c>
-      <c r="E113" t="s">
-        <v>695</v>
-      </c>
-      <c r="H113" t="s">
-        <v>657</v>
-      </c>
-      <c r="I113" t="s">
-        <v>683</v>
-      </c>
-      <c r="J113" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="K113" s="14" t="s">
-        <v>611</v>
-      </c>
-      <c r="L113" s="14" t="s">
-        <v>681</v>
+      <c r="K113" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="31" t="s">
-        <v>682</v>
+      <c r="A114" s="17" t="s">
+        <v>668</v>
       </c>
       <c r="B114" t="s">
         <v>213</v>
       </c>
       <c r="C114" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="E114" t="s">
-        <v>696</v>
+        <v>767</v>
       </c>
       <c r="F114" t="s">
-        <v>657</v>
-      </c>
-      <c r="J114" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="J114" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="K114" s="14" t="s">
-        <v>611</v>
+      <c r="K114" s="8" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -7777,9 +7724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7813,115 +7760,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="1" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7980,29 +7927,29 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -8055,33 +8002,33 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8171,7 +8118,10 @@
         <v>308</v>
       </c>
       <c r="V23" t="s">
-        <v>661</v>
+        <v>647</v>
+      </c>
+      <c r="X23" t="s">
+        <v>770</v>
       </c>
       <c r="AA23" t="s">
         <v>338</v>
@@ -8237,7 +8187,7 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="Q25" s="7" t="s">
         <v>458</v>
       </c>
       <c r="R25" t="s">
@@ -8296,7 +8246,7 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="Q26" s="13" t="s">
+      <c r="Q26" s="7" t="s">
         <v>459</v>
       </c>
       <c r="R26" t="s">
@@ -8355,7 +8305,7 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="Q27" s="13" t="s">
+      <c r="Q27" s="7" t="s">
         <v>458</v>
       </c>
       <c r="R27" t="s">
@@ -8411,7 +8361,7 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="Q28" s="13" t="s">
+      <c r="Q28" s="7" t="s">
         <v>459</v>
       </c>
       <c r="R28" t="s">
@@ -8464,11 +8414,11 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="Q29" s="13" t="s">
+      <c r="Q29" s="7" t="s">
         <v>464</v>
       </c>
       <c r="R29" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -8517,11 +8467,11 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="Q30" s="13" t="s">
+      <c r="Q30" s="7" t="s">
         <v>465</v>
       </c>
       <c r="R30" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -8570,7 +8520,7 @@
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="Q31" s="13" t="s">
+      <c r="Q31" s="7" t="s">
         <v>466</v>
       </c>
       <c r="R31" t="s">
@@ -8623,11 +8573,11 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="Q32" s="13" t="s">
+      <c r="Q32" s="7" t="s">
         <v>460</v>
       </c>
       <c r="R32" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -8676,7 +8626,7 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="Q33" s="13" t="s">
+      <c r="Q33" s="7" t="s">
         <v>462</v>
       </c>
       <c r="R33" t="s">
@@ -8729,7 +8679,7 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="Q34" s="13" t="s">
+      <c r="Q34" s="7" t="s">
         <v>463</v>
       </c>
       <c r="R34" t="s">
@@ -8782,7 +8732,7 @@
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="Q35" s="13" t="s">
+      <c r="Q35" s="7" t="s">
         <v>467</v>
       </c>
       <c r="R35" t="s">
@@ -8823,7 +8773,7 @@
       <c r="H36" t="s">
         <v>439</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="20" t="s">
         <v>447</v>
       </c>
       <c r="J36">
@@ -8835,11 +8785,11 @@
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="Q36" s="13" t="s">
+      <c r="Q36" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="R36" s="34" t="s">
-        <v>606</v>
+      <c r="R36" s="20" t="s">
+        <v>601</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -8855,7 +8805,7 @@
       <c r="A37" t="s">
         <v>401</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="20" t="s">
         <v>346</v>
       </c>
       <c r="C37">
@@ -8888,7 +8838,7 @@
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="Q37" s="13" t="s">
+      <c r="Q37" s="7" t="s">
         <v>458</v>
       </c>
       <c r="R37" t="s">
@@ -8941,11 +8891,11 @@
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="Q38" s="13" t="s">
+      <c r="Q38" s="7" t="s">
         <v>460</v>
       </c>
       <c r="R38" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -9012,7 +8962,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -9058,7 +9008,7 @@
       <c r="H41" t="s">
         <v>444</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="20" t="s">
         <v>447</v>
       </c>
       <c r="J41">
@@ -9126,7 +9076,7 @@
         <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="G43">
         <v>12</v>
@@ -9158,13 +9108,13 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -9173,7 +9123,7 @@
         <v>436</v>
       </c>
       <c r="I44" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -9202,7 +9152,7 @@
         <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -9234,13 +9184,13 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="E46">
         <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="G46">
         <v>13</v>
@@ -9257,7 +9207,7 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -9280,7 +9230,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -9300,7 +9250,7 @@
         <v>400</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
         <v>284</v>
@@ -9349,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="E51">
         <v>43</v>
@@ -9374,7 +9324,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B53" t="s">
         <v>346</v>
@@ -9391,7 +9341,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="B54" t="s">
         <v>346</v>
@@ -9399,10 +9349,16 @@
       <c r="C54">
         <v>68</v>
       </c>
+      <c r="D54" t="s">
+        <v>313</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="B55" t="s">
         <v>346</v>
@@ -9410,13 +9366,19 @@
       <c r="C55">
         <v>69</v>
       </c>
+      <c r="D55" t="s">
+        <v>436</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="B56" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -9424,10 +9386,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B57" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -9435,7 +9397,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B58" t="s">
         <v>346</v>
@@ -9446,7 +9408,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="B59" t="s">
         <v>391</v>
@@ -9457,10 +9419,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="B60" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="C60">
         <v>48</v>
@@ -9468,10 +9430,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="B61" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -9479,10 +9441,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="B62" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -9490,7 +9452,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="B63" t="s">
         <v>346</v>
@@ -9501,7 +9463,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="B64" t="s">
         <v>391</v>
@@ -9512,7 +9474,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="B65" t="s">
         <v>392</v>
@@ -9523,7 +9485,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="B66" t="s">
         <v>346</v>
@@ -9534,7 +9496,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="B67" t="s">
         <v>391</v>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD27F8CD-ACF2-406A-8076-C4BB23760663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1814DD93-90B5-4B10-A9E4-1353BB7F2FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomMetaData" sheetId="15" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Fund" sheetId="4" r:id="rId11"/>
     <sheet name="Fundraisings" sheetId="10" r:id="rId12"/>
     <sheet name="User" sheetId="13" r:id="rId13"/>
+    <sheet name="Test Custom Object" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Activity Timeline'!$B$1:$B$114</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="814">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -2356,6 +2357,135 @@
   </si>
   <si>
     <t>Name&lt;break&gt;Department&lt;break&gt;Deals&lt;break&gt;Meetings and Calls&lt;break&gt;Emails</t>
+  </si>
+  <si>
+    <t>Meeting Notes Notification Reminder</t>
+  </si>
+  <si>
+    <t>Mutual Fund&lt;Break&gt;Sumo Kind Fund</t>
+  </si>
+  <si>
+    <t>Fund&lt;Break&gt;Fund</t>
+  </si>
+  <si>
+    <t>FC Fundraising&lt;Break&gt;Sumo Kind Fundraising</t>
+  </si>
+  <si>
+    <t>Acc 4&lt;Break&gt;Acc 12</t>
+  </si>
+  <si>
+    <t>Demo Deal&lt;Break&gt;Sumo Kind</t>
+  </si>
+  <si>
+    <t>Acc 7&lt;Break&gt;Sumo Kind</t>
+  </si>
+  <si>
+    <t>Deal Received&lt;Break&gt;NDA Signed</t>
+  </si>
+  <si>
+    <t>Test_Custom_Object_Name</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Test Custom Objects</t>
+  </si>
+  <si>
+    <t>Test Custom Object Name</t>
+  </si>
+  <si>
+    <t>Golden Ret&lt;Break&gt;Pothoscust&lt;Break&gt;custareca&lt;Break&gt;Custom Object 1.1&lt;Break&gt;Custom Object 1.2&lt;Break&gt;Custom Object 1.3</t>
+  </si>
+  <si>
+    <t>AMNNR_Fundraising1</t>
+  </si>
+  <si>
+    <t>AMNNR_Fund1</t>
+  </si>
+  <si>
+    <t>AMNNR_Deal1</t>
+  </si>
+  <si>
+    <t>AMNNR_CustomObjectRecord1</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity001</t>
+  </si>
+  <si>
+    <t>Task_Subject</t>
+  </si>
+  <si>
+    <t>Task_Status</t>
+  </si>
+  <si>
+    <t>Task_Due_Date</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity002</t>
+  </si>
+  <si>
+    <t>Send Invoice</t>
+  </si>
+  <si>
+    <t>Con 1&lt;break&gt;con 2&lt;break&gt;con 3&lt;break&gt;Sumo Logic&lt;break&gt;Houlihan Lokey&lt;break&gt;Vertica</t>
+  </si>
+  <si>
+    <t>Sumo Logic</t>
+  </si>
+  <si>
+    <t>This is to notify that @ con4, @con5 should be in loop</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity003</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity001</t>
+  </si>
+  <si>
+    <t>Con 1&lt;break&gt;con 2&lt;break&gt;+5</t>
+  </si>
+  <si>
+    <t>AMNNR_Record001</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity004</t>
+  </si>
+  <si>
+    <t>Send Letter</t>
+  </si>
+  <si>
+    <t>This is to check Con 2, Con 3, Logic should be the part of the deal kind</t>
+  </si>
+  <si>
+    <t>Vertica</t>
+  </si>
+  <si>
+    <t>con 2==Contact&lt;break&gt;con 3==Contact&lt;break&gt;Sumo Logic==Firm&lt;break&gt;Sumo Kind==Firm&lt;break&gt;Sumo Kind==Deal</t>
+  </si>
+  <si>
+    <t>AMNNR_Record002</t>
+  </si>
+  <si>
+    <t>This is to notify that Areca and Arrow should be in loop of vertica</t>
+  </si>
+  <si>
+    <t>con 2&lt;break&gt;con 3&lt;break&gt;+5</t>
+  </si>
+  <si>
+    <t>con 2&lt;break&gt;con 3&lt;break&gt;+6</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity002</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity003</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity005</t>
+  </si>
+  <si>
+    <t>areca</t>
   </si>
 </sst>
 </file>
@@ -2365,7 +2495,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2410,8 +2540,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2440,6 +2577,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2511,7 +2654,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2586,10 +2729,29 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2880,14 +3042,14 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="26.90625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2901,7 +3063,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>698</v>
       </c>
@@ -2912,7 +3074,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>701</v>
       </c>
@@ -2926,7 +3088,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>704</v>
       </c>
@@ -2940,7 +3102,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>707</v>
       </c>
@@ -2951,7 +3113,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>710</v>
       </c>
@@ -2962,7 +3124,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>713</v>
       </c>
@@ -2973,7 +3135,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>716</v>
       </c>
@@ -2984,7 +3146,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>719</v>
       </c>
@@ -2995,7 +3157,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>722</v>
       </c>
@@ -3006,7 +3168,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>725</v>
       </c>
@@ -3023,7 +3185,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>726</v>
       </c>
@@ -3040,7 +3202,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>727</v>
       </c>
@@ -3057,7 +3219,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>734</v>
       </c>
@@ -3068,7 +3230,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>735</v>
       </c>
@@ -3085,7 +3247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>736</v>
       </c>
@@ -3111,14 +3273,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="72.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="72.08984375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3129,7 +3291,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -3148,22 +3310,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3180,7 +3343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3194,7 +3357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>225</v>
       </c>
@@ -3209,7 +3372,7 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>227</v>
       </c>
@@ -3220,7 +3383,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>229</v>
       </c>
@@ -3237,7 +3400,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3246,7 +3409,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>744</v>
       </c>
@@ -3260,37 +3423,64 @@
         <v>18</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>773</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:E15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.08984375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -3345,7 +3535,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>240</v>
       </c>
@@ -3373,7 +3563,7 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>245</v>
       </c>
@@ -3393,7 +3583,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>247</v>
       </c>
@@ -3421,7 +3611,52 @@
         <v>252</v>
       </c>
     </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="48" t="s">
+        <v>771</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>772</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:N10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3432,16 +3667,16 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3452,7 +3687,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>650</v>
       </c>
@@ -3464,26 +3699,110 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D62F989-B1EE-49D7-99A7-A4A6C00704A0}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
+        <v>771</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.90625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.36328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.36328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3500,14 +3819,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3518,7 +3837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -3526,7 +3845,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -3534,7 +3853,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -3542,7 +3861,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -3550,7 +3869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -3558,7 +3877,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -3566,7 +3885,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -3574,7 +3893,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -3582,7 +3901,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -3593,7 +3912,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -3601,7 +3920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -3609,7 +3928,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>155</v>
       </c>
@@ -3620,7 +3939,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>156</v>
       </c>
@@ -3629,7 +3948,7 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>157</v>
       </c>
@@ -3638,7 +3957,7 @@
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>158</v>
       </c>
@@ -3651,7 +3970,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>159</v>
       </c>
@@ -3668,7 +3987,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>278</v>
       </c>
@@ -3676,7 +3995,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>283</v>
       </c>
@@ -3684,14 +4003,14 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
         <v>292</v>
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>295</v>
       </c>
@@ -3699,7 +4018,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>310</v>
       </c>
@@ -3707,7 +4026,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>316</v>
       </c>
@@ -3715,7 +4034,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>376</v>
       </c>
@@ -3723,7 +4042,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>381</v>
       </c>
@@ -3731,7 +4050,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>653</v>
       </c>
@@ -3739,7 +4058,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>654</v>
       </c>
@@ -3747,7 +4066,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>655</v>
       </c>
@@ -3755,7 +4074,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>662</v>
       </c>
@@ -3763,7 +4082,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>693</v>
       </c>
@@ -3771,7 +4090,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="15" t="s">
         <v>746</v>
@@ -3779,7 +4098,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>747</v>
       </c>
@@ -3790,9 +4109,41 @@
         <v>749</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>800</v>
+      </c>
+      <c r="B49" t="s">
+        <v>795</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>806</v>
+      </c>
+      <c r="B50" t="s">
+        <v>804</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A47:E47"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3808,13 +4159,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.90625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3822,13 +4173,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="41"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="46"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -3836,7 +4187,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -3844,7 +4195,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -3852,7 +4203,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -3860,7 +4211,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3884,21 +4235,21 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.90625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3930,7 +4281,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12" t="s">
@@ -3944,7 +4295,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3956,7 +4307,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>269</v>
       </c>
@@ -3968,7 +4319,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>261</v>
       </c>
@@ -3980,7 +4331,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>262</v>
       </c>
@@ -3992,7 +4343,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>263</v>
       </c>
@@ -4004,7 +4355,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>264</v>
       </c>
@@ -4016,7 +4367,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>265</v>
       </c>
@@ -4028,7 +4379,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>266</v>
       </c>
@@ -4040,7 +4391,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>267</v>
       </c>
@@ -4052,7 +4403,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>268</v>
       </c>
@@ -4074,21 +4425,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:I33"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.453125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.54296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="117" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4117,7 +4468,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -4128,7 +4479,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4141,7 +4492,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4158,7 +4509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -4166,7 +4517,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -4174,7 +4525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -4182,7 +4533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -4202,7 +4553,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -4210,7 +4561,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -4218,7 +4569,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>182</v>
       </c>
@@ -4243,7 +4594,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>188</v>
       </c>
@@ -4258,7 +4609,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>192</v>
       </c>
@@ -4273,7 +4624,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>193</v>
       </c>
@@ -4296,7 +4647,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>194</v>
       </c>
@@ -4315,7 +4666,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -4323,7 +4674,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -4331,7 +4682,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>287</v>
       </c>
@@ -4339,7 +4690,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -4352,7 +4703,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>309</v>
       </c>
@@ -4360,7 +4711,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -4368,7 +4719,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>314</v>
       </c>
@@ -4376,7 +4727,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>380</v>
       </c>
@@ -4384,7 +4735,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>656</v>
       </c>
@@ -4395,7 +4746,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>657</v>
       </c>
@@ -4406,7 +4757,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4419,7 +4770,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>751</v>
       </c>
@@ -4449,21 +4800,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4489,7 +4840,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4503,7 +4854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -4517,7 +4868,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>200</v>
       </c>
@@ -4541,7 +4892,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>202</v>
       </c>
@@ -4555,7 +4906,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>208</v>
       </c>
@@ -4575,7 +4926,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
@@ -4587,7 +4938,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>659</v>
       </c>
@@ -4595,7 +4946,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>661</v>
       </c>
@@ -4603,7 +4954,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>694</v>
       </c>
@@ -4611,7 +4962,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
@@ -4623,7 +4974,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>756</v>
       </c>
@@ -4637,7 +4988,40 @@
         <v>759</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A22:H22"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4651,16 +5035,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4677,7 +5061,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -4703,31 +5087,35 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:R124"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="58.6640625" style="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.44140625" style="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.08984375" style="20" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.90625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.1796875" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4770,9 +5158,18 @@
       <c r="N1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -4786,7 +5183,7 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -4802,7 +5199,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4829,7 +5226,7 @@
       </c>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -4850,14 +5247,14 @@
       </c>
       <c r="H5" s="34" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/06/2023</v>
+        <v>01/07/2023</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/06/2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>01/07/2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -4881,7 +5278,7 @@
       </c>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -4892,7 +5289,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -4900,7 +5297,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -4924,7 +5321,7 @@
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -4948,7 +5345,7 @@
       </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -4968,7 +5365,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -4976,7 +5373,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -4984,7 +5381,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -5004,7 +5401,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -5024,7 +5421,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>221</v>
       </c>
@@ -5045,7 +5442,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>222</v>
       </c>
@@ -5066,7 +5463,7 @@
       <c r="H17" s="35"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>223</v>
       </c>
@@ -5087,7 +5484,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>224</v>
       </c>
@@ -5108,7 +5505,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5124,7 +5521,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>318</v>
       </c>
@@ -5158,7 +5555,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>341</v>
       </c>
@@ -5190,7 +5587,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>357</v>
       </c>
@@ -5225,7 +5622,7 @@
       </c>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>372</v>
       </c>
@@ -5261,7 +5658,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>377</v>
       </c>
@@ -5297,7 +5694,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>499</v>
       </c>
@@ -5325,7 +5722,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>500</v>
       </c>
@@ -5353,7 +5750,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>501</v>
       </c>
@@ -5381,7 +5778,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>502</v>
       </c>
@@ -5409,7 +5806,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>503</v>
       </c>
@@ -5437,7 +5834,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>504</v>
       </c>
@@ -5465,7 +5862,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>505</v>
       </c>
@@ -5493,7 +5890,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>506</v>
       </c>
@@ -5521,7 +5918,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>507</v>
       </c>
@@ -5549,7 +5946,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>508</v>
       </c>
@@ -5577,7 +5974,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>509</v>
       </c>
@@ -5605,7 +6002,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>510</v>
       </c>
@@ -5633,7 +6030,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>511</v>
       </c>
@@ -5661,7 +6058,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>512</v>
       </c>
@@ -5689,7 +6086,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>513</v>
       </c>
@@ -5717,7 +6114,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>514</v>
       </c>
@@ -5745,7 +6142,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>515</v>
       </c>
@@ -5773,7 +6170,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>516</v>
       </c>
@@ -5801,7 +6198,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>517</v>
       </c>
@@ -5829,7 +6226,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>518</v>
       </c>
@@ -5857,7 +6254,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>519</v>
       </c>
@@ -5885,7 +6282,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>520</v>
       </c>
@@ -5913,7 +6310,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>521</v>
       </c>
@@ -5941,7 +6338,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>522</v>
       </c>
@@ -5969,7 +6366,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>523</v>
       </c>
@@ -5997,7 +6394,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
         <v>524</v>
       </c>
@@ -6025,7 +6422,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>525</v>
       </c>
@@ -6053,7 +6450,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
         <v>526</v>
       </c>
@@ -6081,7 +6478,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
         <v>527</v>
       </c>
@@ -6109,7 +6506,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
         <v>528</v>
       </c>
@@ -6137,7 +6534,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
         <v>529</v>
       </c>
@@ -6165,7 +6562,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
         <v>530</v>
       </c>
@@ -6193,7 +6590,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
     </row>
-    <row r="59" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
         <v>531</v>
       </c>
@@ -6221,7 +6618,7 @@
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
     </row>
-    <row r="60" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>532</v>
       </c>
@@ -6249,7 +6646,7 @@
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
         <v>533</v>
       </c>
@@ -6277,7 +6674,7 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
         <v>534</v>
       </c>
@@ -6305,7 +6702,7 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
         <v>535</v>
       </c>
@@ -6333,7 +6730,7 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
     </row>
-    <row r="64" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
         <v>536</v>
       </c>
@@ -6361,7 +6758,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
         <v>537</v>
       </c>
@@ -6389,7 +6786,7 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
     </row>
-    <row r="66" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
         <v>538</v>
       </c>
@@ -6417,7 +6814,7 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
         <v>539</v>
       </c>
@@ -6443,7 +6840,7 @@
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
         <v>540</v>
       </c>
@@ -6469,7 +6866,7 @@
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
         <v>541</v>
       </c>
@@ -6495,7 +6892,7 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
         <v>542</v>
       </c>
@@ -6523,7 +6920,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
         <v>543</v>
       </c>
@@ -6551,7 +6948,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
     </row>
-    <row r="72" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
         <v>544</v>
       </c>
@@ -6579,7 +6976,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
     </row>
-    <row r="73" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
         <v>545</v>
       </c>
@@ -6607,7 +7004,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
         <v>546</v>
       </c>
@@ -6635,7 +7032,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
         <v>547</v>
       </c>
@@ -6663,7 +7060,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
     </row>
-    <row r="76" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
         <v>548</v>
       </c>
@@ -6691,7 +7088,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
         <v>549</v>
       </c>
@@ -6719,7 +7116,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
     </row>
-    <row r="78" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
         <v>550</v>
       </c>
@@ -6747,7 +7144,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
     </row>
-    <row r="79" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
         <v>551</v>
       </c>
@@ -6775,7 +7172,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
     </row>
-    <row r="80" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
         <v>552</v>
       </c>
@@ -6803,7 +7200,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
     </row>
-    <row r="81" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
         <v>553</v>
       </c>
@@ -6831,7 +7228,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
     </row>
-    <row r="82" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
         <v>554</v>
       </c>
@@ -6859,7 +7256,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
     </row>
-    <row r="83" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
         <v>555</v>
       </c>
@@ -6887,7 +7284,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
     </row>
-    <row r="84" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
         <v>556</v>
       </c>
@@ -6915,7 +7312,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
     </row>
-    <row r="85" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
         <v>557</v>
       </c>
@@ -6943,7 +7340,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
     </row>
-    <row r="86" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A86" s="17" t="s">
         <v>558</v>
       </c>
@@ -6971,7 +7368,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
     </row>
-    <row r="87" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="s">
         <v>559</v>
       </c>
@@ -6999,7 +7396,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
     </row>
-    <row r="88" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A88" s="17" t="s">
         <v>560</v>
       </c>
@@ -7027,7 +7424,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
     </row>
-    <row r="89" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
         <v>561</v>
       </c>
@@ -7055,7 +7452,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
     </row>
-    <row r="90" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A90" s="17" t="s">
         <v>562</v>
       </c>
@@ -7083,7 +7480,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
     </row>
-    <row r="91" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
         <v>563</v>
       </c>
@@ -7111,7 +7508,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
     </row>
-    <row r="92" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A92" s="17" t="s">
         <v>564</v>
       </c>
@@ -7139,7 +7536,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
     </row>
-    <row r="93" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A93" s="17" t="s">
         <v>565</v>
       </c>
@@ -7167,7 +7564,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
     </row>
-    <row r="94" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A94" s="17" t="s">
         <v>566</v>
       </c>
@@ -7195,7 +7592,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
     </row>
-    <row r="95" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A95" s="17" t="s">
         <v>567</v>
       </c>
@@ -7223,7 +7620,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
     </row>
-    <row r="96" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A96" s="17" t="s">
         <v>568</v>
       </c>
@@ -7251,7 +7648,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
         <v>612</v>
       </c>
@@ -7287,7 +7684,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="s">
         <v>613</v>
       </c>
@@ -7323,7 +7720,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="17" t="s">
         <v>614</v>
       </c>
@@ -7359,7 +7756,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="17" t="s">
         <v>617</v>
       </c>
@@ -7395,7 +7792,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
         <v>618</v>
       </c>
@@ -7431,7 +7828,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
         <v>619</v>
       </c>
@@ -7467,7 +7864,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="17" t="s">
         <v>625</v>
       </c>
@@ -7503,7 +7900,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="17" t="s">
         <v>626</v>
       </c>
@@ -7539,7 +7936,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="s">
         <v>627</v>
       </c>
@@ -7575,7 +7972,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="17" t="s">
         <v>642</v>
       </c>
@@ -7611,7 +8008,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="17" t="s">
         <v>681</v>
       </c>
@@ -7643,7 +8040,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -7661,7 +8058,7 @@
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="17" t="s">
         <v>665</v>
       </c>
@@ -7690,7 +8087,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="17" t="s">
         <v>668</v>
       </c>
@@ -7713,7 +8110,104 @@
         <v>606</v>
       </c>
     </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A119" s="47" t="s">
+        <v>771</v>
+      </c>
+      <c r="B119" s="47"/>
+      <c r="C119" s="47"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="47"/>
+      <c r="L119" s="47"/>
+      <c r="M119" s="47"/>
+      <c r="N119" s="47"/>
+      <c r="O119" s="47"/>
+      <c r="P119" s="47"/>
+      <c r="Q119" s="47"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>788</v>
+      </c>
+      <c r="B120" t="s">
+        <v>213</v>
+      </c>
+      <c r="M120" t="s">
+        <v>605</v>
+      </c>
+      <c r="N120" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="58" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>792</v>
+      </c>
+      <c r="C121" t="s">
+        <v>793</v>
+      </c>
+      <c r="E121" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="M121" t="s">
+        <v>605</v>
+      </c>
+      <c r="N121" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>797</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>801</v>
+      </c>
+      <c r="C123" t="s">
+        <v>802</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="E123" t="s">
+        <v>804</v>
+      </c>
+      <c r="G123" t="s">
+        <v>805</v>
+      </c>
+      <c r="M123" t="s">
+        <v>325</v>
+      </c>
+      <c r="N123" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>812</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="G124" t="s">
+        <v>813</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A119:Q119"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7722,44 +8216,44 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X23" sqref="X23"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.36328125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="33.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="61.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.36328125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.54296875" customWidth="1" collapsed="1"/>
+    <col min="19" max="21" width="17.36328125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="48.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="33.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="61.6328125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="40" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="69" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="35.08984375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7845,7 +8339,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7870,7 +8364,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -7884,7 +8378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -7898,7 +8392,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -7912,7 +8406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -7926,7 +8420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -7951,7 +8445,7 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -7962,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -7973,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -7984,7 +8478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -8001,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8030,7 +8524,7 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>293</v>
       </c>
@@ -8077,7 +8571,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>301</v>
       </c>
@@ -8130,7 +8624,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>330</v>
       </c>
@@ -8150,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>345</v>
       </c>
@@ -8209,7 +8703,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>356</v>
       </c>
@@ -8268,7 +8762,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>366</v>
       </c>
@@ -8324,7 +8818,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>367</v>
       </c>
@@ -8377,7 +8871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>368</v>
       </c>
@@ -8430,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>369</v>
       </c>
@@ -8483,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -8536,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>382</v>
       </c>
@@ -8589,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>383</v>
       </c>
@@ -8642,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>387</v>
       </c>
@@ -8695,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>388</v>
       </c>
@@ -8748,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>389</v>
       </c>
@@ -8801,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>401</v>
       </c>
@@ -8854,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>402</v>
       </c>
@@ -8907,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>403</v>
       </c>
@@ -8945,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>404</v>
       </c>
@@ -8983,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>405</v>
       </c>
@@ -9021,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>406</v>
       </c>
@@ -9059,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>407</v>
       </c>
@@ -9097,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>408</v>
       </c>
@@ -9135,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>409</v>
       </c>
@@ -9173,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>410</v>
       </c>
@@ -9196,7 +9690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -9219,7 +9713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>412</v>
       </c>
@@ -9242,7 +9736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>413</v>
       </c>
@@ -9265,7 +9759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>414</v>
       </c>
@@ -9288,7 +9782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>415</v>
       </c>
@@ -9305,7 +9799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>416</v>
       </c>
@@ -9322,7 +9816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>616</v>
       </c>
@@ -9339,7 +9833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>624</v>
       </c>
@@ -9356,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>634</v>
       </c>
@@ -9373,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>637</v>
       </c>
@@ -9384,7 +9878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>638</v>
       </c>
@@ -9395,7 +9889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>645</v>
       </c>
@@ -9406,7 +9900,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>646</v>
       </c>
@@ -9417,7 +9911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>672</v>
       </c>
@@ -9428,7 +9922,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>673</v>
       </c>
@@ -9439,7 +9933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>674</v>
       </c>
@@ -9450,7 +9944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>685</v>
       </c>
@@ -9461,7 +9955,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>686</v>
       </c>
@@ -9472,7 +9966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>687</v>
       </c>
@@ -9483,7 +9977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>688</v>
       </c>
@@ -9494,7 +9988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>689</v>
       </c>
@@ -9505,7 +9999,66 @@
         <v>30</v>
       </c>
     </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A70" s="47" t="s">
+        <v>771</v>
+      </c>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="47"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="47"/>
+      <c r="X70" s="47"/>
+      <c r="Y70" s="47"/>
+      <c r="Z70" s="47"/>
+      <c r="AA70" s="47"/>
+      <c r="AB70" s="47"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>798</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>810</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>811</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>809</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A70:AB70"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1814DD93-90B5-4B10-A9E4-1353BB7F2FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8496D284-F132-4EA4-B070-9ACA1069B9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomMetaData" sheetId="15" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="919">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -2486,6 +2486,321 @@
   </si>
   <si>
     <t>areca</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>con 5&lt;break&gt;con 6&lt;break&gt;Sumo Logic&lt;break&gt;Vertica&lt;break&gt;Demo Deal&lt;break&gt;Mutual Fund</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity006</t>
+  </si>
+  <si>
+    <t>AMNNR_Con1</t>
+  </si>
+  <si>
+    <t>con 5</t>
+  </si>
+  <si>
+    <t>areca  moss fundraising should be tagged</t>
+  </si>
+  <si>
+    <t>con 5&lt;break&gt;con 6&lt;break&gt;+5</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity004</t>
+  </si>
+  <si>
+    <t>con 5&lt;break&gt;con 6&lt;break&gt;+10</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity005</t>
+  </si>
+  <si>
+    <t>All Records Select</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity007</t>
+  </si>
+  <si>
+    <t>Sales Meeting</t>
+  </si>
+  <si>
+    <t>Jhon&lt;break&gt;con 10&lt;break&gt;Sumo Logic</t>
+  </si>
+  <si>
+    <t>Golden Ret</t>
+  </si>
+  <si>
+    <t>Jhon&lt;break&gt;con 10&lt;break&gt;+2</t>
+  </si>
+  <si>
+    <t>Jhon&lt;break&gt;con 10&lt;break&gt;+3</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity008</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity009</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>AMNNR_Con2</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity006</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity007</t>
+  </si>
+  <si>
+    <t>Marketing Strategy</t>
+  </si>
+  <si>
+    <t>We as an organization need to have certain strategy towards our marketing approch with Vertica and sumo logic Firm</t>
+  </si>
+  <si>
+    <t>Max&lt;break&gt;Jhon&lt;break&gt;con 11</t>
+  </si>
+  <si>
+    <t>Vertica&lt;break&gt;Sumo Logic</t>
+  </si>
+  <si>
+    <t>&lt;break&gt;Vertica&lt;break&gt;Sumo Logic</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>keep in loop  con 4, con 5</t>
+  </si>
+  <si>
+    <t>Max&lt;break&gt;Jhon&lt;break&gt;+4</t>
+  </si>
+  <si>
+    <t>Max&lt;break&gt;Jhon&lt;break&gt;+6</t>
+  </si>
+  <si>
+    <t>con 4&lt;break&gt;con 5</t>
+  </si>
+  <si>
+    <t>&lt;break&gt;con 4&lt;break&gt;con 5</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity010</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity011</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity012</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity008</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity009</t>
+  </si>
+  <si>
+    <t>AMNNR_Con3</t>
+  </si>
+  <si>
+    <t>Send Quote</t>
+  </si>
+  <si>
+    <t>unicorn</t>
+  </si>
+  <si>
+    <t>Maxtra&lt;break&gt;Martha&lt;break&gt;Jhon&lt;break&gt;con 11&lt;break&gt;Sumo Logic&lt;break&gt;Vertica</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Palm areca</t>
+  </si>
+  <si>
+    <t>Martha&lt;break&gt;Jhon&lt;break&gt;+5</t>
+  </si>
+  <si>
+    <t>Martha&lt;break&gt;Jhon&lt;break&gt;+7</t>
+  </si>
+  <si>
+    <t>&lt;break&gt;Palm&lt;break&gt;areca</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity013</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity014</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity010</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity011</t>
+  </si>
+  <si>
+    <t>AMNNR_Con4</t>
+  </si>
+  <si>
+    <t>Send Notice</t>
+  </si>
+  <si>
+    <t>Send Notice updated</t>
+  </si>
+  <si>
+    <t>Acc 3&lt;break&gt;Martha&lt;break&gt;Echo&lt;break&gt;Alexa&lt;break&gt;Green Pothos&lt;break&gt;areca</t>
+  </si>
+  <si>
+    <t>Acc 3</t>
+  </si>
+  <si>
+    <t>AMNNR_Record003</t>
+  </si>
+  <si>
+    <t>Martha&lt;break&gt;areca&lt;break&gt;+5</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity012</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity015</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity016</t>
+  </si>
+  <si>
+    <t>SSend Notice</t>
+  </si>
+  <si>
+    <t>echo alexa Green pothos areca</t>
+  </si>
+  <si>
+    <t>Acc 3&lt;break&gt;Martha</t>
+  </si>
+  <si>
+    <t>SSend Notice Follow up 1</t>
+  </si>
+  <si>
+    <t>SSend Notice Follow up 2</t>
+  </si>
+  <si>
+    <t>SSend Notice Follow up 3</t>
+  </si>
+  <si>
+    <t>&lt;break&gt;Martha&lt;break&gt;+1</t>
+  </si>
+  <si>
+    <t>Martha&lt;break&gt;con 6&lt;break&gt;+5</t>
+  </si>
+  <si>
+    <t>&lt;break&gt;con 6&lt;break&gt;con 7&lt;break&gt;con 8&lt;break&gt;Acc 4</t>
+  </si>
+  <si>
+    <t>con 6&lt;break&gt;con 7&lt;break&gt;con 8&lt;break&gt;Acc 4</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity017</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity018</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity019</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity020</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity021</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity013</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity014</t>
+  </si>
+  <si>
+    <t>Follow up task As Send Notice Updated for Con 6,Con 7, Con 8, Acc 4</t>
+  </si>
+  <si>
+    <t>Mutual Fund&lt;break&gt;FC Fundraising&lt;break&gt;Acc 1</t>
+  </si>
+  <si>
+    <t>Martha&lt;break&gt;con 6&lt;break&gt;+8</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity015</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity022</t>
+  </si>
+  <si>
+    <t>Task for the day</t>
+  </si>
+  <si>
+    <t>Follow up with Contacts Con 4, Con 5 about demo deal</t>
+  </si>
+  <si>
+    <t>Con 1&lt;break&gt;con 2&lt;break&gt;Acc 3&lt;break&gt;Maxtra</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity023</t>
+  </si>
+  <si>
+    <t>con 4&lt;break&gt;con 5&lt;break&gt;Demo Deal</t>
+  </si>
+  <si>
+    <t>&lt;break&gt;con 4&lt;break&gt;con 5&lt;break&gt;Demo Deal</t>
+  </si>
+  <si>
+    <t>Con 1&lt;break&gt;con 2&lt;break&gt;+6</t>
+  </si>
+  <si>
+    <t>Maxtra&lt;break&gt;Demo Deal</t>
+  </si>
+  <si>
+    <t>Con 1&lt;break&gt;con 2&lt;break&gt;Acc 3&lt;break&gt;con 4&lt;break&gt;con 5</t>
+  </si>
+  <si>
+    <t>Con 1&lt;break&gt;con 2&lt;break&gt;+4</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity016</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity017</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity024</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity025</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity026</t>
+  </si>
+  <si>
+    <t>Task Test</t>
+  </si>
+  <si>
+    <t>Contact Invalid&lt;break&gt;Account Invalid</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity027</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity028</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity029</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity018</t>
   </si>
 </sst>
 </file>
@@ -3788,11 +4103,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4137,6 +4452,17 @@
         <v>804</v>
       </c>
       <c r="C50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>871</v>
+      </c>
+      <c r="B51" t="s">
+        <v>870</v>
+      </c>
+      <c r="C51" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4423,10 +4749,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4770,7 +5097,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>751</v>
       </c>
@@ -4787,7 +5114,55 @@
         <v>754</v>
       </c>
     </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="47" t="s">
+        <v>771</v>
+      </c>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>817</v>
+      </c>
+      <c r="D37" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>834</v>
+      </c>
+      <c r="D38" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>853</v>
+      </c>
+      <c r="D39" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>866</v>
+      </c>
+      <c r="D40" t="s">
+        <v>857</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A36:I36"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -5087,11 +5462,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R124"/>
+  <dimension ref="A1:R148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5247,11 +5622,11 @@
       </c>
       <c r="H5" s="34" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/07/2023</v>
+        <v>01/08/2023</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/07/2023</v>
+        <v>01/08/2023</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -8204,6 +8579,318 @@
         <v>813</v>
       </c>
     </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>816</v>
+      </c>
+      <c r="C125" t="s">
+        <v>814</v>
+      </c>
+      <c r="E125" t="s">
+        <v>815</v>
+      </c>
+      <c r="M125" t="s">
+        <v>609</v>
+      </c>
+      <c r="N125" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>825</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="G126" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>831</v>
+      </c>
+      <c r="C127" t="s">
+        <v>826</v>
+      </c>
+      <c r="E127" t="s">
+        <v>827</v>
+      </c>
+      <c r="M127" t="s">
+        <v>609</v>
+      </c>
+      <c r="N127" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>832</v>
+      </c>
+      <c r="D128" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="G128" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>848</v>
+      </c>
+      <c r="C129" t="s">
+        <v>837</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>838</v>
+      </c>
+      <c r="E129" t="s">
+        <v>839</v>
+      </c>
+      <c r="G129" t="s">
+        <v>840</v>
+      </c>
+      <c r="M129" t="s">
+        <v>605</v>
+      </c>
+      <c r="N129" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>849</v>
+      </c>
+      <c r="D130" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="E130" t="s">
+        <v>841</v>
+      </c>
+      <c r="G130" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>850</v>
+      </c>
+      <c r="E131" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>862</v>
+      </c>
+      <c r="C132" t="s">
+        <v>854</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>855</v>
+      </c>
+      <c r="E132" t="s">
+        <v>856</v>
+      </c>
+      <c r="M132" t="s">
+        <v>325</v>
+      </c>
+      <c r="N132" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>863</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="E133" t="s">
+        <v>861</v>
+      </c>
+      <c r="G133" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>874</v>
+      </c>
+      <c r="C134" t="s">
+        <v>867</v>
+      </c>
+      <c r="E134" t="s">
+        <v>869</v>
+      </c>
+      <c r="M134" t="s">
+        <v>325</v>
+      </c>
+      <c r="N134" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>875</v>
+      </c>
+      <c r="C135" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>886</v>
+      </c>
+      <c r="C136" t="s">
+        <v>876</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="E136" t="s">
+        <v>878</v>
+      </c>
+      <c r="M136" t="s">
+        <v>325</v>
+      </c>
+      <c r="N136" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>887</v>
+      </c>
+      <c r="C137" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>888</v>
+      </c>
+      <c r="C138" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>889</v>
+      </c>
+      <c r="C139" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>890</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>893</v>
+      </c>
+      <c r="E140" t="s">
+        <v>884</v>
+      </c>
+      <c r="G140" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>897</v>
+      </c>
+      <c r="E141" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>901</v>
+      </c>
+      <c r="C142" t="s">
+        <v>898</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="E142" t="s">
+        <v>900</v>
+      </c>
+      <c r="G142" t="s">
+        <v>902</v>
+      </c>
+      <c r="M142" t="s">
+        <v>325</v>
+      </c>
+      <c r="N142" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>910</v>
+      </c>
+      <c r="E143" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>911</v>
+      </c>
+      <c r="E144" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>912</v>
+      </c>
+      <c r="E145" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>915</v>
+      </c>
+      <c r="C146" t="s">
+        <v>913</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="E146" t="s">
+        <v>900</v>
+      </c>
+      <c r="G146" t="s">
+        <v>902</v>
+      </c>
+      <c r="M146" t="s">
+        <v>325</v>
+      </c>
+      <c r="N146" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>916</v>
+      </c>
+      <c r="E147" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>917</v>
+      </c>
+      <c r="E148" t="s">
+        <v>914</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A119:Q119"/>
@@ -8216,11 +8903,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AB73"/>
+  <dimension ref="A1:AB88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10055,6 +10742,126 @@
         <v>809</v>
       </c>
     </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>821</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>823</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>835</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>836</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>851</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>852</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>864</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>865</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>873</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>891</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>892</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>896</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>908</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>909</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>918</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>904</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A70:AB70"/>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8496D284-F132-4EA4-B070-9ACA1069B9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3558148A-ED62-478D-B00B-2C77B52A01F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16770" yWindow="1880" windowWidth="14400" windowHeight="7360" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomMetaData" sheetId="15" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="999">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -2801,6 +2801,246 @@
   </si>
   <si>
     <t>AMNNR_Acuity018</t>
+  </si>
+  <si>
+    <t>Task bulk contact</t>
+  </si>
+  <si>
+    <t>Max&lt;break&gt;Martha&lt;break&gt;Acc 3&lt;break&gt;Maxtra</t>
+  </si>
+  <si>
+    <t>Max&lt;break&gt;Martha&lt;break&gt;+3</t>
+  </si>
+  <si>
+    <t>Con 1, con 2, con 3, con 4, con 5, con 6, con 7, con 8, con 9, con 10, con 11, con 12, con 13, con 14, con 15, con 16, con 17, con 18, con 19, con 20, con 21, con 22, con 23, con 24, con 25, con 26, con 27, con 28, con 29, con 30, con 31, con 32, con 33, con 34, con 35, con 36, con 37, con 38, con 39, con 40, con 41, con 42, con 43, con 44, con 45, con 46, con 47, con 48, con 49, con 50</t>
+  </si>
+  <si>
+    <t>Con 1&lt;break&gt;con 2&lt;break&gt;con 3&lt;break&gt;con 4&lt;break&gt;con 5&lt;break&gt;con 6&lt;break&gt;con 7&lt;break&gt;con 8&lt;break&gt;con 9&lt;break&gt;con 10&lt;break&gt;con 11&lt;break&gt;con 12&lt;break&gt;con 13&lt;break&gt;con 14&lt;break&gt;con 15&lt;break&gt;con 16&lt;break&gt;con 17&lt;break&gt;con 18&lt;break&gt;con 19&lt;break&gt;con 20&lt;break&gt;con 21&lt;break&gt;con 22&lt;break&gt;con 23&lt;break&gt;con 24&lt;break&gt;con 25&lt;break&gt;con 26&lt;break&gt;con 27&lt;break&gt;con 28&lt;break&gt;con 29&lt;break&gt;con 30&lt;break&gt;con 31&lt;break&gt;con 32&lt;break&gt;con 33&lt;break&gt;con 34&lt;break&gt;con 35&lt;break&gt;con 36&lt;break&gt;con 37&lt;break&gt;con 38&lt;break&gt;con 39&lt;break&gt;con 40&lt;break&gt;con 41&lt;break&gt;con 42&lt;break&gt;con 43&lt;break&gt;con 44&lt;break&gt;con 45&lt;break&gt;con 46&lt;break&gt;con 47&lt;break&gt;con 48</t>
+  </si>
+  <si>
+    <t>Max&lt;break&gt;Martha&lt;break&gt;+51</t>
+  </si>
+  <si>
+    <t>&lt;break&gt;Con 1&lt;break&gt;con 2&lt;break&gt;con 3&lt;break&gt;con 4&lt;break&gt;con 5&lt;break&gt;con 6&lt;break&gt;con 7&lt;break&gt;con 8&lt;break&gt;con 9&lt;break&gt;con 10&lt;break&gt;con 11&lt;break&gt;con 12&lt;break&gt;con 13&lt;break&gt;con 14&lt;break&gt;con 15&lt;break&gt;con 16&lt;break&gt;con 17&lt;break&gt;con 18&lt;break&gt;con 19&lt;break&gt;con 20&lt;break&gt;con 21&lt;break&gt;con 22&lt;break&gt;con 23&lt;break&gt;con 24&lt;break&gt;con 25&lt;break&gt;con 26&lt;break&gt;con 27&lt;break&gt;con 28&lt;break&gt;con 29&lt;break&gt;con 30&lt;break&gt;con 31&lt;break&gt;con 32&lt;break&gt;con 33&lt;break&gt;con 34&lt;break&gt;con 35&lt;break&gt;con 36&lt;break&gt;con 37&lt;break&gt;con 38&lt;break&gt;con 39&lt;break&gt;con 40&lt;break&gt;con 41&lt;break&gt;con 42&lt;break&gt;con 43&lt;break&gt;con 44&lt;break&gt;con 45&lt;break&gt;con 46&lt;break&gt;con 47&lt;break&gt;con 48</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity030</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity031</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity019</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity020</t>
+  </si>
+  <si>
+    <t>Task bulk Firm contact</t>
+  </si>
+  <si>
+    <t>Max&lt;break&gt;Martha&lt;break&gt;Vertica&lt;break&gt;Maxtra</t>
+  </si>
+  <si>
+    <t>Con 1, con 2, con 3, con 4, con 5, con 6, con 7, con 8, con 9, con 10, con 11, con 12, con 13, con 14, con 15, con 16, con 17, con 18, con 19, con 20, con 21, con 22, con 23, con 24, con 25, con 26, con 27, con 28, con 29, con 30, con 31, con 32, con 33, con 34, con 35, con 36, con 37, con 38, con 39, con 40, con 41, con 42, con 43, con 44, con 45, con 46, con 47, con 48, con 49, con 50, Acc 1, Acc 2, Acc 3, Acc 4, Acc 5, Acc 6, Acc 7, Acc 8, Acc 9, Acc 10, Acc 11, Acc 12, Acc 13</t>
+  </si>
+  <si>
+    <t>Con 1&lt;break&gt;con 2&lt;break&gt;con 3&lt;break&gt;con 4&lt;break&gt;con 5&lt;break&gt;con 6&lt;break&gt;con 7&lt;break&gt;con 8&lt;break&gt;con 9&lt;break&gt;con 10&lt;break&gt;con 11&lt;break&gt;con 12&lt;break&gt;con 13&lt;break&gt;con 14&lt;break&gt;con 15&lt;break&gt;con 16&lt;break&gt;con 17&lt;break&gt;con 18&lt;break&gt;con 19&lt;break&gt;con 20&lt;break&gt;con 21&lt;break&gt;con 22&lt;break&gt;con 23&lt;break&gt;con 24&lt;break&gt;con 25&lt;break&gt;con 26&lt;break&gt;con 27&lt;break&gt;con 28&lt;break&gt;con 29&lt;break&gt;con 30&lt;break&gt;con 31&lt;break&gt;con 32&lt;break&gt;con 33&lt;break&gt;con 34&lt;break&gt;con 35&lt;break&gt;con 36&lt;break&gt;con 37&lt;break&gt;con 38&lt;break&gt;con 39&lt;break&gt;con 40&lt;break&gt;con 41&lt;break&gt;con 42&lt;break&gt;con 43&lt;break&gt;con 44&lt;break&gt;con 45&lt;break&gt;con 46&lt;break&gt;con 47&lt;break&gt;con 48&lt;break&gt;Acc 1&lt;break&gt;Acc 2&lt;break&gt;Acc 3&lt;break&gt;Acc 4&lt;break&gt;Acc 5&lt;break&gt;Acc 6&lt;break&gt;Acc 7&lt;break&gt;Acc 8&lt;break&gt;Acc 9&lt;break&gt;Acc 10&lt;break&gt;Acc 11&lt;break&gt;Acc 12&lt;break&gt;Acc 13</t>
+  </si>
+  <si>
+    <t>Max&lt;break&gt;Martha&lt;break&gt;+64</t>
+  </si>
+  <si>
+    <t>&lt;break&gt;Con 1&lt;break&gt;con 2&lt;break&gt;con 3&lt;break&gt;con 4&lt;break&gt;con 5&lt;break&gt;con 6&lt;break&gt;con 7&lt;break&gt;con 8&lt;break&gt;con 9&lt;break&gt;con 10&lt;break&gt;con 11&lt;break&gt;con 12&lt;break&gt;con 13&lt;break&gt;con 14&lt;break&gt;con 15&lt;break&gt;con 16&lt;break&gt;con 17&lt;break&gt;con 18&lt;break&gt;con 19&lt;break&gt;con 20&lt;break&gt;con 21&lt;break&gt;con 22&lt;break&gt;con 23&lt;break&gt;con 24&lt;break&gt;con 25&lt;break&gt;con 26&lt;break&gt;con 27&lt;break&gt;con 28&lt;break&gt;con 29&lt;break&gt;con 30&lt;break&gt;con 31&lt;break&gt;con 32&lt;break&gt;con 33&lt;break&gt;con 34&lt;break&gt;con 35&lt;break&gt;con 36&lt;break&gt;con 37&lt;break&gt;con 38&lt;break&gt;con 39&lt;break&gt;con 40&lt;break&gt;con 41&lt;break&gt;con 42&lt;break&gt;con 43&lt;break&gt;con 44&lt;break&gt;con 45&lt;break&gt;con 46&lt;break&gt;con 47&lt;break&gt;con 48&lt;break&gt;Acc 1&lt;break&gt;Acc 2&lt;break&gt;Acc 3&lt;break&gt;Acc 4&lt;break&gt;Acc 5&lt;break&gt;Acc 6&lt;break&gt;Acc 7&lt;break&gt;Acc 8&lt;break&gt;Acc 9&lt;break&gt;Acc 10&lt;break&gt;Acc 11&lt;break&gt;Acc 12&lt;break&gt;Acc 13</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity032</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity033</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity021</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity022</t>
+  </si>
+  <si>
+    <t>Task Custom Object</t>
+  </si>
+  <si>
+    <t>Send the quotation to Martha, jhon, con 11 and Custom Object 1.1 belonging to the Firm Nexus, Custom Object 1.2</t>
+  </si>
+  <si>
+    <t>Martha&lt;break&gt;Jhon&lt;break&gt;con 11&lt;break&gt;Sumo Logic&lt;break&gt;Vertica</t>
+  </si>
+  <si>
+    <t>Custom Object 1.1&lt;break&gt;Custom Object 1.2&lt;break&gt;Custom Object 1.3</t>
+  </si>
+  <si>
+    <t>&lt;break&gt;Custom Object 1.1&lt;break&gt;Custom Object 1.2&lt;break&gt;Custom Object 1.3</t>
+  </si>
+  <si>
+    <t>con 11&lt;break&gt;Sumo Logic&lt;break&gt;Vertica&lt;break&gt;Custom Object 1.1&lt;break&gt;Custom Object 1.2&lt;break&gt;Custom Object 1.3</t>
+  </si>
+  <si>
+    <t>keep in loop  con 4, con 5 Acc 5, Custom Object 1.2, Custom object 1.3</t>
+  </si>
+  <si>
+    <t>con 4&lt;break&gt;con 5&lt;break&gt;Acc 5</t>
+  </si>
+  <si>
+    <t>Martha&lt;break&gt;Jhon&lt;break&gt;+10</t>
+  </si>
+  <si>
+    <t>con 11&lt;break&gt;Sumo Logic&lt;break&gt;Vertica&lt;break&gt;Custom Object 1.1&lt;break&gt;Custom Object 1.2&lt;break&gt;Custom Object 1.3&lt;break&gt;con 4&lt;break&gt;con 5&lt;break&gt;Acc 5</t>
+  </si>
+  <si>
+    <t>&lt;break&gt;con 4&lt;break&gt;con 5&lt;break&gt;Acc 5</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity034</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity035</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity036</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity037</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity038</t>
+  </si>
+  <si>
+    <t>Task Demo</t>
+  </si>
+  <si>
+    <t>Follow up with Contacts con 4, con 5 about Demo Deal</t>
+  </si>
+  <si>
+    <t>Acc 3&lt;break&gt;con 4&lt;break&gt;con 5</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity039</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity040</t>
+  </si>
+  <si>
+    <t>Task Advance</t>
+  </si>
+  <si>
+    <t>Maxjonic&lt;break&gt;Maxtra&lt;break&gt;Con 1&lt;break&gt;con 2</t>
+  </si>
+  <si>
+    <t>Maxjonic</t>
+  </si>
+  <si>
+    <t>Intermediary</t>
+  </si>
+  <si>
+    <t>AMNNR_Record004</t>
+  </si>
+  <si>
+    <t>Maxjonic&lt;break&gt;Maxtra&lt;break&gt;con 4&lt;break&gt;con 5&lt;break&gt;Demo Deal</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity041</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity042</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity043</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity023</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity024</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity025</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity026</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity027</t>
+  </si>
+  <si>
+    <t>Task Advance Updated</t>
+  </si>
+  <si>
+    <t>Task TQW</t>
+  </si>
+  <si>
+    <t>Areca</t>
+  </si>
+  <si>
+    <t>Acc 12</t>
+  </si>
+  <si>
+    <t>&lt;break&gt;areca</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>AMNNR_Record005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sumo Kind</t>
+  </si>
+  <si>
+    <t>Sumo Kind==Firm&lt;break&gt;Sumo Kind==Deal&lt;break&gt;Sumo Kind==Contact&lt;break&gt;Sumo Kind Fund==Fund&lt;break&gt;Sumo Kind Fundraising==Fundraising</t>
+  </si>
+  <si>
+    <t>Acc 12==Firm&lt;break&gt;areca==Contact</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity044</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity045</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity046</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity047</t>
+  </si>
+  <si>
+    <t>&lt;break&gt;areca&lt;break&gt;+1</t>
+  </si>
+  <si>
+    <t>areca&lt;break&gt;Sumo Kind&lt;break&gt;+6</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity028</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity029</t>
+  </si>
+  <si>
+    <t>Task Demo 3</t>
+  </si>
+  <si>
+    <t>Acc 3&lt;break&gt;Maxtra&lt;break&gt;Con 1&lt;break&gt;con 2&lt;break&gt;Demo Deal</t>
+  </si>
+  <si>
+    <t>con 6&lt;break&gt;con 7</t>
+  </si>
+  <si>
+    <t>Acc 3&lt;break&gt;Maxtra&lt;break&gt;Demo Deal</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity048</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity049</t>
   </si>
 </sst>
 </file>
@@ -4103,11 +4343,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4464,6 +4704,28 @@
       </c>
       <c r="C51" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>965</v>
+      </c>
+      <c r="B52" t="s">
+        <v>963</v>
+      </c>
+      <c r="C52" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>981</v>
+      </c>
+      <c r="B53" t="s">
+        <v>978</v>
+      </c>
+      <c r="C53" t="s">
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -4753,7 +5015,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5462,11 +5724,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R148"/>
+  <dimension ref="A1:R168"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5622,11 +5884,11 @@
       </c>
       <c r="H5" s="34" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/08/2023</v>
+        <v>01/09/2023</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/08/2023</v>
+        <v>01/09/2023</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -8891,6 +9153,274 @@
         <v>914</v>
       </c>
     </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>926</v>
+      </c>
+      <c r="C149" t="s">
+        <v>919</v>
+      </c>
+      <c r="E149" t="s">
+        <v>920</v>
+      </c>
+      <c r="M149" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="N149" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>927</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>922</v>
+      </c>
+      <c r="E150" t="s">
+        <v>925</v>
+      </c>
+      <c r="G150" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>936</v>
+      </c>
+      <c r="C151" t="s">
+        <v>930</v>
+      </c>
+      <c r="E151" t="s">
+        <v>931</v>
+      </c>
+      <c r="M151" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="N151" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>937</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="E152" t="s">
+        <v>935</v>
+      </c>
+      <c r="G152" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>951</v>
+      </c>
+      <c r="C153" t="s">
+        <v>940</v>
+      </c>
+      <c r="D153" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="E153" t="s">
+        <v>942</v>
+      </c>
+      <c r="G153" t="s">
+        <v>943</v>
+      </c>
+      <c r="M153" t="s">
+        <v>325</v>
+      </c>
+      <c r="N153" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>952</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>946</v>
+      </c>
+      <c r="E154" t="s">
+        <v>944</v>
+      </c>
+      <c r="G154" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>953</v>
+      </c>
+      <c r="E155" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>954</v>
+      </c>
+      <c r="E156" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>955</v>
+      </c>
+      <c r="E157" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>959</v>
+      </c>
+      <c r="C158" t="s">
+        <v>956</v>
+      </c>
+      <c r="D158" s="20" t="s">
+        <v>957</v>
+      </c>
+      <c r="E158" t="s">
+        <v>900</v>
+      </c>
+      <c r="G158" t="s">
+        <v>902</v>
+      </c>
+      <c r="M158" t="s">
+        <v>325</v>
+      </c>
+      <c r="N158" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>960</v>
+      </c>
+      <c r="E159" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>967</v>
+      </c>
+      <c r="E160" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>968</v>
+      </c>
+      <c r="C161" t="s">
+        <v>961</v>
+      </c>
+      <c r="D161" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="E161" t="s">
+        <v>962</v>
+      </c>
+      <c r="G161" t="s">
+        <v>902</v>
+      </c>
+      <c r="M161" t="s">
+        <v>605</v>
+      </c>
+      <c r="N161" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>969</v>
+      </c>
+      <c r="E162" t="s">
+        <v>903</v>
+      </c>
+      <c r="M162" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>985</v>
+      </c>
+      <c r="C163" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>986</v>
+      </c>
+      <c r="C164" t="s">
+        <v>976</v>
+      </c>
+      <c r="D164" s="20" t="s">
+        <v>977</v>
+      </c>
+      <c r="E164" t="s">
+        <v>978</v>
+      </c>
+      <c r="G164" t="s">
+        <v>813</v>
+      </c>
+      <c r="M164" t="s">
+        <v>325</v>
+      </c>
+      <c r="N164" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>987</v>
+      </c>
+      <c r="D165" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="E165" t="s">
+        <v>979</v>
+      </c>
+      <c r="G165" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>988</v>
+      </c>
+      <c r="E166" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>997</v>
+      </c>
+      <c r="C167" t="s">
+        <v>993</v>
+      </c>
+      <c r="E167" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>998</v>
+      </c>
+      <c r="E168" t="s">
+        <v>995</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A119:Q119"/>
@@ -8903,11 +9433,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AB88"/>
+  <dimension ref="A1:AB100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10798,7 +11328,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>865</v>
       </c>
@@ -10806,7 +11336,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>873</v>
       </c>
@@ -10814,7 +11344,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>891</v>
       </c>
@@ -10822,7 +11352,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>892</v>
       </c>
@@ -10830,7 +11360,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>896</v>
       </c>
@@ -10838,7 +11368,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>908</v>
       </c>
@@ -10846,7 +11376,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>909</v>
       </c>
@@ -10854,12 +11384,117 @@
         <v>907</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>918</v>
       </c>
       <c r="AA88" t="s">
         <v>904</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>928</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>929</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>938</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>939</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>970</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>971</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>972</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>904</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>973</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>907</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>974</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>904</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>992</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AA100" t="s">
+        <v>907</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>996</v>
       </c>
     </row>
   </sheetData>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3558148A-ED62-478D-B00B-2C77B52A01F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469AC955-CC52-4B64-A4A6-228010535C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16770" yWindow="1880" windowWidth="14400" windowHeight="7360" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="1000">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -3041,6 +3041,9 @@
   </si>
   <si>
     <t>AMNNR_Activity049</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity030</t>
   </si>
 </sst>
 </file>
@@ -5728,7 +5731,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
+      <selection pane="bottomLeft" activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9412,6 +9415,12 @@
       <c r="E167" t="s">
         <v>994</v>
       </c>
+      <c r="M167" t="s">
+        <v>325</v>
+      </c>
+      <c r="N167" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
@@ -9437,7 +9446,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A99" sqref="A99"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11490,6 +11499,9 @@
       </c>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>999</v>
+      </c>
       <c r="AA100" t="s">
         <v>907</v>
       </c>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17D2FF3-6E4E-4691-A6AC-9AC50E35C93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2597AF-2D94-4770-8140-0CEDC90B9AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomMetaData" sheetId="15" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Fundraisings" sheetId="10" r:id="rId13"/>
     <sheet name="User" sheetId="13" r:id="rId14"/>
     <sheet name="Test Custom Object" sheetId="16" r:id="rId15"/>
+    <sheet name="ListView" sheetId="18" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Activity Timeline'!$B$1:$B$114</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="1092">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -3222,6 +3223,106 @@
   </si>
   <si>
     <t>RGATE003</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity050</t>
+  </si>
+  <si>
+    <t>Task Field label change</t>
+  </si>
+  <si>
+    <t>Max and  Martha</t>
+  </si>
+  <si>
+    <t>Sumo Logic&lt;break&gt;Vertica&lt;break&gt;Demo Deal&lt;break&gt;Litz</t>
+  </si>
+  <si>
+    <t>Martha&lt;break&gt;Max</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity051</t>
+  </si>
+  <si>
+    <t>&lt;break&gt;Martha&lt;break&gt;Max</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity052</t>
+  </si>
+  <si>
+    <t>Task permission</t>
+  </si>
+  <si>
+    <t>Mutual Fund</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity053</t>
+  </si>
+  <si>
+    <t>Sumo Logic&lt;break&gt;Vertica&lt;break&gt;Demo Deal</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity054</t>
+  </si>
+  <si>
+    <t>AMNNR_Record006</t>
+  </si>
+  <si>
+    <t>Acc 5</t>
+  </si>
+  <si>
+    <t>AMNNR_Acuity031</t>
+  </si>
+  <si>
+    <t>Max&lt;break&gt;Martha&lt;break&gt;+5</t>
+  </si>
+  <si>
+    <t>List_View_Name</t>
+  </si>
+  <si>
+    <t>List API Name</t>
+  </si>
+  <si>
+    <t>List_Accessibility</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Operators</t>
+  </si>
+  <si>
+    <t>Filter_Value</t>
+  </si>
+  <si>
+    <t>TextBox_Type</t>
+  </si>
+  <si>
+    <t>Filter_Condition</t>
+  </si>
+  <si>
+    <t>AMNNR_LV1</t>
+  </si>
+  <si>
+    <t>user 1</t>
+  </si>
+  <si>
+    <t>Recycle Bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All users can see this list view
+</t>
+  </si>
+  <si>
+    <t>My recycle bin</t>
+  </si>
+  <si>
+    <t>Record Name</t>
+  </si>
+  <si>
+    <t>equals</t>
+  </si>
+  <si>
+    <t>TextBox</t>
   </si>
 </sst>
 </file>
@@ -3390,7 +3491,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3478,6 +3579,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3490,11 +3597,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3784,14 +3900,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="26.90625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3805,7 +3921,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>692</v>
       </c>
@@ -3816,7 +3932,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>695</v>
       </c>
@@ -3830,7 +3946,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>698</v>
       </c>
@@ -3844,7 +3960,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>701</v>
       </c>
@@ -3855,7 +3971,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>704</v>
       </c>
@@ -3866,7 +3982,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>707</v>
       </c>
@@ -3877,7 +3993,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>710</v>
       </c>
@@ -3888,7 +4004,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>713</v>
       </c>
@@ -3899,7 +4015,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>716</v>
       </c>
@@ -3910,7 +4026,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>719</v>
       </c>
@@ -3927,7 +4043,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>720</v>
       </c>
@@ -3944,7 +4060,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>721</v>
       </c>
@@ -3961,7 +4077,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>728</v>
       </c>
@@ -3972,7 +4088,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>729</v>
       </c>
@@ -3989,7 +4105,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>730</v>
       </c>
@@ -4009,44 +4125,44 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AB106"/>
+  <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76:AB107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.36328125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="33.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="61.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.36328125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.54296875" customWidth="1" collapsed="1"/>
+    <col min="19" max="21" width="17.36328125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="48.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="33.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="61.6328125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="40" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="69" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="35.08984375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4132,7 +4248,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4157,7 +4273,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -4171,7 +4287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -4185,7 +4301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -4199,7 +4315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -4213,7 +4329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4238,7 +4354,7 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4249,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -4260,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -4271,7 +4387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -4288,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4317,7 +4433,7 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>293</v>
       </c>
@@ -4364,7 +4480,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>301</v>
       </c>
@@ -4417,7 +4533,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>330</v>
       </c>
@@ -4437,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>345</v>
       </c>
@@ -4496,7 +4612,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>356</v>
       </c>
@@ -4555,7 +4671,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>366</v>
       </c>
@@ -4611,7 +4727,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>367</v>
       </c>
@@ -4664,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>368</v>
       </c>
@@ -4717,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>369</v>
       </c>
@@ -4770,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -4823,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>382</v>
       </c>
@@ -4876,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>383</v>
       </c>
@@ -4929,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>387</v>
       </c>
@@ -4982,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>388</v>
       </c>
@@ -5035,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>389</v>
       </c>
@@ -5088,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>401</v>
       </c>
@@ -5141,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>402</v>
       </c>
@@ -5194,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>403</v>
       </c>
@@ -5232,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>404</v>
       </c>
@@ -5270,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>405</v>
       </c>
@@ -5308,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>406</v>
       </c>
@@ -5346,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>407</v>
       </c>
@@ -5384,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>408</v>
       </c>
@@ -5422,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>409</v>
       </c>
@@ -5460,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>410</v>
       </c>
@@ -5483,7 +5599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -5506,7 +5622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>412</v>
       </c>
@@ -5529,7 +5645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>413</v>
       </c>
@@ -5552,7 +5668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>414</v>
       </c>
@@ -5575,7 +5691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>415</v>
       </c>
@@ -5592,7 +5708,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>416</v>
       </c>
@@ -5609,7 +5725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>616</v>
       </c>
@@ -5626,7 +5742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>624</v>
       </c>
@@ -5643,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>634</v>
       </c>
@@ -5660,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>637</v>
       </c>
@@ -5671,7 +5787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>638</v>
       </c>
@@ -5682,7 +5798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>645</v>
       </c>
@@ -5693,7 +5809,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>646</v>
       </c>
@@ -5704,7 +5820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>667</v>
       </c>
@@ -5715,7 +5831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>668</v>
       </c>
@@ -5726,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>669</v>
       </c>
@@ -5737,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>679</v>
       </c>
@@ -5748,7 +5864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>680</v>
       </c>
@@ -5759,7 +5875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>681</v>
       </c>
@@ -5770,7 +5886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>682</v>
       </c>
@@ -5781,7 +5897,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>683</v>
       </c>
@@ -5792,7 +5908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -5824,7 +5940,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1049</v>
       </c>
@@ -5859,7 +5975,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1055</v>
       </c>
@@ -5891,7 +6007,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1058</v>
       </c>
@@ -5908,39 +6024,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A76" s="47" t="s">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A76" s="49" t="s">
         <v>762</v>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
-      <c r="P76" s="47"/>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="47"/>
-      <c r="S76" s="47"/>
-      <c r="T76" s="47"/>
-      <c r="U76" s="47"/>
-      <c r="V76" s="47"/>
-      <c r="W76" s="47"/>
-      <c r="X76" s="47"/>
-      <c r="Y76" s="47"/>
-      <c r="Z76" s="47"/>
-      <c r="AA76" s="47"/>
-      <c r="AB76" s="47"/>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="49"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="49"/>
+      <c r="R76" s="49"/>
+      <c r="S76" s="49"/>
+      <c r="T76" s="49"/>
+      <c r="U76" s="49"/>
+      <c r="V76" s="49"/>
+      <c r="W76" s="49"/>
+      <c r="X76" s="49"/>
+      <c r="Y76" s="49"/>
+      <c r="Z76" s="49"/>
+      <c r="AA76" s="49"/>
+      <c r="AB76" s="49"/>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>789</v>
       </c>
@@ -5948,7 +6064,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>801</v>
       </c>
@@ -5956,7 +6072,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>802</v>
       </c>
@@ -5964,7 +6080,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>812</v>
       </c>
@@ -5972,7 +6088,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>814</v>
       </c>
@@ -5980,7 +6096,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>826</v>
       </c>
@@ -5988,7 +6104,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>827</v>
       </c>
@@ -5996,7 +6112,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>842</v>
       </c>
@@ -6004,7 +6120,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>843</v>
       </c>
@@ -6012,7 +6128,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>855</v>
       </c>
@@ -6020,7 +6136,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>856</v>
       </c>
@@ -6028,7 +6144,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>864</v>
       </c>
@@ -6036,7 +6152,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>882</v>
       </c>
@@ -6044,7 +6160,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>883</v>
       </c>
@@ -6052,7 +6168,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>887</v>
       </c>
@@ -6060,7 +6176,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>899</v>
       </c>
@@ -6068,7 +6184,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>900</v>
       </c>
@@ -6076,7 +6192,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>909</v>
       </c>
@@ -6084,7 +6200,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>919</v>
       </c>
@@ -6092,7 +6208,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>920</v>
       </c>
@@ -6100,7 +6216,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>929</v>
       </c>
@@ -6108,7 +6224,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>930</v>
       </c>
@@ -6116,7 +6232,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>961</v>
       </c>
@@ -6124,7 +6240,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>962</v>
       </c>
@@ -6132,7 +6248,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>963</v>
       </c>
@@ -6143,7 +6259,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>964</v>
       </c>
@@ -6154,7 +6270,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>965</v>
       </c>
@@ -6165,7 +6281,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>982</v>
       </c>
@@ -6173,7 +6289,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>983</v>
       </c>
@@ -6181,7 +6297,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>990</v>
       </c>
@@ -6190,6 +6306,14 @@
       </c>
       <c r="AB106" t="s">
         <v>987</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>1075</v>
       </c>
     </row>
   </sheetData>
@@ -6210,14 +6334,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="72.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="72.08984375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6228,7 +6352,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -6254,16 +6378,16 @@
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6280,7 +6404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -6294,7 +6418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>225</v>
       </c>
@@ -6309,7 +6433,7 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>227</v>
       </c>
@@ -6320,7 +6444,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>229</v>
       </c>
@@ -6337,7 +6461,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6346,7 +6470,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>738</v>
       </c>
@@ -6360,7 +6484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6369,7 +6493,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>738</v>
       </c>
@@ -6383,16 +6507,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="48" t="s">
         <v>762</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>776</v>
       </c>
@@ -6423,24 +6547,24 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.08984375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.90625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6484,7 +6608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -6495,7 +6619,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>240</v>
       </c>
@@ -6523,7 +6647,7 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>245</v>
       </c>
@@ -6543,7 +6667,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>247</v>
       </c>
@@ -6571,25 +6695,25 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
         <v>762</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>775</v>
       </c>
@@ -6626,17 +6750,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6647,7 +6771,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>650</v>
       </c>
@@ -6671,15 +6795,15 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6696,21 +6820,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
         <v>762</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="41"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
@@ -6719,7 +6843,7 @@
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>778</v>
       </c>
@@ -6746,23 +6870,133 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8FE239-7966-4B47-902D-BB193CC8E9D4}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="16.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="23.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>771</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="53" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L4" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD50"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48:E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.90625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.36328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.36328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6779,14 +7013,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6797,7 +7031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -6805,7 +7039,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -6813,7 +7047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -6821,7 +7055,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -6829,7 +7063,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -6837,7 +7071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -6845,7 +7079,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -6853,7 +7087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -6861,7 +7095,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -6872,7 +7106,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -6880,7 +7114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -6888,7 +7122,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>155</v>
       </c>
@@ -6899,7 +7133,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>156</v>
       </c>
@@ -6908,7 +7142,7 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>157</v>
       </c>
@@ -6917,7 +7151,7 @@
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>158</v>
       </c>
@@ -6930,7 +7164,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>159</v>
       </c>
@@ -6947,7 +7181,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>278</v>
       </c>
@@ -6955,7 +7189,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>283</v>
       </c>
@@ -6963,14 +7197,14 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
         <v>292</v>
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>295</v>
       </c>
@@ -6978,7 +7212,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>310</v>
       </c>
@@ -6986,7 +7220,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>316</v>
       </c>
@@ -6994,7 +7228,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>376</v>
       </c>
@@ -7002,7 +7236,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>381</v>
       </c>
@@ -7010,7 +7244,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>653</v>
       </c>
@@ -7018,7 +7252,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>654</v>
       </c>
@@ -7026,7 +7260,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>655</v>
       </c>
@@ -7034,7 +7268,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>662</v>
       </c>
@@ -7042,7 +7276,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>687</v>
       </c>
@@ -7050,7 +7284,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="15" t="s">
         <v>740</v>
@@ -7058,7 +7292,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>741</v>
       </c>
@@ -7069,7 +7303,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>991</v>
       </c>
@@ -7077,7 +7311,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>993</v>
       </c>
@@ -7088,16 +7322,16 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="46" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="48" t="s">
         <v>762</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>791</v>
       </c>
@@ -7108,7 +7342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>797</v>
       </c>
@@ -7119,7 +7353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>862</v>
       </c>
@@ -7130,7 +7364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>956</v>
       </c>
@@ -7141,7 +7375,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>972</v>
       </c>
@@ -7150,6 +7384,17 @@
       </c>
       <c r="C54" t="s">
         <v>971</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C55" t="s">
+        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -7171,13 +7416,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.90625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7185,13 +7430,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="46"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="48"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -7199,7 +7444,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -7207,7 +7452,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -7215,7 +7460,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -7223,7 +7468,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -7247,21 +7492,21 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.90625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -7293,7 +7538,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12" t="s">
@@ -7307,7 +7552,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7319,7 +7564,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>269</v>
       </c>
@@ -7331,7 +7576,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>261</v>
       </c>
@@ -7343,7 +7588,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>262</v>
       </c>
@@ -7355,7 +7600,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>263</v>
       </c>
@@ -7367,7 +7612,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>264</v>
       </c>
@@ -7379,7 +7624,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>265</v>
       </c>
@@ -7391,7 +7636,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>266</v>
       </c>
@@ -7403,7 +7648,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>267</v>
       </c>
@@ -7415,7 +7660,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>268</v>
       </c>
@@ -7442,17 +7687,17 @@
       <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.453125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.54296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="117" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7481,7 +7726,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -7492,7 +7737,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7505,7 +7750,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -7522,7 +7767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -7530,7 +7775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -7538,7 +7783,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -7546,7 +7791,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -7566,7 +7811,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -7574,7 +7819,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -7582,7 +7827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>182</v>
       </c>
@@ -7607,7 +7852,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>188</v>
       </c>
@@ -7622,7 +7867,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>192</v>
       </c>
@@ -7637,7 +7882,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>193</v>
       </c>
@@ -7660,7 +7905,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>194</v>
       </c>
@@ -7679,7 +7924,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -7687,7 +7932,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -7695,7 +7940,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>287</v>
       </c>
@@ -7703,7 +7948,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -7716,7 +7961,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>309</v>
       </c>
@@ -7724,7 +7969,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -7732,7 +7977,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>314</v>
       </c>
@@ -7740,7 +7985,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>380</v>
       </c>
@@ -7748,7 +7993,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>656</v>
       </c>
@@ -7759,7 +8004,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>657</v>
       </c>
@@ -7770,7 +8015,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -7783,7 +8028,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>745</v>
       </c>
@@ -7803,7 +8048,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>996</v>
       </c>
@@ -7817,23 +8062,23 @@
         <v>999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F35" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="47" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="49" t="s">
         <v>762</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>808</v>
       </c>
@@ -7841,7 +8086,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>825</v>
       </c>
@@ -7849,7 +8094,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>844</v>
       </c>
@@ -7857,7 +8102,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>857</v>
       </c>
@@ -7888,15 +8133,15 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7922,7 +8167,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -7936,7 +8181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -7950,7 +8195,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>200</v>
       </c>
@@ -7974,7 +8219,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>202</v>
       </c>
@@ -7988,7 +8233,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>208</v>
       </c>
@@ -8008,7 +8253,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
@@ -8020,7 +8265,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>659</v>
       </c>
@@ -8028,7 +8273,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>661</v>
       </c>
@@ -8036,7 +8281,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>688</v>
       </c>
@@ -8044,7 +8289,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
@@ -8056,7 +8301,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>750</v>
       </c>
@@ -8070,7 +8315,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1000</v>
       </c>
@@ -8084,19 +8329,19 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="48" t="s">
         <v>762</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>777</v>
       </c>
@@ -8131,16 +8376,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8157,7 +8402,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -8183,35 +8428,35 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:R182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.109375" style="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.21875" style="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.08984375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.08984375" style="20" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.90625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.1796875" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8265,7 +8510,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8279,7 +8524,7 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8295,7 +8540,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -8322,7 +8567,7 @@
       </c>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -8343,14 +8588,14 @@
       </c>
       <c r="H5" s="34" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/09/2023</v>
+        <v>01/10/2023</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/09/2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>01/10/2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -8374,7 +8619,7 @@
       </c>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -8385,7 +8630,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -8393,7 +8638,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -8417,7 +8662,7 @@
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -8441,7 +8686,7 @@
       </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -8461,7 +8706,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -8469,7 +8714,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -8477,7 +8722,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -8497,7 +8742,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -8517,7 +8762,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>221</v>
       </c>
@@ -8538,7 +8783,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>222</v>
       </c>
@@ -8559,7 +8804,7 @@
       <c r="H17" s="35"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>223</v>
       </c>
@@ -8580,7 +8825,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>224</v>
       </c>
@@ -8601,7 +8846,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -8617,7 +8862,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>318</v>
       </c>
@@ -8651,7 +8896,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>341</v>
       </c>
@@ -8683,7 +8928,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>357</v>
       </c>
@@ -8718,7 +8963,7 @@
       </c>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>372</v>
       </c>
@@ -8754,7 +8999,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>377</v>
       </c>
@@ -8790,7 +9035,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="360" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>499</v>
       </c>
@@ -8818,7 +9063,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="360" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>500</v>
       </c>
@@ -8846,7 +9091,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="360" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>501</v>
       </c>
@@ -8874,7 +9119,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="360" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>502</v>
       </c>
@@ -8902,7 +9147,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="360" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>503</v>
       </c>
@@ -8930,7 +9175,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:14" ht="360" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>504</v>
       </c>
@@ -8958,7 +9203,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="360" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>505</v>
       </c>
@@ -8986,7 +9231,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="360" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>506</v>
       </c>
@@ -9014,7 +9259,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:14" ht="360" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
         <v>507</v>
       </c>
@@ -9042,7 +9287,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:14" ht="360" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
         <v>508</v>
       </c>
@@ -9070,7 +9315,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
         <v>509</v>
       </c>
@@ -9098,7 +9343,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>510</v>
       </c>
@@ -9126,7 +9371,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
         <v>511</v>
       </c>
@@ -9154,7 +9399,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>512</v>
       </c>
@@ -9182,7 +9427,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
         <v>513</v>
       </c>
@@ -9210,7 +9455,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>514</v>
       </c>
@@ -9238,7 +9483,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
         <v>515</v>
       </c>
@@ -9266,7 +9511,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
         <v>516</v>
       </c>
@@ -9294,7 +9539,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
         <v>517</v>
       </c>
@@ -9322,7 +9567,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
         <v>518</v>
       </c>
@@ -9350,7 +9595,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
         <v>519</v>
       </c>
@@ -9378,7 +9623,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>520</v>
       </c>
@@ -9406,7 +9651,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
         <v>521</v>
       </c>
@@ -9434,7 +9679,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
         <v>522</v>
       </c>
@@ -9462,7 +9707,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
         <v>523</v>
       </c>
@@ -9490,7 +9735,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
         <v>524</v>
       </c>
@@ -9518,7 +9763,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>525</v>
       </c>
@@ -9546,7 +9791,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
         <v>526</v>
       </c>
@@ -9574,7 +9819,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
         <v>527</v>
       </c>
@@ -9602,7 +9847,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
         <v>528</v>
       </c>
@@ -9630,7 +9875,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
         <v>529</v>
       </c>
@@ -9658,7 +9903,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
         <v>530</v>
       </c>
@@ -9686,7 +9931,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
     </row>
-    <row r="59" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
         <v>531</v>
       </c>
@@ -9714,7 +9959,7 @@
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
     </row>
-    <row r="60" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
         <v>532</v>
       </c>
@@ -9742,7 +9987,7 @@
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
         <v>533</v>
       </c>
@@ -9770,7 +10015,7 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
         <v>534</v>
       </c>
@@ -9798,7 +10043,7 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
         <v>535</v>
       </c>
@@ -9826,7 +10071,7 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
     </row>
-    <row r="64" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
         <v>536</v>
       </c>
@@ -9854,7 +10099,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
         <v>537</v>
       </c>
@@ -9882,7 +10127,7 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
     </row>
-    <row r="66" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
         <v>538</v>
       </c>
@@ -9910,7 +10155,7 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
         <v>539</v>
       </c>
@@ -9936,7 +10181,7 @@
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
         <v>540</v>
       </c>
@@ -9962,7 +10207,7 @@
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
         <v>541</v>
       </c>
@@ -9988,7 +10233,7 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
         <v>542</v>
       </c>
@@ -10016,7 +10261,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
         <v>543</v>
       </c>
@@ -10044,7 +10289,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
     </row>
-    <row r="72" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
         <v>544</v>
       </c>
@@ -10072,7 +10317,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
     </row>
-    <row r="73" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
         <v>545</v>
       </c>
@@ -10100,7 +10345,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
         <v>546</v>
       </c>
@@ -10128,7 +10373,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
         <v>547</v>
       </c>
@@ -10156,7 +10401,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
     </row>
-    <row r="76" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
         <v>548</v>
       </c>
@@ -10184,7 +10429,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
         <v>549</v>
       </c>
@@ -10212,7 +10457,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
     </row>
-    <row r="78" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
         <v>550</v>
       </c>
@@ -10240,7 +10485,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
     </row>
-    <row r="79" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
         <v>551</v>
       </c>
@@ -10268,7 +10513,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
     </row>
-    <row r="80" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
         <v>552</v>
       </c>
@@ -10296,7 +10541,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
     </row>
-    <row r="81" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A81" s="17" t="s">
         <v>553</v>
       </c>
@@ -10324,7 +10569,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
     </row>
-    <row r="82" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
         <v>554</v>
       </c>
@@ -10352,7 +10597,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
     </row>
-    <row r="83" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
         <v>555</v>
       </c>
@@ -10380,7 +10625,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
     </row>
-    <row r="84" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A84" s="17" t="s">
         <v>556</v>
       </c>
@@ -10408,7 +10653,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
     </row>
-    <row r="85" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A85" s="17" t="s">
         <v>557</v>
       </c>
@@ -10436,7 +10681,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
     </row>
-    <row r="86" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A86" s="17" t="s">
         <v>558</v>
       </c>
@@ -10464,7 +10709,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
     </row>
-    <row r="87" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A87" s="17" t="s">
         <v>559</v>
       </c>
@@ -10492,7 +10737,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
     </row>
-    <row r="88" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A88" s="17" t="s">
         <v>560</v>
       </c>
@@ -10520,7 +10765,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
     </row>
-    <row r="89" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A89" s="17" t="s">
         <v>561</v>
       </c>
@@ -10548,7 +10793,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
     </row>
-    <row r="90" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A90" s="17" t="s">
         <v>562</v>
       </c>
@@ -10576,7 +10821,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
     </row>
-    <row r="91" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A91" s="17" t="s">
         <v>563</v>
       </c>
@@ -10604,7 +10849,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
     </row>
-    <row r="92" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A92" s="17" t="s">
         <v>564</v>
       </c>
@@ -10632,7 +10877,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
     </row>
-    <row r="93" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A93" s="17" t="s">
         <v>565</v>
       </c>
@@ -10660,7 +10905,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
     </row>
-    <row r="94" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A94" s="17" t="s">
         <v>566</v>
       </c>
@@ -10688,7 +10933,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
     </row>
-    <row r="95" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A95" s="17" t="s">
         <v>567</v>
       </c>
@@ -10716,7 +10961,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
     </row>
-    <row r="96" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A96" s="17" t="s">
         <v>568</v>
       </c>
@@ -10744,7 +10989,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="17" t="s">
         <v>612</v>
       </c>
@@ -10780,7 +11025,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="s">
         <v>613</v>
       </c>
@@ -10816,7 +11061,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="17" t="s">
         <v>614</v>
       </c>
@@ -10852,7 +11097,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="17" t="s">
         <v>617</v>
       </c>
@@ -10888,7 +11133,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
         <v>618</v>
       </c>
@@ -10924,7 +11169,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="17" t="s">
         <v>619</v>
       </c>
@@ -10960,7 +11205,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="17" t="s">
         <v>625</v>
       </c>
@@ -10996,7 +11241,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="17" t="s">
         <v>626</v>
       </c>
@@ -11032,7 +11277,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="17" t="s">
         <v>627</v>
       </c>
@@ -11068,7 +11313,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="17" t="s">
         <v>642</v>
       </c>
@@ -11104,7 +11349,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="17" t="s">
         <v>675</v>
       </c>
@@ -11136,7 +11381,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -11154,7 +11399,7 @@
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
     </row>
-    <row r="113" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1018</v>
       </c>
@@ -11183,7 +11428,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1024</v>
       </c>
@@ -11212,7 +11457,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1029</v>
       </c>
@@ -11234,14 +11479,14 @@
       <c r="I115" t="s">
         <v>643</v>
       </c>
-      <c r="K115" s="50">
+      <c r="K115" s="46">
         <v>-2</v>
       </c>
-      <c r="L115" s="50">
+      <c r="L115" s="46">
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1032</v>
       </c>
@@ -11267,7 +11512,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1036</v>
       </c>
@@ -11296,7 +11541,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1040</v>
       </c>
@@ -11325,7 +11570,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>1043</v>
       </c>
@@ -11348,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -11367,7 +11612,7 @@
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
     </row>
-    <row r="123" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>1046</v>
       </c>
@@ -11396,28 +11641,28 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A128" s="47" t="s">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A128" s="49" t="s">
         <v>762</v>
       </c>
-      <c r="B128" s="47"/>
-      <c r="C128" s="47"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="47"/>
-      <c r="I128" s="47"/>
-      <c r="J128" s="47"/>
-      <c r="K128" s="47"/>
-      <c r="L128" s="47"/>
-      <c r="M128" s="47"/>
-      <c r="N128" s="47"/>
-      <c r="O128" s="47"/>
-      <c r="P128" s="47"/>
-      <c r="Q128" s="47"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B128" s="49"/>
+      <c r="C128" s="49"/>
+      <c r="D128" s="49"/>
+      <c r="E128" s="49"/>
+      <c r="F128" s="49"/>
+      <c r="G128" s="49"/>
+      <c r="H128" s="49"/>
+      <c r="I128" s="49"/>
+      <c r="J128" s="49"/>
+      <c r="K128" s="49"/>
+      <c r="L128" s="49"/>
+      <c r="M128" s="49"/>
+      <c r="N128" s="49"/>
+      <c r="O128" s="49"/>
+      <c r="P128" s="49"/>
+      <c r="Q128" s="49"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>779</v>
       </c>
@@ -11431,7 +11676,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>783</v>
       </c>
@@ -11448,7 +11693,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>788</v>
       </c>
@@ -11456,7 +11701,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>792</v>
       </c>
@@ -11479,7 +11724,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>803</v>
       </c>
@@ -11490,7 +11735,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>807</v>
       </c>
@@ -11507,7 +11752,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>816</v>
       </c>
@@ -11518,7 +11763,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>822</v>
       </c>
@@ -11535,7 +11780,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>823</v>
       </c>
@@ -11546,7 +11791,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>839</v>
       </c>
@@ -11569,7 +11814,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>840</v>
       </c>
@@ -11583,7 +11828,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>841</v>
       </c>
@@ -11591,7 +11836,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>853</v>
       </c>
@@ -11611,7 +11856,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>854</v>
       </c>
@@ -11625,7 +11870,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>865</v>
       </c>
@@ -11642,7 +11887,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>866</v>
       </c>
@@ -11650,7 +11895,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>877</v>
       </c>
@@ -11670,7 +11915,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>878</v>
       </c>
@@ -11678,7 +11923,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>879</v>
       </c>
@@ -11686,7 +11931,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>880</v>
       </c>
@@ -11694,7 +11939,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>881</v>
       </c>
@@ -11708,7 +11953,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>888</v>
       </c>
@@ -11716,7 +11961,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>892</v>
       </c>
@@ -11739,7 +11984,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>901</v>
       </c>
@@ -11747,7 +11992,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>902</v>
       </c>
@@ -11755,7 +12000,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>903</v>
       </c>
@@ -11763,7 +12008,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>906</v>
       </c>
@@ -11786,7 +12031,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>907</v>
       </c>
@@ -11794,7 +12039,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>908</v>
       </c>
@@ -11802,7 +12047,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>917</v>
       </c>
@@ -11819,7 +12064,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>918</v>
       </c>
@@ -11833,7 +12078,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>927</v>
       </c>
@@ -11850,7 +12095,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>928</v>
       </c>
@@ -11864,7 +12109,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>942</v>
       </c>
@@ -11887,7 +12132,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>943</v>
       </c>
@@ -11901,7 +12146,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>944</v>
       </c>
@@ -11909,7 +12154,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>945</v>
       </c>
@@ -11917,7 +12162,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>946</v>
       </c>
@@ -11925,7 +12170,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>950</v>
       </c>
@@ -11948,7 +12193,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>951</v>
       </c>
@@ -11956,7 +12201,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>958</v>
       </c>
@@ -11964,7 +12209,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>959</v>
       </c>
@@ -11987,7 +12232,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>960</v>
       </c>
@@ -11998,7 +12243,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>976</v>
       </c>
@@ -12006,7 +12251,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>977</v>
       </c>
@@ -12029,7 +12274,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>978</v>
       </c>
@@ -12043,7 +12288,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>979</v>
       </c>
@@ -12051,7 +12296,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>988</v>
       </c>
@@ -12068,12 +12313,88 @@
         <v>326</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>989</v>
       </c>
       <c r="E177" t="s">
         <v>986</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D178" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M178" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D180" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M180" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B182" t="s">
+        <v>209</v>
+      </c>
+      <c r="C182" t="s">
+        <v>209</v>
+      </c>
+      <c r="M182" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="N182" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="O182" t="s">
+        <v>209</v>
+      </c>
+      <c r="P182" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -12102,19 +12423,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="8.90625" style="20"/>
     <col min="2" max="2" width="73" style="20" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="20"/>
+    <col min="3" max="3" width="16.453125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -12137,7 +12458,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
         <v>737</v>
@@ -12147,14 +12468,14 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>1007</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="45" t="s">
         <v>1008</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="45" t="s">
         <v>1009</v>
       </c>
       <c r="E4" s="20" t="s">
@@ -12167,14 +12488,14 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>1013</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="45" t="s">
         <v>1008</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="45" t="s">
         <v>1009</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -12184,14 +12505,14 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>1015</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="45" t="s">
         <v>1008</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="45" t="s">
         <v>1009</v>
       </c>
       <c r="E6" s="20" t="s">

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2597AF-2D94-4770-8140-0CEDC90B9AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB430CD-906F-438B-9588-E4CE8687DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomMetaData" sheetId="15" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1099">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -3323,6 +3323,27 @@
   </si>
   <si>
     <t>TextBox</t>
+  </si>
+  <si>
+    <t>Task bulk contact Call Follow Up</t>
+  </si>
+  <si>
+    <t>con 15</t>
+  </si>
+  <si>
+    <t>AMNNR_Con5</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity055</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity056</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity057</t>
+  </si>
+  <si>
+    <t>AMNNR_Activity058</t>
   </si>
 </sst>
 </file>
@@ -3585,18 +3606,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3611,6 +3620,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4128,8 +4149,8 @@
   <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76:AB107"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6025,36 +6046,36 @@
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="54" t="s">
         <v>762</v>
       </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="49"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
-      <c r="Q76" s="49"/>
-      <c r="R76" s="49"/>
-      <c r="S76" s="49"/>
-      <c r="T76" s="49"/>
-      <c r="U76" s="49"/>
-      <c r="V76" s="49"/>
-      <c r="W76" s="49"/>
-      <c r="X76" s="49"/>
-      <c r="Y76" s="49"/>
-      <c r="Z76" s="49"/>
-      <c r="AA76" s="49"/>
-      <c r="AB76" s="49"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="54"/>
+      <c r="M76" s="54"/>
+      <c r="N76" s="54"/>
+      <c r="O76" s="54"/>
+      <c r="P76" s="54"/>
+      <c r="Q76" s="54"/>
+      <c r="R76" s="54"/>
+      <c r="S76" s="54"/>
+      <c r="T76" s="54"/>
+      <c r="U76" s="54"/>
+      <c r="V76" s="54"/>
+      <c r="W76" s="54"/>
+      <c r="X76" s="54"/>
+      <c r="Y76" s="54"/>
+      <c r="Z76" s="54"/>
+      <c r="AA76" s="54"/>
+      <c r="AB76" s="54"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -6508,13 +6529,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="53" t="s">
         <v>762</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
@@ -6696,22 +6717,22 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
@@ -6828,13 +6849,13 @@
       <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="41"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
@@ -6874,8 +6895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8FE239-7966-4B47-902D-BB193CC8E9D4}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6893,7 +6914,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -6914,7 +6935,7 @@
       <c r="G1" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="48" t="s">
         <v>771</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -6940,39 +6961,39 @@
         <v>762</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="52"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="49" t="s">
         <v>1084</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>1085</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="50" t="s">
         <v>1086</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51" t="s">
         <v>1087</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="50" t="s">
         <v>1088</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="50" t="s">
         <v>1089</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="50" t="s">
         <v>1090</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="50" t="s">
         <v>1091</v>
       </c>
-      <c r="L4" s="54"/>
+      <c r="L4" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7014,11 +7035,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -7323,13 +7344,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="53" t="s">
         <v>762</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
@@ -7431,10 +7452,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="53"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -7680,11 +7701,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8066,17 +8087,17 @@
       <c r="F35" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="54" t="s">
         <v>762</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -8108,6 +8129,14 @@
       </c>
       <c r="D41" t="s">
         <v>848</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -8330,16 +8359,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="53" t="s">
         <v>762</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
@@ -8428,11 +8457,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R182"/>
+  <dimension ref="A1:R186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8588,11 +8617,11 @@
       </c>
       <c r="H5" s="34" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/10/2023</v>
+        <v>01/12/2023</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/10/2023</v>
+        <v>01/12/2023</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -11642,25 +11671,25 @@
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A128" s="49" t="s">
+      <c r="A128" s="54" t="s">
         <v>762</v>
       </c>
-      <c r="B128" s="49"/>
-      <c r="C128" s="49"/>
-      <c r="D128" s="49"/>
-      <c r="E128" s="49"/>
-      <c r="F128" s="49"/>
-      <c r="G128" s="49"/>
-      <c r="H128" s="49"/>
-      <c r="I128" s="49"/>
-      <c r="J128" s="49"/>
-      <c r="K128" s="49"/>
-      <c r="L128" s="49"/>
-      <c r="M128" s="49"/>
-      <c r="N128" s="49"/>
-      <c r="O128" s="49"/>
-      <c r="P128" s="49"/>
-      <c r="Q128" s="49"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="54"/>
+      <c r="F128" s="54"/>
+      <c r="G128" s="54"/>
+      <c r="H128" s="54"/>
+      <c r="I128" s="54"/>
+      <c r="J128" s="54"/>
+      <c r="K128" s="54"/>
+      <c r="L128" s="54"/>
+      <c r="M128" s="54"/>
+      <c r="N128" s="54"/>
+      <c r="O128" s="54"/>
+      <c r="P128" s="54"/>
+      <c r="Q128" s="54"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
@@ -12395,6 +12424,32 @@
       </c>
       <c r="P182" t="s">
         <v>605</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E183" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>1098</v>
       </c>
     </row>
   </sheetData>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB430CD-906F-438B-9588-E4CE8687DF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0036AC-51A9-4388-B50C-115C06CD3BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1177">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -3344,6 +3344,240 @@
   </si>
   <si>
     <t>AMNNR_Activity058</t>
+  </si>
+  <si>
+    <t>RG Meeting Notes Notification Reminder</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity001</t>
+  </si>
+  <si>
+    <t>Seminar1.0</t>
+  </si>
+  <si>
+    <t>Dealroom1.3+Max@gmail.com,Dealroom1.3+Martha@gmail.com,dealroom1.3+con9@gmail.com</t>
+  </si>
+  <si>
+    <t>Revenue Grid Event</t>
+  </si>
+  <si>
+    <t>Advance_Start_Time</t>
+  </si>
+  <si>
+    <t>Advance_End_Time</t>
+  </si>
+  <si>
+    <t>con 9</t>
+  </si>
+  <si>
+    <t>RGMeeting Notes Notification Reminder</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Con5</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Con1</t>
+  </si>
+  <si>
+    <t>Martha&lt;break&gt;Max&lt;break&gt;+3</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Acuity001</t>
+  </si>
+  <si>
+    <t>Event 1.0&lt;Section&gt;Event 2.0</t>
+  </si>
+  <si>
+    <t>Dealroom1.3+James@gmail.com</t>
+  </si>
+  <si>
+    <t>Dealroom1.3+Litz@gmail.com</t>
+  </si>
+  <si>
+    <t>2:00 PM&lt;Section&gt;4:00 PM</t>
+  </si>
+  <si>
+    <t>3:00 PM&lt;Section&gt;5:00 PM</t>
+  </si>
+  <si>
+    <t>Sumo Logic&lt;break&gt;Maxjonic&lt;Section&gt;Nexus&lt;break&gt;Demo Deal&lt;break&gt;Acc 1</t>
+  </si>
+  <si>
+    <t>Litz</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Record001</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Record002</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity002</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity003</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity004</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Con2</t>
+  </si>
+  <si>
+    <t>Seminar</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Acuity002</t>
+  </si>
+  <si>
+    <t>Max&lt;break&gt;Martha&lt;break&gt;con 9&lt;break&gt;</t>
+  </si>
+  <si>
+    <t>Seminar Done</t>
+  </si>
+  <si>
+    <t>Houlihan Lokey&lt;break&gt;Sumo Logic</t>
+  </si>
+  <si>
+    <t>Houlihan Lokey</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Record003</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity005</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity006</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity007</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Record004</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Record005</t>
+  </si>
+  <si>
+    <t>Con 1</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Con3</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Record006</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity008</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Con4</t>
+  </si>
+  <si>
+    <t>Lomez and Vertica Houlihan Lokey can be considered as good opportunity.</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity009</t>
+  </si>
+  <si>
+    <t>Vertica&lt;break&gt;Houlihan Lokey&lt;break&gt;Lomez</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Deal Booking Event 1</t>
+  </si>
+  <si>
+    <t>Dealroom1.3+James@gmail.com,Dealroom1.3+Jhon@gmail.com</t>
+  </si>
+  <si>
+    <t>As per your info tagging Account Houlihan Lokey, Acc 11 and Contact  Lomez too.</t>
+  </si>
+  <si>
+    <t>Houlihan Lokey&lt;break&gt;Acc 11&lt;break&gt;Lomez</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity010</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity011</t>
+  </si>
+  <si>
+    <t>Opportunity 1</t>
+  </si>
+  <si>
+    <t>Dealroom1.3+James@gmail.com;</t>
+  </si>
+  <si>
+    <t>Maxjonic&lt;break&gt;Sumo Logic&lt;break&gt;Vertica&lt;break&gt;Demo Deal</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity012</t>
+  </si>
+  <si>
+    <t>Deal Closing</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity013</t>
+  </si>
+  <si>
+    <t>Dealroom1.3+Max@gmail.com,Dealroom1.3+Martha@gmail.com</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Con6</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity014</t>
+  </si>
+  <si>
+    <t>Announcing RampUp 2022 speakers and more +1</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity015</t>
+  </si>
+  <si>
+    <t>This event will have your Business circles talking +3</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity016</t>
+  </si>
+  <si>
+    <t>Join all major influencers</t>
+  </si>
+  <si>
+    <t>Dealroom1.3+Lomez@gmail.com,</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity017</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity018</t>
+  </si>
+  <si>
+    <t>Lomez</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Con7</t>
+  </si>
+  <si>
+    <t>RGAMNNR_LV1</t>
+  </si>
+  <si>
+    <t>Updated This event will have your Business circles talking +3</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity019</t>
   </si>
 </sst>
 </file>
@@ -3512,7 +3746,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3633,6 +3867,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4146,11 +4381,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AB107"/>
+  <dimension ref="A1:AB113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6337,9 +6572,58 @@
         <v>1075</v>
       </c>
     </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A111" s="54" t="s">
+        <v>762</v>
+      </c>
+      <c r="B111" s="54"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+      <c r="N111" s="54"/>
+      <c r="O111" s="54"/>
+      <c r="P111" s="54"/>
+      <c r="Q111" s="54"/>
+      <c r="R111" s="54"/>
+      <c r="S111" s="54"/>
+      <c r="T111" s="54"/>
+      <c r="U111" s="54"/>
+      <c r="V111" s="54"/>
+      <c r="W111" s="54"/>
+      <c r="X111" s="54"/>
+      <c r="Y111" s="54"/>
+      <c r="Z111" s="54"/>
+      <c r="AA111" s="54"/>
+      <c r="AB111" s="54"/>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>912</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A76:AB76"/>
+    <mergeCell ref="A111:AB111"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6893,10 +7177,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8FE239-7966-4B47-902D-BB193CC8E9D4}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6995,6 +7279,50 @@
       </c>
       <c r="L4" s="50"/>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L8" s="50"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7003,11 +7331,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48:E55"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7352,7 +7680,7 @@
       <c r="D48" s="53"/>
       <c r="E48" s="53"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>791</v>
       </c>
@@ -7363,7 +7691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>797</v>
       </c>
@@ -7374,7 +7702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>862</v>
       </c>
@@ -7385,7 +7713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>956</v>
       </c>
@@ -7396,7 +7724,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>972</v>
       </c>
@@ -7407,7 +7735,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1072</v>
       </c>
@@ -7418,10 +7746,86 @@
         <v>955</v>
       </c>
     </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="53" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>954</v>
+      </c>
+      <c r="C60" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C62" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>786</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B64" t="s">
+        <v>861</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B65" t="s">
+        <v>795</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A59:E59"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7701,11 +8105,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8139,9 +8543,79 @@
         <v>1093</v>
       </c>
     </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="54" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D48" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1172</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A44:I44"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -8159,7 +8633,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8457,11 +8931,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R186"/>
+  <dimension ref="A1:U210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H182" sqref="H182"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8485,7 +8959,7 @@
     <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8537,9 +9011,20 @@
       <c r="Q1" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R1" s="32" t="s">
+        <v>1104</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8553,7 +9038,7 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8569,7 +9054,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -8596,7 +9081,7 @@
       </c>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -8617,14 +9102,14 @@
       </c>
       <c r="H5" s="34" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/12/2023</v>
+        <v>01/13/2023</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/12/2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>01/13/2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -8648,7 +9133,7 @@
       </c>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -8659,7 +9144,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -8667,7 +9152,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -8691,7 +9176,7 @@
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -8715,7 +9200,7 @@
       </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -8735,7 +9220,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -8743,7 +9228,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -8751,7 +9236,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -8771,7 +9256,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -8791,7 +9276,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>221</v>
       </c>
@@ -12342,7 +12827,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>989</v>
       </c>
@@ -12350,7 +12835,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>1059</v>
       </c>
@@ -12370,7 +12855,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>1064</v>
       </c>
@@ -12378,7 +12863,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1066</v>
       </c>
@@ -12395,7 +12880,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>1069</v>
       </c>
@@ -12403,7 +12888,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>1071</v>
       </c>
@@ -12426,7 +12911,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>1095</v>
       </c>
@@ -12437,24 +12922,317 @@
         <v>833</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>1098</v>
       </c>
     </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A190" s="54" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B190" s="54"/>
+      <c r="C190" s="54"/>
+      <c r="D190" s="54"/>
+      <c r="E190" s="54"/>
+      <c r="F190" s="54"/>
+      <c r="G190" s="54"/>
+      <c r="H190" s="54"/>
+      <c r="I190" s="54"/>
+      <c r="J190" s="54"/>
+      <c r="K190" s="54"/>
+      <c r="L190" s="54"/>
+      <c r="M190" s="54"/>
+      <c r="N190" s="54"/>
+      <c r="O190" s="54"/>
+      <c r="P190" s="54"/>
+      <c r="Q190" s="54"/>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1102</v>
+      </c>
+      <c r="R191" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="S191" s="56">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T191" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R192" t="s">
+        <v>1115</v>
+      </c>
+      <c r="S192" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1102</v>
+      </c>
+      <c r="R195" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="S195" s="56">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T195" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1130</v>
+      </c>
+      <c r="U197" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E198" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D199" s="20" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E200" s="45" t="s">
+        <v>1149</v>
+      </c>
+      <c r="R200" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="S200" s="56">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T200" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D201" s="20" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1156</v>
+      </c>
+      <c r="R202" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="S202" s="56">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T202" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E204" s="20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="R204" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="S204" s="56">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T204" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1164</v>
+      </c>
+      <c r="R205" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="S205" s="56">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T205" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1114</v>
+      </c>
+      <c r="R206" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="S206" s="56">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T206" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1169</v>
+      </c>
+      <c r="R207" s="56">
+        <v>0.75</v>
+      </c>
+      <c r="S207" s="56">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T207" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E208" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C210" t="s">
+        <v>984</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A128:Q128"/>
+    <mergeCell ref="A190:Q190"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -12464,9 +13242,10 @@
     <hyperlink ref="E116" r:id="rId4" xr:uid="{3CA6C566-D314-4EC2-B847-CB665BB75CA9}"/>
     <hyperlink ref="E118" r:id="rId5" xr:uid="{F46D77DF-72F6-45AE-8693-98792350DBB0}"/>
     <hyperlink ref="E119" r:id="rId6" xr:uid="{2D6ECF79-4A7B-4972-A550-36CCB7EA47F9}"/>
+    <hyperlink ref="E200" r:id="rId7" xr:uid="{000D546D-1077-4AF1-947E-7413E3AA0490}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0036AC-51A9-4388-B50C-115C06CD3BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44EA6A3-0CA3-4E72-8090-2D970D241115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomMetaData" sheetId="15" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="1202">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -3114,9 +3114,6 @@
     <t>1investorportal+testcontactrg1@gmail.com,1investorportal+testcontactrg2@gmail.com&lt;userBreak&gt;user 1&lt;b&gt;user 2&lt;b&gt;user 3</t>
   </si>
   <si>
-    <t>12/17/2022</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -3174,9 +3171,6 @@
     <t>Sumo Logic Revnue Event 6</t>
   </si>
   <si>
-    <t>1investorportal+testcontactrg1@gmail.com,1investorportal+testcontactrg2@gmail.com,jacob@cypressgroup-ng.com</t>
-  </si>
-  <si>
     <t>RGATE_007</t>
   </si>
   <si>
@@ -3207,19 +3201,10 @@
     <t>Mark Tulip</t>
   </si>
   <si>
-    <t>Ben Stokes&lt;break&gt;Mark Tulip&lt;break&gt;+3</t>
-  </si>
-  <si>
-    <t>Daniel&lt;break&gt;Liam&lt;break&gt;user 1</t>
-  </si>
-  <si>
     <t>RGATE002</t>
   </si>
   <si>
     <t>Daniel</t>
-  </si>
-  <si>
-    <t>Ben Stokes&lt;break&gt;Mark Tulip&lt;break&gt;+5</t>
   </si>
   <si>
     <t>RGATE003</t>
@@ -3578,6 +3563,96 @@
   </si>
   <si>
     <t>RGAMNNR_Activity019</t>
+  </si>
+  <si>
+    <t>Navatar</t>
+  </si>
+  <si>
+    <t>Email Contact</t>
+  </si>
+  <si>
+    <t>12/21/2022</t>
+  </si>
+  <si>
+    <t>12/14/2022</t>
+  </si>
+  <si>
+    <t>1investorportal+testcontactrg1@gmail.com,1investorportal+testcontactrg2@gmail.com,automation-testnavatar@railworks-ng.com</t>
+  </si>
+  <si>
+    <t>RG Email Task Acuity (Task and Event)</t>
+  </si>
+  <si>
+    <t>RGATE_E001</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Email: RG Email Test 1</t>
+  </si>
+  <si>
+    <t>RGATE_E002</t>
+  </si>
+  <si>
+    <t>Email: RG Email Test 2</t>
+  </si>
+  <si>
+    <t>RGATE_E003</t>
+  </si>
+  <si>
+    <t>Email: RG Email Test 3</t>
+  </si>
+  <si>
+    <t>user 4</t>
+  </si>
+  <si>
+    <t>Ben Stokes&lt;break&gt;Mark Tulip&lt;break&gt;+4</t>
+  </si>
+  <si>
+    <t>RG User&lt;break&gt;user 1&lt;break&gt;user 2&lt;break&gt;user 3</t>
+  </si>
+  <si>
+    <t>user 5</t>
+  </si>
+  <si>
+    <t>Ben Stokes&lt;break&gt;Mark Tulip&lt;break&gt;+6</t>
+  </si>
+  <si>
+    <t>RG User&lt;break&gt;user 1&lt;break&gt;user 2&lt;break&gt;user 3&lt;break&gt;user 4&lt;break&gt;user 5</t>
+  </si>
+  <si>
+    <t>railworks-ng.com</t>
+  </si>
+  <si>
+    <t>automation-testnavatar</t>
+  </si>
+  <si>
+    <t>RGATE004</t>
+  </si>
+  <si>
+    <t>Test RG Account 1</t>
+  </si>
+  <si>
+    <t>RGATE005</t>
+  </si>
+  <si>
+    <t>RGATE006</t>
+  </si>
+  <si>
+    <t>automation-test</t>
+  </si>
+  <si>
+    <t>RGATE007</t>
+  </si>
+  <si>
+    <t>RGATE008</t>
+  </si>
+  <si>
+    <t>RGATE_Fund02</t>
+  </si>
+  <si>
+    <t>Navatar Fund 1</t>
   </si>
 </sst>
 </file>
@@ -3855,6 +3930,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3867,7 +3943,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4156,14 +4231,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="26.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4177,7 +4252,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>692</v>
       </c>
@@ -4188,7 +4263,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>695</v>
       </c>
@@ -4202,7 +4277,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>698</v>
       </c>
@@ -4216,7 +4291,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>701</v>
       </c>
@@ -4227,7 +4302,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>704</v>
       </c>
@@ -4238,7 +4313,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>707</v>
       </c>
@@ -4249,7 +4324,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>710</v>
       </c>
@@ -4260,7 +4335,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>713</v>
       </c>
@@ -4271,7 +4346,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>716</v>
       </c>
@@ -4282,7 +4357,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>719</v>
       </c>
@@ -4299,7 +4374,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>720</v>
       </c>
@@ -4316,7 +4391,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>721</v>
       </c>
@@ -4333,7 +4408,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>728</v>
       </c>
@@ -4344,7 +4419,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>729</v>
       </c>
@@ -4361,7 +4436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>730</v>
       </c>
@@ -4381,44 +4456,44 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AB113"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.36328125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.54296875" customWidth="1" collapsed="1"/>
-    <col min="19" max="21" width="17.36328125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="48.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="33.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="61.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="21" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="33.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="61.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="40" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="69" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="35.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4504,7 +4579,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4529,7 +4604,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -4543,7 +4618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -4557,7 +4632,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -4571,7 +4646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -4585,7 +4660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4610,7 +4685,7 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4621,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -4632,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -4643,7 +4718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -4660,7 +4735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4689,7 +4764,7 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>293</v>
       </c>
@@ -4736,7 +4811,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>301</v>
       </c>
@@ -4789,7 +4864,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>330</v>
       </c>
@@ -4809,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>345</v>
       </c>
@@ -4868,7 +4943,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>356</v>
       </c>
@@ -4927,7 +5002,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>366</v>
       </c>
@@ -4983,7 +5058,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>367</v>
       </c>
@@ -5036,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>368</v>
       </c>
@@ -5089,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>369</v>
       </c>
@@ -5142,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -5195,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>382</v>
       </c>
@@ -5248,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>383</v>
       </c>
@@ -5301,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>387</v>
       </c>
@@ -5354,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>388</v>
       </c>
@@ -5407,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>389</v>
       </c>
@@ -5460,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>401</v>
       </c>
@@ -5513,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>402</v>
       </c>
@@ -5566,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>403</v>
       </c>
@@ -5604,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>404</v>
       </c>
@@ -5642,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>405</v>
       </c>
@@ -5680,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>406</v>
       </c>
@@ -5718,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>407</v>
       </c>
@@ -5756,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>408</v>
       </c>
@@ -5794,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>409</v>
       </c>
@@ -5832,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>410</v>
       </c>
@@ -5855,7 +5930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -5878,7 +5953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>412</v>
       </c>
@@ -5901,7 +5976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>413</v>
       </c>
@@ -5924,7 +5999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>414</v>
       </c>
@@ -5947,7 +6022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>415</v>
       </c>
@@ -5964,7 +6039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>416</v>
       </c>
@@ -5981,7 +6056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>616</v>
       </c>
@@ -5998,7 +6073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>624</v>
       </c>
@@ -6015,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>634</v>
       </c>
@@ -6032,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>637</v>
       </c>
@@ -6043,7 +6118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>638</v>
       </c>
@@ -6054,7 +6129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>645</v>
       </c>
@@ -6065,7 +6140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>646</v>
       </c>
@@ -6076,7 +6151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>667</v>
       </c>
@@ -6087,7 +6162,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>668</v>
       </c>
@@ -6098,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>669</v>
       </c>
@@ -6109,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>679</v>
       </c>
@@ -6120,7 +6195,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>680</v>
       </c>
@@ -6131,7 +6206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>681</v>
       </c>
@@ -6142,7 +6217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>682</v>
       </c>
@@ -6153,7 +6228,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>683</v>
       </c>
@@ -6164,7 +6239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -6196,24 +6271,24 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>1049</v>
       </c>
-      <c r="B70" t="s">
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="H70" t="s">
         <v>1050</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E70">
-        <v>4</v>
-      </c>
-      <c r="H70" t="s">
-        <v>1052</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -6224,16 +6299,25 @@
       <c r="L70">
         <v>0</v>
       </c>
+      <c r="Q70" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
       <c r="AA70" t="s">
-        <v>1053</v>
+        <v>1186</v>
       </c>
       <c r="AB70" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.35">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B71" t="s">
         <v>992</v>
@@ -6242,13 +6326,13 @@
         <v>1</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -6256,374 +6340,474 @@
       <c r="K71">
         <v>1</v>
       </c>
+      <c r="Q71" t="s">
+        <v>1188</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
       <c r="AA71" t="s">
-        <v>1057</v>
+        <v>1189</v>
       </c>
       <c r="AB71" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.35">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>1058</v>
+        <v>1053</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A76" s="54" t="s">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B76" t="s">
+        <v>998</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>997</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A80" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="54"/>
-      <c r="S76" s="54"/>
-      <c r="T76" s="54"/>
-      <c r="U76" s="54"/>
-      <c r="V76" s="54"/>
-      <c r="W76" s="54"/>
-      <c r="X76" s="54"/>
-      <c r="Y76" s="54"/>
-      <c r="Z76" s="54"/>
-      <c r="AA76" s="54"/>
-      <c r="AB76" s="54"/>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="55"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="55"/>
+      <c r="S80" s="55"/>
+      <c r="T80" s="55"/>
+      <c r="U80" s="55"/>
+      <c r="V80" s="55"/>
+      <c r="W80" s="55"/>
+      <c r="X80" s="55"/>
+      <c r="Y80" s="55"/>
+      <c r="Z80" s="55"/>
+      <c r="AA80" s="55"/>
+      <c r="AB80" s="55"/>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>789</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AA81" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>801</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AA82" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>802</v>
       </c>
-      <c r="AA79" t="s">
+      <c r="AA83" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>812</v>
       </c>
-      <c r="AA80" t="s">
+      <c r="AA84" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>814</v>
       </c>
-      <c r="AA81" t="s">
+      <c r="AA85" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>826</v>
       </c>
-      <c r="AA82" t="s">
+      <c r="AA86" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>827</v>
       </c>
-      <c r="AA83" t="s">
+      <c r="AA87" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>842</v>
       </c>
-      <c r="AA84" t="s">
+      <c r="AA88" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>843</v>
       </c>
-      <c r="AA85" t="s">
+      <c r="AA89" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>855</v>
       </c>
-      <c r="AA86" t="s">
+      <c r="AA90" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>856</v>
       </c>
-      <c r="AA87" t="s">
+      <c r="AA91" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>864</v>
       </c>
-      <c r="AA88" t="s">
+      <c r="AA92" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>882</v>
       </c>
-      <c r="AA89" t="s">
+      <c r="AA93" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>883</v>
       </c>
-      <c r="AA90" t="s">
+      <c r="AA94" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>887</v>
       </c>
-      <c r="AA91" t="s">
+      <c r="AA95" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>899</v>
       </c>
-      <c r="AA92" t="s">
+      <c r="AA96" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>900</v>
       </c>
-      <c r="AA93" t="s">
+      <c r="AA97" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>909</v>
       </c>
-      <c r="AA94" t="s">
+      <c r="AA98" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>919</v>
       </c>
-      <c r="AA95" t="s">
+      <c r="AA99" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>920</v>
       </c>
-      <c r="AA96" t="s">
+      <c r="AA100" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>929</v>
       </c>
-      <c r="AA97" t="s">
+      <c r="AA101" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>930</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AA102" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>961</v>
       </c>
-      <c r="AA99" t="s">
+      <c r="AA103" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>962</v>
       </c>
-      <c r="AA100" t="s">
+      <c r="AA104" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>963</v>
       </c>
-      <c r="AA101" t="s">
+      <c r="AA105" t="s">
         <v>895</v>
       </c>
-      <c r="AB101" t="s">
+      <c r="AB105" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>964</v>
-      </c>
-      <c r="AA102" t="s">
-        <v>898</v>
-      </c>
-      <c r="AB102" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>965</v>
-      </c>
-      <c r="AA103" t="s">
-        <v>895</v>
-      </c>
-      <c r="AB103" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>982</v>
-      </c>
-      <c r="AA104" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>983</v>
-      </c>
-      <c r="AA105" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>990</v>
       </c>
       <c r="AA106" t="s">
         <v>898</v>
       </c>
       <c r="AB106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>965</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>895</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>982</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>983</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>990</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>898</v>
+      </c>
+      <c r="AB110" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AA107" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A111" s="54" t="s">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A115" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="B111" s="54"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="54"/>
-      <c r="O111" s="54"/>
-      <c r="P111" s="54"/>
-      <c r="Q111" s="54"/>
-      <c r="R111" s="54"/>
-      <c r="S111" s="54"/>
-      <c r="T111" s="54"/>
-      <c r="U111" s="54"/>
-      <c r="V111" s="54"/>
-      <c r="W111" s="54"/>
-      <c r="X111" s="54"/>
-      <c r="Y111" s="54"/>
-      <c r="Z111" s="54"/>
-      <c r="AA111" s="54"/>
-      <c r="AB111" s="54"/>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AA112" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AA113" t="s">
+      <c r="B115" s="55"/>
+      <c r="C115" s="55"/>
+      <c r="D115" s="55"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="55"/>
+      <c r="G115" s="55"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="55"/>
+      <c r="J115" s="55"/>
+      <c r="K115" s="55"/>
+      <c r="L115" s="55"/>
+      <c r="M115" s="55"/>
+      <c r="N115" s="55"/>
+      <c r="O115" s="55"/>
+      <c r="P115" s="55"/>
+      <c r="Q115" s="55"/>
+      <c r="R115" s="55"/>
+      <c r="S115" s="55"/>
+      <c r="T115" s="55"/>
+      <c r="U115" s="55"/>
+      <c r="V115" s="55"/>
+      <c r="W115" s="55"/>
+      <c r="X115" s="55"/>
+      <c r="Y115" s="55"/>
+      <c r="Z115" s="55"/>
+      <c r="AA115" s="55"/>
+      <c r="AB115" s="55"/>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AA117" t="s">
         <v>912</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A76:AB76"/>
-    <mergeCell ref="A111:AB111"/>
+    <mergeCell ref="A80:AB80"/>
+    <mergeCell ref="A115:AB115"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6639,14 +6823,14 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="72.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="72.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6657,7 +6841,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -6680,19 +6864,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6709,7 +6893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -6723,7 +6907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>225</v>
       </c>
@@ -6738,7 +6922,7 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>227</v>
       </c>
@@ -6749,7 +6933,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>229</v>
       </c>
@@ -6766,7 +6950,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6775,7 +6959,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>738</v>
       </c>
@@ -6789,7 +6973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6798,7 +6982,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>738</v>
       </c>
@@ -6812,16 +6996,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="53" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
         <v>762</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>776</v>
       </c>
@@ -6852,24 +7050,24 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.08984375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.90625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6913,7 +7111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -6924,7 +7122,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>240</v>
       </c>
@@ -6952,7 +7150,7 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>245</v>
       </c>
@@ -6972,7 +7170,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>247</v>
       </c>
@@ -7000,25 +7198,25 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="55" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
         <v>762</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>775</v>
       </c>
@@ -7059,13 +7257,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7076,7 +7274,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>650</v>
       </c>
@@ -7100,15 +7298,15 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="26.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -7125,21 +7323,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
         <v>762</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="41"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
@@ -7148,7 +7346,7 @@
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>778</v>
       </c>
@@ -7179,25 +7377,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8FE239-7966-4B47-902D-BB193CC8E9D4}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="16.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="23.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -7208,34 +7406,34 @@
         <v>299</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="H1" s="48" t="s">
         <v>771</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7249,77 +7447,77 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
       <c r="F4" s="51" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="J4" s="50"/>
       <c r="K4" s="50" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="L4" s="50"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="48"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
       <c r="F8" s="51" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="J8" s="50"/>
       <c r="K8" s="50" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="L8" s="50"/>
     </row>
@@ -7334,18 +7532,18 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.36328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.36328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7362,14 +7560,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7380,7 +7578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -7388,7 +7586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -7396,7 +7594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -7404,7 +7602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -7412,7 +7610,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -7420,7 +7618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -7428,7 +7626,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -7436,7 +7634,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -7444,7 +7642,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -7455,7 +7653,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -7463,7 +7661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -7471,7 +7669,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>155</v>
       </c>
@@ -7482,7 +7680,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>156</v>
       </c>
@@ -7491,7 +7689,7 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>157</v>
       </c>
@@ -7500,7 +7698,7 @@
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>158</v>
       </c>
@@ -7513,7 +7711,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>159</v>
       </c>
@@ -7530,7 +7728,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>278</v>
       </c>
@@ -7538,7 +7736,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>283</v>
       </c>
@@ -7546,14 +7744,14 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
         <v>292</v>
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>295</v>
       </c>
@@ -7561,7 +7759,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>310</v>
       </c>
@@ -7569,7 +7767,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>316</v>
       </c>
@@ -7577,7 +7775,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>376</v>
       </c>
@@ -7585,7 +7783,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>381</v>
       </c>
@@ -7593,7 +7791,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>653</v>
       </c>
@@ -7601,7 +7799,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>654</v>
       </c>
@@ -7609,7 +7807,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>655</v>
       </c>
@@ -7617,7 +7815,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>662</v>
       </c>
@@ -7625,7 +7823,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>687</v>
       </c>
@@ -7633,7 +7831,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="15" t="s">
         <v>740</v>
@@ -7641,7 +7839,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>741</v>
       </c>
@@ -7652,7 +7850,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>991</v>
       </c>
@@ -7660,7 +7858,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>993</v>
       </c>
@@ -7671,16 +7869,16 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="53" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="54" t="s">
         <v>762</v>
       </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>791</v>
       </c>
@@ -7691,7 +7889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>797</v>
       </c>
@@ -7702,7 +7900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>862</v>
       </c>
@@ -7713,7 +7911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>956</v>
       </c>
@@ -7724,7 +7922,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>972</v>
       </c>
@@ -7735,29 +7933,29 @@
         <v>971</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="B55" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C55" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="53" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="54" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B60" t="s">
         <v>954</v>
@@ -7766,31 +7964,31 @@
         <v>955</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B61" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C61" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="B62" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="C62" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="B63" t="s">
         <v>786</v>
@@ -7799,9 +7997,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="B64" t="s">
         <v>861</v>
@@ -7810,9 +8008,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="B65" t="s">
         <v>795</v>
@@ -7841,13 +8039,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7855,13 +8053,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="53"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="54"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -7869,7 +8067,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -7877,7 +8075,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -7885,7 +8083,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -7893,7 +8091,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -7917,21 +8115,21 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -7963,7 +8161,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12" t="s">
@@ -7977,7 +8175,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -7989,7 +8187,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>269</v>
       </c>
@@ -8001,7 +8199,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>261</v>
       </c>
@@ -8013,7 +8211,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>262</v>
       </c>
@@ -8025,7 +8223,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>263</v>
       </c>
@@ -8037,7 +8235,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>264</v>
       </c>
@@ -8049,7 +8247,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>265</v>
       </c>
@@ -8061,7 +8259,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>266</v>
       </c>
@@ -8073,7 +8271,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>267</v>
       </c>
@@ -8085,7 +8283,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>268</v>
       </c>
@@ -8108,21 +8306,21 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.453125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="117" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8151,7 +8349,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8162,7 +8360,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8175,7 +8373,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -8192,7 +8390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -8200,7 +8398,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -8208,7 +8406,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -8216,7 +8414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -8236,7 +8434,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -8244,7 +8442,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -8252,7 +8450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>182</v>
       </c>
@@ -8277,7 +8475,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>188</v>
       </c>
@@ -8292,7 +8490,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>192</v>
       </c>
@@ -8307,7 +8505,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>193</v>
       </c>
@@ -8330,7 +8528,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>194</v>
       </c>
@@ -8349,7 +8547,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -8357,7 +8555,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -8365,7 +8563,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>287</v>
       </c>
@@ -8373,7 +8571,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8386,7 +8584,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>309</v>
       </c>
@@ -8394,7 +8592,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -8402,7 +8600,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>314</v>
       </c>
@@ -8410,7 +8608,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>380</v>
       </c>
@@ -8418,7 +8616,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>656</v>
       </c>
@@ -8429,7 +8627,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>657</v>
       </c>
@@ -8440,7 +8638,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -8453,7 +8651,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>745</v>
       </c>
@@ -8473,12 +8671,15 @@
         <v>748</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>996</v>
       </c>
+      <c r="B34" t="s">
+        <v>1172</v>
+      </c>
       <c r="C34" t="s">
-        <v>997</v>
+        <v>1173</v>
       </c>
       <c r="E34" t="s">
         <v>998</v>
@@ -8487,23 +8688,23 @@
         <v>999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F35" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="54" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>808</v>
       </c>
@@ -8511,7 +8712,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>825</v>
       </c>
@@ -8519,7 +8720,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>844</v>
       </c>
@@ -8527,7 +8728,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>857</v>
       </c>
@@ -8535,81 +8736,81 @@
         <v>848</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D42" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="54" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="55" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="D45" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="D46" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="D47" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="D48" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="D49" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="D50" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="D51" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
@@ -8621,8 +8822,8 @@
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="F33" r:id="rId3" xr:uid="{CD047146-152A-4420-B7F6-21A0F218F29D}"/>
-    <hyperlink ref="F34" r:id="rId4" xr:uid="{975335D4-513B-435B-811B-652E421A9770}"/>
+    <hyperlink ref="F33" r:id="rId3" xr:uid="{964C10C3-D24A-462A-B248-93FDCB78779D}"/>
+    <hyperlink ref="F34" r:id="rId4" xr:uid="{9198A1B9-DD72-4E16-A0FB-173CC734A72E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8633,18 +8834,18 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8670,7 +8871,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -8684,7 +8885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -8698,7 +8899,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>200</v>
       </c>
@@ -8722,7 +8923,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>202</v>
       </c>
@@ -8736,7 +8937,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>208</v>
       </c>
@@ -8756,7 +8957,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
@@ -8768,7 +8969,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>659</v>
       </c>
@@ -8776,7 +8977,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>661</v>
       </c>
@@ -8784,7 +8985,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>688</v>
       </c>
@@ -8792,7 +8993,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
@@ -8804,7 +9005,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>750</v>
       </c>
@@ -8818,7 +9019,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1000</v>
       </c>
@@ -8832,19 +9033,19 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="53" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
         <v>762</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>777</v>
       </c>
@@ -8879,16 +9080,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8905,7 +9106,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -8931,35 +9132,35 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U210"/>
+  <dimension ref="A1:U214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G207" sqref="G207"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.08984375" style="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.90625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.1796875" style="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.109375" style="20" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.21875" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9012,19 +9213,19 @@
         <v>782</v>
       </c>
       <c r="R1" s="32" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="S1" s="32" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>132</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -9038,7 +9239,7 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -9054,7 +9255,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -9081,7 +9282,7 @@
       </c>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -9102,14 +9303,14 @@
       </c>
       <c r="H5" s="34" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/13/2023</v>
+        <v>01/14/2023</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/13/2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+        <v>01/14/2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -9133,7 +9334,7 @@
       </c>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -9144,7 +9345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -9152,7 +9353,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -9176,7 +9377,7 @@
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -9200,7 +9401,7 @@
       </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -9220,7 +9421,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -9228,7 +9429,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -9236,7 +9437,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -9256,7 +9457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -9276,7 +9477,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>221</v>
       </c>
@@ -9297,7 +9498,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>222</v>
       </c>
@@ -9318,7 +9519,7 @@
       <c r="H17" s="35"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>223</v>
       </c>
@@ -9339,7 +9540,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>224</v>
       </c>
@@ -9360,7 +9561,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -9376,7 +9577,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>318</v>
       </c>
@@ -9410,7 +9611,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>341</v>
       </c>
@@ -9442,7 +9643,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>357</v>
       </c>
@@ -9477,7 +9678,7 @@
       </c>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>372</v>
       </c>
@@ -9513,7 +9714,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>377</v>
       </c>
@@ -9549,7 +9750,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>499</v>
       </c>
@@ -9577,7 +9778,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>500</v>
       </c>
@@ -9605,7 +9806,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>501</v>
       </c>
@@ -9633,7 +9834,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>502</v>
       </c>
@@ -9661,7 +9862,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>503</v>
       </c>
@@ -9689,7 +9890,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>504</v>
       </c>
@@ -9717,7 +9918,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>505</v>
       </c>
@@ -9745,7 +9946,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>506</v>
       </c>
@@ -9773,7 +9974,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>507</v>
       </c>
@@ -9801,7 +10002,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:14" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>508</v>
       </c>
@@ -9829,7 +10030,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>509</v>
       </c>
@@ -9857,7 +10058,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>510</v>
       </c>
@@ -9885,7 +10086,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>511</v>
       </c>
@@ -9913,7 +10114,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>512</v>
       </c>
@@ -9941,7 +10142,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>513</v>
       </c>
@@ -9969,7 +10170,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>514</v>
       </c>
@@ -9997,7 +10198,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>515</v>
       </c>
@@ -10025,7 +10226,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>516</v>
       </c>
@@ -10053,7 +10254,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>517</v>
       </c>
@@ -10081,7 +10282,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>518</v>
       </c>
@@ -10109,7 +10310,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>519</v>
       </c>
@@ -10137,7 +10338,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>520</v>
       </c>
@@ -10165,7 +10366,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>521</v>
       </c>
@@ -10193,7 +10394,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>522</v>
       </c>
@@ -10221,7 +10422,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>523</v>
       </c>
@@ -10249,7 +10450,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>524</v>
       </c>
@@ -10277,7 +10478,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>525</v>
       </c>
@@ -10305,7 +10506,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>526</v>
       </c>
@@ -10333,7 +10534,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>527</v>
       </c>
@@ -10361,7 +10562,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>528</v>
       </c>
@@ -10389,7 +10590,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>529</v>
       </c>
@@ -10417,7 +10618,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
         <v>530</v>
       </c>
@@ -10445,7 +10646,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
     </row>
-    <row r="59" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>531</v>
       </c>
@@ -10473,7 +10674,7 @@
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
     </row>
-    <row r="60" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>532</v>
       </c>
@@ -10501,7 +10702,7 @@
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>533</v>
       </c>
@@ -10529,7 +10730,7 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>534</v>
       </c>
@@ -10557,7 +10758,7 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>535</v>
       </c>
@@ -10585,7 +10786,7 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
     </row>
-    <row r="64" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
         <v>536</v>
       </c>
@@ -10613,7 +10814,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
         <v>537</v>
       </c>
@@ -10641,7 +10842,7 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
     </row>
-    <row r="66" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>538</v>
       </c>
@@ -10669,7 +10870,7 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>539</v>
       </c>
@@ -10695,7 +10896,7 @@
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>540</v>
       </c>
@@ -10721,7 +10922,7 @@
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
         <v>541</v>
       </c>
@@ -10747,7 +10948,7 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>542</v>
       </c>
@@ -10775,7 +10976,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>543</v>
       </c>
@@ -10803,7 +11004,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
     </row>
-    <row r="72" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>544</v>
       </c>
@@ -10831,7 +11032,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
     </row>
-    <row r="73" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
         <v>545</v>
       </c>
@@ -10859,7 +11060,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
         <v>546</v>
       </c>
@@ -10887,7 +11088,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
         <v>547</v>
       </c>
@@ -10915,7 +11116,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
     </row>
-    <row r="76" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
         <v>548</v>
       </c>
@@ -10943,7 +11144,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
         <v>549</v>
       </c>
@@ -10971,7 +11172,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
     </row>
-    <row r="78" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
         <v>550</v>
       </c>
@@ -10999,7 +11200,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
     </row>
-    <row r="79" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>551</v>
       </c>
@@ -11027,7 +11228,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
     </row>
-    <row r="80" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A80" s="17" t="s">
         <v>552</v>
       </c>
@@ -11055,7 +11256,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
     </row>
-    <row r="81" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>553</v>
       </c>
@@ -11083,7 +11284,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
     </row>
-    <row r="82" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
         <v>554</v>
       </c>
@@ -11111,7 +11312,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
     </row>
-    <row r="83" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
         <v>555</v>
       </c>
@@ -11139,7 +11340,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
     </row>
-    <row r="84" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A84" s="17" t="s">
         <v>556</v>
       </c>
@@ -11167,7 +11368,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
     </row>
-    <row r="85" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A85" s="17" t="s">
         <v>557</v>
       </c>
@@ -11195,7 +11396,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
     </row>
-    <row r="86" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
         <v>558</v>
       </c>
@@ -11223,7 +11424,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
     </row>
-    <row r="87" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A87" s="17" t="s">
         <v>559</v>
       </c>
@@ -11251,7 +11452,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
     </row>
-    <row r="88" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
         <v>560</v>
       </c>
@@ -11279,7 +11480,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
     </row>
-    <row r="89" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A89" s="17" t="s">
         <v>561</v>
       </c>
@@ -11307,7 +11508,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
     </row>
-    <row r="90" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A90" s="17" t="s">
         <v>562</v>
       </c>
@@ -11335,7 +11536,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
     </row>
-    <row r="91" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A91" s="17" t="s">
         <v>563</v>
       </c>
@@ -11363,7 +11564,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
     </row>
-    <row r="92" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A92" s="17" t="s">
         <v>564</v>
       </c>
@@ -11391,7 +11592,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
     </row>
-    <row r="93" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A93" s="17" t="s">
         <v>565</v>
       </c>
@@ -11419,7 +11620,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
     </row>
-    <row r="94" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A94" s="17" t="s">
         <v>566</v>
       </c>
@@ -11447,7 +11648,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
     </row>
-    <row r="95" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A95" s="17" t="s">
         <v>567</v>
       </c>
@@ -11475,7 +11676,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
     </row>
-    <row r="96" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>568</v>
       </c>
@@ -11503,7 +11704,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
         <v>612</v>
       </c>
@@ -11539,7 +11740,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="17" t="s">
         <v>613</v>
       </c>
@@ -11575,7 +11776,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="s">
         <v>614</v>
       </c>
@@ -11611,7 +11812,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
         <v>617</v>
       </c>
@@ -11647,7 +11848,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
         <v>618</v>
       </c>
@@ -11683,7 +11884,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
         <v>619</v>
       </c>
@@ -11719,7 +11920,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
         <v>625</v>
       </c>
@@ -11755,7 +11956,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
         <v>626</v>
       </c>
@@ -11791,7 +11992,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
         <v>627</v>
       </c>
@@ -11827,7 +12028,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
         <v>642</v>
       </c>
@@ -11863,7 +12064,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
         <v>675</v>
       </c>
@@ -11895,7 +12096,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -11913,7 +12114,7 @@
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
     </row>
-    <row r="113" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1018</v>
       </c>
@@ -11930,68 +12131,68 @@
         <v>1021</v>
       </c>
       <c r="H113" t="s">
-        <v>664</v>
+        <v>758</v>
       </c>
       <c r="I113" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K113" s="8" t="s">
         <v>1022</v>
-      </c>
-      <c r="K113" s="8" t="s">
-        <v>1023</v>
       </c>
       <c r="L113" s="8" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B114" t="s">
         <v>235</v>
       </c>
       <c r="C114" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D114" s="20" t="s">
         <v>1020</v>
       </c>
       <c r="E114" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I114" t="s">
+        <v>756</v>
+      </c>
+      <c r="K114" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="H114" t="s">
-        <v>643</v>
-      </c>
-      <c r="I114" t="s">
-        <v>759</v>
-      </c>
-      <c r="K114" s="8" t="s">
+      <c r="L114" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="L114" s="8" t="s">
+    </row>
+    <row r="115" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>1028</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>1029</v>
       </c>
       <c r="B115" t="s">
         <v>235</v>
       </c>
       <c r="C115" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D115" s="20" t="s">
         <v>1020</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H115" t="s">
-        <v>759</v>
+        <v>1175</v>
       </c>
       <c r="I115" t="s">
-        <v>643</v>
+        <v>756</v>
       </c>
       <c r="K115" s="46">
         <v>-2</v>
@@ -12000,21 +12201,27 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B116" t="s">
         <v>235</v>
       </c>
       <c r="C116" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D116" s="20" t="s">
         <v>1020</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
+      </c>
+      <c r="H116" t="s">
+        <v>758</v>
+      </c>
+      <c r="I116" t="s">
+        <v>758</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -12022,77 +12229,77 @@
       <c r="L116">
         <v>0</v>
       </c>
-      <c r="O116" t="s">
+      <c r="R116" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>1035</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>1036</v>
       </c>
       <c r="B117" t="s">
         <v>235</v>
       </c>
       <c r="C117" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D117" s="20" t="s">
         <v>1020</v>
       </c>
       <c r="E117" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H117" t="s">
+        <v>756</v>
+      </c>
+      <c r="I117" t="s">
+        <v>757</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L117" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="H117" t="s">
-        <v>759</v>
-      </c>
-      <c r="I117" t="s">
-        <v>758</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>1028</v>
-      </c>
-      <c r="L117" s="8" t="s">
+    </row>
+    <row r="118" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>1039</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>1040</v>
       </c>
       <c r="B118" t="s">
         <v>235</v>
       </c>
       <c r="C118" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D118" s="20" t="s">
         <v>1020</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>1042</v>
+        <v>1176</v>
       </c>
       <c r="H118" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="I118" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B119" t="s">
         <v>235</v>
       </c>
       <c r="C119" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D119" s="20" t="s">
         <v>1020</v>
@@ -12100,6 +12307,12 @@
       <c r="E119" s="3" t="s">
         <v>1021</v>
       </c>
+      <c r="H119" t="s">
+        <v>758</v>
+      </c>
+      <c r="I119" t="s">
+        <v>758</v>
+      </c>
       <c r="K119">
         <v>0</v>
       </c>
@@ -12107,13 +12320,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="24"/>
       <c r="E122" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -12126,9 +12339,9 @@
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
     </row>
-    <row r="123" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B123" t="s">
         <v>235</v>
@@ -12137,290 +12350,292 @@
         <v>1019</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H123" t="s">
-        <v>664</v>
+        <v>1175</v>
       </c>
       <c r="I123" t="s">
-        <v>1022</v>
+        <v>756</v>
       </c>
       <c r="K123" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L123" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="L123" s="8" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A128" s="54" t="s">
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E129" s="3"/>
+      <c r="H129"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A132" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="B128" s="54"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="54"/>
-      <c r="F128" s="54"/>
-      <c r="G128" s="54"/>
-      <c r="H128" s="54"/>
-      <c r="I128" s="54"/>
-      <c r="J128" s="54"/>
-      <c r="K128" s="54"/>
-      <c r="L128" s="54"/>
-      <c r="M128" s="54"/>
-      <c r="N128" s="54"/>
-      <c r="O128" s="54"/>
-      <c r="P128" s="54"/>
-      <c r="Q128" s="54"/>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="B132" s="55"/>
+      <c r="C132" s="55"/>
+      <c r="D132" s="55"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="55"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="55"/>
+      <c r="I132" s="55"/>
+      <c r="J132" s="55"/>
+      <c r="K132" s="55"/>
+      <c r="L132" s="55"/>
+      <c r="M132" s="55"/>
+      <c r="N132" s="55"/>
+      <c r="O132" s="55"/>
+      <c r="P132" s="55"/>
+      <c r="Q132" s="55"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>779</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B133" t="s">
         <v>213</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M133" t="s">
         <v>605</v>
       </c>
-      <c r="N129" t="s">
+      <c r="N133" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+    <row r="134" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>783</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C134" t="s">
         <v>784</v>
       </c>
-      <c r="E130" s="20" t="s">
+      <c r="E134" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M134" t="s">
         <v>605</v>
-      </c>
-      <c r="N130" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>788</v>
-      </c>
-      <c r="D131" s="20" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>792</v>
-      </c>
-      <c r="C132" t="s">
-        <v>793</v>
-      </c>
-      <c r="D132" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="E132" t="s">
-        <v>795</v>
-      </c>
-      <c r="G132" t="s">
-        <v>796</v>
-      </c>
-      <c r="M132" t="s">
-        <v>325</v>
-      </c>
-      <c r="N132" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>803</v>
-      </c>
-      <c r="D133" s="20" t="s">
-        <v>798</v>
-      </c>
-      <c r="G133" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>807</v>
-      </c>
-      <c r="C134" t="s">
-        <v>805</v>
-      </c>
-      <c r="E134" t="s">
-        <v>806</v>
-      </c>
-      <c r="M134" t="s">
-        <v>609</v>
       </c>
       <c r="N134" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>816</v>
+        <v>788</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="G135" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>822</v>
+        <v>792</v>
       </c>
       <c r="C136" t="s">
-        <v>817</v>
+        <v>793</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>794</v>
       </c>
       <c r="E136" t="s">
-        <v>818</v>
+        <v>795</v>
+      </c>
+      <c r="G136" t="s">
+        <v>796</v>
       </c>
       <c r="M136" t="s">
-        <v>609</v>
+        <v>325</v>
       </c>
       <c r="N136" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="G137" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="C138" t="s">
-        <v>828</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>829</v>
+        <v>805</v>
       </c>
       <c r="E138" t="s">
-        <v>830</v>
-      </c>
-      <c r="G138" t="s">
-        <v>831</v>
+        <v>806</v>
       </c>
       <c r="M138" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="N138" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>816</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="G139" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>822</v>
+      </c>
+      <c r="C140" t="s">
+        <v>817</v>
+      </c>
+      <c r="E140" t="s">
+        <v>818</v>
+      </c>
+      <c r="M140" t="s">
+        <v>609</v>
+      </c>
+      <c r="N140" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>823</v>
+      </c>
+      <c r="D141" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="G141" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>839</v>
+      </c>
+      <c r="C142" t="s">
+        <v>828</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="E142" t="s">
+        <v>830</v>
+      </c>
+      <c r="G142" t="s">
+        <v>831</v>
+      </c>
+      <c r="M142" t="s">
+        <v>605</v>
+      </c>
+      <c r="N142" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>840</v>
       </c>
-      <c r="D139" s="20" t="s">
+      <c r="D143" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E143" t="s">
         <v>832</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G143" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>841</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E144" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>853</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C145" t="s">
         <v>845</v>
       </c>
-      <c r="D141" s="20" t="s">
+      <c r="D145" s="20" t="s">
         <v>846</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E145" t="s">
         <v>847</v>
-      </c>
-      <c r="M141" t="s">
-        <v>325</v>
-      </c>
-      <c r="N141" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>854</v>
-      </c>
-      <c r="D142" s="20" t="s">
-        <v>849</v>
-      </c>
-      <c r="E142" t="s">
-        <v>852</v>
-      </c>
-      <c r="G142" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>865</v>
-      </c>
-      <c r="C143" t="s">
-        <v>858</v>
-      </c>
-      <c r="E143" t="s">
-        <v>860</v>
-      </c>
-      <c r="M143" t="s">
-        <v>325</v>
-      </c>
-      <c r="N143" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>866</v>
-      </c>
-      <c r="C144" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>877</v>
-      </c>
-      <c r="C145" t="s">
-        <v>867</v>
-      </c>
-      <c r="D145" s="20" t="s">
-        <v>868</v>
-      </c>
-      <c r="E145" t="s">
-        <v>869</v>
       </c>
       <c r="M145" t="s">
         <v>325</v>
@@ -12429,105 +12644,117 @@
         <v>326</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>854</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="E146" t="s">
+        <v>852</v>
+      </c>
+      <c r="G146" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>865</v>
+      </c>
+      <c r="C147" t="s">
+        <v>858</v>
+      </c>
+      <c r="E147" t="s">
+        <v>860</v>
+      </c>
+      <c r="M147" t="s">
+        <v>325</v>
+      </c>
+      <c r="N147" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>866</v>
+      </c>
+      <c r="C148" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>877</v>
+      </c>
+      <c r="C149" t="s">
+        <v>867</v>
+      </c>
+      <c r="D149" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="E149" t="s">
+        <v>869</v>
+      </c>
+      <c r="M149" t="s">
+        <v>325</v>
+      </c>
+      <c r="N149" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>878</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C150" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>879</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C151" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>880</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C152" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+    <row r="153" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>881</v>
       </c>
-      <c r="D149" s="20" t="s">
+      <c r="D153" s="20" t="s">
         <v>884</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E153" t="s">
         <v>875</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G153" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>888</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E154" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+    <row r="155" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>892</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C155" t="s">
         <v>889</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>890</v>
-      </c>
-      <c r="E151" t="s">
-        <v>891</v>
-      </c>
-      <c r="G151" t="s">
-        <v>893</v>
-      </c>
-      <c r="M151" t="s">
-        <v>325</v>
-      </c>
-      <c r="N151" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>901</v>
-      </c>
-      <c r="E152" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>902</v>
-      </c>
-      <c r="E153" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>903</v>
-      </c>
-      <c r="E154" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>906</v>
-      </c>
-      <c r="C155" t="s">
-        <v>904</v>
       </c>
       <c r="D155" s="20" t="s">
         <v>890</v>
@@ -12545,704 +12772,751 @@
         <v>326</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="E156" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>902</v>
+      </c>
+      <c r="E157" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>903</v>
+      </c>
+      <c r="E158" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>906</v>
+      </c>
+      <c r="C159" t="s">
+        <v>904</v>
+      </c>
+      <c r="D159" s="20" t="s">
+        <v>890</v>
+      </c>
+      <c r="E159" t="s">
+        <v>891</v>
+      </c>
+      <c r="G159" t="s">
+        <v>893</v>
+      </c>
+      <c r="M159" t="s">
+        <v>325</v>
+      </c>
+      <c r="N159" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>907</v>
+      </c>
+      <c r="E160" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>908</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E161" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>917</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C162" t="s">
         <v>910</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E162" t="s">
         <v>911</v>
       </c>
-      <c r="M158" s="7" t="s">
+      <c r="M162" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="N158" s="7" t="s">
+      <c r="N162" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+    <row r="163" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>918</v>
       </c>
-      <c r="D159" s="20" t="s">
+      <c r="D163" s="20" t="s">
         <v>913</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E163" t="s">
         <v>916</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G163" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>927</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C164" t="s">
         <v>921</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E164" t="s">
         <v>922</v>
       </c>
-      <c r="M160" s="7" t="s">
+      <c r="M164" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="N160" s="7" t="s">
+      <c r="N164" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+    <row r="165" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>928</v>
       </c>
-      <c r="D161" s="20" t="s">
+      <c r="D165" s="20" t="s">
         <v>923</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E165" t="s">
         <v>926</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G165" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+    <row r="166" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>942</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C166" t="s">
         <v>931</v>
       </c>
-      <c r="D162" s="20" t="s">
+      <c r="D166" s="20" t="s">
         <v>932</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E166" t="s">
         <v>933</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G166" t="s">
         <v>934</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M166" t="s">
         <v>325</v>
       </c>
-      <c r="N162" t="s">
+      <c r="N166" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+    <row r="167" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>943</v>
       </c>
-      <c r="D163" s="20" t="s">
+      <c r="D167" s="20" t="s">
         <v>937</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E167" t="s">
         <v>935</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G167" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>944</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E168" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>945</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E169" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>946</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E170" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+    <row r="171" spans="1:14" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>950</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C171" t="s">
         <v>947</v>
       </c>
-      <c r="D167" s="20" t="s">
+      <c r="D171" s="20" t="s">
         <v>948</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E171" t="s">
         <v>891</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G171" t="s">
         <v>893</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M171" t="s">
         <v>325</v>
       </c>
-      <c r="N167" t="s">
+      <c r="N171" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>951</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E172" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>958</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E173" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+    <row r="174" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>959</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C174" t="s">
         <v>952</v>
       </c>
-      <c r="D170" s="20" t="s">
+      <c r="D174" s="20" t="s">
         <v>890</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E174" t="s">
         <v>953</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G174" t="s">
         <v>893</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M174" t="s">
         <v>605</v>
       </c>
-      <c r="N170" t="s">
+      <c r="N174" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>960</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E175" t="s">
         <v>894</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M175" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>976</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C176" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>977</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C177" t="s">
         <v>967</v>
       </c>
-      <c r="D173" s="20" t="s">
+      <c r="D177" s="20" t="s">
         <v>968</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E177" t="s">
         <v>969</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G177" t="s">
         <v>804</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M177" t="s">
         <v>325</v>
       </c>
-      <c r="N173" t="s">
+      <c r="N177" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>978</v>
       </c>
-      <c r="D174" s="20" t="s">
+      <c r="D178" s="20" t="s">
         <v>973</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E178" t="s">
         <v>970</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G178" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>979</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E179" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>988</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C180" t="s">
         <v>984</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E180" t="s">
         <v>985</v>
-      </c>
-      <c r="M176" t="s">
-        <v>325</v>
-      </c>
-      <c r="N176" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>989</v>
-      </c>
-      <c r="E177" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D178" s="20" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E178" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G178" t="s">
-        <v>1063</v>
-      </c>
-      <c r="M178" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E179" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C180" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D180" s="20" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E180" t="s">
-        <v>1068</v>
       </c>
       <c r="M180" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N180" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>1069</v>
+        <v>989</v>
       </c>
       <c r="E181" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B182" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D182" s="20" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M182" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D184" s="20" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M184" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B186" t="s">
         <v>209</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C186" t="s">
         <v>209</v>
       </c>
-      <c r="M182" s="7" t="s">
+      <c r="M186" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="N182" s="7" t="s">
+      <c r="N186" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="O182" t="s">
+      <c r="O186" t="s">
         <v>209</v>
       </c>
-      <c r="P182" t="s">
+      <c r="P186" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E187" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A194" s="55" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B194" s="55"/>
+      <c r="C194" s="55"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="55"/>
+      <c r="F194" s="55"/>
+      <c r="G194" s="55"/>
+      <c r="H194" s="55"/>
+      <c r="I194" s="55"/>
+      <c r="J194" s="55"/>
+      <c r="K194" s="55"/>
+      <c r="L194" s="55"/>
+      <c r="M194" s="55"/>
+      <c r="N194" s="55"/>
+      <c r="O194" s="55"/>
+      <c r="P194" s="55"/>
+      <c r="Q194" s="55"/>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>1095</v>
       </c>
-      <c r="C183" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E183" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+      <c r="C195" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+      <c r="E195" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+      <c r="R195" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="S195" s="52">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T195" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A190" s="54" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B190" s="54"/>
-      <c r="C190" s="54"/>
-      <c r="D190" s="54"/>
-      <c r="E190" s="54"/>
-      <c r="F190" s="54"/>
-      <c r="G190" s="54"/>
-      <c r="H190" s="54"/>
-      <c r="I190" s="54"/>
-      <c r="J190" s="54"/>
-      <c r="K190" s="54"/>
-      <c r="L190" s="54"/>
-      <c r="M190" s="54"/>
-      <c r="N190" s="54"/>
-      <c r="O190" s="54"/>
-      <c r="P190" s="54"/>
-      <c r="Q190" s="54"/>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C191" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E191" t="s">
-        <v>1102</v>
-      </c>
-      <c r="R191" s="56">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R196" t="s">
+        <v>1110</v>
+      </c>
+      <c r="S196" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1097</v>
+      </c>
+      <c r="R199" s="52">
         <v>0.75</v>
       </c>
-      <c r="S191" s="56">
+      <c r="S199" s="52">
         <v>0.77083333333333337</v>
       </c>
-      <c r="T191" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1113</v>
-      </c>
-      <c r="R192" t="s">
-        <v>1115</v>
-      </c>
-      <c r="S192" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+      <c r="T199" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E200" t="s">
         <v>1123</v>
       </c>
-      <c r="E193" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C201" t="s">
         <v>1124</v>
       </c>
-      <c r="E194" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1102</v>
-      </c>
-      <c r="R195" s="56">
+      <c r="E201" t="s">
+        <v>1125</v>
+      </c>
+      <c r="U201" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E202" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D203" s="20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E204" s="45" t="s">
+        <v>1144</v>
+      </c>
+      <c r="R204" s="52">
         <v>0.75</v>
       </c>
-      <c r="S195" s="56">
+      <c r="S204" s="52">
         <v>0.77083333333333337</v>
       </c>
-      <c r="T195" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E196" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1130</v>
-      </c>
-      <c r="U197" t="s">
+      <c r="T204" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D205" s="20" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G205" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E198" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="199" spans="1:21" ht="58" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D199" s="20" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E199" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="200" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>1153</v>
       </c>
-      <c r="C200" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E200" s="45" t="s">
-        <v>1149</v>
-      </c>
-      <c r="R200" s="56">
+      <c r="C206" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1151</v>
+      </c>
+      <c r="R206" s="52">
         <v>0.75</v>
       </c>
-      <c r="S200" s="56">
+      <c r="S206" s="52">
         <v>0.77083333333333337</v>
       </c>
-      <c r="T200" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="201" spans="1:21" ht="58" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+      <c r="T206" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C208" t="s">
         <v>1154</v>
       </c>
-      <c r="D201" s="20" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G201" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C202" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E202" t="s">
+      <c r="E208" s="20" t="s">
         <v>1156</v>
       </c>
-      <c r="R202" s="56">
+      <c r="R208" s="52">
         <v>0.75</v>
       </c>
-      <c r="S202" s="56">
+      <c r="S208" s="52">
         <v>0.77083333333333337</v>
       </c>
-      <c r="T202" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+      <c r="T208" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>1160</v>
       </c>
-      <c r="E203" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="204" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+      <c r="C209" t="s">
+        <v>1159</v>
+      </c>
+      <c r="R209" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="S209" s="52">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T209" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1109</v>
+      </c>
+      <c r="R210" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="S210" s="52">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T210" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C211" t="s">
         <v>1163</v>
       </c>
-      <c r="C204" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E204" s="20" t="s">
-        <v>1161</v>
-      </c>
-      <c r="R204" s="56">
+      <c r="E211" t="s">
+        <v>1164</v>
+      </c>
+      <c r="R211" s="52">
         <v>0.75</v>
       </c>
-      <c r="S204" s="56">
+      <c r="S211" s="52">
         <v>0.77083333333333337</v>
       </c>
-      <c r="T204" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C205" t="s">
-        <v>1164</v>
-      </c>
-      <c r="R205" s="56">
-        <v>0.75</v>
-      </c>
-      <c r="S205" s="56">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="T205" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C206" t="s">
+      <c r="T211" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>1166</v>
       </c>
-      <c r="E206" t="s">
-        <v>1114</v>
-      </c>
-      <c r="R206" s="56">
-        <v>0.75</v>
-      </c>
-      <c r="S206" s="56">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="T206" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+      <c r="E212" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C213" t="s">
         <v>1170</v>
       </c>
-      <c r="C207" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1169</v>
-      </c>
-      <c r="R207" s="56">
-        <v>0.75</v>
-      </c>
-      <c r="S207" s="56">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="T207" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E208" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C210" t="s">
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
         <v>984</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A128:Q128"/>
-    <mergeCell ref="A190:Q190"/>
+    <mergeCell ref="A132:Q132"/>
+    <mergeCell ref="A194:Q194"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E113" r:id="rId1" xr:uid="{3B075F01-A8C6-40EB-AC03-B57A498FD962}"/>
-    <hyperlink ref="E115" r:id="rId2" xr:uid="{717759AA-636A-4C13-967C-30265B7450C2}"/>
-    <hyperlink ref="E117" r:id="rId3" xr:uid="{9F4CBEFA-3C9D-46C8-BE76-D657F5A9EB6E}"/>
-    <hyperlink ref="E116" r:id="rId4" xr:uid="{3CA6C566-D314-4EC2-B847-CB665BB75CA9}"/>
-    <hyperlink ref="E118" r:id="rId5" xr:uid="{F46D77DF-72F6-45AE-8693-98792350DBB0}"/>
-    <hyperlink ref="E119" r:id="rId6" xr:uid="{2D6ECF79-4A7B-4972-A550-36CCB7EA47F9}"/>
-    <hyperlink ref="E200" r:id="rId7" xr:uid="{000D546D-1077-4AF1-947E-7413E3AA0490}"/>
+    <hyperlink ref="E204" r:id="rId1" xr:uid="{000D546D-1077-4AF1-947E-7413E3AA0490}"/>
+    <hyperlink ref="E113" r:id="rId2" xr:uid="{90CE7362-44A6-4EE1-AC6C-C15F2FBD5DCD}"/>
+    <hyperlink ref="E115" r:id="rId3" xr:uid="{0E1F89B8-6749-4F00-A4F6-BC86FCF1BA4B}"/>
+    <hyperlink ref="E117" r:id="rId4" xr:uid="{52271B85-B963-4F32-B6DC-4D480AA55E6F}"/>
+    <hyperlink ref="E116" r:id="rId5" xr:uid="{DA5AA076-3D3C-4C44-AF5F-5B3450B34371}"/>
+    <hyperlink ref="E118" r:id="rId6" xr:uid="{73EAE2C4-8B92-4675-A12B-0FC6536BF0F7}"/>
+    <hyperlink ref="E119" r:id="rId7" xr:uid="{2043BD0F-0829-4BB9-97B1-F9B10A479236}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -13254,22 +13528,22 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="20"/>
+    <col min="1" max="1" width="8.88671875" style="20"/>
     <col min="2" max="2" width="73" style="20" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="8.90625" style="20"/>
+    <col min="3" max="3" width="16.44140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -13292,7 +13566,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
         <v>737</v>
@@ -13302,7 +13576,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>1007</v>
       </c>
@@ -13322,7 +13596,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>1013</v>
       </c>
@@ -13339,7 +13613,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>1015</v>
       </c>
@@ -13358,12 +13632,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{A048A08C-D3A6-4AA0-9D7A-4130717E9DC8}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{ED96F108-8E81-48F1-9808-A49B841559CC}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{010FC2F4-758F-4BE5-8A04-8748D3DD5CBC}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{6E4974A2-0D97-4564-AE4C-F1279E88BC40}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{9DC5EE4E-AD46-4747-AEA2-6FE5963A111F}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{6A97B953-C05A-474F-A7E3-6B3980D1BA46}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{C55E2014-9733-43C7-8B72-D75C7EB440A8}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{3DDB3836-EB01-4AFA-AD24-73D8D5D835E8}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{BFF59869-27BA-4732-B4B8-AC0B45D68E45}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{E2C4EF29-5201-4CDC-82B6-DD36D43054F3}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{EA697FFB-9017-4677-B8B2-9E194FCC4A69}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{CEC414D8-77A1-4C56-A6B9-1E127CC696B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0036AC-51A9-4388-B50C-115C06CD3BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8DEBC2-3684-4820-8C6C-D8B410CB1FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomMetaData" sheetId="15" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="Acuity" sheetId="6" r:id="rId10"/>
     <sheet name="Reports" sheetId="8" r:id="rId11"/>
     <sheet name="Fund" sheetId="4" r:id="rId12"/>
-    <sheet name="Fundraisings" sheetId="10" r:id="rId13"/>
-    <sheet name="User" sheetId="13" r:id="rId14"/>
-    <sheet name="Test Custom Object" sheetId="16" r:id="rId15"/>
-    <sheet name="ListView" sheetId="18" r:id="rId16"/>
+    <sheet name="DetailPage" sheetId="19" r:id="rId13"/>
+    <sheet name="Fundraisings" sheetId="10" r:id="rId14"/>
+    <sheet name="User" sheetId="13" r:id="rId15"/>
+    <sheet name="Test Custom Object" sheetId="16" r:id="rId16"/>
+    <sheet name="ListView" sheetId="18" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Activity Timeline'!$B$1:$B$114</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1250">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -3578,6 +3579,225 @@
   </si>
   <si>
     <t>RGAMNNR_Activity019</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity020</t>
+  </si>
+  <si>
+    <t>Task For Notification Check</t>
+  </si>
+  <si>
+    <t>con 3&lt;break&gt;Acc 12</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Con8</t>
+  </si>
+  <si>
+    <t>con 10</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Record007</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity021</t>
+  </si>
+  <si>
+    <t>Call For Notification Check</t>
+  </si>
+  <si>
+    <t>Event 2.0</t>
+  </si>
+  <si>
+    <t>Adding @Glomez @Jack in the loop</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity022</t>
+  </si>
+  <si>
+    <t>Marketing Webinar 2</t>
+  </si>
+  <si>
+    <t>Deal @sumo logic and @Max fund should be in loop</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity023</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity024</t>
+  </si>
+  <si>
+    <t>Mulesoft Connect</t>
+  </si>
+  <si>
+    <t>dealroom1.3+lomez@gmail.com,Dealroom1.3+James@gmail.com</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity025</t>
+  </si>
+  <si>
+    <t>Relive salesforce Live 1&lt;break&gt;Relive salesforce Live 2&lt;break&gt;Relive salesforce Live 3&lt;break&gt;Relive salesforce Live 4</t>
+  </si>
+  <si>
+    <t>dealroom1.3+con1@gmail.com,dealroom1.3+con2@gmail.com</t>
+  </si>
+  <si>
+    <t>Acc 11</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Record008</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity026</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity027</t>
+  </si>
+  <si>
+    <t>This event will have your Business circles talking +4</t>
+  </si>
+  <si>
+    <t>Dealroom1.3+Lomez@gmail.com,Dealroom1.3+Max@gmail.com,Dealroom1.3+James@gmail.com</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity028</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>Relive salesforce Live 1</t>
+  </si>
+  <si>
+    <t>Acc 11, Con 1, con 2</t>
+  </si>
+  <si>
+    <t>SuggestedPopUpShouldNotThere</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity029</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity030</t>
+  </si>
+  <si>
+    <t>Webinar 1 all day</t>
+  </si>
+  <si>
+    <t>Dealroom1.3+James@gmail.com,Dealroom1.3+Lenis@gmail.com</t>
+  </si>
+  <si>
+    <t>Lenis</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Con9</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity031</t>
+  </si>
+  <si>
+    <t>Salesforce Event</t>
+  </si>
+  <si>
+    <t>Dealroom1.3+Litz@gmail.com,Dealroom1.3+Jhon@gmail.com</t>
+  </si>
+  <si>
+    <t>Salesforce Event Updated</t>
+  </si>
+  <si>
+    <t>Sumo Logic, Vertica, Demo Deal</t>
+  </si>
+  <si>
+    <t>James, Jhon, Litz</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity032</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity033</t>
+  </si>
+  <si>
+    <t>Outlook Private Event</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity034</t>
+  </si>
+  <si>
+    <t>Outlook Event Test</t>
+  </si>
+  <si>
+    <t>cont1.test@zxc.com,cont2+test@zxc.com;</t>
+  </si>
+  <si>
+    <t>Added the event in outlook to tag users and Contacts Con1</t>
+  </si>
+  <si>
+    <t>cont1 test</t>
+  </si>
+  <si>
+    <t>cont2+test</t>
+  </si>
+  <si>
+    <t>zxc.com</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Record009</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Record010</t>
+  </si>
+  <si>
+    <t>cont1.test@zxc.com</t>
+  </si>
+  <si>
+    <t>cont2+test@zxc.com</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity035</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Con10</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Con11</t>
+  </si>
+  <si>
+    <t>Outlook Event Test Firm</t>
+  </si>
+  <si>
+    <t>cont3.test@carlylegroup-ng.com,cont4+test@carlylegroup-ng.com;</t>
+  </si>
+  <si>
+    <t>cont3 test</t>
+  </si>
+  <si>
+    <t>carlylegroup-ng.com</t>
+  </si>
+  <si>
+    <t>cont4+test</t>
+  </si>
+  <si>
+    <t>cont3.test@carlylegroup-ng.com</t>
+  </si>
+  <si>
+    <t>cont4+test@carlylegroup-ng.com</t>
+  </si>
+  <si>
+    <t>Assign Multiple Associations</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Activity036</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Con12</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Con13</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Record011</t>
+  </si>
+  <si>
+    <t>RGAMNNR_Record012</t>
   </si>
 </sst>
 </file>
@@ -3855,6 +4075,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3867,7 +4088,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4385,7 +4605,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6281,36 +6501,36 @@
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="54"/>
-      <c r="S76" s="54"/>
-      <c r="T76" s="54"/>
-      <c r="U76" s="54"/>
-      <c r="V76" s="54"/>
-      <c r="W76" s="54"/>
-      <c r="X76" s="54"/>
-      <c r="Y76" s="54"/>
-      <c r="Z76" s="54"/>
-      <c r="AA76" s="54"/>
-      <c r="AB76" s="54"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="55"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="55"/>
+      <c r="Q76" s="55"/>
+      <c r="R76" s="55"/>
+      <c r="S76" s="55"/>
+      <c r="T76" s="55"/>
+      <c r="U76" s="55"/>
+      <c r="V76" s="55"/>
+      <c r="W76" s="55"/>
+      <c r="X76" s="55"/>
+      <c r="Y76" s="55"/>
+      <c r="Z76" s="55"/>
+      <c r="AA76" s="55"/>
+      <c r="AB76" s="55"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
@@ -6573,36 +6793,36 @@
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A111" s="54" t="s">
+      <c r="A111" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="B111" s="54"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="54"/>
-      <c r="O111" s="54"/>
-      <c r="P111" s="54"/>
-      <c r="Q111" s="54"/>
-      <c r="R111" s="54"/>
-      <c r="S111" s="54"/>
-      <c r="T111" s="54"/>
-      <c r="U111" s="54"/>
-      <c r="V111" s="54"/>
-      <c r="W111" s="54"/>
-      <c r="X111" s="54"/>
-      <c r="Y111" s="54"/>
-      <c r="Z111" s="54"/>
-      <c r="AA111" s="54"/>
-      <c r="AB111" s="54"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="55"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="55"/>
+      <c r="J111" s="55"/>
+      <c r="K111" s="55"/>
+      <c r="L111" s="55"/>
+      <c r="M111" s="55"/>
+      <c r="N111" s="55"/>
+      <c r="O111" s="55"/>
+      <c r="P111" s="55"/>
+      <c r="Q111" s="55"/>
+      <c r="R111" s="55"/>
+      <c r="S111" s="55"/>
+      <c r="T111" s="55"/>
+      <c r="U111" s="55"/>
+      <c r="V111" s="55"/>
+      <c r="W111" s="55"/>
+      <c r="X111" s="55"/>
+      <c r="Y111" s="55"/>
+      <c r="Z111" s="55"/>
+      <c r="AA111" s="55"/>
+      <c r="AB111" s="55"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -6813,13 +7033,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="54" t="s">
         <v>762</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
@@ -6845,6 +7065,110 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE83B363-17C2-4D92-A0C7-8E8D8E6A377D}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="53" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -7001,22 +7325,22 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>762</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
@@ -7051,7 +7375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -7092,7 +7416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D62F989-B1EE-49D7-99A7-A4A6C00704A0}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -7133,13 +7457,13 @@
       <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>762</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="41"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
@@ -7175,7 +7499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8FE239-7966-4B47-902D-BB193CC8E9D4}">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -7331,11 +7655,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7363,11 +7687,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -7672,13 +7996,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="54" t="s">
         <v>762</v>
       </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
@@ -7747,13 +8071,13 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="54" t="s">
         <v>1099</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -7819,6 +8143,60 @@
       </c>
       <c r="C65" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B66" t="s">
+        <v>969</v>
+      </c>
+      <c r="C66" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1240</v>
       </c>
     </row>
   </sheetData>
@@ -7856,10 +8234,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="54"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -8105,11 +8483,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8491,17 +8869,17 @@
       <c r="F35" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -8544,17 +8922,17 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="55" t="s">
         <v>1107</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -8610,6 +8988,54 @@
       </c>
       <c r="D51" t="s">
         <v>1172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1241</v>
       </c>
     </row>
   </sheetData>
@@ -8833,16 +9259,16 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="54" t="s">
         <v>762</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
@@ -8931,32 +9357,35 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U210"/>
+  <dimension ref="A1:U226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G207" sqref="G207"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.08984375" style="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.90625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.90625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="255.6328125" style="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="255.6328125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="255.6328125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="18.1796875" style="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
@@ -9102,11 +9531,11 @@
       </c>
       <c r="H5" s="34" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/13/2023</v>
+        <v>01/14/2023</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/13/2023</v>
+        <v>01/14/2023</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -12156,25 +12585,25 @@
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A128" s="54" t="s">
+      <c r="A128" s="55" t="s">
         <v>762</v>
       </c>
-      <c r="B128" s="54"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="54"/>
-      <c r="F128" s="54"/>
-      <c r="G128" s="54"/>
-      <c r="H128" s="54"/>
-      <c r="I128" s="54"/>
-      <c r="J128" s="54"/>
-      <c r="K128" s="54"/>
-      <c r="L128" s="54"/>
-      <c r="M128" s="54"/>
-      <c r="N128" s="54"/>
-      <c r="O128" s="54"/>
-      <c r="P128" s="54"/>
-      <c r="Q128" s="54"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="55"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="55"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="55"/>
+      <c r="I128" s="55"/>
+      <c r="J128" s="55"/>
+      <c r="K128" s="55"/>
+      <c r="L128" s="55"/>
+      <c r="M128" s="55"/>
+      <c r="N128" s="55"/>
+      <c r="O128" s="55"/>
+      <c r="P128" s="55"/>
+      <c r="Q128" s="55"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
@@ -12938,25 +13367,25 @@
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A190" s="54" t="s">
+      <c r="A190" s="55" t="s">
         <v>1099</v>
       </c>
-      <c r="B190" s="54"/>
-      <c r="C190" s="54"/>
-      <c r="D190" s="54"/>
-      <c r="E190" s="54"/>
-      <c r="F190" s="54"/>
-      <c r="G190" s="54"/>
-      <c r="H190" s="54"/>
-      <c r="I190" s="54"/>
-      <c r="J190" s="54"/>
-      <c r="K190" s="54"/>
-      <c r="L190" s="54"/>
-      <c r="M190" s="54"/>
-      <c r="N190" s="54"/>
-      <c r="O190" s="54"/>
-      <c r="P190" s="54"/>
-      <c r="Q190" s="54"/>
+      <c r="B190" s="55"/>
+      <c r="C190" s="55"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="55"/>
+      <c r="F190" s="55"/>
+      <c r="G190" s="55"/>
+      <c r="H190" s="55"/>
+      <c r="I190" s="55"/>
+      <c r="J190" s="55"/>
+      <c r="K190" s="55"/>
+      <c r="L190" s="55"/>
+      <c r="M190" s="55"/>
+      <c r="N190" s="55"/>
+      <c r="O190" s="55"/>
+      <c r="P190" s="55"/>
+      <c r="Q190" s="55"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
@@ -12968,10 +13397,10 @@
       <c r="E191" t="s">
         <v>1102</v>
       </c>
-      <c r="R191" s="56">
+      <c r="R191" s="52">
         <v>0.75</v>
       </c>
-      <c r="S191" s="56">
+      <c r="S191" s="52">
         <v>0.77083333333333337</v>
       </c>
       <c r="T191" t="s">
@@ -13021,10 +13450,10 @@
       <c r="E195" t="s">
         <v>1102</v>
       </c>
-      <c r="R195" s="56">
+      <c r="R195" s="52">
         <v>0.75</v>
       </c>
-      <c r="S195" s="56">
+      <c r="S195" s="52">
         <v>0.77083333333333337</v>
       </c>
       <c r="T195" t="s">
@@ -13082,10 +13511,10 @@
       <c r="E200" s="45" t="s">
         <v>1149</v>
       </c>
-      <c r="R200" s="56">
+      <c r="R200" s="52">
         <v>0.75</v>
       </c>
-      <c r="S200" s="56">
+      <c r="S200" s="52">
         <v>0.77083333333333337</v>
       </c>
       <c r="T200" t="s">
@@ -13113,10 +13542,10 @@
       <c r="E202" t="s">
         <v>1156</v>
       </c>
-      <c r="R202" s="56">
+      <c r="R202" s="52">
         <v>0.75</v>
       </c>
-      <c r="S202" s="56">
+      <c r="S202" s="52">
         <v>0.77083333333333337</v>
       </c>
       <c r="T202" t="s">
@@ -13141,10 +13570,10 @@
       <c r="E204" s="20" t="s">
         <v>1161</v>
       </c>
-      <c r="R204" s="56">
+      <c r="R204" s="52">
         <v>0.75</v>
       </c>
-      <c r="S204" s="56">
+      <c r="S204" s="52">
         <v>0.77083333333333337</v>
       </c>
       <c r="T204" t="s">
@@ -13158,10 +13587,10 @@
       <c r="C205" t="s">
         <v>1164</v>
       </c>
-      <c r="R205" s="56">
+      <c r="R205" s="52">
         <v>0.75</v>
       </c>
-      <c r="S205" s="56">
+      <c r="S205" s="52">
         <v>0.77083333333333337</v>
       </c>
       <c r="T205" t="s">
@@ -13178,10 +13607,10 @@
       <c r="E206" t="s">
         <v>1114</v>
       </c>
-      <c r="R206" s="56">
+      <c r="R206" s="52">
         <v>0.75</v>
       </c>
-      <c r="S206" s="56">
+      <c r="S206" s="52">
         <v>0.77083333333333337</v>
       </c>
       <c r="T206" t="s">
@@ -13198,10 +13627,10 @@
       <c r="E207" t="s">
         <v>1169</v>
       </c>
-      <c r="R207" s="56">
+      <c r="R207" s="52">
         <v>0.75</v>
       </c>
-      <c r="S207" s="56">
+      <c r="S207" s="52">
         <v>0.77083333333333337</v>
       </c>
       <c r="T207" t="s">
@@ -13216,7 +13645,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>1176</v>
       </c>
@@ -13224,9 +13653,266 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B210" t="s">
+        <v>213</v>
+      </c>
       <c r="C210" t="s">
-        <v>984</v>
+        <v>1178</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B211" t="s">
+        <v>209</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D212" s="20" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1149</v>
+      </c>
+      <c r="R213" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="S213" s="52">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T213" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D214" s="20" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1193</v>
+      </c>
+      <c r="R215" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="S215" s="52">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T215" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1196</v>
+      </c>
+      <c r="R216" s="52">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="S216" s="52">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1202</v>
+      </c>
+      <c r="R218" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="S218" s="52">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="T218" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D220" s="20" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G220" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1211</v>
+      </c>
+      <c r="T221" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1216</v>
+      </c>
+      <c r="R222" s="52">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S222" s="52">
+        <v>0.875</v>
+      </c>
+      <c r="T222" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1156</v>
+      </c>
+      <c r="R223" s="52">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S223" s="52">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1222</v>
+      </c>
+      <c r="R224" s="52">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S224" s="52">
+        <v>0.375</v>
+      </c>
+      <c r="T224" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R225" s="52">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S225" s="52">
+        <v>0.375</v>
+      </c>
+      <c r="T225" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1238</v>
+      </c>
+      <c r="R226" s="52">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S226" s="52">
+        <v>0.375</v>
+      </c>
+      <c r="T226" t="s">
+        <v>1226</v>
       </c>
     </row>
   </sheetData>

--- a/AcuityDataSheet.xlsx
+++ b/AcuityDataSheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228F6595-78EA-4B36-A25C-21C96ACD3519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomMetaData" sheetId="15" r:id="rId1"/>
@@ -26,9 +27,9 @@
     <sheet name="DetailPage" sheetId="19" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Activity Timeline'!$B$1:$B$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Activity Timeline'!$B$1:$B$119</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="1274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1285">
   <si>
     <t>Variable_Name</t>
   </si>
@@ -3869,12 +3870,45 @@
   </si>
   <si>
     <t>Firms&lt;break&gt;People&lt;break&gt;Deals</t>
+  </si>
+  <si>
+    <t>Highlighted_Firm</t>
+  </si>
+  <si>
+    <t>CTest Account 12&lt;break&gt;CTest Account 13&lt;break&gt;ATest Account 17&lt;break&gt;CTest Account 11&lt;break&gt;CTest Account 14&lt;break&gt;ATest Account 15</t>
+  </si>
+  <si>
+    <t>Acuity (Task and Event) Update</t>
+  </si>
+  <si>
+    <t>ATE_U001</t>
+  </si>
+  <si>
+    <t>Updated Nav Event 1</t>
+  </si>
+  <si>
+    <t>Test Contact 160&lt;break&gt;Nav Institution Account 1&lt;break&gt;Connection Deal 30&lt;break&gt;InTestupdateAccount 7&lt;break&gt;Test Contact Updated 10&lt;break&gt;Connection Deal Updated 12</t>
+  </si>
+  <si>
+    <t>01/09/2023</t>
+  </si>
+  <si>
+    <t>ATE_U002</t>
+  </si>
+  <si>
+    <t>Updated New Task 1</t>
+  </si>
+  <si>
+    <t>Test Contact 161&lt;break&gt;Nav Institution Account 2&lt;break&gt;Connection Deal 31&lt;break&gt;InTestupdateAccount 7&lt;break&gt;Test Contact Updated 10&lt;break&gt;Connection Deal Updated 12</t>
+  </si>
+  <si>
+    <t>01/07/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -4037,7 +4071,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4159,11 +4193,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4440,21 +4479,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4468,7 +4508,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>691</v>
       </c>
@@ -4479,7 +4519,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>694</v>
       </c>
@@ -4493,7 +4533,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>697</v>
       </c>
@@ -4507,7 +4547,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>700</v>
       </c>
@@ -4518,7 +4558,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>703</v>
       </c>
@@ -4529,7 +4569,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>706</v>
       </c>
@@ -4540,7 +4580,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>709</v>
       </c>
@@ -4551,7 +4591,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>712</v>
       </c>
@@ -4562,7 +4602,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>715</v>
       </c>
@@ -4573,7 +4613,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>718</v>
       </c>
@@ -4590,7 +4630,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>719</v>
       </c>
@@ -4607,7 +4647,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>720</v>
       </c>
@@ -4624,7 +4664,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>727</v>
       </c>
@@ -4635,7 +4675,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>728</v>
       </c>
@@ -4652,7 +4692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>729</v>
       </c>
@@ -4671,45 +4711,46 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W23" sqref="W23"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="19" max="21" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="48.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="61.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="21" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="48.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="33.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="61.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="40" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="69" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4794,8 +4835,11 @@
       <c r="AB1" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="5" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4820,7 +4864,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -4834,7 +4878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -4848,7 +4892,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -4862,7 +4906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -4876,7 +4920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4901,7 +4945,7 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4912,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -4923,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -4934,7 +4978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -4951,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4980,7 +5024,7 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>293</v>
       </c>
@@ -5026,8 +5070,11 @@
       <c r="Z22" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>300</v>
       </c>
@@ -5080,7 +5127,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>329</v>
       </c>
@@ -5100,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>344</v>
       </c>
@@ -5159,7 +5206,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>355</v>
       </c>
@@ -5218,7 +5265,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>365</v>
       </c>
@@ -5274,7 +5321,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>366</v>
       </c>
@@ -5327,7 +5374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>367</v>
       </c>
@@ -5380,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>368</v>
       </c>
@@ -5433,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>378</v>
       </c>
@@ -5486,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>381</v>
       </c>
@@ -5539,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>382</v>
       </c>
@@ -5592,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>386</v>
       </c>
@@ -5645,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>387</v>
       </c>
@@ -5698,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>388</v>
       </c>
@@ -5751,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>400</v>
       </c>
@@ -5804,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>401</v>
       </c>
@@ -5857,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>402</v>
       </c>
@@ -5895,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>403</v>
       </c>
@@ -5933,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>404</v>
       </c>
@@ -5971,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>405</v>
       </c>
@@ -6009,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>406</v>
       </c>
@@ -6047,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>407</v>
       </c>
@@ -6085,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>408</v>
       </c>
@@ -6123,7 +6170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>409</v>
       </c>
@@ -6146,7 +6193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>410</v>
       </c>
@@ -6169,7 +6216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>411</v>
       </c>
@@ -6192,7 +6239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>412</v>
       </c>
@@ -6200,7 +6247,7 @@
         <v>399</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
         <v>284</v>
@@ -6215,7 +6262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>413</v>
       </c>
@@ -6238,7 +6285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>414</v>
       </c>
@@ -6255,7 +6302,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>415</v>
       </c>
@@ -6272,7 +6319,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>615</v>
       </c>
@@ -6289,7 +6336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>623</v>
       </c>
@@ -6306,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>633</v>
       </c>
@@ -6323,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>636</v>
       </c>
@@ -6334,7 +6381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>637</v>
       </c>
@@ -6345,7 +6392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>644</v>
       </c>
@@ -6356,7 +6403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>645</v>
       </c>
@@ -6367,7 +6414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>666</v>
       </c>
@@ -6378,7 +6425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>667</v>
       </c>
@@ -6389,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>668</v>
       </c>
@@ -6400,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>678</v>
       </c>
@@ -6411,7 +6458,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>679</v>
       </c>
@@ -6422,7 +6469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>680</v>
       </c>
@@ -6433,7 +6480,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>681</v>
       </c>
@@ -6444,7 +6491,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>682</v>
       </c>
@@ -6455,7 +6502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -6487,7 +6534,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1046</v>
       </c>
@@ -6531,7 +6578,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1050</v>
       </c>
@@ -6572,7 +6619,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1052</v>
       </c>
@@ -6601,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1192</v>
       </c>
@@ -6618,7 +6665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1194</v>
       </c>
@@ -6635,7 +6682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1195</v>
       </c>
@@ -6652,7 +6699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1197</v>
       </c>
@@ -6669,7 +6716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1198</v>
       </c>
@@ -6680,7 +6727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A80" s="55" t="s">
         <v>761</v>
       </c>
@@ -6712,7 +6759,7 @@
       <c r="AA80" s="55"/>
       <c r="AB80" s="55"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>788</v>
       </c>
@@ -6720,7 +6767,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>800</v>
       </c>
@@ -6728,7 +6775,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>801</v>
       </c>
@@ -6736,7 +6783,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>811</v>
       </c>
@@ -6744,7 +6791,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>813</v>
       </c>
@@ -6752,7 +6799,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>825</v>
       </c>
@@ -6760,7 +6807,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>826</v>
       </c>
@@ -6768,7 +6815,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>841</v>
       </c>
@@ -6776,7 +6823,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>842</v>
       </c>
@@ -6784,7 +6831,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>854</v>
       </c>
@@ -6792,7 +6839,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>855</v>
       </c>
@@ -6800,7 +6847,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>863</v>
       </c>
@@ -6808,7 +6855,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>881</v>
       </c>
@@ -6816,7 +6863,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>882</v>
       </c>
@@ -6824,7 +6871,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>886</v>
       </c>
@@ -6832,7 +6879,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>898</v>
       </c>
@@ -6840,7 +6887,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>899</v>
       </c>
@@ -6848,7 +6895,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>908</v>
       </c>
@@ -6856,7 +6903,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>918</v>
       </c>
@@ -6864,7 +6911,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>919</v>
       </c>
@@ -6872,7 +6919,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>928</v>
       </c>
@@ -6880,7 +6927,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>929</v>
       </c>
@@ -6888,7 +6935,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>960</v>
       </c>
@@ -6896,7 +6943,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>961</v>
       </c>
@@ -6904,7 +6951,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>962</v>
       </c>
@@ -6915,7 +6962,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>963</v>
       </c>
@@ -6926,7 +6973,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>964</v>
       </c>
@@ -6937,7 +6984,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>981</v>
       </c>
@@ -6945,7 +6992,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>982</v>
       </c>
@@ -6953,7 +7000,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>989</v>
       </c>
@@ -6964,7 +7011,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1068</v>
       </c>
@@ -6972,7 +7019,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A115" s="55" t="s">
         <v>761</v>
       </c>
@@ -7004,7 +7051,7 @@
       <c r="AA115" s="55"/>
       <c r="AB115" s="55"/>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1105</v>
       </c>
@@ -7012,7 +7059,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1121</v>
       </c>
@@ -7032,21 +7079,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="81.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="72.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="81.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="72.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7057,7 +7105,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -7075,7 +7123,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7083,16 +7132,16 @@
       <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7109,7 +7158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -7123,7 +7172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>225</v>
       </c>
@@ -7138,7 +7187,7 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>227</v>
       </c>
@@ -7149,7 +7198,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>229</v>
       </c>
@@ -7166,7 +7215,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -7175,7 +7224,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>737</v>
       </c>
@@ -7189,7 +7238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7198,7 +7247,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>737</v>
       </c>
@@ -7212,7 +7261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1199</v>
       </c>
@@ -7226,7 +7275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="54" t="s">
         <v>761</v>
       </c>
@@ -7235,7 +7284,7 @@
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>775</v>
       </c>
@@ -7259,31 +7308,32 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7327,7 +7377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -7338,7 +7388,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>240</v>
       </c>
@@ -7366,7 +7416,7 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>245</v>
       </c>
@@ -7386,7 +7436,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>247</v>
       </c>
@@ -7414,7 +7464,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>761</v>
       </c>
@@ -7432,7 +7482,7 @@
       <c r="M10" s="56"/>
       <c r="N10" s="56"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>774</v>
       </c>
@@ -7466,20 +7516,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7490,7 +7541,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>649</v>
       </c>
@@ -7507,22 +7558,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -7539,14 +7591,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>761</v>
       </c>
@@ -7562,7 +7614,7 @@
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>777</v>
       </c>
@@ -7590,28 +7642,29 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="23.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -7649,7 +7702,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7663,7 +7716,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>1078</v>
       </c>
@@ -7693,7 +7746,7 @@
       </c>
       <c r="L4" s="50"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -7707,7 +7760,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>1168</v>
       </c>
@@ -7744,19 +7797,20 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7764,7 +7818,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>1093</v>
       </c>
@@ -7774,7 +7828,7 @@
       <c r="E3" s="53"/>
       <c r="F3" s="53"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1113</v>
       </c>
@@ -7782,7 +7836,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1115</v>
       </c>
@@ -7790,7 +7844,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1126</v>
       </c>
@@ -7798,7 +7852,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1130</v>
       </c>
@@ -7806,7 +7860,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1131</v>
       </c>
@@ -7814,7 +7868,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1134</v>
       </c>
@@ -7822,7 +7876,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1201</v>
       </c>
@@ -7830,7 +7884,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1202</v>
       </c>
@@ -7843,15 +7897,16 @@
     <mergeCell ref="A3:F3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7859,14 +7914,14 @@
       <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7883,14 +7938,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7901,7 +7956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -7909,7 +7964,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -7917,7 +7972,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -7925,7 +7980,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -7933,7 +7988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -7941,7 +7996,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -7949,7 +8004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -7957,7 +8012,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -7965,7 +8020,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -7976,7 +8031,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -7984,7 +8039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -7992,7 +8047,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>155</v>
       </c>
@@ -8003,7 +8058,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>156</v>
       </c>
@@ -8012,7 +8067,7 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>157</v>
       </c>
@@ -8021,7 +8076,7 @@
       </c>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>158</v>
       </c>
@@ -8034,7 +8089,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>159</v>
       </c>
@@ -8051,7 +8106,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>278</v>
       </c>
@@ -8059,7 +8114,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>283</v>
       </c>
@@ -8067,14 +8122,14 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
         <v>292</v>
       </c>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>295</v>
       </c>
@@ -8082,7 +8137,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>309</v>
       </c>
@@ -8090,7 +8145,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>315</v>
       </c>
@@ -8098,7 +8153,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>375</v>
       </c>
@@ -8106,7 +8161,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>380</v>
       </c>
@@ -8114,7 +8169,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>652</v>
       </c>
@@ -8122,7 +8177,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>653</v>
       </c>
@@ -8130,7 +8185,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>654</v>
       </c>
@@ -8138,7 +8193,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>661</v>
       </c>
@@ -8146,7 +8201,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>686</v>
       </c>
@@ -8154,7 +8209,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="15" t="s">
         <v>739</v>
@@ -8162,7 +8217,7 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>740</v>
       </c>
@@ -8173,7 +8228,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>990</v>
       </c>
@@ -8181,7 +8236,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>992</v>
       </c>
@@ -8192,7 +8247,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="54" t="s">
         <v>761</v>
       </c>
@@ -8201,7 +8256,7 @@
       <c r="D48" s="54"/>
       <c r="E48" s="54"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>790</v>
       </c>
@@ -8212,7 +8267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>796</v>
       </c>
@@ -8223,7 +8278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>861</v>
       </c>
@@ -8234,7 +8289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>955</v>
       </c>
@@ -8245,7 +8300,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>971</v>
       </c>
@@ -8256,7 +8311,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1066</v>
       </c>
@@ -8267,7 +8322,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="54" t="s">
         <v>1093</v>
       </c>
@@ -8276,7 +8331,7 @@
       <c r="D59" s="54"/>
       <c r="E59" s="54"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1113</v>
       </c>
@@ -8287,7 +8342,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1115</v>
       </c>
@@ -8298,7 +8353,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1126</v>
       </c>
@@ -8309,7 +8364,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1130</v>
       </c>
@@ -8320,7 +8375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1131</v>
       </c>
@@ -8331,7 +8386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1134</v>
       </c>
@@ -8342,7 +8397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1201</v>
       </c>
@@ -8353,7 +8408,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1202</v>
       </c>
@@ -8364,7 +8419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1204</v>
       </c>
@@ -8372,7 +8427,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1206</v>
       </c>
@@ -8380,7 +8435,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1207</v>
       </c>
@@ -8388,7 +8443,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1208</v>
       </c>
@@ -8409,20 +8464,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8430,13 +8486,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>163</v>
       </c>
       <c r="B3" s="54"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -8444,7 +8500,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -8452,7 +8508,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -8460,7 +8516,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -8468,7 +8524,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -8485,28 +8541,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -8538,7 +8595,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12" t="s">
@@ -8552,7 +8609,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -8564,7 +8621,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>269</v>
       </c>
@@ -8576,7 +8633,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>261</v>
       </c>
@@ -8588,7 +8645,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>262</v>
       </c>
@@ -8600,7 +8657,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>263</v>
       </c>
@@ -8612,7 +8669,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>264</v>
       </c>
@@ -8624,7 +8681,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>265</v>
       </c>
@@ -8636,7 +8693,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>266</v>
       </c>
@@ -8648,7 +8705,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>267</v>
       </c>
@@ -8660,7 +8717,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>268</v>
       </c>
@@ -8679,7 +8736,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8687,17 +8745,17 @@
       <selection pane="bottomLeft" activeCell="A44" sqref="A44:I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="45.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="45.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="117" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8726,7 +8784,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -8737,7 +8795,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8750,7 +8808,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -8767,7 +8825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -8775,7 +8833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -8783,7 +8841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -8791,7 +8849,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -8811,7 +8869,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -8819,7 +8877,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -8827,7 +8885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>182</v>
       </c>
@@ -8852,7 +8910,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>188</v>
       </c>
@@ -8867,7 +8925,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>192</v>
       </c>
@@ -8882,7 +8940,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>193</v>
       </c>
@@ -8905,7 +8963,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>194</v>
       </c>
@@ -8924,7 +8982,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -8932,7 +8990,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -8940,7 +8998,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>287</v>
       </c>
@@ -8948,7 +9006,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -8961,7 +9019,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>308</v>
       </c>
@@ -8969,7 +9027,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>311</v>
       </c>
@@ -8977,7 +9035,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -8985,7 +9043,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>379</v>
       </c>
@@ -8993,7 +9051,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>655</v>
       </c>
@@ -9004,7 +9062,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>656</v>
       </c>
@@ -9015,7 +9073,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -9028,7 +9086,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>744</v>
       </c>
@@ -9048,7 +9106,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>995</v>
       </c>
@@ -9065,10 +9123,10 @@
         <v>998</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F35" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="55" t="s">
         <v>761</v>
       </c>
@@ -9081,7 +9139,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>807</v>
       </c>
@@ -9089,7 +9147,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>824</v>
       </c>
@@ -9097,7 +9155,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>843</v>
       </c>
@@ -9105,7 +9163,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>856</v>
       </c>
@@ -9113,7 +9171,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1088</v>
       </c>
@@ -9121,7 +9179,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="55" t="s">
         <v>1101</v>
       </c>
@@ -9134,7 +9192,7 @@
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1103</v>
       </c>
@@ -9142,7 +9200,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1119</v>
       </c>
@@ -9150,7 +9208,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1133</v>
       </c>
@@ -9158,7 +9216,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1136</v>
       </c>
@@ -9166,7 +9224,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1102</v>
       </c>
@@ -9174,7 +9232,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1156</v>
       </c>
@@ -9182,7 +9240,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1167</v>
       </c>
@@ -9190,7 +9248,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1209</v>
       </c>
@@ -9198,7 +9256,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1211</v>
       </c>
@@ -9206,7 +9264,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1213</v>
       </c>
@@ -9214,7 +9272,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1215</v>
       </c>
@@ -9222,7 +9280,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1217</v>
       </c>
@@ -9230,7 +9288,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1219</v>
       </c>
@@ -9245,32 +9303,33 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F8" r:id="rId2"/>
-    <hyperlink ref="F33" r:id="rId3"/>
-    <hyperlink ref="F34" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="F33" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="F34" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9296,7 +9355,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -9310,7 +9369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -9324,7 +9383,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>200</v>
       </c>
@@ -9348,7 +9407,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>202</v>
       </c>
@@ -9362,7 +9421,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>208</v>
       </c>
@@ -9382,7 +9441,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
@@ -9394,7 +9453,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>658</v>
       </c>
@@ -9402,7 +9461,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>660</v>
       </c>
@@ -9410,7 +9469,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>687</v>
       </c>
@@ -9418,7 +9477,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
@@ -9430,7 +9489,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>749</v>
       </c>
@@ -9444,7 +9503,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>999</v>
       </c>
@@ -9458,7 +9517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="54" t="s">
         <v>761</v>
       </c>
@@ -9470,7 +9529,7 @@
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>776</v>
       </c>
@@ -9498,23 +9557,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9531,7 +9591,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -9555,37 +9615,37 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U230"/>
+  <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E231" sqref="E231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.140625" style="20" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.140625" style="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.109375" style="20" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.109375" style="34" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9650,7 +9710,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -9664,7 +9724,7 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -9680,7 +9740,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -9707,7 +9767,7 @@
       </c>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -9728,14 +9788,14 @@
       </c>
       <c r="H5" s="34" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/15/2023</v>
+        <v>01/28/2023</v>
       </c>
       <c r="I5" t="str">
         <f ca="1">TEXT(TODAY()+25,"mm/dd/yyyy")</f>
-        <v>01/15/2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>01/28/2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -9759,7 +9819,7 @@
       </c>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -9770,7 +9830,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -9778,7 +9838,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -9802,7 +9862,7 @@
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -9826,7 +9886,7 @@
       </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -9846,7 +9906,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -9854,7 +9914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -9862,7 +9922,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -9882,7 +9942,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -9902,7 +9962,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>221</v>
       </c>
@@ -9923,7 +9983,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>222</v>
       </c>
@@ -9944,7 +10004,7 @@
       <c r="H17" s="35"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>223</v>
       </c>
@@ -9965,7 +10025,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>224</v>
       </c>
@@ -9986,7 +10046,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -10002,7 +10062,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>317</v>
       </c>
@@ -10036,7 +10096,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>340</v>
       </c>
@@ -10068,7 +10128,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>356</v>
       </c>
@@ -10103,7 +10163,7 @@
       </c>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>371</v>
       </c>
@@ -10139,7 +10199,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>376</v>
       </c>
@@ -10175,7 +10235,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>498</v>
       </c>
@@ -10203,7 +10263,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>499</v>
       </c>
@@ -10231,7 +10291,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>500</v>
       </c>
@@ -10259,7 +10319,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>501</v>
       </c>
@@ -10287,7 +10347,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>502</v>
       </c>
@@ -10315,7 +10375,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>503</v>
       </c>
@@ -10343,7 +10403,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>504</v>
       </c>
@@ -10371,7 +10431,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>505</v>
       </c>
@@ -10399,7 +10459,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
-    <row r="35" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>506</v>
       </c>
@@ -10427,7 +10487,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="360" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>507</v>
       </c>
@@ -10455,7 +10515,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
-    <row r="37" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>508</v>
       </c>
@@ -10483,7 +10543,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
-    <row r="38" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>509</v>
       </c>
@@ -10511,7 +10571,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>510</v>
       </c>
@@ -10539,7 +10599,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>511</v>
       </c>
@@ -10567,7 +10627,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>512</v>
       </c>
@@ -10595,7 +10655,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>513</v>
       </c>
@@ -10623,7 +10683,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>514</v>
       </c>
@@ -10651,7 +10711,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>515</v>
       </c>
@@ -10679,7 +10739,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>516</v>
       </c>
@@ -10707,7 +10767,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>517</v>
       </c>
@@ -10735,7 +10795,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>518</v>
       </c>
@@ -10763,7 +10823,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>519</v>
       </c>
@@ -10791,7 +10851,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>520</v>
       </c>
@@ -10819,7 +10879,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>521</v>
       </c>
@@ -10847,7 +10907,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>522</v>
       </c>
@@ -10875,7 +10935,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>523</v>
       </c>
@@ -10903,7 +10963,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>524</v>
       </c>
@@ -10931,7 +10991,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>525</v>
       </c>
@@ -10959,7 +11019,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>526</v>
       </c>
@@ -10987,7 +11047,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>527</v>
       </c>
@@ -11015,7 +11075,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>528</v>
       </c>
@@ -11043,7 +11103,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
         <v>529</v>
       </c>
@@ -11071,7 +11131,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
     </row>
-    <row r="59" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>530</v>
       </c>
@@ -11099,7 +11159,7 @@
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
     </row>
-    <row r="60" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>531</v>
       </c>
@@ -11127,7 +11187,7 @@
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>532</v>
       </c>
@@ -11155,7 +11215,7 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>533</v>
       </c>
@@ -11183,7 +11243,7 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>534</v>
       </c>
@@ -11211,7 +11271,7 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
     </row>
-    <row r="64" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
         <v>535</v>
       </c>
@@ -11239,7 +11299,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
         <v>536</v>
       </c>
@@ -11267,7 +11327,7 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
     </row>
-    <row r="66" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>537</v>
       </c>
@@ -11295,7 +11355,7 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
         <v>538</v>
       </c>
@@ -11321,7 +11381,7 @@
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
         <v>539</v>
       </c>
@@ -11347,7 +11407,7 @@
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
         <v>540</v>
       </c>
@@ -11373,7 +11433,7 @@
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
         <v>541</v>
       </c>
@@ -11401,7 +11461,7 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
         <v>542</v>
       </c>
@@ -11429,7 +11489,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
     </row>
-    <row r="72" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>543</v>
       </c>
@@ -11457,7 +11517,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
     </row>
-    <row r="73" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A73" s="17" t="s">
         <v>544</v>
       </c>
@@ -11485,7 +11545,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A74" s="17" t="s">
         <v>545</v>
       </c>
@@ -11513,7 +11573,7 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
         <v>546</v>
       </c>
@@ -11541,7 +11601,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
     </row>
-    <row r="76" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
         <v>547</v>
       </c>
@@ -11569,7 +11629,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
         <v>548</v>
       </c>
@@ -11597,7 +11657,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
     </row>
-    <row r="78" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
         <v>549</v>
       </c>
@@ -11625,7 +11685,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
     </row>
-    <row r="79" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
         <v>550</v>
       </c>
@@ -11653,7 +11713,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
     </row>
-    <row r="80" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A80" s="17" t="s">
         <v>551</v>
       </c>
@@ -11681,7 +11741,7 @@
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
     </row>
-    <row r="81" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>552</v>
       </c>
@@ -11709,7 +11769,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
     </row>
-    <row r="82" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
         <v>553</v>
       </c>
@@ -11737,7 +11797,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
     </row>
-    <row r="83" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
         <v>554</v>
       </c>
@@ -11765,7 +11825,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
     </row>
-    <row r="84" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A84" s="17" t="s">
         <v>555</v>
       </c>
@@ -11793,7 +11853,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
     </row>
-    <row r="85" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A85" s="17" t="s">
         <v>556</v>
       </c>
@@ -11821,7 +11881,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
     </row>
-    <row r="86" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
         <v>557</v>
       </c>
@@ -11849,7 +11909,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
     </row>
-    <row r="87" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A87" s="17" t="s">
         <v>558</v>
       </c>
@@ -11877,7 +11937,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
     </row>
-    <row r="88" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
         <v>559</v>
       </c>
@@ -11905,7 +11965,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
     </row>
-    <row r="89" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A89" s="17" t="s">
         <v>560</v>
       </c>
@@ -11933,7 +11993,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
     </row>
-    <row r="90" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A90" s="17" t="s">
         <v>561</v>
       </c>
@@ -11961,7 +12021,7 @@
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
     </row>
-    <row r="91" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A91" s="17" t="s">
         <v>562</v>
       </c>
@@ -11989,7 +12049,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
     </row>
-    <row r="92" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A92" s="17" t="s">
         <v>563</v>
       </c>
@@ -12017,7 +12077,7 @@
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
     </row>
-    <row r="93" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A93" s="17" t="s">
         <v>564</v>
       </c>
@@ -12045,7 +12105,7 @@
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
     </row>
-    <row r="94" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A94" s="17" t="s">
         <v>565</v>
       </c>
@@ -12073,7 +12133,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
     </row>
-    <row r="95" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A95" s="17" t="s">
         <v>566</v>
       </c>
@@ -12101,7 +12161,7 @@
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
     </row>
-    <row r="96" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>567</v>
       </c>
@@ -12129,7 +12189,7 @@
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="s">
         <v>611</v>
       </c>
@@ -12165,7 +12225,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="17" t="s">
         <v>612</v>
       </c>
@@ -12201,7 +12261,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="s">
         <v>613</v>
       </c>
@@ -12237,7 +12297,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
         <v>616</v>
       </c>
@@ -12273,7 +12333,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
         <v>617</v>
       </c>
@@ -12309,7 +12369,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="s">
         <v>618</v>
       </c>
@@ -12345,7 +12405,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="17" t="s">
         <v>624</v>
       </c>
@@ -12381,7 +12441,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
         <v>625</v>
       </c>
@@ -12417,7 +12477,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
         <v>626</v>
       </c>
@@ -12453,7 +12513,7 @@
       <c r="M105" s="7"/>
       <c r="N105" s="7"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
         <v>641</v>
       </c>
@@ -12489,7 +12549,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans